--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2AE9A-5BF2-4B45-8F73-5FEC081A23A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53109FA-0C19-4C85-91A5-FC0798B21798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="330" windowWidth="16695" windowHeight="15000" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="14625" yWindow="1230" windowWidth="13830" windowHeight="13500" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <author>tc={0E3DC74B-1EA6-4DE1-9FC1-22223C626216}</author>
     <author>tc={BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}</author>
     <author>tc={8C543166-7E6A-448B-B7E3-720F51E35135}</author>
+    <author>tc={37B1D132-4F99-4BFA-B9DE-FA9D39796D75}</author>
   </authors>
   <commentList>
     <comment ref="N25" authorId="0" shapeId="0" xr:uid="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
@@ -67,6 +68,14 @@
     Q122 guidance: 28-30B</t>
       </text>
     </comment>
+    <comment ref="Q25" authorId="3" shapeId="0" xr:uid="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q222 guidance: 26-28.5B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -438,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -472,6 +481,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -559,16 +574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -583,8 +598,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9324975" y="57150"/>
-          <a:ext cx="0" cy="6962775"/>
+          <a:off x="10153650" y="180975"/>
+          <a:ext cx="0" cy="18459450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -972,6 +987,9 @@
   <threadedComment ref="P25" dT="2022-06-11T18:28:26.10" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{8C543166-7E6A-448B-B7E3-720F51E35135}">
     <text>Q122 guidance: 28-30B</text>
   </threadedComment>
+  <threadedComment ref="Q25" dT="2022-07-27T23:03:53.04" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
+    <text>Q222 guidance: 26-28.5B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -979,9 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1151,11 +1167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
   <dimension ref="A1:CS91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1340,9 @@
       <c r="O3" s="6">
         <v>2870</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6">
+        <v>2880</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1366,7 +1384,9 @@
       <c r="O4" s="6">
         <v>3640</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6">
+        <v>3650</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -1408,7 +1428,9 @@
       <c r="O5" s="6">
         <v>1960</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="6">
+        <v>1970</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1492,7 +1514,9 @@
       <c r="O7" s="6">
         <v>2936</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6">
+        <v>2930</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -2103,8 +2127,13 @@
       <c r="O22" s="6">
         <v>215</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="P22" s="6">
+        <v>218</v>
+      </c>
+      <c r="Q22" s="6">
+        <f>+P22</f>
+        <v>218</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -2148,8 +2177,13 @@
       <c r="O23" s="6">
         <v>695</v>
       </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="P23" s="6">
+        <v>452</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>+P23-50</f>
+        <v>402</v>
+      </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2208,8 +2242,13 @@
         <f t="shared" si="8"/>
         <v>26998</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="P24" s="6">
+        <v>28152</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>+M24*0.95</f>
+        <v>26862.199999999997</v>
+      </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -2263,10 +2302,12 @@
         <v>27908</v>
       </c>
       <c r="P25" s="8">
-        <v>29000</v>
+        <f>SUM(P22:P24)</f>
+        <v>28822</v>
       </c>
       <c r="Q25" s="8">
-        <v>29500</v>
+        <f>SUM(Q22:Q24)</f>
+        <v>27482.199999999997</v>
       </c>
       <c r="R25" s="8">
         <v>34500</v>
@@ -2288,39 +2329,39 @@
       </c>
       <c r="AG25" s="7">
         <f>SUM(O25:R25)</f>
-        <v>120908</v>
+        <v>118712.2</v>
       </c>
       <c r="AH25" s="7">
         <f>+AG25*1.03</f>
-        <v>124535.24</v>
+        <v>122273.56600000001</v>
       </c>
       <c r="AI25" s="7">
         <f t="shared" ref="AI25:AO25" si="10">+AH25*1.03</f>
-        <v>128271.29720000002</v>
+        <v>125941.77298000001</v>
       </c>
       <c r="AJ25" s="7">
         <f t="shared" si="10"/>
-        <v>132119.43611600003</v>
+        <v>129720.02616940001</v>
       </c>
       <c r="AK25" s="7">
         <f t="shared" si="10"/>
-        <v>136083.01919948004</v>
+        <v>133611.62695448202</v>
       </c>
       <c r="AL25" s="7">
         <f t="shared" si="10"/>
-        <v>140165.50977546445</v>
+        <v>137619.9757631165</v>
       </c>
       <c r="AM25" s="7">
         <f t="shared" si="10"/>
-        <v>144370.47506872838</v>
+        <v>141748.57503601001</v>
       </c>
       <c r="AN25" s="7">
         <f t="shared" si="10"/>
-        <v>148701.58932079023</v>
+        <v>146001.03228709032</v>
       </c>
       <c r="AO25" s="7">
         <f t="shared" si="10"/>
-        <v>153162.63700041393</v>
+        <v>150381.06325570302</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2359,12 +2400,11 @@
         <v>6005</v>
       </c>
       <c r="P26" s="6">
-        <f>+P25-P27</f>
-        <v>6380</v>
+        <v>5192</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" ref="Q26:R26" si="11">+Q25-Q27</f>
-        <v>6490</v>
+        <v>6046.0839999999989</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="11"/>
@@ -2381,39 +2421,39 @@
       </c>
       <c r="AG26" s="3">
         <f>+AG25-AG27</f>
-        <v>22972.51999999999</v>
+        <v>22555.317999999999</v>
       </c>
       <c r="AH26" s="3">
         <f t="shared" ref="AH26:AO26" si="12">+AH25-AH27</f>
-        <v>23661.695599999992</v>
+        <v>23231.977539999993</v>
       </c>
       <c r="AI26" s="3">
         <f t="shared" si="12"/>
-        <v>24371.546468</v>
+        <v>23928.936866199991</v>
       </c>
       <c r="AJ26" s="3">
         <f t="shared" si="12"/>
-        <v>25102.692862039999</v>
+        <v>24646.804972186001</v>
       </c>
       <c r="AK26" s="3">
         <f t="shared" si="12"/>
-        <v>25855.773647901195</v>
+        <v>25386.209121351581</v>
       </c>
       <c r="AL26" s="3">
         <f t="shared" si="12"/>
-        <v>26631.446857338233</v>
+        <v>26147.795394992121</v>
       </c>
       <c r="AM26" s="3">
         <f t="shared" si="12"/>
-        <v>27430.390263058391</v>
+        <v>26932.229256841892</v>
       </c>
       <c r="AN26" s="3">
         <f t="shared" si="12"/>
-        <v>28253.301970950139</v>
+        <v>27740.19613454715</v>
       </c>
       <c r="AO26" s="3">
         <f t="shared" si="12"/>
-        <v>29100.901030078632</v>
+        <v>28572.402018583569</v>
       </c>
     </row>
     <row r="27" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2461,12 +2501,12 @@
         <v>21903</v>
       </c>
       <c r="P27" s="6">
-        <f>+P25*0.78</f>
-        <v>22620</v>
+        <f>+P25-P26</f>
+        <v>23630</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" ref="Q27:R27" si="15">+Q25*0.78</f>
-        <v>23010</v>
+        <v>21436.115999999998</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="15"/>
@@ -2485,39 +2525,39 @@
       </c>
       <c r="AG27" s="3">
         <f>+AG25*0.81</f>
-        <v>97935.48000000001</v>
+        <v>96156.881999999998</v>
       </c>
       <c r="AH27" s="3">
         <f t="shared" ref="AH27:AO27" si="17">+AH25*0.81</f>
-        <v>100873.54440000001</v>
+        <v>99041.588460000014</v>
       </c>
       <c r="AI27" s="3">
         <f t="shared" si="17"/>
-        <v>103899.75073200001</v>
+        <v>102012.83611380002</v>
       </c>
       <c r="AJ27" s="3">
         <f t="shared" si="17"/>
-        <v>107016.74325396003</v>
+        <v>105073.22119721401</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" si="17"/>
-        <v>110227.24555157885</v>
+        <v>108225.41783313044</v>
       </c>
       <c r="AL27" s="3">
         <f t="shared" si="17"/>
-        <v>113534.06291812622</v>
+        <v>111472.18036812438</v>
       </c>
       <c r="AM27" s="3">
         <f t="shared" si="17"/>
-        <v>116940.08480566999</v>
+        <v>114816.34577916811</v>
       </c>
       <c r="AN27" s="3">
         <f t="shared" si="17"/>
-        <v>120448.28734984009</v>
+        <v>118260.83615254317</v>
       </c>
       <c r="AO27" s="3">
         <f t="shared" si="17"/>
-        <v>124061.7359703353</v>
+        <v>121808.66123711945</v>
       </c>
     </row>
     <row r="28" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2556,16 +2596,15 @@
         <v>7707</v>
       </c>
       <c r="P28" s="6">
-        <f>+O28-50</f>
-        <v>7657</v>
+        <v>8690</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" ref="Q28:R28" si="18">+P28-50</f>
-        <v>7607</v>
+        <v>8640</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="18"/>
-        <v>7557</v>
+        <v>8590</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -2649,8 +2688,7 @@
         <v>3312</v>
       </c>
       <c r="P29" s="6">
-        <f>+L29</f>
-        <v>3259</v>
+        <v>3595</v>
       </c>
       <c r="Q29" s="6">
         <f>+M29</f>
@@ -2742,11 +2780,10 @@
         <v>2360</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" ref="P30:Q30" si="22">+L30</f>
-        <v>1956</v>
+        <v>2987</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="P30:Q30" si="22">+M30</f>
         <v>2946</v>
       </c>
       <c r="R30" s="6">
@@ -2845,15 +2882,15 @@
       </c>
       <c r="P31" s="6">
         <f t="shared" ref="P31:R31" si="30">+P30+P29+P28</f>
-        <v>12872</v>
+        <v>15272</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="30"/>
-        <v>14107</v>
+        <v>15140</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="30"/>
-        <v>15249</v>
+        <v>16282</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -2949,15 +2986,15 @@
       </c>
       <c r="P32" s="6">
         <f t="shared" ref="P32:R32" si="46">+P27-P31</f>
-        <v>9748</v>
+        <v>8358</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="46"/>
-        <v>8903</v>
+        <v>6296.1159999999982</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="46"/>
-        <v>11661</v>
+        <v>10628</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -2972,39 +3009,39 @@
       </c>
       <c r="AG32" s="3">
         <f t="shared" ref="AG32" si="48">AG27-AG31</f>
-        <v>51873.98000000001</v>
+        <v>50095.381999999998</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" ref="AH32" si="49">AH27-AH31</f>
-        <v>57030.994400000011</v>
+        <v>55199.038460000011</v>
       </c>
       <c r="AI32" s="3">
         <f t="shared" ref="AI32" si="50">AI27-AI31</f>
-        <v>62054.25573200002</v>
+        <v>60167.341113800023</v>
       </c>
       <c r="AJ32" s="3">
         <f t="shared" ref="AJ32" si="51">AJ27-AJ31</f>
-        <v>66968.597753960028</v>
+        <v>65025.075697214008</v>
       </c>
       <c r="AK32" s="3">
         <f t="shared" ref="AK32" si="52">AK27-AK31</f>
-        <v>71796.714601578846</v>
+        <v>69794.886883130443</v>
       </c>
       <c r="AL32" s="3">
         <f t="shared" ref="AL32" si="53">AL27-AL31</f>
-        <v>76559.385063126218</v>
+        <v>74497.502513124375</v>
       </c>
       <c r="AM32" s="3">
         <f t="shared" ref="AM32" si="54">AM27-AM31</f>
-        <v>81275.674736169996</v>
+        <v>79151.93570966812</v>
       </c>
       <c r="AN32" s="3">
         <f t="shared" ref="AN32" si="55">AN27-AN31</f>
-        <v>85963.118287290097</v>
+        <v>83775.667089993163</v>
       </c>
       <c r="AO32" s="3">
         <f t="shared" ref="AO32" si="56">AO27-AO31</f>
-        <v>90637.88381404031</v>
+        <v>88384.80908082446</v>
       </c>
     </row>
     <row r="33" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3043,16 +3080,15 @@
         <v>384</v>
       </c>
       <c r="P33" s="6">
-        <f>+O33</f>
-        <v>384</v>
+        <v>-172</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" ref="Q33:R33" si="57">+P33</f>
-        <v>384</v>
+        <v>-172</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="57"/>
-        <v>384</v>
+        <v>-172</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -3065,35 +3101,35 @@
       </c>
       <c r="AH33" s="3">
         <f>+AG49*$AT$49</f>
-        <v>761.50839999999994</v>
+        <v>604.54893960000004</v>
       </c>
       <c r="AI33" s="3">
         <f t="shared" ref="AI33:AO33" si="58">+AH49*$AT$49</f>
-        <v>1235.4069229600002</v>
+        <v>1062.1383562767201</v>
       </c>
       <c r="AJ33" s="3">
         <f t="shared" si="58"/>
-        <v>1754.3821567306722</v>
+        <v>1564.2200879313496</v>
       </c>
       <c r="AK33" s="3">
         <f t="shared" si="58"/>
-        <v>2317.9105919983363</v>
+        <v>2110.2523133695413</v>
       </c>
       <c r="AL33" s="3">
         <f t="shared" si="58"/>
-        <v>2925.650518585669</v>
+        <v>2699.8744547808415</v>
       </c>
       <c r="AM33" s="3">
         <f t="shared" si="58"/>
-        <v>3577.4278103557062</v>
+        <v>3332.8929459176643</v>
       </c>
       <c r="AN33" s="3">
         <f t="shared" si="58"/>
-        <v>4273.2232512372166</v>
+        <v>4009.2685408934676</v>
       </c>
       <c r="AO33" s="3">
         <f t="shared" si="58"/>
-        <v>5013.161251853141</v>
+        <v>4729.1050130667381</v>
       </c>
     </row>
     <row r="34" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3142,15 +3178,15 @@
       </c>
       <c r="P34" s="6">
         <f t="shared" ref="P34:R34" si="60">+P32+P33</f>
-        <v>10132</v>
+        <v>8186</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="60"/>
-        <v>9287</v>
+        <v>6124.1159999999982</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="60"/>
-        <v>12045</v>
+        <v>10456</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -3165,39 +3201,39 @@
       </c>
       <c r="AG34" s="3">
         <f t="shared" ref="AG34" si="62">+AG32+AG33</f>
-        <v>51873.98000000001</v>
+        <v>50095.381999999998</v>
       </c>
       <c r="AH34" s="3">
         <f t="shared" ref="AH34" si="63">+AH32+AH33</f>
-        <v>57792.502800000009</v>
+        <v>55803.587399600008</v>
       </c>
       <c r="AI34" s="3">
         <f t="shared" ref="AI34" si="64">+AI32+AI33</f>
-        <v>63289.662654960019</v>
+        <v>61229.479470076745</v>
       </c>
       <c r="AJ34" s="3">
         <f t="shared" ref="AJ34" si="65">+AJ32+AJ33</f>
-        <v>68722.979910690701</v>
+        <v>66589.295785145354</v>
       </c>
       <c r="AK34" s="3">
         <f t="shared" ref="AK34" si="66">+AK32+AK33</f>
-        <v>74114.625193577187</v>
+        <v>71905.139196499978</v>
       </c>
       <c r="AL34" s="3">
         <f t="shared" ref="AL34" si="67">+AL32+AL33</f>
-        <v>79485.035581711883</v>
+        <v>77197.37696790522</v>
       </c>
       <c r="AM34" s="3">
         <f t="shared" ref="AM34" si="68">+AM32+AM33</f>
-        <v>84853.102546525697</v>
+        <v>82484.828655585778</v>
       </c>
       <c r="AN34" s="3">
         <f t="shared" ref="AN34" si="69">+AN32+AN33</f>
-        <v>90236.341538527311</v>
+        <v>87784.935630886626</v>
       </c>
       <c r="AO34" s="3">
         <f t="shared" ref="AO34" si="70">+AO32+AO33</f>
-        <v>95651.045065893457</v>
+        <v>93113.914093891202</v>
       </c>
     </row>
     <row r="35" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3236,16 +3272,15 @@
         <v>1443</v>
       </c>
       <c r="P35" s="6">
-        <f>+P34*0.19</f>
-        <v>1925.08</v>
+        <v>1499</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" ref="Q35:R35" si="71">+Q34*0.19</f>
-        <v>1764.53</v>
+        <v>1163.5820399999998</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="71"/>
-        <v>2288.5500000000002</v>
+        <v>1986.64</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -3258,39 +3293,39 @@
       </c>
       <c r="AG35" s="3">
         <f>+AG34*0.18</f>
-        <v>9337.3164000000015</v>
+        <v>9017.1687599999987</v>
       </c>
       <c r="AH35" s="3">
         <f t="shared" ref="AH35:AO35" si="72">+AH34*0.18</f>
-        <v>10402.650504000001</v>
+        <v>10044.645731928002</v>
       </c>
       <c r="AI35" s="3">
         <f t="shared" si="72"/>
-        <v>11392.139277892802</v>
+        <v>11021.306304613814</v>
       </c>
       <c r="AJ35" s="3">
         <f t="shared" si="72"/>
-        <v>12370.136383924326</v>
+        <v>11986.073241326163</v>
       </c>
       <c r="AK35" s="3">
         <f t="shared" si="72"/>
-        <v>13340.632534843893</v>
+        <v>12942.925055369995</v>
       </c>
       <c r="AL35" s="3">
         <f t="shared" si="72"/>
-        <v>14307.306404708139</v>
+        <v>13895.527854222939</v>
       </c>
       <c r="AM35" s="3">
         <f t="shared" si="72"/>
-        <v>15273.558458374624</v>
+        <v>14847.26915800544</v>
       </c>
       <c r="AN35" s="3">
         <f t="shared" si="72"/>
-        <v>16242.541476934915</v>
+        <v>15801.288413559592</v>
       </c>
       <c r="AO35" s="3">
         <f t="shared" si="72"/>
-        <v>17217.188111860822</v>
+        <v>16760.504536900415</v>
       </c>
     </row>
     <row r="36" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3339,15 +3374,15 @@
       </c>
       <c r="P36" s="6">
         <f t="shared" ref="P36:R36" si="75">+P34-P35</f>
-        <v>8206.92</v>
+        <v>6687</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="75"/>
-        <v>7522.47</v>
+        <v>4960.5339599999988</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" si="75"/>
-        <v>9756.4500000000007</v>
+        <v>8469.36</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -3362,263 +3397,263 @@
       </c>
       <c r="AG36" s="3">
         <f t="shared" ref="AG36" si="77">+AG34-AG35</f>
-        <v>42536.663600000007</v>
+        <v>41078.213239999997</v>
       </c>
       <c r="AH36" s="3">
         <f t="shared" ref="AH36" si="78">+AH34-AH35</f>
-        <v>47389.852296000012</v>
+        <v>45758.941667672007</v>
       </c>
       <c r="AI36" s="3">
         <f t="shared" ref="AI36" si="79">+AI34-AI35</f>
-        <v>51897.52337706722</v>
+        <v>50208.173165462933</v>
       </c>
       <c r="AJ36" s="3">
         <f t="shared" ref="AJ36" si="80">+AJ34-AJ35</f>
-        <v>56352.843526766374</v>
+        <v>54603.222543819189</v>
       </c>
       <c r="AK36" s="3">
         <f t="shared" ref="AK36" si="81">+AK34-AK35</f>
-        <v>60773.992658733296</v>
+        <v>58962.214141129982</v>
       </c>
       <c r="AL36" s="3">
         <f t="shared" ref="AL36" si="82">+AL34-AL35</f>
-        <v>65177.729177003741</v>
+        <v>63301.849113682285</v>
       </c>
       <c r="AM36" s="3">
         <f t="shared" ref="AM36" si="83">+AM34-AM35</f>
-        <v>69579.544088151073</v>
+        <v>67637.55949758034</v>
       </c>
       <c r="AN36" s="3">
         <f t="shared" ref="AN36" si="84">+AN34-AN35</f>
-        <v>73993.800061592396</v>
+        <v>71983.64721732703</v>
       </c>
       <c r="AO36" s="3">
         <f t="shared" ref="AO36" si="85">+AO34-AO35</f>
-        <v>78433.856954032643</v>
+        <v>76353.40955699078</v>
       </c>
       <c r="AP36" s="3">
         <f>+AO36*(1+$AT$48)</f>
-        <v>74512.164106331009</v>
+        <v>72535.739079141233</v>
       </c>
       <c r="AQ36" s="3">
         <f t="shared" ref="AQ36:CS36" si="86">+AP36*(1+$AT$48)</f>
-        <v>70786.55590101445</v>
+        <v>68908.952125184165</v>
       </c>
       <c r="AR36" s="3">
         <f t="shared" si="86"/>
-        <v>67247.228105963717</v>
+        <v>65463.50451892495</v>
       </c>
       <c r="AS36" s="3">
         <f t="shared" si="86"/>
-        <v>63884.866700665531</v>
+        <v>62190.329292978699</v>
       </c>
       <c r="AT36" s="3">
         <f t="shared" si="86"/>
-        <v>60690.623365632251</v>
+        <v>59080.812828329763</v>
       </c>
       <c r="AU36" s="3">
         <f t="shared" si="86"/>
-        <v>57656.092197350634</v>
+        <v>56126.772186913273</v>
       </c>
       <c r="AV36" s="3">
         <f t="shared" si="86"/>
-        <v>54773.287587483101</v>
+        <v>53320.433577567608</v>
       </c>
       <c r="AW36" s="3">
         <f t="shared" si="86"/>
-        <v>52034.62320810894</v>
+        <v>50654.411898689228</v>
       </c>
       <c r="AX36" s="3">
         <f t="shared" si="86"/>
-        <v>49432.892047703492</v>
+        <v>48121.691303754764</v>
       </c>
       <c r="AY36" s="3">
         <f t="shared" si="86"/>
-        <v>46961.247445318317</v>
+        <v>45715.606738567025</v>
       </c>
       <c r="AZ36" s="3">
         <f t="shared" si="86"/>
-        <v>44613.185073052402</v>
+        <v>43429.826401638675</v>
       </c>
       <c r="BA36" s="3">
         <f t="shared" si="86"/>
-        <v>42382.52581939978</v>
+        <v>41258.335081556739</v>
       </c>
       <c r="BB36" s="3">
         <f t="shared" si="86"/>
-        <v>40263.399528429785</v>
+        <v>39195.418327478903</v>
       </c>
       <c r="BC36" s="3">
         <f t="shared" si="86"/>
-        <v>38250.229552008292</v>
+        <v>37235.647411104954</v>
       </c>
       <c r="BD36" s="3">
         <f t="shared" si="86"/>
-        <v>36337.718074407872</v>
+        <v>35373.865040549703</v>
       </c>
       <c r="BE36" s="3">
         <f t="shared" si="86"/>
-        <v>34520.832170687478</v>
+        <v>33605.171788522217</v>
       </c>
       <c r="BF36" s="3">
         <f t="shared" si="86"/>
-        <v>32794.790562153103</v>
+        <v>31924.913199096103</v>
       </c>
       <c r="BG36" s="3">
         <f t="shared" si="86"/>
-        <v>31155.051034045446</v>
+        <v>30328.667539141297</v>
       </c>
       <c r="BH36" s="3">
         <f t="shared" si="86"/>
-        <v>29597.298482343173</v>
+        <v>28812.234162184232</v>
       </c>
       <c r="BI36" s="3">
         <f t="shared" si="86"/>
-        <v>28117.433558226014</v>
+        <v>27371.622454075019</v>
       </c>
       <c r="BJ36" s="3">
         <f t="shared" si="86"/>
-        <v>26711.561880314712</v>
+        <v>26003.041331371267</v>
       </c>
       <c r="BK36" s="3">
         <f t="shared" si="86"/>
-        <v>25375.983786298973</v>
+        <v>24702.889264802703</v>
       </c>
       <c r="BL36" s="3">
         <f t="shared" si="86"/>
-        <v>24107.184596984025</v>
+        <v>23467.744801562567</v>
       </c>
       <c r="BM36" s="3">
         <f t="shared" si="86"/>
-        <v>22901.825367134821</v>
+        <v>22294.357561484438</v>
       </c>
       <c r="BN36" s="3">
         <f t="shared" si="86"/>
-        <v>21756.734098778081</v>
+        <v>21179.639683410216</v>
       </c>
       <c r="BO36" s="3">
         <f t="shared" si="86"/>
-        <v>20668.897393839175</v>
+        <v>20120.657699239706</v>
       </c>
       <c r="BP36" s="3">
         <f t="shared" si="86"/>
-        <v>19635.452524147215</v>
+        <v>19114.624814277719</v>
       </c>
       <c r="BQ36" s="3">
         <f t="shared" si="86"/>
-        <v>18653.679897939852</v>
+        <v>18158.893573563833</v>
       </c>
       <c r="BR36" s="3">
         <f t="shared" si="86"/>
-        <v>17720.995903042858</v>
+        <v>17250.948894885641</v>
       </c>
       <c r="BS36" s="3">
         <f t="shared" si="86"/>
-        <v>16834.946107890715</v>
+        <v>16388.401450141359</v>
       </c>
       <c r="BT36" s="3">
         <f t="shared" si="86"/>
-        <v>15993.198802496179</v>
+        <v>15568.981377634289</v>
       </c>
       <c r="BU36" s="3">
         <f t="shared" si="86"/>
-        <v>15193.53886237137</v>
+        <v>14790.532308752574</v>
       </c>
       <c r="BV36" s="3">
         <f t="shared" si="86"/>
-        <v>14433.8619192528</v>
+        <v>14051.005693314944</v>
       </c>
       <c r="BW36" s="3">
         <f t="shared" si="86"/>
-        <v>13712.16882329016</v>
+        <v>13348.455408649197</v>
       </c>
       <c r="BX36" s="3">
         <f t="shared" si="86"/>
-        <v>13026.560382125652</v>
+        <v>12681.032638216737</v>
       </c>
       <c r="BY36" s="3">
         <f t="shared" si="86"/>
-        <v>12375.232363019368</v>
+        <v>12046.981006305899</v>
       </c>
       <c r="BZ36" s="3">
         <f t="shared" si="86"/>
-        <v>11756.470744868398</v>
+        <v>11444.631955990604</v>
       </c>
       <c r="CA36" s="3">
         <f t="shared" si="86"/>
-        <v>11168.647207624977</v>
+        <v>10872.400358191073</v>
       </c>
       <c r="CB36" s="3">
         <f t="shared" si="86"/>
-        <v>10610.214847243727</v>
+        <v>10328.780340281519</v>
       </c>
       <c r="CC36" s="3">
         <f t="shared" si="86"/>
-        <v>10079.704104881541</v>
+        <v>9812.3413232674429</v>
       </c>
       <c r="CD36" s="3">
         <f t="shared" si="86"/>
-        <v>9575.7188996374625</v>
+        <v>9321.7242571040697</v>
       </c>
       <c r="CE36" s="3">
         <f t="shared" si="86"/>
-        <v>9096.9329546555891</v>
+        <v>8855.6380442488662</v>
       </c>
       <c r="CF36" s="3">
         <f t="shared" si="86"/>
-        <v>8642.0863069228089</v>
+        <v>8412.8561420364222</v>
       </c>
       <c r="CG36" s="3">
         <f t="shared" si="86"/>
-        <v>8209.9819915766675</v>
+        <v>7992.2133349346004</v>
       </c>
       <c r="CH36" s="3">
         <f t="shared" si="86"/>
-        <v>7799.4828919978336</v>
+        <v>7592.6026681878702</v>
       </c>
       <c r="CI36" s="3">
         <f t="shared" si="86"/>
-        <v>7409.508747397942</v>
+        <v>7212.9725347784761</v>
       </c>
       <c r="CJ36" s="3">
         <f t="shared" si="86"/>
-        <v>7039.033310028045</v>
+        <v>6852.3239080395515</v>
       </c>
       <c r="CK36" s="3">
         <f t="shared" si="86"/>
-        <v>6687.0816445266428</v>
+        <v>6509.7077126375734</v>
       </c>
       <c r="CL36" s="3">
         <f t="shared" si="86"/>
-        <v>6352.7275623003106</v>
+        <v>6184.2223270056948</v>
       </c>
       <c r="CM36" s="3">
         <f t="shared" si="86"/>
-        <v>6035.0911841852949</v>
+        <v>5875.0112106554097</v>
       </c>
       <c r="CN36" s="3">
         <f t="shared" si="86"/>
-        <v>5733.3366249760302</v>
+        <v>5581.2606501226392</v>
       </c>
       <c r="CO36" s="3">
         <f t="shared" si="86"/>
-        <v>5446.6697937272284</v>
+        <v>5302.1976176165072</v>
       </c>
       <c r="CP36" s="3">
         <f t="shared" si="86"/>
-        <v>5174.3363040408667</v>
+        <v>5037.0877367356816</v>
       </c>
       <c r="CQ36" s="3">
         <f t="shared" si="86"/>
-        <v>4915.6194888388227</v>
+        <v>4785.2333498988974</v>
       </c>
       <c r="CR36" s="3">
         <f t="shared" si="86"/>
-        <v>4669.8385143968817</v>
+        <v>4545.9716824039524</v>
       </c>
       <c r="CS36" s="3">
         <f t="shared" si="86"/>
-        <v>4436.3465886770373</v>
+        <v>4318.6730982837544</v>
       </c>
     </row>
     <row r="37" spans="2:97" x14ac:dyDescent="0.2">
@@ -3663,15 +3698,15 @@
       </c>
       <c r="P37" s="9">
         <f t="shared" ref="P37:R37" si="89">+P36/P38</f>
-        <v>2.9930415754923412</v>
+        <v>2.4647991153704387</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="89"/>
-        <v>2.7434245076586432</v>
+        <v>1.8284312421673421</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="89"/>
-        <v>3.5581509846827135</v>
+        <v>3.1217692591227424</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -3686,39 +3721,39 @@
       </c>
       <c r="AG37" s="17">
         <f t="shared" ref="AG37" si="91">+AG36/AG38</f>
-        <v>15.513006418672504</v>
+        <v>15.10089632938149</v>
       </c>
       <c r="AH37" s="17">
         <f t="shared" ref="AH37" si="92">+AH36/AH38</f>
-        <v>17.282951238512041</v>
+        <v>16.821594216587449</v>
       </c>
       <c r="AI37" s="17">
         <f t="shared" ref="AI37" si="93">+AI36/AI38</f>
-        <v>18.92688671665471</v>
+        <v>18.457190760210619</v>
       </c>
       <c r="AJ37" s="17">
         <f t="shared" ref="AJ37" si="94">+AJ36/AJ38</f>
-        <v>20.551729951410056</v>
+        <v>20.072869237687414</v>
       </c>
       <c r="AK37" s="17">
         <f t="shared" ref="AK37" si="95">+AK36/AK38</f>
-        <v>22.164111108217831</v>
+        <v>21.675292396334889</v>
       </c>
       <c r="AL37" s="17">
         <f t="shared" ref="AL37" si="96">+AL36/AL38</f>
-        <v>23.770141931802968</v>
+        <v>23.27059980284249</v>
       </c>
       <c r="AM37" s="17">
         <f t="shared" ref="AM37" si="97">+AM36/AM38</f>
-        <v>25.375471950456262</v>
+        <v>24.864464478478205</v>
       </c>
       <c r="AN37" s="17">
         <f t="shared" ref="AN37" si="98">+AN36/AN38</f>
-        <v>26.985339190952732</v>
+        <v>26.462144000487832</v>
       </c>
       <c r="AO37" s="17">
         <f t="shared" ref="AO37" si="99">+AO36/AO38</f>
-        <v>28.604615956977621</v>
+        <v>28.068526626961045</v>
       </c>
     </row>
     <row r="38" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3757,16 +3792,15 @@
         <v>2742</v>
       </c>
       <c r="P38" s="6">
-        <f>+O38</f>
-        <v>2742</v>
+        <v>2713</v>
       </c>
       <c r="Q38" s="6">
         <f>+P38</f>
-        <v>2742</v>
+        <v>2713</v>
       </c>
       <c r="R38" s="6">
         <f>+Q38</f>
-        <v>2742</v>
+        <v>2713</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -3779,39 +3813,39 @@
       </c>
       <c r="AG38" s="3">
         <f>AVERAGE(O38:R38)</f>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AH38" s="3">
         <f t="shared" ref="AH38:AO38" si="100">+AG38</f>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AI38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AJ38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AK38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AL38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AM38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AN38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
       <c r="AO38" s="3">
         <f t="shared" si="100"/>
-        <v>2742</v>
+        <v>2720.25</v>
       </c>
     </row>
     <row r="39" spans="2:97" x14ac:dyDescent="0.2">
@@ -3851,11 +3885,11 @@
       </c>
       <c r="P40" s="11">
         <f t="shared" ref="P40:R40" si="103">+P25/L25-1</f>
-        <v>-2.6481411424837953E-3</v>
+        <v>-8.7698180692643568E-3</v>
       </c>
       <c r="Q40" s="11">
         <f t="shared" si="103"/>
-        <v>1.6890727335401534E-2</v>
+        <v>-5.2664598414340014E-2</v>
       </c>
       <c r="R40" s="11">
         <f t="shared" si="103"/>
@@ -3870,7 +3904,7 @@
       </c>
       <c r="AG40" s="18">
         <f>+AG25/AF25-1</f>
-        <v>2.5260962104316942E-2</v>
+        <v>6.6412841625045349E-3</v>
       </c>
       <c r="AH40" s="18">
         <f t="shared" ref="AH40:AO40" si="104">+AH25/AG25-1</f>
@@ -3963,8 +3997,10 @@
       <c r="O42" s="10">
         <v>0.15</v>
       </c>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="P42" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="Q42" s="10"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -3989,8 +4025,10 @@
       <c r="O43" s="10">
         <v>-0.08</v>
       </c>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
+      <c r="P43" s="10">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q43" s="10"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -4019,8 +4057,14 @@
         <f>+O23/K23-1</f>
         <v>0.30149812734082393</v>
       </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="10">
+        <f>+P23/L23-1</f>
+        <v>0.4819672131147541</v>
+      </c>
+      <c r="Q44" s="10">
+        <f>+Q23/M23-1</f>
+        <v>-0.27956989247311825</v>
+      </c>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -4101,7 +4145,7 @@
       </c>
       <c r="P46" s="10">
         <f t="shared" ref="P46:R46" si="110">+P27/P25</f>
-        <v>0.78</v>
+        <v>0.81985982929706469</v>
       </c>
       <c r="Q46" s="10">
         <f t="shared" si="110"/>
@@ -4163,7 +4207,7 @@
       </c>
       <c r="AT46" s="3">
         <f>NPV(AT47,AH36:CS36)</f>
-        <v>902018.72973407258</v>
+        <v>876847.61526115821</v>
       </c>
     </row>
     <row r="47" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4206,11 +4250,11 @@
       </c>
       <c r="P47" s="10">
         <f t="shared" si="113"/>
-        <v>0.19</v>
+        <v>0.18311751771316884</v>
       </c>
       <c r="Q47" s="10">
         <f t="shared" si="113"/>
-        <v>0.19</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="R47" s="10">
         <f t="shared" si="113"/>
@@ -4237,7 +4281,7 @@
       </c>
       <c r="AI47" s="19">
         <f t="shared" si="115"/>
-        <v>0.17999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="115"/>
@@ -4296,16 +4340,16 @@
         <v>50665</v>
       </c>
       <c r="P49" s="6">
-        <f>+O49+P36</f>
-        <v>58871.92</v>
+        <f>12681+27808+6536</f>
+        <v>47025</v>
       </c>
       <c r="Q49" s="6">
         <f t="shared" ref="Q49:R49" si="116">+P49+Q36</f>
-        <v>66394.39</v>
+        <v>51985.533960000001</v>
       </c>
       <c r="R49" s="6">
         <f t="shared" si="116"/>
-        <v>76150.84</v>
+        <v>60454.893960000001</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -4316,39 +4360,39 @@
       </c>
       <c r="AG49" s="3">
         <f>+R49</f>
-        <v>76150.84</v>
+        <v>60454.893960000001</v>
       </c>
       <c r="AH49" s="3">
         <f>+AG49+AH36</f>
-        <v>123540.69229600001</v>
+        <v>106213.835627672</v>
       </c>
       <c r="AI49" s="3">
         <f t="shared" ref="AI49:AO49" si="117">+AH49+AI36</f>
-        <v>175438.21567306723</v>
+        <v>156422.00879313494</v>
       </c>
       <c r="AJ49" s="3">
         <f t="shared" si="117"/>
-        <v>231791.0591998336</v>
+        <v>211025.23133695414</v>
       </c>
       <c r="AK49" s="3">
         <f t="shared" si="117"/>
-        <v>292565.05185856688</v>
+        <v>269987.44547808415</v>
       </c>
       <c r="AL49" s="3">
         <f t="shared" si="117"/>
-        <v>357742.7810355706</v>
+        <v>333289.29459176643</v>
       </c>
       <c r="AM49" s="3">
         <f t="shared" si="117"/>
-        <v>427322.32512372168</v>
+        <v>400926.85408934677</v>
       </c>
       <c r="AN49" s="3">
         <f t="shared" si="117"/>
-        <v>501316.1251853141</v>
+        <v>472910.5013066738</v>
       </c>
       <c r="AO49" s="3">
         <f t="shared" si="117"/>
-        <v>579749.98213934677</v>
+        <v>549263.91086366458</v>
       </c>
       <c r="AS49" t="s">
         <v>112</v>
@@ -4370,12 +4414,15 @@
       <c r="O50" s="6">
         <v>11390</v>
       </c>
+      <c r="P50" s="6">
+        <v>11525</v>
+      </c>
       <c r="AS50" t="s">
         <v>116</v>
       </c>
       <c r="AT50" s="17">
         <f>AT46/Main!M3</f>
-        <v>328.96379640192288</v>
+        <v>319.78395888444868</v>
       </c>
     </row>
     <row r="51" spans="2:46" x14ac:dyDescent="0.2">
@@ -4391,12 +4438,15 @@
       <c r="O51" s="6">
         <v>3985</v>
       </c>
+      <c r="P51" s="6">
+        <v>3973</v>
+      </c>
       <c r="AS51" t="s">
         <v>117</v>
       </c>
       <c r="AT51" s="19">
         <f>AT50/Main!M2-1</f>
-        <v>0.87369024549708318</v>
+        <v>0.82140433379534494</v>
       </c>
     </row>
     <row r="52" spans="2:46" x14ac:dyDescent="0.2">
@@ -4412,6 +4462,9 @@
       <c r="O52" s="6">
         <v>61582</v>
       </c>
+      <c r="P52" s="6">
+        <v>67588</v>
+      </c>
     </row>
     <row r="53" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
@@ -4426,6 +4479,9 @@
       <c r="O53" s="6">
         <v>12241</v>
       </c>
+      <c r="P53" s="6">
+        <v>14130</v>
+      </c>
     </row>
     <row r="54" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -4443,6 +4499,10 @@
         <f>910+19923</f>
         <v>20833</v>
       </c>
+      <c r="P54" s="6">
+        <f>965+20229</f>
+        <v>21194</v>
+      </c>
     </row>
     <row r="55" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
@@ -4457,6 +4517,9 @@
       <c r="O55" s="6">
         <v>3522</v>
       </c>
+      <c r="P55" s="6">
+        <v>4344</v>
+      </c>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
@@ -4474,6 +4537,10 @@
         <f>SUM(O49:O55)</f>
         <v>164218</v>
       </c>
+      <c r="P56" s="6">
+        <f>SUM(P49:P55)</f>
+        <v>169779</v>
+      </c>
     </row>
     <row r="57" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O57" s="6"/>
@@ -4491,6 +4558,9 @@
       <c r="O58" s="6">
         <v>3246</v>
       </c>
+      <c r="P58" s="6">
+        <v>4008</v>
+      </c>
     </row>
     <row r="59" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -4505,6 +4575,9 @@
       <c r="O59" s="6">
         <v>935</v>
       </c>
+      <c r="P59" s="6">
+        <v>982</v>
+      </c>
     </row>
     <row r="60" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
@@ -4522,6 +4595,10 @@
         <f>1159+12894</f>
         <v>14053</v>
       </c>
+      <c r="P60" s="6">
+        <f>1275+14792</f>
+        <v>16067</v>
+      </c>
     </row>
     <row r="61" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
@@ -4536,6 +4613,9 @@
       <c r="O61" s="6">
         <v>15226</v>
       </c>
+      <c r="P61" s="6">
+        <v>15420</v>
+      </c>
     </row>
     <row r="62" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
@@ -4550,6 +4630,9 @@
       <c r="O62" s="6">
         <v>520</v>
       </c>
+      <c r="P62" s="6">
+        <v>532</v>
+      </c>
     </row>
     <row r="63" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
@@ -4564,6 +4647,9 @@
       <c r="O63" s="6">
         <v>7010</v>
       </c>
+      <c r="P63" s="6">
+        <v>7003</v>
+      </c>
     </row>
     <row r="64" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
@@ -4578,8 +4664,11 @@
       <c r="O64" s="6">
         <v>57512</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="6">
+        <v>59929</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>63</v>
       </c>
@@ -4592,8 +4681,11 @@
       <c r="O65" s="6">
         <v>-1996</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="6">
+        <v>-3411</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>62</v>
       </c>
@@ -4606,8 +4698,11 @@
       <c r="O66" s="6">
         <v>67712</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="6">
+        <v>69249</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -4616,18 +4711,22 @@
         <v>159316</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" ref="N67" si="121">SUM(N58:N66)</f>
+        <f t="shared" ref="N67:P67" si="121">SUM(N58:N66)</f>
         <v>165987</v>
       </c>
       <c r="O67" s="6">
-        <f>SUM(O58:O66)</f>
+        <f t="shared" si="121"/>
         <v>164218</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="6">
+        <f t="shared" si="121"/>
+        <v>169779</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -4639,8 +4738,12 @@
         <f>O36</f>
         <v>7465</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="6">
+        <f>P36</f>
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -4650,8 +4753,11 @@
       <c r="O70" s="6">
         <v>7465</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="6">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>69</v>
       </c>
@@ -4661,8 +4767,11 @@
       <c r="O71" s="6">
         <v>2156</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="6">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -4672,8 +4781,11 @@
       <c r="O72" s="6">
         <v>2498</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="6">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -4683,8 +4795,11 @@
       <c r="O73" s="6">
         <v>-563</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="6">
+        <v>-453</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>55</v>
       </c>
@@ -4694,8 +4809,11 @@
       <c r="O74" s="6">
         <v>-221</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>72</v>
       </c>
@@ -4707,8 +4825,12 @@
         <f>2557+573-108-882-105+763-52-5</f>
         <v>2741</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="6">
+        <f>-522-435-25+237+73+1180+24-88</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>68</v>
       </c>
@@ -4720,11 +4842,16 @@
         <f>SUM(O70:O75)</f>
         <v>14076</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="6">
+        <f>SUM(P70:P75)</f>
+        <v>12197</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O77" s="6"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>73</v>
       </c>
@@ -4735,8 +4862,12 @@
         <f>-5441+126</f>
         <v>-5315</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="6">
+        <f>-7572+44</f>
+        <v>-7528</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>74</v>
       </c>
@@ -4748,8 +4879,12 @@
         <f>-4068+5065+402-10</f>
         <v>1389</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="6">
+        <f>-2220+2648+511-7</f>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>75</v>
       </c>
@@ -4758,6 +4893,9 @@
       </c>
       <c r="O80" s="6">
         <v>-853</v>
+      </c>
+      <c r="P80" s="6">
+        <v>-363</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.2">
@@ -4772,6 +4910,10 @@
         <f>SUM(O78:O80)</f>
         <v>-4779</v>
       </c>
+      <c r="P81" s="6">
+        <f>SUM(P78:P80)</f>
+        <v>-6959</v>
+      </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O82" s="6"/>
@@ -4785,6 +4927,9 @@
       </c>
       <c r="O83" s="6">
         <v>-925</v>
+      </c>
+      <c r="P83" s="6">
+        <v>-1002</v>
       </c>
     </row>
     <row r="84" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4808,7 +4953,9 @@
       <c r="O84" s="8">
         <v>-9506</v>
       </c>
-      <c r="P84" s="12"/>
+      <c r="P84" s="8">
+        <v>-5233</v>
+      </c>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
@@ -4826,6 +4973,10 @@
         <f>-233+20-16</f>
         <v>-229</v>
       </c>
+      <c r="P85" s="6">
+        <f>-219-79-30</f>
+        <v>-328</v>
+      </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
@@ -4839,6 +4990,10 @@
         <f>SUM(O83:O85)</f>
         <v>-10660</v>
       </c>
+      <c r="P86" s="6">
+        <f>SUM(P83:P85)</f>
+        <v>-6563</v>
+      </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
@@ -4850,6 +5005,9 @@
       <c r="O87" s="6">
         <v>-149</v>
       </c>
+      <c r="P87" s="1">
+        <v>-550</v>
+      </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
@@ -4862,6 +5020,10 @@
       <c r="O88" s="6">
         <f>+O87+O86+O81+O76</f>
         <v>-1512</v>
+      </c>
+      <c r="P88" s="6">
+        <f>+P87+P86+P81+P76</f>
+        <v>-1875</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.2">
@@ -4888,7 +5050,9 @@
       <c r="O90" s="6">
         <v>77805</v>
       </c>
-      <c r="P90" s="6"/>
+      <c r="P90" s="6">
+        <v>83553</v>
+      </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
@@ -4899,6 +5063,10 @@
       <c r="O91" s="6">
         <f>+O90-N90</f>
         <v>5835</v>
+      </c>
+      <c r="P91" s="6">
+        <f>+P90-O90</f>
+        <v>5748</v>
       </c>
     </row>
   </sheetData>

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53109FA-0C19-4C85-91A5-FC0798B21798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC50B14-CF14-4F4E-BD2E-C4340E0D6919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14625" yWindow="1230" windowWidth="13830" windowHeight="13500" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="52185" yWindow="1185" windowWidth="23775" windowHeight="15225" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -371,9 +371,6 @@
     <t>US Revenue y/y</t>
   </si>
   <si>
-    <t>ROW</t>
-  </si>
-  <si>
     <t>Ad Pricing y/y</t>
   </si>
   <si>
@@ -441,13 +438,22 @@
   </si>
   <si>
     <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>ROW Ads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -481,12 +487,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1022,7 +1022,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
@@ -1039,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
@@ -1168,10 +1168,10 @@
   <dimension ref="A1:CS91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AF21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P88" sqref="P88"/>
+      <selection pane="bottomRight" activeCell="AT50" sqref="AT50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1236,10 +1236,16 @@
         <v>23</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="Z2">
         <v>2015</v>
@@ -1429,7 +1435,7 @@
         <v>1960</v>
       </c>
       <c r="P5" s="6">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="6" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1472,7 +1478,9 @@
       <c r="O6" s="6">
         <v>196</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>197</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1515,7 +1523,7 @@
         <v>2936</v>
       </c>
       <c r="P7" s="6">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1525,7 +1533,7 @@
     </row>
     <row r="8" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1558,7 +1566,9 @@
       <c r="O8" s="6">
         <v>263</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6">
+        <v>264</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1588,7 +1598,7 @@
     </row>
     <row r="10" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1630,7 +1640,10 @@
         <f>+O25/O4</f>
         <v>7.6670329670329673</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="9">
+        <f>+P25/P4</f>
+        <v>7.8964383561643832</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1639,7 +1652,7 @@
     </row>
     <row r="11" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1678,7 +1691,10 @@
         <f>AVERAGE(N10:O10)</f>
         <v>8.5230708010652307</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="9">
+        <f>AVERAGE(O10:P10)</f>
+        <v>7.7817356615986757</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1687,7 +1703,7 @@
     </row>
     <row r="12" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1714,7 +1730,10 @@
         <f>O11/K11-1</f>
         <v>5.9262388143700218E-2</v>
       </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="16">
+        <f>P11/L11-1</f>
+        <v>-1.9305255154011935E-2</v>
+      </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
@@ -1765,7 +1784,10 @@
         <f>+O24/O4</f>
         <v>7.4170329670329673</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="9">
+        <f>+P24/P4</f>
+        <v>7.7128767123287671</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1816,7 +1838,10 @@
         <f>+O24/O3</f>
         <v>9.4069686411149824</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="9">
+        <f t="shared" ref="P14" si="6">+P24/P3</f>
+        <v>9.7750000000000004</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1825,7 +1850,7 @@
     </row>
     <row r="15" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1833,38 +1858,41 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9">
-        <f t="shared" ref="H15:N15" si="6">AVERAGE(G14:H14)</f>
+        <f t="shared" ref="H15:N15" si="7">AVERAGE(G14:H14)</f>
         <v>7.4036197076785832</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8860666581657046</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.405631435493639</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9045559954751141</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.8538229965899404</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.208852957862705</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.818373463567299</v>
       </c>
       <c r="O15" s="9">
         <f>AVERAGE(N14:O14)</f>
         <v>10.490541058146142</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="9">
+        <f t="shared" ref="P15" si="8">AVERAGE(O14:P14)</f>
+        <v>9.5909843205574923</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1873,7 +1901,7 @@
     </row>
     <row r="16" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1885,22 +1913,25 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="16">
-        <f t="shared" ref="L16:N16" si="7">L15/H15-1</f>
+        <f t="shared" ref="L16:N16" si="9">L15/H15-1</f>
         <v>0.33094667009573109</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29454307202588104</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15020172093310546</v>
       </c>
       <c r="O16" s="16">
         <f>O15/K15-1</f>
         <v>5.9163183381338413E-2</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="16">
+        <f>P15/L15-1</f>
+        <v>-2.6673776880648981E-2</v>
+      </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -1930,7 +1961,7 @@
     </row>
     <row r="18" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1963,7 +1994,9 @@
       <c r="O18" s="6">
         <v>2949</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="6">
+        <v>3169</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1972,7 +2005,7 @@
     </row>
     <row r="19" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2005,7 +2038,9 @@
       <c r="O19" s="6">
         <v>5661</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="6">
+        <v>5835</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -2014,7 +2049,7 @@
     </row>
     <row r="20" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2047,7 +2082,9 @@
       <c r="O20" s="6">
         <v>6364</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="6">
+        <v>6360</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2056,7 +2093,7 @@
     </row>
     <row r="21" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2089,7 +2126,9 @@
       <c r="O21" s="6">
         <v>12024</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="6">
+        <v>12788</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2134,7 +2173,10 @@
         <f>+P22</f>
         <v>218</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6">
+        <f>+Q22</f>
+        <v>218</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -2184,7 +2226,10 @@
         <f>+P23-50</f>
         <v>402</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="6">
+        <f>+N23+100</f>
+        <v>977</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -2211,45 +2256,49 @@
         <v>17440</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:O24" si="8">SUM(H18:H21)</f>
+        <f t="shared" ref="H24:P24" si="10">SUM(H18:H21)</f>
         <v>18321</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21221</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27187</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25439</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28580</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28276</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32639</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26998</v>
       </c>
       <c r="P24" s="6">
+        <f t="shared" si="10"/>
         <v>28152</v>
       </c>
       <c r="Q24" s="6">
         <f>+M24*0.95</f>
         <v>26862.199999999997</v>
       </c>
-      <c r="R24" s="6"/>
+      <c r="R24" s="6">
+        <f>+N24*1.05</f>
+        <v>34270.950000000004</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -2310,58 +2359,72 @@
         <v>27482.199999999997</v>
       </c>
       <c r="R25" s="8">
-        <v>34500</v>
-      </c>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+        <f>SUM(R22:R24)</f>
+        <v>35465.950000000004</v>
+      </c>
+      <c r="S25" s="8">
+        <f>SUM(S22:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" ref="T25:V25" si="11">SUM(T22:T24)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AD25" s="7">
         <f>SUM(AD22:AD24)</f>
         <v>70697</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" ref="AE25:AF25" si="9">SUM(AE22:AE24)</f>
+        <f t="shared" ref="AE25:AF25" si="12">SUM(AE22:AE24)</f>
         <v>85965</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>117929</v>
       </c>
       <c r="AG25" s="7">
         <f>SUM(O25:R25)</f>
-        <v>118712.2</v>
+        <v>119678.15</v>
       </c>
       <c r="AH25" s="7">
         <f>+AG25*1.03</f>
-        <v>122273.56600000001</v>
+        <v>123268.4945</v>
       </c>
       <c r="AI25" s="7">
-        <f t="shared" ref="AI25:AO25" si="10">+AH25*1.03</f>
-        <v>125941.77298000001</v>
+        <f t="shared" ref="AI25:AO25" si="13">+AH25*1.03</f>
+        <v>126966.549335</v>
       </c>
       <c r="AJ25" s="7">
-        <f t="shared" si="10"/>
-        <v>129720.02616940001</v>
+        <f t="shared" si="13"/>
+        <v>130775.54581505001</v>
       </c>
       <c r="AK25" s="7">
-        <f t="shared" si="10"/>
-        <v>133611.62695448202</v>
+        <f t="shared" si="13"/>
+        <v>134698.81218950151</v>
       </c>
       <c r="AL25" s="7">
-        <f t="shared" si="10"/>
-        <v>137619.9757631165</v>
+        <f t="shared" si="13"/>
+        <v>138739.77655518655</v>
       </c>
       <c r="AM25" s="7">
-        <f t="shared" si="10"/>
-        <v>141748.57503601001</v>
+        <f t="shared" si="13"/>
+        <v>142901.96985184215</v>
       </c>
       <c r="AN25" s="7">
-        <f t="shared" si="10"/>
-        <v>146001.03228709032</v>
+        <f t="shared" si="13"/>
+        <v>147189.02894739743</v>
       </c>
       <c r="AO25" s="7">
-        <f t="shared" si="10"/>
-        <v>150381.06325570302</v>
+        <f t="shared" si="13"/>
+        <v>151604.69981581936</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2403,12 +2466,12 @@
         <v>5192</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" ref="Q26:R26" si="11">+Q25-Q27</f>
-        <v>6046.0839999999989</v>
+        <f t="shared" ref="Q26:R26" si="14">+Q25-Q27</f>
+        <v>5771.2619999999988</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="11"/>
-        <v>7590</v>
+        <f t="shared" si="14"/>
+        <v>7447.8495000000003</v>
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -2421,39 +2484,39 @@
       </c>
       <c r="AG26" s="3">
         <f>+AG25-AG27</f>
-        <v>22555.317999999999</v>
+        <v>22738.848499999993</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" ref="AH26:AO26" si="12">+AH25-AH27</f>
-        <v>23231.977539999993</v>
+        <f t="shared" ref="AH26:AO26" si="15">+AH25-AH27</f>
+        <v>23421.013954999988</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="12"/>
-        <v>23928.936866199991</v>
+        <f t="shared" si="15"/>
+        <v>24123.644373649993</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="12"/>
-        <v>24646.804972186001</v>
+        <f t="shared" si="15"/>
+        <v>24847.353704859488</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="12"/>
-        <v>25386.209121351581</v>
+        <f t="shared" si="15"/>
+        <v>25592.774316005278</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" si="12"/>
-        <v>26147.795394992121</v>
+        <f t="shared" si="15"/>
+        <v>26360.557545485441</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="12"/>
-        <v>26932.229256841892</v>
+        <f t="shared" si="15"/>
+        <v>27151.37427185</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="12"/>
-        <v>27740.19613454715</v>
+        <f t="shared" si="15"/>
+        <v>27965.915500005503</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="12"/>
-        <v>28572.402018583569</v>
+        <f t="shared" si="15"/>
+        <v>28804.892965005667</v>
       </c>
     </row>
     <row r="27" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2465,19 +2528,19 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:J27" si="13">+G25-G26</f>
+        <f t="shared" ref="G27:J27" si="16">+G25-G26</f>
         <v>14278</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14858</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>17276</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>22862</v>
       </c>
       <c r="K27" s="6">
@@ -2485,15 +2548,15 @@
         <v>21040</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:N27" si="14">+L25-L26</f>
+        <f t="shared" ref="L27:N27" si="17">+L25-L26</f>
         <v>23678</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23239</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27323</v>
       </c>
       <c r="O27" s="6">
@@ -2505,12 +2568,12 @@
         <v>23630</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ref="Q27:R27" si="15">+Q25*0.78</f>
-        <v>21436.115999999998</v>
+        <f>+Q25*0.79</f>
+        <v>21710.937999999998</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="15"/>
-        <v>26910</v>
+        <f>+R25*0.79</f>
+        <v>28018.100500000004</v>
       </c>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -2520,44 +2583,44 @@
         <v>69273</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" ref="AF27" si="16">+AF25-AF26</f>
+        <f t="shared" ref="AF27" si="18">+AF25-AF26</f>
         <v>95280</v>
       </c>
       <c r="AG27" s="3">
         <f>+AG25*0.81</f>
-        <v>96156.881999999998</v>
+        <v>96939.301500000001</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" ref="AH27:AO27" si="17">+AH25*0.81</f>
-        <v>99041.588460000014</v>
+        <f t="shared" ref="AH27:AO27" si="19">+AH25*0.81</f>
+        <v>99847.480545000013</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="17"/>
-        <v>102012.83611380002</v>
+        <f t="shared" si="19"/>
+        <v>102842.90496135001</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" si="17"/>
-        <v>105073.22119721401</v>
+        <f t="shared" si="19"/>
+        <v>105928.19211019052</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="17"/>
-        <v>108225.41783313044</v>
+        <f t="shared" si="19"/>
+        <v>109106.03787349623</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" si="17"/>
-        <v>111472.18036812438</v>
+        <f t="shared" si="19"/>
+        <v>112379.2190097011</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" si="17"/>
-        <v>114816.34577916811</v>
+        <f t="shared" si="19"/>
+        <v>115750.59557999215</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="17"/>
-        <v>118260.83615254317</v>
+        <f t="shared" si="19"/>
+        <v>119223.11344739192</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" si="17"/>
-        <v>121808.66123711945</v>
+        <f t="shared" si="19"/>
+        <v>122799.80685081369</v>
       </c>
     </row>
     <row r="28" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2599,11 +2662,11 @@
         <v>8690</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" ref="Q28:R28" si="18">+P28-50</f>
+        <f t="shared" ref="Q28:R28" si="20">+P28-50</f>
         <v>8640</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8590</v>
       </c>
       <c r="S28" s="6"/>
@@ -2620,35 +2683,35 @@
         <v>22189.5</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" ref="AH28:AO28" si="19">+AG28*0.9</f>
+        <f t="shared" ref="AH28:AO28" si="21">+AG28*0.9</f>
         <v>19970.55</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>17973.494999999999</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16176.145499999999</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14558.530949999998</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>13102.677854999998</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11792.410069499998</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10613.169062549998</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -2695,7 +2758,7 @@
         <v>3554</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29" si="20">+N29</f>
+        <f t="shared" ref="R29" si="22">+N29</f>
         <v>4387</v>
       </c>
       <c r="S29" s="6"/>
@@ -2712,35 +2775,35 @@
         <v>14043</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" ref="AH29:AO29" si="21">+AG29</f>
+        <f t="shared" ref="AH29:AO29" si="23">+AG29</f>
         <v>14043</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14043</v>
       </c>
     </row>
@@ -2783,11 +2846,11 @@
         <v>2987</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" ref="P30:Q30" si="22">+M30</f>
+        <f t="shared" ref="Q30" si="24">+M30</f>
         <v>2946</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30" si="23">+N30</f>
+        <f t="shared" ref="R30" si="25">+N30</f>
         <v>3305</v>
       </c>
       <c r="S30" s="6"/>
@@ -2800,39 +2863,39 @@
         <v>9829</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" ref="AG30:AO30" si="24">+AF30</f>
+        <f t="shared" ref="AG30:AO30" si="26">+AF30</f>
         <v>9829</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9829</v>
       </c>
     </row>
@@ -2845,35 +2908,35 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6">
-        <f t="shared" ref="G31" si="25">+G30+G29+G28</f>
+        <f t="shared" ref="G31" si="27">+G30+G29+G28</f>
         <v>8385</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31" si="26">+H30+H29+H28</f>
+        <f t="shared" ref="H31" si="28">+H30+H29+H28</f>
         <v>8895</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="I31" si="27">+I30+I29+I28</f>
+        <f t="shared" ref="I31" si="29">+I30+I29+I28</f>
         <v>9236</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31" si="28">+J30+J29+J28</f>
+        <f t="shared" ref="J31" si="30">+J30+J29+J28</f>
         <v>10087</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ref="K31:N31" si="29">+K30+K29+K28</f>
+        <f t="shared" ref="K31:N31" si="31">+K30+K29+K28</f>
         <v>9662</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11311</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12816</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>14738</v>
       </c>
       <c r="O31" s="6">
@@ -2881,15 +2944,15 @@
         <v>13379</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" ref="P31:R31" si="30">+P30+P29+P28</f>
+        <f t="shared" ref="P31:R31" si="32">+P30+P29+P28</f>
         <v>15272</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>15140</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>16282</v>
       </c>
       <c r="S31" s="6"/>
@@ -2900,43 +2963,43 @@
         <v>36602</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" ref="AF31" si="31">SUM(AF28:AF30)</f>
+        <f t="shared" ref="AF31" si="33">SUM(AF28:AF30)</f>
         <v>48527</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" ref="AG31" si="32">SUM(AG28:AG30)</f>
+        <f t="shared" ref="AG31" si="34">SUM(AG28:AG30)</f>
         <v>46061.5</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" ref="AH31" si="33">SUM(AH28:AH30)</f>
+        <f t="shared" ref="AH31" si="35">SUM(AH28:AH30)</f>
         <v>43842.55</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" ref="AI31" si="34">SUM(AI28:AI30)</f>
+        <f t="shared" ref="AI31" si="36">SUM(AI28:AI30)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="35">SUM(AJ28:AJ30)</f>
+        <f t="shared" ref="AJ31" si="37">SUM(AJ28:AJ30)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="36">SUM(AK28:AK30)</f>
+        <f t="shared" ref="AK31" si="38">SUM(AK28:AK30)</f>
         <v>38430.53095</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="37">SUM(AL28:AL30)</f>
+        <f t="shared" ref="AL31" si="39">SUM(AL28:AL30)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="38">SUM(AM28:AM30)</f>
+        <f t="shared" ref="AM31" si="40">SUM(AM28:AM30)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="39">SUM(AN28:AN30)</f>
+        <f t="shared" ref="AN31" si="41">SUM(AN28:AN30)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="40">SUM(AO28:AO30)</f>
+        <f t="shared" ref="AO31" si="42">SUM(AO28:AO30)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -2949,35 +3012,35 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
-        <f t="shared" ref="G32" si="41">+G27-G31</f>
+        <f t="shared" ref="G32" si="43">+G27-G31</f>
         <v>5893</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32" si="42">+H27-H31</f>
+        <f t="shared" ref="H32" si="44">+H27-H31</f>
         <v>5963</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" ref="I32" si="43">+I27-I31</f>
+        <f t="shared" ref="I32" si="45">+I27-I31</f>
         <v>8040</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32" si="44">+J27-J31</f>
+        <f t="shared" ref="J32" si="46">+J27-J31</f>
         <v>12775</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ref="K32:N32" si="45">+K27-K31</f>
+        <f t="shared" ref="K32:N32" si="47">+K27-K31</f>
         <v>11378</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12367</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10423</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12585</v>
       </c>
       <c r="O32" s="6">
@@ -2985,16 +3048,16 @@
         <v>8524</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:R32" si="46">+P27-P31</f>
+        <f t="shared" ref="P32:R32" si="48">+P27-P31</f>
         <v>8358</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="46"/>
-        <v>6296.1159999999982</v>
+        <f t="shared" si="48"/>
+        <v>6570.9379999999983</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="46"/>
-        <v>10628</v>
+        <f t="shared" si="48"/>
+        <v>11736.100500000004</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -3004,44 +3067,44 @@
         <v>32671</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" ref="AF32" si="47">AF27-AF31</f>
+        <f t="shared" ref="AF32" si="49">AF27-AF31</f>
         <v>46753</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" ref="AG32" si="48">AG27-AG31</f>
-        <v>50095.381999999998</v>
+        <f t="shared" ref="AG32" si="50">AG27-AG31</f>
+        <v>50877.801500000001</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" ref="AH32" si="49">AH27-AH31</f>
-        <v>55199.038460000011</v>
+        <f t="shared" ref="AH32" si="51">AH27-AH31</f>
+        <v>56004.93054500001</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" ref="AI32" si="50">AI27-AI31</f>
-        <v>60167.341113800023</v>
+        <f t="shared" ref="AI32" si="52">AI27-AI31</f>
+        <v>60997.409961350015</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="51">AJ27-AJ31</f>
-        <v>65025.075697214008</v>
+        <f t="shared" ref="AJ32" si="53">AJ27-AJ31</f>
+        <v>65880.046610190519</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="52">AK27-AK31</f>
-        <v>69794.886883130443</v>
+        <f t="shared" ref="AK32" si="54">AK27-AK31</f>
+        <v>70675.506923496228</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="53">AL27-AL31</f>
-        <v>74497.502513124375</v>
+        <f t="shared" ref="AL32" si="55">AL27-AL31</f>
+        <v>75404.541154701103</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="54">AM27-AM31</f>
-        <v>79151.93570966812</v>
+        <f t="shared" ref="AM32" si="56">AM27-AM31</f>
+        <v>80086.185510492156</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="55">AN27-AN31</f>
-        <v>83775.667089993163</v>
+        <f t="shared" ref="AN32" si="57">AN27-AN31</f>
+        <v>84737.944384841918</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="56">AO27-AO31</f>
-        <v>88384.80908082446</v>
+        <f t="shared" ref="AO32" si="58">AO27-AO31</f>
+        <v>89375.954694518703</v>
       </c>
     </row>
     <row r="33" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3083,11 +3146,11 @@
         <v>-172</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" ref="Q33:R33" si="57">+P33</f>
+        <f t="shared" ref="Q33:R33" si="59">+P33</f>
         <v>-172</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-172</v>
       </c>
       <c r="S33" s="6"/>
@@ -3101,35 +3164,35 @@
       </c>
       <c r="AH33" s="3">
         <f>+AG49*$AT$49</f>
-        <v>604.54893960000004</v>
+        <v>615.75061185000004</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" ref="AI33:AO33" si="58">+AH49*$AT$49</f>
-        <v>1062.1383562767201</v>
+        <f t="shared" ref="AI33:AO33" si="60">+AH49*$AT$49</f>
+        <v>1080.0401973361702</v>
       </c>
       <c r="AJ33" s="3">
-        <f t="shared" si="58"/>
-        <v>1564.2200879313496</v>
+        <f t="shared" si="60"/>
+        <v>1589.0752886373969</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="58"/>
-        <v>2110.2523133695413</v>
+        <f t="shared" si="60"/>
+        <v>2142.3220882077858</v>
       </c>
       <c r="AL33" s="3">
-        <f t="shared" si="58"/>
-        <v>2699.8744547808415</v>
+        <f t="shared" si="60"/>
+        <v>2739.4282861037586</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" si="58"/>
-        <v>3332.8929459176643</v>
+        <f t="shared" si="60"/>
+        <v>3380.2088355183591</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="58"/>
-        <v>4009.2685408934676</v>
+        <f t="shared" si="60"/>
+        <v>4064.6332691556454</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="58"/>
-        <v>4729.1050130667381</v>
+        <f t="shared" si="60"/>
+        <v>4792.8144059184251</v>
       </c>
     </row>
     <row r="34" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3141,35 +3204,35 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:N34" si="59">+G32+G33</f>
+        <f t="shared" ref="G34:N34" si="61">+G32+G33</f>
         <v>5861</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>6131</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>8133</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13055</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>11503</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>12513</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10565</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>12702</v>
       </c>
       <c r="O34" s="6">
@@ -3177,16 +3240,16 @@
         <v>8908</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" ref="P34:R34" si="60">+P32+P33</f>
+        <f t="shared" ref="P34:R34" si="62">+P32+P33</f>
         <v>8186</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="60"/>
-        <v>6124.1159999999982</v>
+        <f t="shared" si="62"/>
+        <v>6398.9379999999983</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="60"/>
-        <v>10456</v>
+        <f t="shared" si="62"/>
+        <v>11564.100500000004</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -3196,44 +3259,44 @@
         <v>33180</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" ref="AF34" si="61">+AF32+AF33</f>
+        <f t="shared" ref="AF34" si="63">+AF32+AF33</f>
         <v>47284</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" ref="AG34" si="62">+AG32+AG33</f>
-        <v>50095.381999999998</v>
+        <f t="shared" ref="AG34" si="64">+AG32+AG33</f>
+        <v>50877.801500000001</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" ref="AH34" si="63">+AH32+AH33</f>
-        <v>55803.587399600008</v>
+        <f t="shared" ref="AH34" si="65">+AH32+AH33</f>
+        <v>56620.681156850012</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" ref="AI34" si="64">+AI32+AI33</f>
-        <v>61229.479470076745</v>
+        <f t="shared" ref="AI34" si="66">+AI32+AI33</f>
+        <v>62077.450158686188</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="65">+AJ32+AJ33</f>
-        <v>66589.295785145354</v>
+        <f t="shared" ref="AJ34" si="67">+AJ32+AJ33</f>
+        <v>67469.121898827914</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="66">+AK32+AK33</f>
-        <v>71905.139196499978</v>
+        <f t="shared" ref="AK34" si="68">+AK32+AK33</f>
+        <v>72817.829011704016</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="67">+AL32+AL33</f>
-        <v>77197.37696790522</v>
+        <f t="shared" ref="AL34" si="69">+AL32+AL33</f>
+        <v>78143.969440804867</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="68">+AM32+AM33</f>
-        <v>82484.828655585778</v>
+        <f t="shared" ref="AM34" si="70">+AM32+AM33</f>
+        <v>83466.394346010522</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="69">+AN32+AN33</f>
-        <v>87784.935630886626</v>
+        <f t="shared" ref="AN34" si="71">+AN32+AN33</f>
+        <v>88802.577653997563</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="70">+AO32+AO33</f>
-        <v>93113.914093891202</v>
+        <f t="shared" ref="AO34" si="72">+AO32+AO33</f>
+        <v>94168.76910043713</v>
       </c>
     </row>
     <row r="35" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3275,12 +3338,12 @@
         <v>1499</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" ref="Q35:R35" si="71">+Q34*0.19</f>
-        <v>1163.5820399999998</v>
+        <f t="shared" ref="Q35:R35" si="73">+Q34*0.19</f>
+        <v>1215.7982199999997</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="71"/>
-        <v>1986.64</v>
+        <f t="shared" si="73"/>
+        <v>2197.1790950000009</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -3293,39 +3356,39 @@
       </c>
       <c r="AG35" s="3">
         <f>+AG34*0.18</f>
-        <v>9017.1687599999987</v>
+        <v>9158.0042699999995</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" ref="AH35:AO35" si="72">+AH34*0.18</f>
-        <v>10044.645731928002</v>
+        <f t="shared" ref="AH35:AO35" si="74">+AH34*0.18</f>
+        <v>10191.722608233002</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="72"/>
-        <v>11021.306304613814</v>
+        <f t="shared" si="74"/>
+        <v>11173.941028563513</v>
       </c>
       <c r="AJ35" s="3">
-        <f t="shared" si="72"/>
-        <v>11986.073241326163</v>
+        <f t="shared" si="74"/>
+        <v>12144.441941789024</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="72"/>
-        <v>12942.925055369995</v>
+        <f t="shared" si="74"/>
+        <v>13107.209222106723</v>
       </c>
       <c r="AL35" s="3">
-        <f t="shared" si="72"/>
-        <v>13895.527854222939</v>
+        <f t="shared" si="74"/>
+        <v>14065.914499344875</v>
       </c>
       <c r="AM35" s="3">
-        <f t="shared" si="72"/>
-        <v>14847.26915800544</v>
+        <f t="shared" si="74"/>
+        <v>15023.950982281893</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" si="72"/>
-        <v>15801.288413559592</v>
+        <f t="shared" si="74"/>
+        <v>15984.463977719561</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" si="72"/>
-        <v>16760.504536900415</v>
+        <f t="shared" si="74"/>
+        <v>16950.378438078682</v>
       </c>
     </row>
     <row r="36" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3337,35 +3400,35 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6">
-        <f t="shared" ref="G36:H36" si="73">+G34-G35</f>
+        <f t="shared" ref="G36:H36" si="75">+G34-G35</f>
         <v>4902</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>5178</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" ref="I36:N36" si="74">+I34-I35</f>
+        <f t="shared" ref="I36:N36" si="76">+I34-I35</f>
         <v>7846</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>11219</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9497</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10394</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9194</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10285</v>
       </c>
       <c r="O36" s="6">
@@ -3373,16 +3436,16 @@
         <v>7465</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" ref="P36:R36" si="75">+P34-P35</f>
+        <f t="shared" ref="P36:R36" si="77">+P34-P35</f>
         <v>6687</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="75"/>
-        <v>4960.5339599999988</v>
+        <f t="shared" si="77"/>
+        <v>5183.1397799999986</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="75"/>
-        <v>8469.36</v>
+        <f t="shared" si="77"/>
+        <v>9366.9214050000028</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -3392,268 +3455,268 @@
         <v>29146</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" ref="AF36" si="76">+AF34-AF35</f>
+        <f t="shared" ref="AF36" si="78">+AF34-AF35</f>
         <v>39370</v>
       </c>
       <c r="AG36" s="3">
-        <f t="shared" ref="AG36" si="77">+AG34-AG35</f>
-        <v>41078.213239999997</v>
+        <f t="shared" ref="AG36" si="79">+AG34-AG35</f>
+        <v>41719.797230000004</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" ref="AH36" si="78">+AH34-AH35</f>
-        <v>45758.941667672007</v>
+        <f t="shared" ref="AH36" si="80">+AH34-AH35</f>
+        <v>46428.958548617011</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" ref="AI36" si="79">+AI34-AI35</f>
-        <v>50208.173165462933</v>
+        <f t="shared" ref="AI36" si="81">+AI34-AI35</f>
+        <v>50903.509130122678</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="80">+AJ34-AJ35</f>
-        <v>54603.222543819189</v>
+        <f t="shared" ref="AJ36" si="82">+AJ34-AJ35</f>
+        <v>55324.67995703889</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="81">+AK34-AK35</f>
-        <v>58962.214141129982</v>
+        <f t="shared" ref="AK36" si="83">+AK34-AK35</f>
+        <v>59710.619789597295</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="82">+AL34-AL35</f>
-        <v>63301.849113682285</v>
+        <f t="shared" ref="AL36" si="84">+AL34-AL35</f>
+        <v>64078.054941459995</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="83">+AM34-AM35</f>
-        <v>67637.55949758034</v>
+        <f t="shared" ref="AM36" si="85">+AM34-AM35</f>
+        <v>68442.443363728627</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="84">+AN34-AN35</f>
-        <v>71983.64721732703</v>
+        <f t="shared" ref="AN36" si="86">+AN34-AN35</f>
+        <v>72818.113676278008</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="85">+AO34-AO35</f>
-        <v>76353.40955699078</v>
+        <f t="shared" ref="AO36" si="87">+AO34-AO35</f>
+        <v>77218.390662358448</v>
       </c>
       <c r="AP36" s="3">
         <f>+AO36*(1+$AT$48)</f>
-        <v>72535.739079141233</v>
+        <v>73357.471129240526</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36:CS36" si="86">+AP36*(1+$AT$48)</f>
-        <v>68908.952125184165</v>
+        <f t="shared" ref="AQ36:CS36" si="88">+AP36*(1+$AT$48)</f>
+        <v>69689.597572778497</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" si="86"/>
-        <v>65463.50451892495</v>
+        <f t="shared" si="88"/>
+        <v>66205.117694139568</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" si="86"/>
-        <v>62190.329292978699</v>
+        <f t="shared" si="88"/>
+        <v>62894.861809432587</v>
       </c>
       <c r="AT36" s="3">
-        <f t="shared" si="86"/>
-        <v>59080.812828329763</v>
+        <f t="shared" si="88"/>
+        <v>59750.118718960955</v>
       </c>
       <c r="AU36" s="3">
-        <f t="shared" si="86"/>
-        <v>56126.772186913273</v>
+        <f t="shared" si="88"/>
+        <v>56762.612783012904</v>
       </c>
       <c r="AV36" s="3">
-        <f t="shared" si="86"/>
-        <v>53320.433577567608</v>
+        <f t="shared" si="88"/>
+        <v>53924.48214386226</v>
       </c>
       <c r="AW36" s="3">
-        <f t="shared" si="86"/>
-        <v>50654.411898689228</v>
+        <f t="shared" si="88"/>
+        <v>51228.258036669147</v>
       </c>
       <c r="AX36" s="3">
-        <f t="shared" si="86"/>
-        <v>48121.691303754764</v>
+        <f t="shared" si="88"/>
+        <v>48666.84513483569</v>
       </c>
       <c r="AY36" s="3">
-        <f t="shared" si="86"/>
-        <v>45715.606738567025</v>
+        <f t="shared" si="88"/>
+        <v>46233.502878093903</v>
       </c>
       <c r="AZ36" s="3">
-        <f t="shared" si="86"/>
-        <v>43429.826401638675</v>
+        <f t="shared" si="88"/>
+        <v>43921.827734189203</v>
       </c>
       <c r="BA36" s="3">
-        <f t="shared" si="86"/>
-        <v>41258.335081556739</v>
+        <f t="shared" si="88"/>
+        <v>41725.736347479738</v>
       </c>
       <c r="BB36" s="3">
-        <f t="shared" si="86"/>
-        <v>39195.418327478903</v>
+        <f t="shared" si="88"/>
+        <v>39639.449530105747</v>
       </c>
       <c r="BC36" s="3">
-        <f t="shared" si="86"/>
-        <v>37235.647411104954</v>
+        <f t="shared" si="88"/>
+        <v>37657.477053600458</v>
       </c>
       <c r="BD36" s="3">
-        <f t="shared" si="86"/>
-        <v>35373.865040549703</v>
+        <f t="shared" si="88"/>
+        <v>35774.603200920435</v>
       </c>
       <c r="BE36" s="3">
-        <f t="shared" si="86"/>
-        <v>33605.171788522217</v>
+        <f t="shared" si="88"/>
+        <v>33985.873040874409</v>
       </c>
       <c r="BF36" s="3">
-        <f t="shared" si="86"/>
-        <v>31924.913199096103</v>
+        <f t="shared" si="88"/>
+        <v>32286.579388830687</v>
       </c>
       <c r="BG36" s="3">
-        <f t="shared" si="86"/>
-        <v>30328.667539141297</v>
+        <f t="shared" si="88"/>
+        <v>30672.250419389151</v>
       </c>
       <c r="BH36" s="3">
-        <f t="shared" si="86"/>
-        <v>28812.234162184232</v>
+        <f t="shared" si="88"/>
+        <v>29138.637898419693</v>
       </c>
       <c r="BI36" s="3">
-        <f t="shared" si="86"/>
-        <v>27371.622454075019</v>
+        <f t="shared" si="88"/>
+        <v>27681.706003498708</v>
       </c>
       <c r="BJ36" s="3">
-        <f t="shared" si="86"/>
-        <v>26003.041331371267</v>
+        <f t="shared" si="88"/>
+        <v>26297.62070332377</v>
       </c>
       <c r="BK36" s="3">
-        <f t="shared" si="86"/>
-        <v>24702.889264802703</v>
+        <f t="shared" si="88"/>
+        <v>24982.739668157581</v>
       </c>
       <c r="BL36" s="3">
-        <f t="shared" si="86"/>
-        <v>23467.744801562567</v>
+        <f t="shared" si="88"/>
+        <v>23733.602684749701</v>
       </c>
       <c r="BM36" s="3">
-        <f t="shared" si="86"/>
-        <v>22294.357561484438</v>
+        <f t="shared" si="88"/>
+        <v>22546.922550512216</v>
       </c>
       <c r="BN36" s="3">
-        <f t="shared" si="86"/>
-        <v>21179.639683410216</v>
+        <f t="shared" si="88"/>
+        <v>21419.576422986604</v>
       </c>
       <c r="BO36" s="3">
-        <f t="shared" si="86"/>
-        <v>20120.657699239706</v>
+        <f t="shared" si="88"/>
+        <v>20348.597601837271</v>
       </c>
       <c r="BP36" s="3">
-        <f t="shared" si="86"/>
-        <v>19114.624814277719</v>
+        <f t="shared" si="88"/>
+        <v>19331.167721745405</v>
       </c>
       <c r="BQ36" s="3">
-        <f t="shared" si="86"/>
-        <v>18158.893573563833</v>
+        <f t="shared" si="88"/>
+        <v>18364.609335658133</v>
       </c>
       <c r="BR36" s="3">
-        <f t="shared" si="86"/>
-        <v>17250.948894885641</v>
+        <f t="shared" si="88"/>
+        <v>17446.378868875225</v>
       </c>
       <c r="BS36" s="3">
-        <f t="shared" si="86"/>
-        <v>16388.401450141359</v>
+        <f t="shared" si="88"/>
+        <v>16574.059925431462</v>
       </c>
       <c r="BT36" s="3">
-        <f t="shared" si="86"/>
-        <v>15568.981377634289</v>
+        <f t="shared" si="88"/>
+        <v>15745.356929159889</v>
       </c>
       <c r="BU36" s="3">
-        <f t="shared" si="86"/>
-        <v>14790.532308752574</v>
+        <f t="shared" si="88"/>
+        <v>14958.089082701894</v>
       </c>
       <c r="BV36" s="3">
-        <f t="shared" si="86"/>
-        <v>14051.005693314944</v>
+        <f t="shared" si="88"/>
+        <v>14210.184628566798</v>
       </c>
       <c r="BW36" s="3">
-        <f t="shared" si="86"/>
-        <v>13348.455408649197</v>
+        <f t="shared" si="88"/>
+        <v>13499.675397138457</v>
       </c>
       <c r="BX36" s="3">
-        <f t="shared" si="86"/>
-        <v>12681.032638216737</v>
+        <f t="shared" si="88"/>
+        <v>12824.691627281534</v>
       </c>
       <c r="BY36" s="3">
-        <f t="shared" si="86"/>
-        <v>12046.981006305899</v>
+        <f t="shared" si="88"/>
+        <v>12183.457045917457</v>
       </c>
       <c r="BZ36" s="3">
-        <f t="shared" si="86"/>
-        <v>11444.631955990604</v>
+        <f t="shared" si="88"/>
+        <v>11574.284193621585</v>
       </c>
       <c r="CA36" s="3">
-        <f t="shared" si="86"/>
-        <v>10872.400358191073</v>
+        <f t="shared" si="88"/>
+        <v>10995.569983940504</v>
       </c>
       <c r="CB36" s="3">
-        <f t="shared" si="86"/>
-        <v>10328.780340281519</v>
+        <f t="shared" si="88"/>
+        <v>10445.791484743479</v>
       </c>
       <c r="CC36" s="3">
-        <f t="shared" si="86"/>
-        <v>9812.3413232674429</v>
+        <f t="shared" si="88"/>
+        <v>9923.5019105063038</v>
       </c>
       <c r="CD36" s="3">
-        <f t="shared" si="86"/>
-        <v>9321.7242571040697</v>
+        <f t="shared" si="88"/>
+        <v>9427.3268149809883</v>
       </c>
       <c r="CE36" s="3">
-        <f t="shared" si="86"/>
-        <v>8855.6380442488662</v>
+        <f t="shared" si="88"/>
+        <v>8955.9604742319389</v>
       </c>
       <c r="CF36" s="3">
-        <f t="shared" si="86"/>
-        <v>8412.8561420364222</v>
+        <f t="shared" si="88"/>
+        <v>8508.1624505203417</v>
       </c>
       <c r="CG36" s="3">
-        <f t="shared" si="86"/>
-        <v>7992.2133349346004</v>
+        <f t="shared" si="88"/>
+        <v>8082.7543279943238</v>
       </c>
       <c r="CH36" s="3">
-        <f t="shared" si="86"/>
-        <v>7592.6026681878702</v>
+        <f t="shared" si="88"/>
+        <v>7678.6166115946071</v>
       </c>
       <c r="CI36" s="3">
-        <f t="shared" si="86"/>
-        <v>7212.9725347784761</v>
+        <f t="shared" si="88"/>
+        <v>7294.6857810148767</v>
       </c>
       <c r="CJ36" s="3">
-        <f t="shared" si="86"/>
-        <v>6852.3239080395515</v>
+        <f t="shared" si="88"/>
+        <v>6929.9514919641324</v>
       </c>
       <c r="CK36" s="3">
-        <f t="shared" si="86"/>
-        <v>6509.7077126375734</v>
+        <f t="shared" si="88"/>
+        <v>6583.4539173659259</v>
       </c>
       <c r="CL36" s="3">
-        <f t="shared" si="86"/>
-        <v>6184.2223270056948</v>
+        <f t="shared" si="88"/>
+        <v>6254.2812214976293</v>
       </c>
       <c r="CM36" s="3">
-        <f t="shared" si="86"/>
-        <v>5875.0112106554097</v>
+        <f t="shared" si="88"/>
+        <v>5941.5671604227473</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" si="86"/>
-        <v>5581.2606501226392</v>
+        <f t="shared" si="88"/>
+        <v>5644.48880240161</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="86"/>
-        <v>5302.1976176165072</v>
+        <f t="shared" si="88"/>
+        <v>5362.2643622815294</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="86"/>
-        <v>5037.0877367356816</v>
+        <f t="shared" si="88"/>
+        <v>5094.1511441674529</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="86"/>
-        <v>4785.2333498988974</v>
+        <f t="shared" si="88"/>
+        <v>4839.4435869590798</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="86"/>
-        <v>4545.9716824039524</v>
+        <f t="shared" si="88"/>
+        <v>4597.4714076111259</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="86"/>
-        <v>4318.6730982837544</v>
+        <f t="shared" si="88"/>
+        <v>4367.597837230569</v>
       </c>
     </row>
     <row r="37" spans="2:97" x14ac:dyDescent="0.2">
@@ -3661,35 +3724,35 @@
         <v>47</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" ref="G37:H37" si="87">+G36/G38</f>
+        <f t="shared" ref="G37:H37" si="89">+G36/G38</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" ref="I37:N37" si="88">+I36/I38</f>
+        <f t="shared" ref="I37:N37" si="90">+I36/I38</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3.882006920415225</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="O37" s="9">
@@ -3697,16 +3760,16 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" ref="P37:R37" si="89">+P36/P38</f>
+        <f t="shared" ref="P37:R37" si="91">+P36/P38</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="89"/>
-        <v>1.8284312421673421</v>
+        <f t="shared" si="91"/>
+        <v>1.9104827792112047</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="89"/>
-        <v>3.1217692591227424</v>
+        <f t="shared" si="91"/>
+        <v>3.4526064891264294</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -3716,44 +3779,44 @@
         <v>10.092105263157896</v>
       </c>
       <c r="AF37" s="17">
-        <f t="shared" ref="AF37" si="90">+AF36/AF38</f>
+        <f t="shared" ref="AF37" si="92">+AF36/AF38</f>
         <v>13.770549143057012</v>
       </c>
       <c r="AG37" s="17">
-        <f t="shared" ref="AG37" si="91">+AG36/AG38</f>
-        <v>15.10089632938149</v>
+        <f t="shared" ref="AG37" si="93">+AG36/AG38</f>
+        <v>15.336751118463377</v>
       </c>
       <c r="AH37" s="17">
-        <f t="shared" ref="AH37" si="92">+AH36/AH38</f>
-        <v>16.821594216587449</v>
+        <f t="shared" ref="AH37" si="94">+AH36/AH38</f>
+        <v>17.067901313709037</v>
       </c>
       <c r="AI37" s="17">
-        <f t="shared" ref="AI37" si="93">+AI36/AI38</f>
-        <v>18.457190760210619</v>
+        <f t="shared" ref="AI37" si="95">+AI36/AI38</f>
+        <v>18.712805488511233</v>
       </c>
       <c r="AJ37" s="17">
-        <f t="shared" ref="AJ37" si="94">+AJ36/AJ38</f>
-        <v>20.072869237687414</v>
+        <f t="shared" ref="AJ37" si="96">+AJ36/AJ38</f>
+        <v>20.338086557132208</v>
       </c>
       <c r="AK37" s="17">
-        <f t="shared" ref="AK37" si="95">+AK36/AK38</f>
-        <v>21.675292396334889</v>
+        <f t="shared" ref="AK37" si="97">+AK36/AK38</f>
+        <v>21.950416244682398</v>
       </c>
       <c r="AL37" s="17">
-        <f t="shared" ref="AL37" si="96">+AL36/AL38</f>
-        <v>23.27059980284249</v>
+        <f t="shared" ref="AL37" si="98">+AL36/AL38</f>
+        <v>23.555943366036207</v>
       </c>
       <c r="AM37" s="17">
-        <f t="shared" ref="AM37" si="97">+AM36/AM38</f>
-        <v>24.864464478478205</v>
+        <f t="shared" ref="AM37" si="99">+AM36/AM38</f>
+        <v>25.16035046915858</v>
       </c>
       <c r="AN37" s="17">
-        <f t="shared" ref="AN37" si="98">+AN36/AN38</f>
-        <v>26.462144000487832</v>
+        <f t="shared" ref="AN37" si="100">+AN36/AN38</f>
+        <v>26.768904944868307</v>
       </c>
       <c r="AO37" s="17">
-        <f t="shared" ref="AO37" si="99">+AO36/AO38</f>
-        <v>28.068526626961045</v>
+        <f t="shared" ref="AO37" si="101">+AO36/AO38</f>
+        <v>28.386505160319253</v>
       </c>
     </row>
     <row r="38" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3816,35 +3879,35 @@
         <v>2720.25</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" ref="AH38:AO38" si="100">+AG38</f>
+        <f t="shared" ref="AH38:AO38" si="102">+AG38</f>
         <v>2720.25</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2720.25</v>
       </c>
     </row>
@@ -3864,7 +3927,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
-        <f t="shared" ref="K40" si="101">+K25/G25-1</f>
+        <f t="shared" ref="K40" si="103">+K25/G25-1</f>
         <v>0.47550318543158365</v>
       </c>
       <c r="L40" s="11">
@@ -3872,11 +3935,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" ref="M40:N40" si="102">+M25/I25-1</f>
+        <f t="shared" ref="M40:N40" si="104">+M25/I25-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="O40" s="11">
@@ -3884,16 +3947,16 @@
         <v>6.6371174200450911E-2</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" ref="P40:R40" si="103">+P25/L25-1</f>
+        <f t="shared" ref="P40:R40" si="105">+P25/L25-1</f>
         <v>-8.7698180692643568E-3</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>-5.2664598414340014E-2</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="103"/>
-        <v>2.4620593388969825E-2</v>
+        <f t="shared" si="105"/>
+        <v>5.3308485046479337E-2</v>
       </c>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
@@ -3904,38 +3967,38 @@
       </c>
       <c r="AG40" s="18">
         <f>+AG25/AF25-1</f>
-        <v>6.6412841625045349E-3</v>
+        <v>1.4832229561855037E-2</v>
       </c>
       <c r="AH40" s="18">
-        <f t="shared" ref="AH40:AO40" si="104">+AH25/AG25-1</f>
+        <f t="shared" ref="AH40:AO40" si="106">+AH25/AG25-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AI40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AK40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AL40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AN40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AO40" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -3952,35 +4015,44 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="11">
-        <f t="shared" ref="K41" si="105">+K21/G21-1</f>
+        <f t="shared" ref="K41" si="107">+K21/G21-1</f>
         <v>0.41985917173887088</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" ref="L41:N41" si="106">+L21/H21-1</f>
+        <f t="shared" ref="L41:N41" si="108">+L21/H21-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="O41" s="11">
         <f>+O21/K21-1</f>
         <v>1.0674960073968176E-2</v>
       </c>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="P41" s="11">
+        <f>+P21/L21-1</f>
+        <v>-4.3244052072422545E-2</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" ref="Q41:R41" si="109">+Q21/M21-1</f>
+        <v>-1</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="109"/>
+        <v>-1</v>
+      </c>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
     </row>
     <row r="42" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4008,7 +4080,7 @@
     </row>
     <row r="43" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -4036,7 +4108,7 @@
     </row>
     <row r="44" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -4050,7 +4122,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10">
-        <f t="shared" ref="N44" si="107">+N23/J23-1</f>
+        <f t="shared" ref="N44" si="110">+N23/J23-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="O44" s="10">
@@ -4065,12 +4137,15 @@
         <f>+Q23/M23-1</f>
         <v>-0.27956989247311825</v>
       </c>
-      <c r="R44" s="6"/>
+      <c r="R44" s="10">
+        <f>+R23/N23-1</f>
+        <v>0.11402508551881407</v>
+      </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="AE44" s="19">
-        <f t="shared" ref="AE44" si="108">AE23/AD23-1</f>
+        <f t="shared" ref="AE44" si="111">AE23/AD23-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AF44" s="19">
@@ -4108,35 +4183,35 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="10">
-        <f t="shared" ref="G46:N46" si="109">+G27/G25</f>
+        <f t="shared" ref="G46:N46" si="112">+G27/G25</f>
         <v>0.80498393189378137</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="J46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="L46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="O46" s="10">
@@ -4144,22 +4219,22 @@
         <v>0.78482872294682526</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" ref="P46:R46" si="110">+P27/P25</f>
+        <f t="shared" ref="P46:R46" si="113">+P27/P25</f>
         <v>0.81985982929706469</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="110"/>
-        <v>0.78</v>
+        <f t="shared" si="113"/>
+        <v>0.79</v>
       </c>
       <c r="R46" s="10">
-        <f t="shared" si="110"/>
-        <v>0.78</v>
+        <f t="shared" si="113"/>
+        <v>0.79</v>
       </c>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="AE46" s="19">
-        <f t="shared" ref="AE46" si="111">+AE27/AE25</f>
+        <f t="shared" ref="AE46" si="114">+AE27/AE25</f>
         <v>0.80582795323678236</v>
       </c>
       <c r="AF46" s="19">
@@ -4167,52 +4242,52 @@
         <v>0.80794376277251567</v>
       </c>
       <c r="AG46" s="19">
-        <f t="shared" ref="AG46:AO46" si="112">+AG27/AG25</f>
+        <f t="shared" ref="AG46:AO46" si="115">+AG27/AG25</f>
         <v>0.81</v>
       </c>
       <c r="AH46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AI46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AJ46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AK46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AL46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AM46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AN46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AO46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="AS46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT46" s="3">
         <f>NPV(AT47,AH36:CS36)</f>
-        <v>876847.61526115821</v>
+        <v>715483.21517933928</v>
       </c>
     </row>
     <row r="47" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4225,39 +4300,39 @@
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" ref="J47:R47" si="113">+J35/J34</f>
+        <f t="shared" ref="J47:R47" si="116">+J35/J34</f>
         <v>0.14063577173496744</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="113"/>
-        <v>0.19000000000000003</v>
+        <f t="shared" si="116"/>
+        <v>0.19</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.19</v>
       </c>
       <c r="S47" s="10"/>
@@ -4268,69 +4343,82 @@
         <v>0.12157926461723931</v>
       </c>
       <c r="AF47" s="19">
-        <f t="shared" ref="AF47:AG47" si="114">+AF35/AF34</f>
+        <f t="shared" ref="AF47:AG47" si="117">+AF35/AF34</f>
         <v>0.16737162676592504</v>
       </c>
       <c r="AG47" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0.18</v>
       </c>
       <c r="AH47" s="19">
-        <f t="shared" ref="AH47:AO47" si="115">+AH35/AH34</f>
+        <f t="shared" ref="AH47:AO47" si="118">+AH35/AH34</f>
         <v>0.18</v>
       </c>
       <c r="AI47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AJ47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AK47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AL47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AM47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AN47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AO47" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0.18</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT47" s="19">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="48" spans="2:97" x14ac:dyDescent="0.2">
       <c r="O48" s="6"/>
       <c r="AS48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT48" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="6">
         <f>17576+44378+6234</f>
         <v>68188</v>
       </c>
+      <c r="K49" s="6">
+        <f>19513+44706+6342</f>
+        <v>70561</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
       <c r="N49" s="6">
         <f>16601+31397+6775</f>
         <v>54773</v>
@@ -4344,12 +4432,12 @@
         <v>47025</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" ref="Q49:R49" si="116">+P49+Q36</f>
-        <v>51985.533960000001</v>
+        <f t="shared" ref="Q49:R49" si="119">+P49+Q36</f>
+        <v>52208.139779999998</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" si="116"/>
-        <v>60454.893960000001</v>
+        <f t="shared" si="119"/>
+        <v>61575.061184999999</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -4360,54 +4448,66 @@
       </c>
       <c r="AG49" s="3">
         <f>+R49</f>
-        <v>60454.893960000001</v>
+        <v>61575.061184999999</v>
       </c>
       <c r="AH49" s="3">
         <f>+AG49+AH36</f>
-        <v>106213.835627672</v>
+        <v>108004.01973361701</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" ref="AI49:AO49" si="117">+AH49+AI36</f>
-        <v>156422.00879313494</v>
+        <f t="shared" ref="AI49:AO49" si="120">+AH49+AI36</f>
+        <v>158907.52886373969</v>
       </c>
       <c r="AJ49" s="3">
-        <f t="shared" si="117"/>
-        <v>211025.23133695414</v>
+        <f t="shared" si="120"/>
+        <v>214232.20882077859</v>
       </c>
       <c r="AK49" s="3">
-        <f t="shared" si="117"/>
-        <v>269987.44547808415</v>
+        <f t="shared" si="120"/>
+        <v>273942.82861037587</v>
       </c>
       <c r="AL49" s="3">
-        <f t="shared" si="117"/>
-        <v>333289.29459176643</v>
+        <f t="shared" si="120"/>
+        <v>338020.8835518359</v>
       </c>
       <c r="AM49" s="3">
-        <f t="shared" si="117"/>
-        <v>400926.85408934677</v>
+        <f t="shared" si="120"/>
+        <v>406463.32691556454</v>
       </c>
       <c r="AN49" s="3">
-        <f t="shared" si="117"/>
-        <v>472910.5013066738</v>
+        <f t="shared" si="120"/>
+        <v>479281.44059184252</v>
       </c>
       <c r="AO49" s="3">
-        <f t="shared" si="117"/>
-        <v>549263.91086366458</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>112</v>
+        <f t="shared" si="120"/>
+        <v>556499.83125420101</v>
+      </c>
+      <c r="AS49" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="AT49" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="6">
         <v>11335</v>
       </c>
+      <c r="K50" s="6">
+        <v>10276</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
       <c r="N50" s="6">
         <v>14039</v>
       </c>
@@ -4417,21 +4517,38 @@
       <c r="P50" s="6">
         <v>11525</v>
       </c>
-      <c r="AS50" t="s">
-        <v>116</v>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="AS50" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="AT50" s="17">
         <f>AT46/Main!M3</f>
-        <v>319.78395888444868</v>
-      </c>
-    </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+        <v>260.93479765840237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="6">
         <v>2381</v>
       </c>
+      <c r="K51" s="6">
+        <v>2827</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
       <c r="N51" s="6">
         <v>4629</v>
       </c>
@@ -4441,21 +4558,38 @@
       <c r="P51" s="6">
         <v>3973</v>
       </c>
-      <c r="AS51" t="s">
-        <v>117</v>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="AS51" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="AT51" s="19">
         <f>AT50/Main!M2-1</f>
-        <v>0.82140433379534494</v>
-      </c>
-    </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+        <v>0.48621517148944804</v>
+      </c>
+    </row>
+    <row r="52" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="6">
         <v>45633</v>
       </c>
+      <c r="K52" s="6">
+        <v>47720</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
       <c r="N52" s="6">
         <v>57809</v>
       </c>
@@ -4465,14 +4599,31 @@
       <c r="P52" s="6">
         <v>67588</v>
       </c>
-    </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="6">
         <v>9348</v>
       </c>
+      <c r="K53" s="6">
+        <v>10202</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
       <c r="N53" s="6">
         <v>12155</v>
       </c>
@@ -4482,15 +4633,33 @@
       <c r="P53" s="6">
         <v>14130</v>
       </c>
-    </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="6">
         <f>623+19050</f>
         <v>19673</v>
       </c>
+      <c r="K54" s="6">
+        <f>505+19056</f>
+        <v>19561</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
       <c r="N54" s="6">
         <f>19197+634</f>
         <v>19831</v>
@@ -4503,14 +4672,31 @@
         <f>965+20229</f>
         <v>21194</v>
       </c>
-    </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="6">
         <v>2758</v>
       </c>
+      <c r="K55" s="6">
+        <v>2376</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
       <c r="N55" s="6">
         <v>2751</v>
       </c>
@@ -4520,17 +4706,35 @@
       <c r="P55" s="6">
         <v>4344</v>
       </c>
-    </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="6">
-        <f t="shared" ref="J56" si="118">SUM(J49:J55)</f>
+        <f t="shared" ref="J56:K56" si="121">SUM(J49:J55)</f>
         <v>159316</v>
       </c>
+      <c r="K56" s="6">
+        <f t="shared" si="121"/>
+        <v>163523</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
       <c r="N56" s="6">
-        <f t="shared" ref="N56" si="119">SUM(N49:N55)</f>
+        <f t="shared" ref="N56" si="122">SUM(N49:N55)</f>
         <v>165987</v>
       </c>
       <c r="O56" s="6">
@@ -4541,6 +4745,11 @@
         <f>SUM(P49:P55)</f>
         <v>169779</v>
       </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
     </row>
     <row r="57" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O57" s="6"/>
@@ -4552,6 +4761,9 @@
       <c r="J58" s="6">
         <v>1331</v>
       </c>
+      <c r="K58" s="6">
+        <v>878</v>
+      </c>
       <c r="N58" s="6">
         <v>4083</v>
       </c>
@@ -4569,6 +4781,9 @@
       <c r="J59" s="6">
         <v>1093</v>
       </c>
+      <c r="K59" s="6">
+        <v>1006</v>
+      </c>
       <c r="N59" s="6">
         <v>1052</v>
       </c>
@@ -4587,6 +4802,10 @@
         <f>1023+9631</f>
         <v>10654</v>
       </c>
+      <c r="K60" s="6">
+        <f>1040+10574</f>
+        <v>11614</v>
+      </c>
       <c r="N60" s="6">
         <f>1127+12746</f>
         <v>13873</v>
@@ -4607,6 +4826,9 @@
       <c r="J61" s="6">
         <v>11152</v>
       </c>
+      <c r="K61" s="6">
+        <v>9411</v>
+      </c>
       <c r="N61" s="6">
         <v>14312</v>
       </c>
@@ -4624,6 +4846,9 @@
       <c r="J62" s="6">
         <v>382</v>
       </c>
+      <c r="K62" s="6">
+        <v>382</v>
+      </c>
       <c r="N62" s="6">
         <v>561</v>
       </c>
@@ -4641,6 +4866,9 @@
       <c r="J63" s="6">
         <v>6414</v>
       </c>
+      <c r="K63" s="6">
+        <v>6575</v>
+      </c>
       <c r="N63" s="6">
         <v>7227</v>
       </c>
@@ -4658,6 +4886,9 @@
       <c r="J64" s="6">
         <v>50018</v>
       </c>
+      <c r="K64" s="6">
+        <v>51160</v>
+      </c>
       <c r="N64" s="6">
         <v>55811</v>
       </c>
@@ -4668,13 +4899,16 @@
         <v>59929</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="J65" s="6">
         <v>927</v>
       </c>
+      <c r="K65" s="6">
+        <v>154</v>
+      </c>
       <c r="N65" s="6">
         <v>-693</v>
       </c>
@@ -4685,13 +4919,16 @@
         <v>-3411</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>62</v>
       </c>
       <c r="J66" s="6">
         <v>77345</v>
       </c>
+      <c r="K66" s="6">
+        <v>82343</v>
+      </c>
       <c r="N66" s="6">
         <v>69761</v>
       </c>
@@ -4702,36 +4939,44 @@
         <v>69249</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>61</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" ref="J67" si="120">SUM(J58:J66)</f>
+        <f t="shared" ref="J67:K67" si="123">SUM(J58:J66)</f>
         <v>159316</v>
       </c>
+      <c r="K67" s="6">
+        <f t="shared" si="123"/>
+        <v>163523</v>
+      </c>
       <c r="N67" s="6">
-        <f t="shared" ref="N67:P67" si="121">SUM(N58:N66)</f>
+        <f t="shared" ref="N67:P67" si="124">SUM(N58:N66)</f>
         <v>165987</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>164218</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>169779</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>66</v>
       </c>
+      <c r="K69" s="6">
+        <f t="shared" ref="K69" si="125">K36</f>
+        <v>9497</v>
+      </c>
       <c r="N69" s="6">
-        <f t="shared" ref="N69" si="122">N36</f>
+        <f t="shared" ref="N69" si="126">N36</f>
         <v>10285</v>
       </c>
       <c r="O69" s="6">
@@ -4743,10 +4988,13 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>67</v>
       </c>
+      <c r="K70" s="6">
+        <v>9497</v>
+      </c>
       <c r="N70" s="6">
         <v>10285</v>
       </c>
@@ -4757,10 +5005,13 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>69</v>
       </c>
+      <c r="K71" s="6">
+        <v>1972</v>
+      </c>
       <c r="N71" s="6">
         <v>2014</v>
       </c>
@@ -4771,10 +5022,13 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>70</v>
       </c>
+      <c r="K72" s="6">
+        <v>1830</v>
+      </c>
       <c r="N72" s="6">
         <v>2406</v>
       </c>
@@ -4785,10 +5039,13 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>71</v>
       </c>
+      <c r="K73" s="6">
+        <v>418</v>
+      </c>
       <c r="N73" s="6">
         <v>748</v>
       </c>
@@ -4799,10 +5056,13 @@
         <v>-453</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>55</v>
       </c>
+      <c r="K74" s="6">
+        <v>-66</v>
+      </c>
       <c r="N74" s="6">
         <v>34</v>
       </c>
@@ -4813,9 +5073,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>72</v>
+      </c>
+      <c r="K75" s="6">
+        <f>849-461-10-250-72-1681+6+210</f>
+        <v>-1409</v>
       </c>
       <c r="N75" s="6">
         <f>-2038+817-165+876+151+2462+100+414</f>
@@ -4830,9 +5094,13 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>68</v>
+      </c>
+      <c r="K76" s="6">
+        <f>SUM(K70:K75)</f>
+        <v>12242</v>
       </c>
       <c r="N76" s="6">
         <f>SUM(N70:N75)</f>
@@ -4847,14 +5115,27 @@
         <v>12197</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="78" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6">
+        <v>-4272</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
       <c r="N78" s="6">
         <v>-5370</v>
       </c>
@@ -4866,11 +5147,30 @@
         <f>-7572+44</f>
         <v>-7528</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+    </row>
+    <row r="79" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6">
+        <f>-6231+1650+3981-2</f>
+        <v>-602</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
       <c r="N79" s="6">
         <f>-6093+16340+1598-2-123</f>
         <v>11720</v>
@@ -4883,11 +5183,29 @@
         <f>-2220+2648+511-7</f>
         <v>932</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+    </row>
+    <row r="80" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
       <c r="N80" s="6">
         <v>-521</v>
       </c>
@@ -4897,11 +5215,30 @@
       <c r="P80" s="6">
         <v>-363</v>
       </c>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+    </row>
+    <row r="81" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6">
+        <f>SUM(K78:K80)</f>
+        <v>-4874</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
       <c r="N81" s="6">
         <f>SUM(N78:N80)</f>
         <v>5829</v>
@@ -4914,14 +5251,50 @@
         <f>SUM(P78:P80)</f>
         <v>-6959</v>
       </c>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+    </row>
+    <row r="82" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-    </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+    </row>
+    <row r="83" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6">
+        <v>-1077</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
       <c r="N83" s="6">
         <v>-1507</v>
       </c>
@@ -4931,22 +5304,29 @@
       <c r="P83" s="6">
         <v>-1002</v>
       </c>
-    </row>
-    <row r="84" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+    </row>
+    <row r="84" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8">
+        <v>-3939</v>
+      </c>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="8">
         <v>-20063</v>
       </c>
@@ -4956,16 +5336,30 @@
       <c r="P84" s="8">
         <v>-5233</v>
       </c>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-    </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+    </row>
+    <row r="85" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
+        <f>-151+32-50</f>
+        <v>-169</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
       <c r="N85" s="6">
         <v>-172</v>
       </c>
@@ -4977,13 +5371,32 @@
         <f>-219-79-30</f>
         <v>-328</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+    </row>
+    <row r="86" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6">
+        <f t="shared" ref="K86" si="127">SUM(K83:K85)</f>
+        <v>-5185</v>
+      </c>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
       <c r="N86" s="6">
-        <f t="shared" ref="N86" si="123">SUM(N83:N85)</f>
+        <f t="shared" ref="N86" si="128">SUM(N83:N85)</f>
         <v>-21742</v>
       </c>
       <c r="O86" s="6">
@@ -4994,11 +5407,19 @@
         <f>SUM(P83:P85)</f>
         <v>-6563</v>
       </c>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>80</v>
       </c>
+      <c r="K87" s="1">
+        <v>-246</v>
+      </c>
       <c r="N87" s="1">
         <v>-130</v>
       </c>
@@ -5012,6 +5433,10 @@
     <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>81</v>
+      </c>
+      <c r="K88" s="6">
+        <f>+K87+K86+K81+K76</f>
+        <v>1937</v>
       </c>
       <c r="N88" s="6">
         <f>+N87+N86+N81+N76</f>

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC50B14-CF14-4F4E-BD2E-C4340E0D6919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC18734B-E328-4F52-8264-FF05D5925E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52185" yWindow="1185" windowWidth="23775" windowHeight="15225" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="56040" yWindow="645" windowWidth="22515" windowHeight="19365" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="IP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +39,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={FBBFA768-8F12-42F0-9C0B-EE828045336C}</author>
     <author>tc={0E3DC74B-1EA6-4DE1-9FC1-22223C626216}</author>
     <author>tc={BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}</author>
     <author>tc={8C543166-7E6A-448B-B7E3-720F51E35135}</author>
     <author>tc={37B1D132-4F99-4BFA-B9DE-FA9D39796D75}</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
+    <comment ref="T24" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Reels &gt;1B run-rate</t>
+      </text>
+    </comment>
+    <comment ref="R25" authorId="1" shapeId="0" xr:uid="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +62,7 @@
     Q321: 31.5B-34B guidance</t>
       </text>
     </comment>
-    <comment ref="O25" authorId="1" shapeId="0" xr:uid="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
+    <comment ref="S25" authorId="2" shapeId="0" xr:uid="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +70,7 @@
     Q421 guidance: 27-29B</t>
       </text>
     </comment>
-    <comment ref="P25" authorId="2" shapeId="0" xr:uid="{8C543166-7E6A-448B-B7E3-720F51E35135}">
+    <comment ref="T25" authorId="3" shapeId="0" xr:uid="{8C543166-7E6A-448B-B7E3-720F51E35135}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +78,7 @@
     Q122 guidance: 28-30B</t>
       </text>
     </comment>
-    <comment ref="Q25" authorId="3" shapeId="0" xr:uid="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
+    <comment ref="U25" authorId="4" shapeId="0" xr:uid="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="195">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -447,6 +457,225 @@
   </si>
   <si>
     <t>ROW Ads</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q318</t>
+  </si>
+  <si>
+    <t>Q218</t>
+  </si>
+  <si>
+    <t>Q118</t>
+  </si>
+  <si>
+    <t>Stories?</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>FCF TTM</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>Monitoring circuit including cascaded s-boxes for fault injection attack protection</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>FACEBOOK TECHNOLOGIES, LLC (Menlo Park, CA)</t>
+  </si>
+  <si>
+    <t>Inventors</t>
+  </si>
+  <si>
+    <t>Satpathy; Sudhir (Redmond, WA), Powiertowski; Wojciech Stefan (Kirkland, WA), Modadugu; Nagendra Gupta (San Francisco, CA), Upasani; Neeraj (Sammamish, WA)</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Virtual reality-based augmented reality development system</t>
+  </si>
+  <si>
+    <t>Bond; Lars Anders (San Mateo, CA), Georg; Francesco (Mountain View, CA), Ocampo; Christopher John (Dublin, CA), Slater; Michael (Nottingham, GB), Smet; Stef Marc (London, GB), Verlinde; Hannes (Post-MSX, GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	FACEBOOK TECHNOLOGIES, LLC (Menlo Park, CA)</t>
+  </si>
+  <si>
+    <t>Lu; Lu (Kirkland, WA), Li; Gang (Bothwell, WA), Lee; Seungjae (Redmond, WA), Wang; Mengfi (Seattle, WA)</t>
+  </si>
+  <si>
+    <t>Pancake lens including diffuser</t>
+  </si>
+  <si>
+    <t>Gollier; Jacques (Sammamish, WA), Geng; Ying (Bellevue, WA), Chen; Dong (Foster City, CA)</t>
+  </si>
+  <si>
+    <t>High-resolution liquid crystal displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Facebook Technologies, LLC (Menlo Park, CA)</t>
+  </si>
+  <si>
+    <t>Fluidic valve</t>
+  </si>
+  <si>
+    <t>Facebook Technologies, LLC (Menlo Park, CA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Schied; Christoph Hermann (Seattle, WA), Kaplanyan; Anton S. (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>Systems and methods for graphics rendering based on machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Hirsh; Seth Michael (Seattle, WA), Chao; Qing (Redmond, WA), Cavin; Robert Dale (Seattle, WA), Guestrin; Elias Daniel (Redmond, WA), Hall; Michael (Bellevue, WA)</t>
+  </si>
+  <si>
+    <t>Gaze detection pipeline in an artificial reality system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bikumandla; Manoj (Union City, CA), Bardagjy; Andrew Matthew (Seattle, WA), Hazegh; Cina (Walnut Creek, CA)</t>
+  </si>
+  <si>
+    <t>Systems and methods for optical demodulation in a depth-sensing device</t>
+  </si>
+  <si>
+    <t>Systems and methods for temporal anti-aliasing</t>
+  </si>
+  <si>
+    <t>Ning; Tianxin (Mountain View, CA), Jiang; Haomiao (Sunnyvale, CA), Bastani; Behnam (Palo Alto, CA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Facebook Technologies, LLC. (Menlo Park, CA)</t>
+  </si>
+  <si>
+    <t>Buckley; Edward (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>Systems and methods for mask-based spatio-temporal dithering</t>
+  </si>
+  <si>
+    <t>Artificial reality system using a multisurface display protocol to communicate surface data</t>
+  </si>
+  <si>
+    <t>Tamama; Hideo (Kirkland, WA), Mathur; Alok Kumar (Cupertino, CA), Clohset; Steve John (San Francisco, CA)</t>
+  </si>
+  <si>
+    <t>Goodall; Todd (Mill Valley, CA), Kaplanyan; Anton S (Redmond, WA), Patney; Anjul (Kirkland, WA), Sriwasansak; Jamorn (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>Efficient motion-compensated spatiotemporal sampling</t>
+  </si>
+  <si>
+    <t>Selfon; Scott Phillip (Kirkland, WA)</t>
+  </si>
+  <si>
+    <t>Systems and methods for audio adjustment</t>
+  </si>
+  <si>
+    <t>Facebook Technologies, LLC. (Menlo Park, CA)</t>
+  </si>
+  <si>
+    <t>Atlas; Charlene Mary (Redmond, WA), Bachy; Romain (Seattle, WA), MacKenzie; Kevin James (Sammamish, WA), Matsuda; Nathan (Seattle, WA), Murdison; Thomas Scott (Kirkland, WA), Quigley; Ocean (Oakland, CA), Sears; Jasmine Soria (Kirkland, WA)</t>
+  </si>
+  <si>
+    <t>Adaptive rendering in artificial reality environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Simon Kreuz; Tomas (Pittsburgh, PA), Saragih; Jason (Pittsburgh, PA), Lombardi; Stephen Anthony (Pittsburgh, PA), Ma; Shugao (Pittsburgh, PA), Schwartz; Gabriel Bailowitz (Pittsburgh, PA)</t>
+  </si>
+  <si>
+    <t>Systems and methods for rendering avatar with high resolution geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Golas; Abhinav (Burlingame, CA)</t>
+  </si>
+  <si>
+    <t>Distortion-corrected rasterization</t>
+  </si>
+  <si>
+    <t>Randomized clock cycle lengths for boot sequences</t>
+  </si>
+  <si>
+    <t>Ravasz; Jonathan (London, GB), Stevens; Jasper (London, GB), Varga; Adam Tibor (London, GB), Pinchon; Etienne (London, GB), Tickner; Simon Charles (Canterbury, GB), Spurlock; Jennifer Lynn (Seattle, WA), Sorge-Toomey; Kyle Eric (Seattle, WA), Ellis; Robert (London, GB), Fox; Barrett (Berkeley, CA)</t>
+  </si>
+  <si>
+    <t>Detecting input using a stylus in artificial reality systems based on a stylus movement after a stylus selection action</t>
+  </si>
+  <si>
+    <t>Optical assembly with holographic optics for folded optical path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Maimone; Andrew (Duvall, WA), Wang; Junren (Redmond, WA), Silverstein; Barry (Kirkland, WA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Tanner; Christopher Richard (San Carlos, CA), Havilio; Amir Mesguich (San Francisco, CA), Pujals; Michelle (Los Gatos, CA), Noris; Gioacchino (Zurich, CH), Marra; Alessia (Zurich, CH), Wallen; Nicholas (South San Francisco, CA)</t>
+  </si>
+  <si>
+    <t>Mixed reality objects in virtual reality environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Zwiegincew; Arthur (Medina, CA), Mittertreiner; Gwen Erick Eng (Mountain View, CA), Keep; Andrew William (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>System and method of utilizing data binding to propagate data changes</t>
+  </si>
+  <si>
+    <t>Gong; Jun (Redmond, WA), Gupta; Aakar (Redmond, WA), Benko; Hrvoje (Seattle, WA)</t>
+  </si>
+  <si>
+    <t>Wearable device and user input system for computing devices and artificial reality environments</t>
+  </si>
+  <si>
+    <t>Bodolec; Arthur (New York City, NY), Shu; Jing (Sunnyvale, CA), Young; Lindsay (San Francisco, CA), Summers; Melissa Erin (Charlotte, NC), Zeller; Andrea (Bothell, WA), Lee; Seohyun (Mountain View, CA), Gokalp; Ayfer (Kirkland, WA)</t>
+  </si>
+  <si>
+    <t>Suspend mode feature for artificial reality systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lane; Austin (Redmond, WA), Colburn; Matthew E. (Woodinville, WA), Calafiore; Giuseppe (Redmond, WA), Mohanty; Nihar Ranjan (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>Nanoimprint lithography material with switchable mechanical properties</t>
+  </si>
+  <si>
+    <t>Illumination device with encapsulated lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Sharma; Robin (Redmond, WA), Ouderkirk; Andrew John (Redmond, WA), Liao; Christopher Yuan Ting (Seattle, WA), Zhang; Qi (Kirkland, WA), Malhotra; Tanya (Redmond, WA), Hatzillias; Karol Constantine (Kenmore, WA), Scheller; Maik (Redmond, WA), Ye; Sheng (Redmond, WA), Andreev; Gregory Olegovic (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>D960,160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bristol; Peter Wesley (Seattle, WA), Chen; Yi-yaun (Seattle, WA), Romano; Mauricio (Redmond, WA), Newbury; Peter Allan Chase (Burlington, WA)</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Lu; Gang (Pleasanton, CA), Doshi; Nihar (Fremont, CA), Han; Jiwon Steve (San Ramon, CA), Wang; Xiaoguang (Sunnyvale, CA), Zheng; Dong (Saratoga, CA), Hu; Chunyu (Saratoga, CA), Qu; Qi (Redmond, WA)</t>
+  </si>
+  <si>
+    <t>Switching between different communication protocols</t>
   </si>
 </sst>
 </file>
@@ -511,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -552,6 +781,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -574,15 +804,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -624,13 +854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -978,16 +1208,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N25" dT="2022-06-12T02:12:46.51" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
+  <threadedComment ref="T24" dT="2022-09-30T13:25:09.70" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
+    <text>Reels &gt;1B run-rate</text>
+  </threadedComment>
+  <threadedComment ref="R25" dT="2022-06-12T02:12:46.51" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
     <text>Q321: 31.5B-34B guidance</text>
   </threadedComment>
-  <threadedComment ref="O25" dT="2022-06-12T01:45:07.26" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
+  <threadedComment ref="S25" dT="2022-06-12T01:45:07.26" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
     <text>Q421 guidance: 27-29B</text>
   </threadedComment>
-  <threadedComment ref="P25" dT="2022-06-11T18:28:26.10" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{8C543166-7E6A-448B-B7E3-720F51E35135}">
+  <threadedComment ref="T25" dT="2022-06-11T18:28:26.10" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{8C543166-7E6A-448B-B7E3-720F51E35135}">
     <text>Q122 guidance: 28-30B</text>
   </threadedComment>
-  <threadedComment ref="Q25" dT="2022-07-27T23:03:53.04" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
+  <threadedComment ref="U25" dT="2022-07-27T23:03:53.04" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
     <text>Q222 guidance: 26-28.5B</text>
   </threadedComment>
 </ThreadedComments>
@@ -997,7 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1013,8 +1248,8 @@
       <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>175.57</v>
+      <c r="M2" s="17">
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1028,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="M3" s="3">
-        <v>2742</v>
+        <v>2713</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1046,24 +1281,27 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>481412.94</v>
+        <v>369510.6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>31</v>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>43890</v>
+        <v>47025</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1080,7 +1318,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>437522.94</v>
+        <v>322485.59999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1165,153 +1403,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:CS91"/>
+  <dimension ref="A1:CW94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT50" sqref="AT50"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="1"/>
+    <col min="3" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <v>2015</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2016</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AO2" si="0">+AA2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AS2" si="0">+AE2+1</f>
         <v>2017</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1319,43 +1569,49 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
+        <v>2260</v>
+      </c>
+      <c r="K3" s="6">
         <v>2360</v>
       </c>
-      <c r="H3" s="6">
+      <c r="L3" s="6">
         <v>2470</v>
       </c>
-      <c r="I3" s="6">
+      <c r="M3" s="6">
         <v>2540</v>
       </c>
-      <c r="J3" s="6">
+      <c r="N3" s="6">
         <v>2600</v>
       </c>
-      <c r="K3" s="6">
+      <c r="O3" s="6">
         <v>2720</v>
       </c>
-      <c r="L3" s="6">
+      <c r="P3" s="6">
         <v>2760</v>
       </c>
-      <c r="M3" s="6">
+      <c r="Q3" s="6">
         <v>2810</v>
       </c>
-      <c r="N3" s="6">
+      <c r="R3" s="6">
         <v>2820</v>
       </c>
-      <c r="O3" s="6">
+      <c r="S3" s="6">
         <v>2870</v>
       </c>
-      <c r="P3" s="6">
+      <c r="T3" s="6">
         <v>2880</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1363,43 +1619,49 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <v>2890</v>
+      </c>
+      <c r="K4" s="6">
         <v>2990</v>
       </c>
-      <c r="H4" s="6">
+      <c r="L4" s="6">
         <v>3140</v>
       </c>
-      <c r="I4" s="6">
+      <c r="M4" s="6">
         <v>3210</v>
       </c>
-      <c r="J4" s="6">
+      <c r="N4" s="6">
         <v>3300</v>
       </c>
-      <c r="K4" s="6">
+      <c r="O4" s="6">
         <v>3450</v>
       </c>
-      <c r="L4" s="6">
+      <c r="P4" s="6">
         <v>3510</v>
       </c>
-      <c r="M4" s="6">
+      <c r="Q4" s="6">
         <v>3580</v>
       </c>
-      <c r="N4" s="6">
+      <c r="R4" s="6">
         <v>3590</v>
       </c>
-      <c r="O4" s="6">
+      <c r="S4" s="6">
         <v>3640</v>
       </c>
-      <c r="P4" s="6">
+      <c r="T4" s="6">
         <v>3650</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1408,42 +1670,54 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
+        <v>1560</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1590</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1620</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1660</v>
+      </c>
+      <c r="K5" s="6">
         <v>1734</v>
       </c>
-      <c r="H5" s="6">
+      <c r="L5" s="6">
         <v>1785</v>
       </c>
-      <c r="I5" s="6">
+      <c r="M5" s="6">
         <v>1820</v>
       </c>
-      <c r="J5" s="6">
+      <c r="N5" s="6">
         <v>1845</v>
       </c>
-      <c r="K5" s="6">
+      <c r="O5" s="6">
         <v>1878</v>
       </c>
-      <c r="L5" s="6">
+      <c r="P5" s="6">
         <v>1908</v>
       </c>
-      <c r="M5" s="6">
+      <c r="Q5" s="6">
         <v>1930</v>
       </c>
-      <c r="N5" s="6">
+      <c r="R5" s="6">
         <v>1929</v>
       </c>
-      <c r="O5" s="6">
+      <c r="S5" s="6">
         <v>1960</v>
       </c>
-      <c r="P5" s="6">
+      <c r="T5" s="6">
         <v>1968</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1451,23 +1725,15 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>195</v>
-      </c>
-      <c r="H6" s="6">
-        <v>198</v>
-      </c>
-      <c r="I6" s="6">
-        <v>196</v>
-      </c>
-      <c r="J6" s="6">
-        <v>195</v>
-      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6">
         <v>195</v>
       </c>
       <c r="L6" s="6">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M6" s="6">
         <v>196</v>
@@ -1476,18 +1742,30 @@
         <v>195</v>
       </c>
       <c r="O6" s="6">
+        <v>195</v>
+      </c>
+      <c r="P6" s="6">
+        <v>195</v>
+      </c>
+      <c r="Q6" s="6">
         <v>196</v>
       </c>
-      <c r="P6" s="6">
+      <c r="R6" s="6">
+        <v>195</v>
+      </c>
+      <c r="S6" s="6">
+        <v>196</v>
+      </c>
+      <c r="T6" s="6">
         <v>197</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1496,42 +1774,54 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
+        <v>2380</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2410</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2450</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K7" s="6">
         <v>2603</v>
       </c>
-      <c r="H7" s="6">
+      <c r="L7" s="6">
         <v>2701</v>
       </c>
-      <c r="I7" s="6">
+      <c r="M7" s="6">
         <v>2740</v>
       </c>
-      <c r="J7" s="6">
+      <c r="N7" s="6">
         <v>2797</v>
       </c>
-      <c r="K7" s="6">
+      <c r="O7" s="6">
         <v>2853</v>
       </c>
-      <c r="L7" s="6">
+      <c r="P7" s="6">
         <v>2895</v>
       </c>
-      <c r="M7" s="6">
+      <c r="Q7" s="6">
         <v>2910</v>
       </c>
-      <c r="N7" s="6">
+      <c r="R7" s="6">
         <v>2912</v>
       </c>
-      <c r="O7" s="6">
+      <c r="S7" s="6">
         <v>2936</v>
       </c>
-      <c r="P7" s="6">
+      <c r="T7" s="6">
         <v>2934</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>101</v>
       </c>
@@ -1539,43 +1829,47 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>253</v>
       </c>
-      <c r="H8" s="6">
+      <c r="L8" s="6">
         <v>256</v>
       </c>
-      <c r="I8" s="6">
+      <c r="M8" s="6">
         <v>255</v>
       </c>
-      <c r="J8" s="6">
+      <c r="N8" s="6">
         <v>258</v>
       </c>
-      <c r="K8" s="6">
+      <c r="O8" s="6">
         <v>259</v>
       </c>
-      <c r="L8" s="6">
+      <c r="P8" s="6">
         <v>259</v>
       </c>
-      <c r="M8" s="6">
+      <c r="Q8" s="6">
         <v>261</v>
       </c>
-      <c r="N8" s="6">
+      <c r="R8" s="6">
         <v>262</v>
       </c>
-      <c r="O8" s="6">
+      <c r="S8" s="6">
         <v>263</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <v>264</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1595,8 +1889,12 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
@@ -1604,53 +1902,57 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="9">
-        <f t="shared" ref="G10:N10" si="1">+G25/G4</f>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9">
+        <f t="shared" ref="K10:R10" si="1">+K25/K4</f>
         <v>5.9321070234113709</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <f t="shared" si="1"/>
         <v>5.9512738853503189</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <f t="shared" si="1"/>
         <v>6.6884735202492216</v>
       </c>
-      <c r="J10" s="9">
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
         <v>8.5066666666666659</v>
       </c>
-      <c r="K10" s="9">
+      <c r="O10" s="9">
         <f t="shared" si="1"/>
         <v>7.5857971014492751</v>
       </c>
-      <c r="L10" s="9">
+      <c r="P10" s="9">
         <f t="shared" si="1"/>
         <v>8.2840455840455842</v>
       </c>
-      <c r="M10" s="9">
+      <c r="Q10" s="9">
         <f t="shared" si="1"/>
         <v>8.1033519553072626</v>
       </c>
-      <c r="N10" s="9">
+      <c r="R10" s="9">
         <f t="shared" si="1"/>
         <v>9.3791086350974933</v>
       </c>
-      <c r="O10" s="9">
-        <f>+O25/O4</f>
+      <c r="S10" s="9">
+        <f>+S25/S4</f>
         <v>7.6670329670329673</v>
       </c>
-      <c r="P10" s="9">
-        <f>+P25/P4</f>
+      <c r="T10" s="9">
+        <f>+T25/T4</f>
         <v>7.8964383561643832</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
@@ -1658,50 +1960,54 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f t="shared" ref="H11:N11" si="2">AVERAGE(G10:H10)</f>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
+        <f t="shared" ref="L11:R11" si="2">AVERAGE(K10:L10)</f>
         <v>5.9416904543808453</v>
       </c>
-      <c r="I11" s="9">
+      <c r="M11" s="9">
         <f t="shared" si="2"/>
         <v>6.3198737027997698</v>
       </c>
-      <c r="J11" s="9">
+      <c r="N11" s="9">
         <f t="shared" si="2"/>
         <v>7.5975700934579438</v>
       </c>
-      <c r="K11" s="9">
+      <c r="O11" s="9">
         <f t="shared" si="2"/>
         <v>8.0462318840579705</v>
       </c>
-      <c r="L11" s="9">
+      <c r="P11" s="9">
         <f t="shared" si="2"/>
         <v>7.9349213427474297</v>
       </c>
-      <c r="M11" s="9">
+      <c r="Q11" s="9">
         <f t="shared" si="2"/>
         <v>8.1936987696764234</v>
       </c>
-      <c r="N11" s="9">
+      <c r="R11" s="9">
         <f t="shared" si="2"/>
         <v>8.7412302952023779</v>
       </c>
-      <c r="O11" s="9">
-        <f>AVERAGE(N10:O10)</f>
+      <c r="S11" s="9">
+        <f>AVERAGE(R10:S10)</f>
         <v>8.5230708010652307</v>
       </c>
-      <c r="P11" s="9">
-        <f>AVERAGE(O10:P10)</f>
+      <c r="T11" s="9">
+        <f>AVERAGE(S10:T10)</f>
         <v>7.7817356615986757</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>100</v>
       </c>
@@ -1709,38 +2015,42 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16">
-        <f t="shared" ref="L12:N12" si="3">L11/H11-1</f>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
+        <f t="shared" ref="P12:R12" si="3">P11/L11-1</f>
         <v>0.33546528612862403</v>
       </c>
-      <c r="M12" s="16">
+      <c r="Q12" s="16">
         <f t="shared" si="3"/>
         <v>0.29649723317200616</v>
       </c>
-      <c r="N12" s="16">
+      <c r="R12" s="16">
         <f t="shared" si="3"/>
         <v>0.15052973354325583</v>
       </c>
-      <c r="O12" s="16">
-        <f>O11/K11-1</f>
+      <c r="S12" s="16">
+        <f>S11/O11-1</f>
         <v>5.9262388143700218E-2</v>
       </c>
-      <c r="P12" s="16">
-        <f>P11/L11-1</f>
+      <c r="T12" s="16">
+        <f>T11/P11-1</f>
         <v>-1.9305255154011935E-2</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
@@ -1748,53 +2058,57 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="9">
-        <f t="shared" ref="G13:N13" si="4">+G24/G4</f>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9">
+        <f t="shared" ref="K13:R13" si="4">+K24/K4</f>
         <v>5.8327759197324411</v>
       </c>
-      <c r="H13" s="9">
+      <c r="L13" s="9">
         <f t="shared" si="4"/>
         <v>5.834713375796178</v>
       </c>
-      <c r="I13" s="9">
+      <c r="M13" s="9">
         <f t="shared" si="4"/>
         <v>6.6109034267912774</v>
       </c>
-      <c r="J13" s="9">
+      <c r="N13" s="9">
         <f t="shared" si="4"/>
         <v>8.2384848484848483</v>
       </c>
-      <c r="K13" s="9">
+      <c r="O13" s="9">
         <f t="shared" si="4"/>
         <v>7.373623188405797</v>
       </c>
-      <c r="L13" s="9">
+      <c r="P13" s="9">
         <f t="shared" si="4"/>
         <v>8.1424501424501425</v>
       </c>
-      <c r="M13" s="9">
+      <c r="Q13" s="9">
         <f t="shared" si="4"/>
         <v>7.8983240223463689</v>
       </c>
-      <c r="N13" s="9">
+      <c r="R13" s="9">
         <f t="shared" si="4"/>
         <v>9.0916434540389979</v>
       </c>
-      <c r="O13" s="9">
-        <f>+O24/O4</f>
+      <c r="S13" s="9">
+        <f>+S24/S4</f>
         <v>7.4170329670329673</v>
       </c>
-      <c r="P13" s="9">
-        <f>+P24/P4</f>
+      <c r="T13" s="9">
+        <f>+T24/T4</f>
         <v>7.7128767123287671</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -1802,53 +2116,57 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="9">
-        <f t="shared" ref="G14:N14" si="5">+G24/G3</f>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9">
+        <f t="shared" ref="K14:R14" si="5">+K24/K3</f>
         <v>7.3898305084745761</v>
       </c>
-      <c r="H14" s="9">
+      <c r="L14" s="9">
         <f t="shared" si="5"/>
         <v>7.4174089068825912</v>
       </c>
-      <c r="I14" s="9">
+      <c r="M14" s="9">
         <f t="shared" si="5"/>
         <v>8.3547244094488189</v>
       </c>
-      <c r="J14" s="9">
+      <c r="N14" s="9">
         <f t="shared" si="5"/>
         <v>10.456538461538461</v>
       </c>
-      <c r="K14" s="9">
+      <c r="O14" s="9">
         <f t="shared" si="5"/>
         <v>9.3525735294117656</v>
       </c>
-      <c r="L14" s="9">
+      <c r="P14" s="9">
         <f t="shared" si="5"/>
         <v>10.355072463768115</v>
       </c>
-      <c r="M14" s="9">
+      <c r="Q14" s="9">
         <f t="shared" si="5"/>
         <v>10.062633451957295</v>
       </c>
-      <c r="N14" s="9">
+      <c r="R14" s="9">
         <f t="shared" si="5"/>
         <v>11.574113475177304</v>
       </c>
-      <c r="O14" s="9">
-        <f>+O24/O3</f>
+      <c r="S14" s="9">
+        <f>+S24/S3</f>
         <v>9.4069686411149824</v>
       </c>
-      <c r="P14" s="9">
-        <f t="shared" ref="P14" si="6">+P24/P3</f>
+      <c r="T14" s="9">
+        <f t="shared" ref="T14" si="6">+T24/T3</f>
         <v>9.7750000000000004</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
@@ -1856,50 +2174,54 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <f t="shared" ref="H15:N15" si="7">AVERAGE(G14:H14)</f>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
+        <f t="shared" ref="L15:R15" si="7">AVERAGE(K14:L14)</f>
         <v>7.4036197076785832</v>
       </c>
-      <c r="I15" s="9">
+      <c r="M15" s="9">
         <f t="shared" si="7"/>
         <v>7.8860666581657046</v>
       </c>
-      <c r="J15" s="9">
+      <c r="N15" s="9">
         <f t="shared" si="7"/>
         <v>9.405631435493639</v>
       </c>
-      <c r="K15" s="9">
+      <c r="O15" s="9">
         <f t="shared" si="7"/>
         <v>9.9045559954751141</v>
       </c>
-      <c r="L15" s="9">
+      <c r="P15" s="9">
         <f t="shared" si="7"/>
         <v>9.8538229965899404</v>
       </c>
-      <c r="M15" s="9">
+      <c r="Q15" s="9">
         <f t="shared" si="7"/>
         <v>10.208852957862705</v>
       </c>
-      <c r="N15" s="9">
+      <c r="R15" s="9">
         <f t="shared" si="7"/>
         <v>10.818373463567299</v>
       </c>
-      <c r="O15" s="9">
-        <f>AVERAGE(N14:O14)</f>
+      <c r="S15" s="9">
+        <f>AVERAGE(R14:S14)</f>
         <v>10.490541058146142</v>
       </c>
-      <c r="P15" s="9">
-        <f t="shared" ref="P15" si="8">AVERAGE(O14:P14)</f>
+      <c r="T15" s="9">
+        <f t="shared" ref="T15" si="8">AVERAGE(S14:T14)</f>
         <v>9.5909843205574923</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>100</v>
       </c>
@@ -1912,33 +2234,37 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="16">
-        <f t="shared" ref="L16:N16" si="9">L15/H15-1</f>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="16">
+        <f t="shared" ref="P16:R16" si="9">P15/L15-1</f>
         <v>0.33094667009573109</v>
       </c>
-      <c r="M16" s="16">
+      <c r="Q16" s="16">
         <f t="shared" si="9"/>
         <v>0.29454307202588104</v>
       </c>
-      <c r="N16" s="16">
+      <c r="R16" s="16">
         <f t="shared" si="9"/>
         <v>0.15020172093310546</v>
       </c>
-      <c r="O16" s="16">
-        <f>O15/K15-1</f>
+      <c r="S16" s="16">
+        <f>S15/O15-1</f>
         <v>5.9163183381338413E-2</v>
       </c>
-      <c r="P16" s="16">
-        <f>P15/L15-1</f>
+      <c r="T16" s="16">
+        <f>T15/P15-1</f>
         <v>-2.6673776880648981E-2</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-    </row>
-    <row r="17" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+    </row>
+    <row r="17" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1951,15 +2277,19 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>121</v>
       </c>
@@ -1967,43 +2297,47 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
         <v>1654</v>
       </c>
-      <c r="H18" s="6">
+      <c r="L18" s="6">
         <v>1539</v>
       </c>
-      <c r="I18" s="6">
+      <c r="M18" s="6">
         <v>1980</v>
       </c>
-      <c r="J18" s="6">
+      <c r="N18" s="6">
         <v>2512</v>
       </c>
-      <c r="K18" s="6">
+      <c r="O18" s="6">
         <v>2434</v>
       </c>
-      <c r="L18" s="6">
+      <c r="P18" s="6">
         <v>2857</v>
       </c>
-      <c r="M18" s="6">
+      <c r="Q18" s="6">
         <v>2963</v>
       </c>
-      <c r="N18" s="6">
+      <c r="R18" s="6">
         <v>3220</v>
       </c>
-      <c r="O18" s="6">
+      <c r="S18" s="6">
         <v>2949</v>
       </c>
-      <c r="P18" s="6">
+      <c r="T18" s="6">
         <v>3169</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>107</v>
       </c>
@@ -2011,43 +2345,47 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
         <v>3236</v>
       </c>
-      <c r="H19" s="6">
+      <c r="L19" s="6">
         <v>3312</v>
       </c>
-      <c r="I19" s="6">
+      <c r="M19" s="6">
         <v>4202</v>
       </c>
-      <c r="J19" s="6">
+      <c r="N19" s="6">
         <v>4703</v>
       </c>
-      <c r="K19" s="6">
+      <c r="O19" s="6">
         <v>4735</v>
       </c>
-      <c r="L19" s="6">
+      <c r="P19" s="6">
         <v>5152</v>
       </c>
-      <c r="M19" s="6">
+      <c r="Q19" s="6">
         <v>5398</v>
       </c>
-      <c r="N19" s="6">
+      <c r="R19" s="6">
         <v>6183</v>
       </c>
-      <c r="O19" s="6">
+      <c r="S19" s="6">
         <v>5661</v>
       </c>
-      <c r="P19" s="6">
+      <c r="T19" s="6">
         <v>5835</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>104</v>
       </c>
@@ -2055,43 +2393,47 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
         <v>4171</v>
       </c>
-      <c r="H20" s="6">
+      <c r="L20" s="6">
         <v>4411</v>
       </c>
-      <c r="I20" s="6">
+      <c r="M20" s="6">
         <v>5051</v>
       </c>
-      <c r="J20" s="6">
+      <c r="N20" s="6">
         <v>6822</v>
       </c>
-      <c r="K20" s="6">
+      <c r="O20" s="6">
         <v>6373</v>
       </c>
-      <c r="L20" s="6">
+      <c r="P20" s="6">
         <v>7205</v>
       </c>
-      <c r="M20" s="6">
+      <c r="Q20" s="6">
         <v>6821</v>
       </c>
-      <c r="N20" s="6">
+      <c r="R20" s="6">
         <v>8174</v>
       </c>
-      <c r="O20" s="6">
+      <c r="S20" s="6">
         <v>6364</v>
       </c>
-      <c r="P20" s="6">
+      <c r="T20" s="6">
         <v>6360</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-    </row>
-    <row r="21" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
@@ -2099,98 +2441,125 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
         <v>8379</v>
       </c>
-      <c r="H21" s="6">
+      <c r="L21" s="6">
         <v>9059</v>
       </c>
-      <c r="I21" s="6">
+      <c r="M21" s="6">
         <v>9988</v>
       </c>
-      <c r="J21" s="6">
+      <c r="N21" s="6">
         <v>13150</v>
       </c>
-      <c r="K21" s="6">
+      <c r="O21" s="6">
         <v>11897</v>
       </c>
-      <c r="L21" s="6">
+      <c r="P21" s="6">
         <v>13366</v>
       </c>
-      <c r="M21" s="6">
+      <c r="Q21" s="6">
         <v>13094</v>
       </c>
-      <c r="N21" s="6">
+      <c r="R21" s="6">
         <v>15062</v>
       </c>
-      <c r="O21" s="6">
+      <c r="S21" s="6">
         <v>12024</v>
       </c>
-      <c r="P21" s="6">
+      <c r="T21" s="6">
         <v>12788</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="6">
+        <v>171</v>
+      </c>
+      <c r="D22" s="6">
+        <v>193</v>
+      </c>
+      <c r="E22" s="6">
+        <v>188</v>
+      </c>
+      <c r="F22" s="6">
+        <v>274</v>
+      </c>
       <c r="G22" s="6">
+        <v>165</v>
+      </c>
+      <c r="H22" s="6">
+        <v>262</v>
+      </c>
+      <c r="I22" s="6">
+        <v>269</v>
+      </c>
+      <c r="J22" s="6">
+        <v>346</v>
+      </c>
+      <c r="K22" s="6">
         <v>297</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6">
         <v>168</v>
       </c>
-      <c r="K22" s="6">
+      <c r="O22" s="6">
         <v>198</v>
       </c>
-      <c r="L22" s="6">
+      <c r="P22" s="6">
         <v>192</v>
       </c>
-      <c r="M22" s="6">
+      <c r="Q22" s="6">
         <v>176</v>
       </c>
-      <c r="N22" s="6">
+      <c r="R22" s="6">
         <v>155</v>
       </c>
-      <c r="O22" s="6">
+      <c r="S22" s="6">
         <v>215</v>
       </c>
-      <c r="P22" s="6">
+      <c r="T22" s="6">
         <v>218</v>
       </c>
-      <c r="Q22" s="6">
-        <f>+P22</f>
+      <c r="U22" s="6">
+        <f>+T22</f>
         <v>218</v>
       </c>
-      <c r="R22" s="6">
-        <f>+Q22</f>
+      <c r="V22" s="6">
+        <f>+U22</f>
         <v>218</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="AD22" s="3">
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="AG22" s="3">
+        <v>825</v>
+      </c>
+      <c r="AH22" s="3">
         <v>541</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AI22" s="3">
         <v>657</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AJ22" s="3">
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
@@ -2201,1720 +2570,2198 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
         <v>717</v>
       </c>
-      <c r="K23" s="6">
+      <c r="O23" s="6">
         <v>534</v>
       </c>
-      <c r="L23" s="6">
+      <c r="P23" s="6">
         <v>305</v>
       </c>
-      <c r="M23" s="6">
+      <c r="Q23" s="6">
         <v>558</v>
       </c>
-      <c r="N23" s="6">
+      <c r="R23" s="6">
         <v>877</v>
       </c>
-      <c r="O23" s="6">
+      <c r="S23" s="6">
         <v>695</v>
       </c>
-      <c r="P23" s="6">
+      <c r="T23" s="6">
         <v>452</v>
       </c>
-      <c r="Q23" s="6">
-        <f>+P23-50</f>
+      <c r="U23" s="6">
+        <f>+T23-50</f>
         <v>402</v>
       </c>
-      <c r="R23" s="6">
-        <f>+N23+100</f>
+      <c r="V23" s="6">
+        <f>+R23+100</f>
         <v>977</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="AD23" s="3">
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="AH23" s="3">
         <v>501</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AI23" s="3">
         <v>1139</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AJ23" s="3">
         <v>2274</v>
       </c>
     </row>
-    <row r="24" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="6">
+        <v>11795</v>
+      </c>
+      <c r="D24" s="6">
+        <v>13038</v>
+      </c>
+      <c r="E24" s="6">
+        <v>13539</v>
+      </c>
+      <c r="F24" s="6">
+        <v>16640</v>
+      </c>
       <c r="G24" s="6">
-        <f>SUM(G18:G21)</f>
+        <v>14912</v>
+      </c>
+      <c r="H24" s="6">
+        <v>16624</v>
+      </c>
+      <c r="I24" s="6">
+        <v>17383</v>
+      </c>
+      <c r="J24" s="6">
+        <v>20736</v>
+      </c>
+      <c r="K24" s="6">
+        <f>SUM(K18:K21)</f>
         <v>17440</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" ref="H24:P24" si="10">SUM(H18:H21)</f>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:T24" si="10">SUM(L18:L21)</f>
         <v>18321</v>
       </c>
-      <c r="I24" s="6">
+      <c r="M24" s="6">
         <f t="shared" si="10"/>
         <v>21221</v>
       </c>
-      <c r="J24" s="6">
+      <c r="N24" s="6">
         <f t="shared" si="10"/>
         <v>27187</v>
       </c>
-      <c r="K24" s="6">
+      <c r="O24" s="6">
         <f t="shared" si="10"/>
         <v>25439</v>
       </c>
-      <c r="L24" s="6">
+      <c r="P24" s="6">
         <f t="shared" si="10"/>
         <v>28580</v>
       </c>
-      <c r="M24" s="6">
+      <c r="Q24" s="6">
         <f t="shared" si="10"/>
         <v>28276</v>
       </c>
-      <c r="N24" s="6">
+      <c r="R24" s="6">
         <f t="shared" si="10"/>
         <v>32639</v>
       </c>
-      <c r="O24" s="6">
+      <c r="S24" s="6">
         <f t="shared" si="10"/>
         <v>26998</v>
       </c>
-      <c r="P24" s="6">
+      <c r="T24" s="6">
         <f t="shared" si="10"/>
         <v>28152</v>
       </c>
-      <c r="Q24" s="6">
-        <f>+M24*0.95</f>
+      <c r="U24" s="6">
+        <f>+Q24*0.95</f>
         <v>26862.199999999997</v>
       </c>
-      <c r="R24" s="6">
-        <f>+N24*1.05</f>
+      <c r="V24" s="6">
+        <f>+R24*1.05</f>
         <v>34270.950000000004</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="AD24" s="3">
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="AG24" s="3">
+        <v>55013</v>
+      </c>
+      <c r="AH24" s="3">
         <v>69655</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AI24" s="3">
         <v>84169</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AJ24" s="3">
         <v>114934</v>
       </c>
     </row>
-    <row r="25" spans="2:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:I25" si="11">SUM(C22:C24)</f>
+        <v>11966</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="11"/>
+        <v>13231</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="11"/>
+        <v>13727</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="11"/>
+        <v>16914</v>
+      </c>
       <c r="G25" s="8">
-        <f>SUM(G22:G24)</f>
-        <v>17737</v>
+        <f t="shared" ref="G25" si="12">SUM(G22:G24)</f>
+        <v>15077</v>
       </c>
       <c r="H25" s="8">
-        <v>18687</v>
+        <f t="shared" si="11"/>
+        <v>16886</v>
       </c>
       <c r="I25" s="8">
-        <v>21470</v>
+        <f t="shared" si="11"/>
+        <v>17652</v>
       </c>
       <c r="J25" s="8">
-        <v>28072</v>
+        <f>SUM(J22:J24)</f>
+        <v>21082</v>
       </c>
       <c r="K25" s="8">
         <f>SUM(K22:K24)</f>
-        <v>26171</v>
+        <v>17737</v>
       </c>
       <c r="L25" s="8">
-        <v>29077</v>
+        <v>18687</v>
       </c>
       <c r="M25" s="8">
-        <v>29010</v>
+        <v>21470</v>
       </c>
       <c r="N25" s="8">
-        <v>33671</v>
+        <v>28072</v>
       </c>
       <c r="O25" s="8">
         <f>SUM(O22:O24)</f>
-        <v>27908</v>
+        <v>26171</v>
       </c>
       <c r="P25" s="8">
-        <f>SUM(P22:P24)</f>
-        <v>28822</v>
+        <v>29077</v>
       </c>
       <c r="Q25" s="8">
-        <f>SUM(Q22:Q24)</f>
-        <v>27482.199999999997</v>
+        <v>29010</v>
       </c>
       <c r="R25" s="8">
-        <f>SUM(R22:R24)</f>
-        <v>35465.950000000004</v>
+        <v>33671</v>
       </c>
       <c r="S25" s="8">
         <f>SUM(S22:S24)</f>
+        <v>27908</v>
+      </c>
+      <c r="T25" s="8">
+        <f>SUM(T22:T24)</f>
+        <v>28822</v>
+      </c>
+      <c r="U25" s="8">
+        <f>SUM(U22:U24)</f>
+        <v>27482.199999999997</v>
+      </c>
+      <c r="V25" s="8">
+        <f>SUM(V22:V24)</f>
+        <v>35465.950000000004</v>
+      </c>
+      <c r="W25" s="8">
+        <f>SUM(W22:W24)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="8">
-        <f t="shared" ref="T25:V25" si="11">SUM(T22:T24)</f>
+      <c r="X25" s="8">
+        <f t="shared" ref="X25:Z25" si="13">SUM(X22:X24)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="8">
-        <f t="shared" si="11"/>
+      <c r="Y25" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V25" s="8">
-        <f t="shared" si="11"/>
+      <c r="Z25" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD25" s="7">
-        <f>SUM(AD22:AD24)</f>
+        <f t="shared" ref="AD25:AG25" si="14">SUM(AD22:AD24)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="14"/>
+        <v>55838</v>
+      </c>
+      <c r="AH25" s="7">
+        <f>SUM(AH22:AH24)</f>
         <v>70697</v>
       </c>
-      <c r="AE25" s="7">
-        <f t="shared" ref="AE25:AF25" si="12">SUM(AE22:AE24)</f>
+      <c r="AI25" s="7">
+        <f t="shared" ref="AI25:AJ25" si="15">SUM(AI22:AI24)</f>
         <v>85965</v>
       </c>
-      <c r="AF25" s="7">
-        <f t="shared" si="12"/>
+      <c r="AJ25" s="7">
+        <f t="shared" si="15"/>
         <v>117929</v>
       </c>
-      <c r="AG25" s="7">
-        <f>SUM(O25:R25)</f>
+      <c r="AK25" s="7">
+        <f>SUM(S25:V25)</f>
         <v>119678.15</v>
       </c>
-      <c r="AH25" s="7">
-        <f>+AG25*1.03</f>
-        <v>123268.4945</v>
-      </c>
-      <c r="AI25" s="7">
-        <f t="shared" ref="AI25:AO25" si="13">+AH25*1.03</f>
-        <v>126966.549335</v>
-      </c>
-      <c r="AJ25" s="7">
-        <f t="shared" si="13"/>
-        <v>130775.54581505001</v>
-      </c>
-      <c r="AK25" s="7">
-        <f t="shared" si="13"/>
-        <v>134698.81218950151</v>
-      </c>
       <c r="AL25" s="7">
-        <f t="shared" si="13"/>
-        <v>138739.77655518655</v>
+        <f>+AK25*0.95</f>
+        <v>113694.24249999999</v>
       </c>
       <c r="AM25" s="7">
-        <f t="shared" si="13"/>
-        <v>142901.96985184215</v>
+        <f>+AL25*0.95</f>
+        <v>108009.53037499999</v>
       </c>
       <c r="AN25" s="7">
-        <f t="shared" si="13"/>
-        <v>147189.02894739743</v>
+        <f>+AM25*1.1</f>
+        <v>118810.48341249999</v>
       </c>
       <c r="AO25" s="7">
-        <f t="shared" si="13"/>
-        <v>151604.69981581936</v>
-      </c>
-    </row>
-    <row r="26" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AN25*1.05</f>
+        <v>124751.007583125</v>
+      </c>
+      <c r="AP25" s="7">
+        <f t="shared" ref="AP25:AS25" si="16">+AO25*1.03</f>
+        <v>128493.53781061876</v>
+      </c>
+      <c r="AQ25" s="7">
+        <f t="shared" si="16"/>
+        <v>132348.34394493731</v>
+      </c>
+      <c r="AR25" s="7">
+        <f t="shared" si="16"/>
+        <v>136318.79426328544</v>
+      </c>
+      <c r="AS25" s="7">
+        <f t="shared" si="16"/>
+        <v>140408.358091184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="6">
+        <v>1927</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2214</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2418</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2796</v>
+      </c>
       <c r="G26" s="6">
+        <v>2816</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3307</v>
+      </c>
+      <c r="I26" s="6">
+        <v>3155</v>
+      </c>
+      <c r="J26" s="6">
+        <v>3492</v>
+      </c>
+      <c r="K26" s="6">
         <v>3459</v>
       </c>
-      <c r="H26" s="6">
+      <c r="L26" s="6">
         <v>3829</v>
       </c>
-      <c r="I26" s="6">
+      <c r="M26" s="6">
         <v>4194</v>
       </c>
-      <c r="J26" s="6">
+      <c r="N26" s="6">
         <v>5210</v>
       </c>
-      <c r="K26" s="6">
+      <c r="O26" s="6">
         <v>5131</v>
       </c>
-      <c r="L26" s="6">
+      <c r="P26" s="6">
         <v>5399</v>
       </c>
-      <c r="M26" s="6">
+      <c r="Q26" s="6">
         <v>5771</v>
       </c>
-      <c r="N26" s="6">
+      <c r="R26" s="6">
         <v>6348</v>
       </c>
-      <c r="O26" s="6">
+      <c r="S26" s="6">
         <v>6005</v>
       </c>
-      <c r="P26" s="6">
+      <c r="T26" s="6">
         <v>5192</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" ref="Q26:R26" si="14">+Q25-Q27</f>
+      <c r="U26" s="6">
+        <f t="shared" ref="U26:V26" si="17">+U25-U27</f>
         <v>5771.2619999999988</v>
       </c>
-      <c r="R26" s="6">
-        <f t="shared" si="14"/>
+      <c r="V26" s="6">
+        <f t="shared" si="17"/>
         <v>7447.8495000000003</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="AE26" s="3">
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="AG26" s="3">
+        <v>9355</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>12770</v>
+      </c>
+      <c r="AI26" s="3">
         <v>16692</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AJ26" s="3">
         <v>22649</v>
       </c>
-      <c r="AG26" s="3">
-        <f>+AG25-AG27</f>
+      <c r="AK26" s="3">
+        <f>+AK25-AK27</f>
         <v>22738.848499999993</v>
       </c>
-      <c r="AH26" s="3">
-        <f t="shared" ref="AH26:AO26" si="15">+AH25-AH27</f>
-        <v>23421.013954999988</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" si="15"/>
-        <v>24123.644373649993</v>
-      </c>
-      <c r="AJ26" s="3">
-        <f t="shared" si="15"/>
-        <v>24847.353704859488</v>
-      </c>
-      <c r="AK26" s="3">
-        <f t="shared" si="15"/>
-        <v>25592.774316005278</v>
-      </c>
       <c r="AL26" s="3">
-        <f t="shared" si="15"/>
-        <v>26360.557545485441</v>
+        <f t="shared" ref="AL26:AS26" si="18">+AL25-AL27</f>
+        <v>21601.906074999992</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="15"/>
-        <v>27151.37427185</v>
+        <f t="shared" si="18"/>
+        <v>20521.810771249991</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="15"/>
-        <v>27965.915500005503</v>
+        <f t="shared" si="18"/>
+        <v>22573.991848374993</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="15"/>
-        <v>28804.892965005667</v>
-      </c>
-    </row>
-    <row r="27" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>23702.691440793744</v>
+      </c>
+      <c r="AP26" s="3">
+        <f t="shared" si="18"/>
+        <v>24413.772184017551</v>
+      </c>
+      <c r="AQ26" s="3">
+        <f t="shared" si="18"/>
+        <v>25146.185349538078</v>
+      </c>
+      <c r="AR26" s="3">
+        <f t="shared" si="18"/>
+        <v>25900.570910024224</v>
+      </c>
+      <c r="AS26" s="3">
+        <f t="shared" si="18"/>
+        <v>26677.588037324953</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:D27" si="19">+C25-C26</f>
+        <v>10039</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="19"/>
+        <v>11017</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" ref="E27:G27" si="20">+E25-E26</f>
+        <v>11309</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="20"/>
+        <v>14118</v>
+      </c>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:J27" si="16">+G25-G26</f>
+        <f t="shared" si="20"/>
+        <v>12261</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" ref="H27" si="21">+H25-H26</f>
+        <v>13579</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" ref="I27:J27" si="22">+I25-I26</f>
+        <v>14497</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="22"/>
+        <v>17590</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" ref="K27:N27" si="23">+K25-K26</f>
         <v>14278</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="16"/>
+      <c r="L27" s="6">
+        <f t="shared" si="23"/>
         <v>14858</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="16"/>
+      <c r="M27" s="6">
+        <f t="shared" si="23"/>
         <v>17276</v>
       </c>
-      <c r="J27" s="6">
-        <f t="shared" si="16"/>
+      <c r="N27" s="6">
+        <f t="shared" si="23"/>
         <v>22862</v>
-      </c>
-      <c r="K27" s="6">
-        <f>+K25-K26</f>
-        <v>21040</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" ref="L27:N27" si="17">+L25-L26</f>
-        <v>23678</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="17"/>
-        <v>23239</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="17"/>
-        <v>27323</v>
       </c>
       <c r="O27" s="6">
         <f>+O25-O26</f>
+        <v>21040</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" ref="P27:R27" si="24">+P25-P26</f>
+        <v>23678</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="24"/>
+        <v>23239</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="24"/>
+        <v>27323</v>
+      </c>
+      <c r="S27" s="6">
+        <f>+S25-S26</f>
         <v>21903</v>
       </c>
-      <c r="P27" s="6">
-        <f>+P25-P26</f>
+      <c r="T27" s="6">
+        <f>+T25-T26</f>
         <v>23630</v>
       </c>
-      <c r="Q27" s="6">
-        <f>+Q25*0.79</f>
+      <c r="U27" s="6">
+        <f>+U25*0.79</f>
         <v>21710.937999999998</v>
       </c>
-      <c r="R27" s="6">
-        <f>+R25*0.79</f>
+      <c r="V27" s="6">
+        <f>+V25*0.79</f>
         <v>28018.100500000004</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="AE27" s="3">
-        <f>+AE25-AE26</f>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="AG27" s="3">
+        <f>+AG25-AG26</f>
+        <v>46483</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>+AH25-AH26</f>
+        <v>57927</v>
+      </c>
+      <c r="AI27" s="3">
+        <f>+AI25-AI26</f>
         <v>69273</v>
       </c>
-      <c r="AF27" s="3">
-        <f t="shared" ref="AF27" si="18">+AF25-AF26</f>
+      <c r="AJ27" s="3">
+        <f t="shared" ref="AJ27" si="25">+AJ25-AJ26</f>
         <v>95280</v>
       </c>
-      <c r="AG27" s="3">
-        <f>+AG25*0.81</f>
+      <c r="AK27" s="3">
+        <f>+AK25*0.81</f>
         <v>96939.301500000001</v>
       </c>
-      <c r="AH27" s="3">
-        <f t="shared" ref="AH27:AO27" si="19">+AH25*0.81</f>
-        <v>99847.480545000013</v>
-      </c>
-      <c r="AI27" s="3">
-        <f t="shared" si="19"/>
-        <v>102842.90496135001</v>
-      </c>
-      <c r="AJ27" s="3">
-        <f t="shared" si="19"/>
-        <v>105928.19211019052</v>
-      </c>
-      <c r="AK27" s="3">
-        <f t="shared" si="19"/>
-        <v>109106.03787349623</v>
-      </c>
       <c r="AL27" s="3">
-        <f t="shared" si="19"/>
-        <v>112379.2190097011</v>
+        <f t="shared" ref="AL27:AS27" si="26">+AL25*0.81</f>
+        <v>92092.336425000001</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" si="19"/>
-        <v>115750.59557999215</v>
+        <f t="shared" si="26"/>
+        <v>87487.719603749996</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="19"/>
-        <v>119223.11344739192</v>
+        <f t="shared" si="26"/>
+        <v>96236.491564124997</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" si="19"/>
-        <v>122799.80685081369</v>
-      </c>
-    </row>
-    <row r="28" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="26"/>
+        <v>101048.31614233126</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" si="26"/>
+        <v>104079.76562660121</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" si="26"/>
+        <v>107202.15859539923</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" si="26"/>
+        <v>110418.22335326122</v>
+      </c>
+      <c r="AS27" s="3">
+        <f t="shared" si="26"/>
+        <v>113730.77005385904</v>
+      </c>
+    </row>
+    <row r="28" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="6">
+        <v>2238</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2523</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2657</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2855</v>
+      </c>
       <c r="G28" s="6">
+        <v>2860</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3315</v>
+      </c>
+      <c r="I28" s="6">
+        <v>3548</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3877</v>
+      </c>
+      <c r="K28" s="6">
         <v>4015</v>
       </c>
-      <c r="H28" s="6">
+      <c r="L28" s="6">
         <v>4462</v>
       </c>
-      <c r="I28" s="6">
+      <c r="M28" s="6">
         <v>4763</v>
       </c>
-      <c r="J28" s="6">
+      <c r="N28" s="6">
         <v>5208</v>
       </c>
-      <c r="K28" s="6">
+      <c r="O28" s="6">
         <v>5197</v>
       </c>
-      <c r="L28" s="6">
+      <c r="P28" s="6">
         <v>6096</v>
       </c>
-      <c r="M28" s="6">
+      <c r="Q28" s="6">
         <v>6316</v>
       </c>
-      <c r="N28" s="6">
+      <c r="R28" s="6">
         <v>7046</v>
       </c>
-      <c r="O28" s="6">
+      <c r="S28" s="6">
         <v>7707</v>
       </c>
-      <c r="P28" s="6">
+      <c r="T28" s="6">
         <v>8690</v>
       </c>
-      <c r="Q28" s="6">
-        <f t="shared" ref="Q28:R28" si="20">+P28-50</f>
+      <c r="U28" s="6">
+        <f t="shared" ref="U28:V28" si="27">+T28-50</f>
         <v>8640</v>
       </c>
-      <c r="R28" s="6">
-        <f t="shared" si="20"/>
+      <c r="V28" s="6">
+        <f t="shared" si="27"/>
         <v>8590</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="AE28" s="3">
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="AG28" s="3">
+        <v>10273</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>13600</v>
+      </c>
+      <c r="AI28" s="3">
         <v>18447</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AJ28" s="3">
         <v>24655</v>
       </c>
-      <c r="AG28" s="3">
-        <f>+AF28*0.9</f>
+      <c r="AK28" s="3">
+        <f>+AJ28*0.9</f>
         <v>22189.5</v>
       </c>
-      <c r="AH28" s="3">
-        <f t="shared" ref="AH28:AO28" si="21">+AG28*0.9</f>
+      <c r="AL28" s="3">
+        <f>+AK28*0.9</f>
         <v>19970.55</v>
       </c>
-      <c r="AI28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AM28" s="3">
+        <f>+AL28*0.9</f>
         <v>17973.494999999999</v>
       </c>
-      <c r="AJ28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AN28" s="3">
+        <f>+AM28*0.9</f>
         <v>16176.145499999999</v>
       </c>
-      <c r="AK28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AO28" s="3">
+        <f>+AN28*0.9</f>
         <v>14558.530949999998</v>
       </c>
-      <c r="AL28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AP28" s="3">
+        <f>+AO28*0.9</f>
         <v>13102.677854999998</v>
       </c>
-      <c r="AM28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AQ28" s="3">
+        <f t="shared" ref="AL28:AS28" si="28">+AP28*0.9</f>
         <v>11792.410069499998</v>
       </c>
-      <c r="AN28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AR28" s="3">
+        <f t="shared" si="28"/>
         <v>10613.169062549998</v>
       </c>
-      <c r="AO28" s="3">
-        <f t="shared" si="21"/>
+      <c r="AS28" s="3">
+        <f t="shared" si="28"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="29" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="6">
+        <v>1595</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1855</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1928</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2467</v>
+      </c>
       <c r="G29" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2414</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2416</v>
+      </c>
+      <c r="J29" s="6">
+        <v>3026</v>
+      </c>
+      <c r="K29" s="6">
         <v>2787</v>
       </c>
-      <c r="H29" s="6">
+      <c r="L29" s="6">
         <v>2840</v>
       </c>
-      <c r="I29" s="6">
+      <c r="M29" s="6">
         <v>2683</v>
       </c>
-      <c r="J29" s="6">
+      <c r="N29" s="6">
         <v>3280</v>
       </c>
-      <c r="K29" s="6">
+      <c r="O29" s="6">
         <v>2843</v>
       </c>
-      <c r="L29" s="6">
+      <c r="P29" s="6">
         <v>3259</v>
       </c>
-      <c r="M29" s="6">
+      <c r="Q29" s="6">
         <v>3554</v>
       </c>
-      <c r="N29" s="6">
+      <c r="R29" s="6">
         <v>4387</v>
       </c>
-      <c r="O29" s="6">
+      <c r="S29" s="6">
         <v>3312</v>
       </c>
-      <c r="P29" s="6">
+      <c r="T29" s="6">
         <v>3595</v>
       </c>
-      <c r="Q29" s="6">
-        <f>+M29</f>
+      <c r="U29" s="6">
+        <f>+Q29</f>
         <v>3554</v>
       </c>
-      <c r="R29" s="6">
-        <f t="shared" ref="R29" si="22">+N29</f>
+      <c r="V29" s="6">
+        <f t="shared" ref="V29" si="29">+R29</f>
         <v>4387</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="AE29" s="3">
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="AG29" s="3">
+        <v>7846</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>9876</v>
+      </c>
+      <c r="AI29" s="3">
         <v>11591</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AJ29" s="3">
         <v>14043</v>
       </c>
-      <c r="AG29" s="3">
-        <f>+AF29</f>
+      <c r="AK29" s="3">
+        <f>+AJ29</f>
         <v>14043</v>
       </c>
-      <c r="AH29" s="3">
-        <f t="shared" ref="AH29:AO29" si="23">+AG29</f>
+      <c r="AL29" s="3">
+        <f t="shared" ref="AL29:AS29" si="30">+AK29</f>
         <v>14043</v>
       </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AM29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
-      <c r="AJ29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AN29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AO29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AP29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
-      <c r="AM29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AQ29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AR29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="23"/>
+      <c r="AS29" s="3">
+        <f t="shared" si="30"/>
         <v>14043</v>
       </c>
     </row>
-    <row r="30" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="6">
+        <v>757</v>
+      </c>
+      <c r="D30" s="6">
+        <v>776</v>
+      </c>
+      <c r="E30" s="6">
+        <v>943</v>
+      </c>
+      <c r="F30" s="6">
+        <v>976</v>
+      </c>
       <c r="G30" s="6">
+        <f>4064-3000</f>
+        <v>1064</v>
+      </c>
+      <c r="H30" s="6">
+        <f>3224-2000</f>
+        <v>1224</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1348</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1829</v>
+      </c>
+      <c r="K30" s="6">
         <v>1583</v>
       </c>
-      <c r="H30" s="6">
+      <c r="L30" s="6">
         <v>1593</v>
       </c>
-      <c r="I30" s="6">
+      <c r="M30" s="6">
         <v>1790</v>
       </c>
-      <c r="J30" s="6">
+      <c r="N30" s="6">
         <v>1599</v>
       </c>
-      <c r="K30" s="6">
+      <c r="O30" s="6">
         <v>1622</v>
       </c>
-      <c r="L30" s="6">
+      <c r="P30" s="6">
         <v>1956</v>
       </c>
-      <c r="M30" s="6">
+      <c r="Q30" s="6">
         <v>2946</v>
       </c>
-      <c r="N30" s="6">
+      <c r="R30" s="6">
         <v>3305</v>
       </c>
-      <c r="O30" s="6">
+      <c r="S30" s="6">
         <v>2360</v>
       </c>
-      <c r="P30" s="6">
+      <c r="T30" s="6">
         <v>2987</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" ref="Q30" si="24">+M30</f>
+      <c r="U30" s="6">
+        <f t="shared" ref="U30" si="31">+Q30</f>
         <v>2946</v>
       </c>
-      <c r="R30" s="6">
-        <f t="shared" ref="R30" si="25">+N30</f>
+      <c r="V30" s="6">
+        <f t="shared" ref="V30" si="32">+R30</f>
         <v>3305</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="AE30" s="3">
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="AG30" s="3">
+        <v>3451</v>
+      </c>
+      <c r="AH30" s="3">
+        <f>10465-5000</f>
+        <v>5465</v>
+      </c>
+      <c r="AI30" s="3">
         <v>6564</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AJ30" s="3">
         <v>9829</v>
       </c>
-      <c r="AG30" s="3">
-        <f t="shared" ref="AG30:AO30" si="26">+AF30</f>
+      <c r="AK30" s="3">
+        <f t="shared" ref="AK30:AS30" si="33">+AJ30</f>
         <v>9829</v>
       </c>
-      <c r="AH30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AL30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AI30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AM30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AJ30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AN30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AK30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AO30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AL30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AP30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AM30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AQ30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AN30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AR30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
-      <c r="AO30" s="3">
-        <f t="shared" si="26"/>
+      <c r="AS30" s="3">
+        <f t="shared" si="33"/>
         <v>9829</v>
       </c>
     </row>
-    <row r="31" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:D31" si="34">+C30+C29+C28</f>
+        <v>4590</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="34"/>
+        <v>5154</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:G31" si="35">+E30+E29+E28</f>
+        <v>5528</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="35"/>
+        <v>6298</v>
+      </c>
       <c r="G31" s="6">
-        <f t="shared" ref="G31" si="27">+G30+G29+G28</f>
+        <f t="shared" si="35"/>
+        <v>5944</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" ref="H31:I31" si="36">+H30+H29+H28</f>
+        <v>6953</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="36"/>
+        <v>7312</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" ref="J31:K31" si="37">+J30+J29+J28</f>
+        <v>8732</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="37"/>
         <v>8385</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" ref="H31" si="28">+H30+H29+H28</f>
+      <c r="L31" s="6">
+        <f t="shared" ref="L31" si="38">+L30+L29+L28</f>
         <v>8895</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" ref="I31" si="29">+I30+I29+I28</f>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31" si="39">+M30+M29+M28</f>
         <v>9236</v>
       </c>
-      <c r="J31" s="6">
-        <f t="shared" ref="J31" si="30">+J30+J29+J28</f>
+      <c r="N31" s="6">
+        <f t="shared" ref="N31" si="40">+N30+N29+N28</f>
         <v>10087</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" ref="K31:N31" si="31">+K30+K29+K28</f>
+      <c r="O31" s="6">
+        <f t="shared" ref="O31:R31" si="41">+O30+O29+O28</f>
         <v>9662</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="31"/>
+      <c r="P31" s="6">
+        <f t="shared" si="41"/>
         <v>11311</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="31"/>
+      <c r="Q31" s="6">
+        <f t="shared" si="41"/>
         <v>12816</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" si="31"/>
+      <c r="R31" s="6">
+        <f t="shared" si="41"/>
         <v>14738</v>
       </c>
-      <c r="O31" s="6">
-        <f>+O30+O29+O28</f>
+      <c r="S31" s="6">
+        <f>+S30+S29+S28</f>
         <v>13379</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" ref="P31:R31" si="32">+P30+P29+P28</f>
+      <c r="T31" s="6">
+        <f t="shared" ref="T31:V31" si="42">+T30+T29+T28</f>
         <v>15272</v>
       </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="32"/>
+      <c r="U31" s="6">
+        <f t="shared" si="42"/>
         <v>15140</v>
       </c>
-      <c r="R31" s="6">
-        <f t="shared" si="32"/>
+      <c r="V31" s="6">
+        <f t="shared" si="42"/>
         <v>16282</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="AE31" s="3">
-        <f>SUM(AE28:AE30)</f>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="AG31" s="3">
+        <f>SUM(AG28:AG30)</f>
+        <v>21570</v>
+      </c>
+      <c r="AH31" s="3">
+        <f>SUM(AH28:AH30)</f>
+        <v>28941</v>
+      </c>
+      <c r="AI31" s="3">
+        <f>SUM(AI28:AI30)</f>
         <v>36602</v>
       </c>
-      <c r="AF31" s="3">
-        <f t="shared" ref="AF31" si="33">SUM(AF28:AF30)</f>
+      <c r="AJ31" s="3">
+        <f t="shared" ref="AJ31" si="43">SUM(AJ28:AJ30)</f>
         <v>48527</v>
       </c>
-      <c r="AG31" s="3">
-        <f t="shared" ref="AG31" si="34">SUM(AG28:AG30)</f>
+      <c r="AK31" s="3">
+        <f t="shared" ref="AK31" si="44">SUM(AK28:AK30)</f>
         <v>46061.5</v>
       </c>
-      <c r="AH31" s="3">
-        <f t="shared" ref="AH31" si="35">SUM(AH28:AH30)</f>
+      <c r="AL31" s="3">
+        <f t="shared" ref="AL31" si="45">SUM(AL28:AL30)</f>
         <v>43842.55</v>
       </c>
-      <c r="AI31" s="3">
-        <f t="shared" ref="AI31" si="36">SUM(AI28:AI30)</f>
+      <c r="AM31" s="3">
+        <f t="shared" ref="AM31" si="46">SUM(AM28:AM30)</f>
         <v>41845.494999999995</v>
       </c>
-      <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="37">SUM(AJ28:AJ30)</f>
+      <c r="AN31" s="3">
+        <f t="shared" ref="AN31" si="47">SUM(AN28:AN30)</f>
         <v>40048.145499999999</v>
       </c>
-      <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="38">SUM(AK28:AK30)</f>
+      <c r="AO31" s="3">
+        <f t="shared" ref="AO31" si="48">SUM(AO28:AO30)</f>
         <v>38430.53095</v>
       </c>
-      <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="39">SUM(AL28:AL30)</f>
+      <c r="AP31" s="3">
+        <f t="shared" ref="AP31" si="49">SUM(AP28:AP30)</f>
         <v>36974.677855000002</v>
       </c>
-      <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="40">SUM(AM28:AM30)</f>
+      <c r="AQ31" s="3">
+        <f t="shared" ref="AQ31" si="50">SUM(AQ28:AQ30)</f>
         <v>35664.410069499994</v>
       </c>
-      <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="41">SUM(AN28:AN30)</f>
+      <c r="AR31" s="3">
+        <f t="shared" ref="AR31" si="51">SUM(AR28:AR30)</f>
         <v>34485.169062549998</v>
       </c>
-      <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="42">SUM(AO28:AO30)</f>
+      <c r="AS31" s="3">
+        <f t="shared" ref="AS31" si="52">SUM(AS28:AS30)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="32" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="6">
+        <f t="shared" ref="C32:D32" si="53">+C27-C31</f>
+        <v>5449</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="53"/>
+        <v>5863</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:G32" si="54">+E27-E31</f>
+        <v>5781</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="54"/>
+        <v>7820</v>
+      </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32" si="43">+G27-G31</f>
+        <f t="shared" si="54"/>
+        <v>6317</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" ref="H32:I32" si="55">+H27-H31</f>
+        <v>6626</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="55"/>
+        <v>7185</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" ref="J32:K32" si="56">+J27-J31</f>
+        <v>8858</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="56"/>
         <v>5893</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" ref="H32" si="44">+H27-H31</f>
+      <c r="L32" s="6">
+        <f t="shared" ref="L32" si="57">+L27-L31</f>
         <v>5963</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" ref="I32" si="45">+I27-I31</f>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32" si="58">+M27-M31</f>
         <v>8040</v>
       </c>
-      <c r="J32" s="6">
-        <f t="shared" ref="J32" si="46">+J27-J31</f>
+      <c r="N32" s="6">
+        <f t="shared" ref="N32" si="59">+N27-N31</f>
         <v>12775</v>
       </c>
-      <c r="K32" s="6">
-        <f t="shared" ref="K32:N32" si="47">+K27-K31</f>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:R32" si="60">+O27-O31</f>
         <v>11378</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" si="47"/>
+      <c r="P32" s="6">
+        <f t="shared" si="60"/>
         <v>12367</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="47"/>
+      <c r="Q32" s="6">
+        <f t="shared" si="60"/>
         <v>10423</v>
       </c>
-      <c r="N32" s="6">
-        <f t="shared" si="47"/>
+      <c r="R32" s="6">
+        <f t="shared" si="60"/>
         <v>12585</v>
       </c>
-      <c r="O32" s="6">
-        <f>+O27-O31</f>
+      <c r="S32" s="6">
+        <f>+S27-S31</f>
         <v>8524</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" ref="P32:R32" si="48">+P27-P31</f>
+      <c r="T32" s="6">
+        <f t="shared" ref="T32:V32" si="61">+T27-T31</f>
         <v>8358</v>
       </c>
-      <c r="Q32" s="6">
-        <f t="shared" si="48"/>
+      <c r="U32" s="6">
+        <f t="shared" si="61"/>
         <v>6570.9379999999983</v>
       </c>
-      <c r="R32" s="6">
-        <f t="shared" si="48"/>
+      <c r="V32" s="6">
+        <f t="shared" si="61"/>
         <v>11736.100500000004</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="AE32" s="3">
-        <f>AE27-AE31</f>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="AG32" s="3">
+        <f>AG27-AG31</f>
+        <v>24913</v>
+      </c>
+      <c r="AH32" s="3">
+        <f>AH27-AH31</f>
+        <v>28986</v>
+      </c>
+      <c r="AI32" s="3">
+        <f>AI27-AI31</f>
         <v>32671</v>
       </c>
-      <c r="AF32" s="3">
-        <f t="shared" ref="AF32" si="49">AF27-AF31</f>
+      <c r="AJ32" s="3">
+        <f t="shared" ref="AJ32" si="62">AJ27-AJ31</f>
         <v>46753</v>
       </c>
-      <c r="AG32" s="3">
-        <f t="shared" ref="AG32" si="50">AG27-AG31</f>
+      <c r="AK32" s="3">
+        <f t="shared" ref="AK32" si="63">AK27-AK31</f>
         <v>50877.801500000001</v>
       </c>
-      <c r="AH32" s="3">
-        <f t="shared" ref="AH32" si="51">AH27-AH31</f>
-        <v>56004.93054500001</v>
-      </c>
-      <c r="AI32" s="3">
-        <f t="shared" ref="AI32" si="52">AI27-AI31</f>
-        <v>60997.409961350015</v>
-      </c>
-      <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="53">AJ27-AJ31</f>
-        <v>65880.046610190519</v>
-      </c>
-      <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="54">AK27-AK31</f>
-        <v>70675.506923496228</v>
-      </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="55">AL27-AL31</f>
-        <v>75404.541154701103</v>
+        <f t="shared" ref="AL32" si="64">AL27-AL31</f>
+        <v>48249.786424999998</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="56">AM27-AM31</f>
-        <v>80086.185510492156</v>
+        <f t="shared" ref="AM32" si="65">AM27-AM31</f>
+        <v>45642.224603750001</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="57">AN27-AN31</f>
-        <v>84737.944384841918</v>
+        <f t="shared" ref="AN32" si="66">AN27-AN31</f>
+        <v>56188.346064124999</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="58">AO27-AO31</f>
-        <v>89375.954694518703</v>
-      </c>
-    </row>
-    <row r="33" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AO32" si="67">AO27-AO31</f>
+        <v>62617.785192331256</v>
+      </c>
+      <c r="AP32" s="3">
+        <f t="shared" ref="AP32" si="68">AP27-AP31</f>
+        <v>67105.087771601204</v>
+      </c>
+      <c r="AQ32" s="3">
+        <f t="shared" ref="AQ32" si="69">AQ27-AQ31</f>
+        <v>71537.748525899238</v>
+      </c>
+      <c r="AR32" s="3">
+        <f t="shared" ref="AR32" si="70">AR27-AR31</f>
+        <v>75933.05429071121</v>
+      </c>
+      <c r="AS32" s="3">
+        <f t="shared" ref="AS32" si="71">AS27-AS31</f>
+        <v>80306.917897564039</v>
+      </c>
+    </row>
+    <row r="33" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="6">
+        <v>161</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>131</v>
+      </c>
+      <c r="F33" s="6">
+        <v>151</v>
+      </c>
       <c r="G33" s="6">
+        <v>206</v>
+      </c>
+      <c r="H33" s="6">
+        <v>206</v>
+      </c>
+      <c r="I33" s="6">
+        <v>144</v>
+      </c>
+      <c r="J33" s="6">
+        <v>311</v>
+      </c>
+      <c r="K33" s="6">
         <v>-32</v>
       </c>
-      <c r="H33" s="6">
+      <c r="L33" s="6">
         <v>168</v>
       </c>
-      <c r="I33" s="6">
+      <c r="M33" s="6">
         <v>93</v>
       </c>
-      <c r="J33" s="6">
+      <c r="N33" s="6">
         <v>280</v>
       </c>
-      <c r="K33" s="6">
+      <c r="O33" s="6">
         <v>125</v>
       </c>
-      <c r="L33" s="6">
+      <c r="P33" s="6">
         <v>146</v>
       </c>
-      <c r="M33" s="6">
+      <c r="Q33" s="6">
         <v>142</v>
       </c>
-      <c r="N33" s="6">
+      <c r="R33" s="6">
         <v>117</v>
       </c>
-      <c r="O33" s="6">
+      <c r="S33" s="6">
         <v>384</v>
       </c>
-      <c r="P33" s="6">
+      <c r="T33" s="6">
         <v>-172</v>
       </c>
-      <c r="Q33" s="6">
-        <f t="shared" ref="Q33:R33" si="59">+P33</f>
+      <c r="U33" s="6">
+        <f t="shared" ref="U33:V33" si="72">+T33</f>
         <v>-172</v>
       </c>
-      <c r="R33" s="6">
-        <f t="shared" si="59"/>
+      <c r="V33" s="6">
+        <f t="shared" si="72"/>
         <v>-172</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="AE33" s="3">
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="AG33" s="3">
+        <v>448</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>826</v>
+      </c>
+      <c r="AI33" s="3">
         <v>509</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AJ33" s="3">
         <v>531</v>
       </c>
-      <c r="AH33" s="3">
-        <f>+AG49*$AT$49</f>
+      <c r="AL33" s="3">
+        <f>+AK49*$AX$49</f>
         <v>615.75061185000004</v>
       </c>
-      <c r="AI33" s="3">
-        <f t="shared" ref="AI33:AO33" si="60">+AH49*$AT$49</f>
-        <v>1080.0401973361702</v>
-      </c>
-      <c r="AJ33" s="3">
-        <f t="shared" si="60"/>
-        <v>1589.0752886373969</v>
-      </c>
-      <c r="AK33" s="3">
-        <f t="shared" si="60"/>
-        <v>2142.3220882077858</v>
-      </c>
-      <c r="AL33" s="3">
-        <f t="shared" si="60"/>
-        <v>2739.4282861037586</v>
-      </c>
       <c r="AM33" s="3">
-        <f t="shared" si="60"/>
-        <v>3380.2088355183591</v>
+        <f t="shared" ref="AM33:AS33" si="73">+AL49*$AX$49</f>
+        <v>1016.44801555217</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="60"/>
-        <v>4064.6332691556454</v>
+        <f t="shared" si="73"/>
+        <v>1399.0491310304478</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="60"/>
-        <v>4792.8144059184251</v>
-      </c>
-    </row>
-    <row r="34" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="73"/>
+        <v>1871.2657716307224</v>
+      </c>
+      <c r="AP33" s="3">
+        <f t="shared" si="73"/>
+        <v>2400.0759895352107</v>
+      </c>
+      <c r="AQ33" s="3">
+        <f t="shared" si="73"/>
+        <v>2970.0183323765291</v>
+      </c>
+      <c r="AR33" s="3">
+        <f t="shared" si="73"/>
+        <v>3580.9820206143904</v>
+      </c>
+      <c r="AS33" s="3">
+        <f t="shared" si="73"/>
+        <v>4232.9971183672606</v>
+      </c>
+    </row>
+    <row r="34" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:D34" si="74">+C32+C33</f>
+        <v>5610</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="74"/>
+        <v>5868</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:G34" si="75">+E32+E33</f>
+        <v>5912</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="75"/>
+        <v>7971</v>
+      </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:N34" si="61">+G32+G33</f>
+        <f t="shared" si="75"/>
+        <v>6523</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" ref="H34" si="76">+H32+H33</f>
+        <v>6832</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34:J34" si="77">+I32+I33</f>
+        <v>7329</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="77"/>
+        <v>9169</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" ref="K34:R34" si="78">+K32+K33</f>
         <v>5861</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="61"/>
+      <c r="L34" s="6">
+        <f t="shared" si="78"/>
         <v>6131</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="61"/>
+      <c r="M34" s="6">
+        <f t="shared" si="78"/>
         <v>8133</v>
       </c>
-      <c r="J34" s="6">
-        <f t="shared" si="61"/>
+      <c r="N34" s="6">
+        <f t="shared" si="78"/>
         <v>13055</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" si="61"/>
+      <c r="O34" s="6">
+        <f t="shared" si="78"/>
         <v>11503</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="61"/>
+      <c r="P34" s="6">
+        <f t="shared" si="78"/>
         <v>12513</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="61"/>
+      <c r="Q34" s="6">
+        <f t="shared" si="78"/>
         <v>10565</v>
       </c>
-      <c r="N34" s="6">
-        <f t="shared" si="61"/>
+      <c r="R34" s="6">
+        <f t="shared" si="78"/>
         <v>12702</v>
       </c>
-      <c r="O34" s="6">
-        <f>+O32+O33</f>
+      <c r="S34" s="6">
+        <f>+S32+S33</f>
         <v>8908</v>
       </c>
-      <c r="P34" s="6">
-        <f t="shared" ref="P34:R34" si="62">+P32+P33</f>
+      <c r="T34" s="6">
+        <f t="shared" ref="T34:V34" si="79">+T32+T33</f>
         <v>8186</v>
       </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="62"/>
+      <c r="U34" s="6">
+        <f t="shared" si="79"/>
         <v>6398.9379999999983</v>
       </c>
-      <c r="R34" s="6">
-        <f t="shared" si="62"/>
+      <c r="V34" s="6">
+        <f t="shared" si="79"/>
         <v>11564.100500000004</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="AE34" s="3">
-        <f>+AE32+AE33</f>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="AG34" s="3">
+        <f>+AG32+AG33</f>
+        <v>25361</v>
+      </c>
+      <c r="AH34" s="3">
+        <f>+AH32+AH33</f>
+        <v>29812</v>
+      </c>
+      <c r="AI34" s="3">
+        <f>+AI32+AI33</f>
         <v>33180</v>
       </c>
-      <c r="AF34" s="3">
-        <f t="shared" ref="AF34" si="63">+AF32+AF33</f>
+      <c r="AJ34" s="3">
+        <f t="shared" ref="AJ34" si="80">+AJ32+AJ33</f>
         <v>47284</v>
       </c>
-      <c r="AG34" s="3">
-        <f t="shared" ref="AG34" si="64">+AG32+AG33</f>
+      <c r="AK34" s="3">
+        <f t="shared" ref="AK34" si="81">+AK32+AK33</f>
         <v>50877.801500000001</v>
       </c>
-      <c r="AH34" s="3">
-        <f t="shared" ref="AH34" si="65">+AH32+AH33</f>
-        <v>56620.681156850012</v>
-      </c>
-      <c r="AI34" s="3">
-        <f t="shared" ref="AI34" si="66">+AI32+AI33</f>
-        <v>62077.450158686188</v>
-      </c>
-      <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="67">+AJ32+AJ33</f>
-        <v>67469.121898827914</v>
-      </c>
-      <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="68">+AK32+AK33</f>
-        <v>72817.829011704016</v>
-      </c>
       <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="69">+AL32+AL33</f>
-        <v>78143.969440804867</v>
+        <f t="shared" ref="AL34" si="82">+AL32+AL33</f>
+        <v>48865.537036850001</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="70">+AM32+AM33</f>
-        <v>83466.394346010522</v>
+        <f t="shared" ref="AM34" si="83">+AM32+AM33</f>
+        <v>46658.672619302168</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="71">+AN32+AN33</f>
-        <v>88802.577653997563</v>
+        <f t="shared" ref="AN34" si="84">+AN32+AN33</f>
+        <v>57587.395195155448</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="72">+AO32+AO33</f>
-        <v>94168.76910043713</v>
-      </c>
-    </row>
-    <row r="35" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AO34" si="85">+AO32+AO33</f>
+        <v>64489.050963961978</v>
+      </c>
+      <c r="AP34" s="3">
+        <f t="shared" ref="AP34" si="86">+AP32+AP33</f>
+        <v>69505.163761136413</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f t="shared" ref="AQ34" si="87">+AQ32+AQ33</f>
+        <v>74507.766858275761</v>
+      </c>
+      <c r="AR34" s="3">
+        <f t="shared" ref="AR34" si="88">+AR32+AR33</f>
+        <v>79514.036311325603</v>
+      </c>
+      <c r="AS34" s="3">
+        <f t="shared" ref="AS34" si="89">+AS32+AS33</f>
+        <v>84539.915015931299</v>
+      </c>
+    </row>
+    <row r="35" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="6">
+        <f>622+1</f>
+        <v>623</v>
+      </c>
+      <c r="D35" s="6">
+        <v>762</v>
+      </c>
+      <c r="E35" s="6">
+        <v>775</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1089</v>
+      </c>
       <c r="G35" s="6">
+        <v>2216</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2216</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1238</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1820</v>
+      </c>
+      <c r="K35" s="6">
         <v>959</v>
       </c>
-      <c r="H35" s="6">
+      <c r="L35" s="6">
         <v>953</v>
       </c>
-      <c r="I35" s="6">
+      <c r="M35" s="6">
         <v>287</v>
       </c>
-      <c r="J35" s="6">
+      <c r="N35" s="6">
         <v>1836</v>
       </c>
-      <c r="K35" s="6">
+      <c r="O35" s="6">
         <v>2006</v>
       </c>
-      <c r="L35" s="6">
+      <c r="P35" s="6">
         <v>2119</v>
       </c>
-      <c r="M35" s="6">
+      <c r="Q35" s="6">
         <v>1371</v>
       </c>
-      <c r="N35" s="6">
+      <c r="R35" s="6">
         <v>2417</v>
       </c>
-      <c r="O35" s="6">
+      <c r="S35" s="6">
         <v>1443</v>
       </c>
-      <c r="P35" s="6">
+      <c r="T35" s="6">
         <v>1499</v>
       </c>
-      <c r="Q35" s="6">
-        <f t="shared" ref="Q35:R35" si="73">+Q34*0.19</f>
+      <c r="U35" s="6">
+        <f t="shared" ref="U35:V35" si="90">+U34*0.19</f>
         <v>1215.7982199999997</v>
       </c>
-      <c r="R35" s="6">
-        <f t="shared" si="73"/>
+      <c r="V35" s="6">
+        <f t="shared" si="90"/>
         <v>2197.1790950000009</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="AE35" s="3">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="AG35" s="3">
+        <f>3249+1</f>
+        <v>3250</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>6327</v>
+      </c>
+      <c r="AI35" s="3">
         <v>4034</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AJ35" s="3">
         <v>7914</v>
       </c>
-      <c r="AG35" s="3">
-        <f>+AG34*0.18</f>
+      <c r="AK35" s="3">
+        <f>+AK34*0.18</f>
         <v>9158.0042699999995</v>
       </c>
-      <c r="AH35" s="3">
-        <f t="shared" ref="AH35:AO35" si="74">+AH34*0.18</f>
-        <v>10191.722608233002</v>
-      </c>
-      <c r="AI35" s="3">
-        <f t="shared" si="74"/>
-        <v>11173.941028563513</v>
-      </c>
-      <c r="AJ35" s="3">
-        <f t="shared" si="74"/>
-        <v>12144.441941789024</v>
-      </c>
-      <c r="AK35" s="3">
-        <f t="shared" si="74"/>
-        <v>13107.209222106723</v>
-      </c>
       <c r="AL35" s="3">
-        <f t="shared" si="74"/>
-        <v>14065.914499344875</v>
+        <f t="shared" ref="AL35:AS35" si="91">+AL34*0.18</f>
+        <v>8795.7966666329994</v>
       </c>
       <c r="AM35" s="3">
-        <f t="shared" si="74"/>
-        <v>15023.950982281893</v>
+        <f t="shared" si="91"/>
+        <v>8398.5610714743907</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" si="74"/>
-        <v>15984.463977719561</v>
+        <f t="shared" si="91"/>
+        <v>10365.73113512798</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" si="74"/>
-        <v>16950.378438078682</v>
-      </c>
-    </row>
-    <row r="36" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="91"/>
+        <v>11608.029173513156</v>
+      </c>
+      <c r="AP35" s="3">
+        <f t="shared" si="91"/>
+        <v>12510.929477004554</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f t="shared" si="91"/>
+        <v>13411.398034489637</v>
+      </c>
+      <c r="AR35" s="3">
+        <f t="shared" si="91"/>
+        <v>14312.526536038607</v>
+      </c>
+      <c r="AS35" s="3">
+        <f t="shared" si="91"/>
+        <v>15217.184702867633</v>
+      </c>
+    </row>
+    <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="6">
+        <f t="shared" ref="C36:D36" si="92">+C34-C35</f>
+        <v>4987</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="92"/>
+        <v>5106</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:G36" si="93">+E34-E35</f>
+        <v>5137</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="93"/>
+        <v>6882</v>
+      </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36:H36" si="75">+G34-G35</f>
+        <f t="shared" si="93"/>
+        <v>4307</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" ref="H36" si="94">+H34-H35</f>
+        <v>4616</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36:J36" si="95">+I34-I35</f>
+        <v>6091</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="95"/>
+        <v>7349</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36:L36" si="96">+K34-K35</f>
         <v>4902</v>
       </c>
-      <c r="H36" s="6">
-        <f t="shared" si="75"/>
+      <c r="L36" s="6">
+        <f t="shared" si="96"/>
         <v>5178</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" ref="I36:N36" si="76">+I34-I35</f>
+      <c r="M36" s="6">
+        <f t="shared" ref="M36:R36" si="97">+M34-M35</f>
         <v>7846</v>
       </c>
-      <c r="J36" s="6">
-        <f t="shared" si="76"/>
+      <c r="N36" s="6">
+        <f t="shared" si="97"/>
         <v>11219</v>
       </c>
-      <c r="K36" s="6">
-        <f t="shared" si="76"/>
+      <c r="O36" s="6">
+        <f t="shared" si="97"/>
         <v>9497</v>
       </c>
-      <c r="L36" s="6">
-        <f t="shared" si="76"/>
+      <c r="P36" s="6">
+        <f t="shared" si="97"/>
         <v>10394</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" si="76"/>
+      <c r="Q36" s="6">
+        <f t="shared" si="97"/>
         <v>9194</v>
       </c>
-      <c r="N36" s="6">
-        <f t="shared" si="76"/>
+      <c r="R36" s="6">
+        <f t="shared" si="97"/>
         <v>10285</v>
       </c>
-      <c r="O36" s="6">
-        <f>+O34-O35</f>
+      <c r="S36" s="6">
+        <f>+S34-S35</f>
         <v>7465</v>
       </c>
-      <c r="P36" s="6">
-        <f t="shared" ref="P36:R36" si="77">+P34-P35</f>
+      <c r="T36" s="6">
+        <f t="shared" ref="T36:V36" si="98">+T34-T35</f>
         <v>6687</v>
       </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="77"/>
+      <c r="U36" s="6">
+        <f t="shared" si="98"/>
         <v>5183.1397799999986</v>
       </c>
-      <c r="R36" s="6">
-        <f t="shared" si="77"/>
+      <c r="V36" s="6">
+        <f t="shared" si="98"/>
         <v>9366.9214050000028</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="AE36" s="3">
-        <f>+AE34-AE35</f>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="AG36" s="3">
+        <f>+AG34-AG35</f>
+        <v>22111</v>
+      </c>
+      <c r="AH36" s="3">
+        <f>+AH34-AH35</f>
+        <v>23485</v>
+      </c>
+      <c r="AI36" s="3">
+        <f>+AI34-AI35</f>
         <v>29146</v>
       </c>
-      <c r="AF36" s="3">
-        <f t="shared" ref="AF36" si="78">+AF34-AF35</f>
+      <c r="AJ36" s="3">
+        <f t="shared" ref="AJ36" si="99">+AJ34-AJ35</f>
         <v>39370</v>
       </c>
-      <c r="AG36" s="3">
-        <f t="shared" ref="AG36" si="79">+AG34-AG35</f>
+      <c r="AK36" s="3">
+        <f t="shared" ref="AK36" si="100">+AK34-AK35</f>
         <v>41719.797230000004</v>
       </c>
-      <c r="AH36" s="3">
-        <f t="shared" ref="AH36" si="80">+AH34-AH35</f>
-        <v>46428.958548617011</v>
-      </c>
-      <c r="AI36" s="3">
-        <f t="shared" ref="AI36" si="81">+AI34-AI35</f>
-        <v>50903.509130122678</v>
-      </c>
-      <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="82">+AJ34-AJ35</f>
-        <v>55324.67995703889</v>
-      </c>
-      <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="83">+AK34-AK35</f>
-        <v>59710.619789597295</v>
-      </c>
       <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="84">+AL34-AL35</f>
-        <v>64078.054941459995</v>
+        <f t="shared" ref="AL36" si="101">+AL34-AL35</f>
+        <v>40069.740370216998</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="85">+AM34-AM35</f>
-        <v>68442.443363728627</v>
+        <f t="shared" ref="AM36" si="102">+AM34-AM35</f>
+        <v>38260.111547827779</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="86">+AN34-AN35</f>
-        <v>72818.113676278008</v>
+        <f t="shared" ref="AN36" si="103">+AN34-AN35</f>
+        <v>47221.66406002747</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="87">+AO34-AO35</f>
-        <v>77218.390662358448</v>
+        <f t="shared" ref="AO36" si="104">+AO34-AO35</f>
+        <v>52881.021790448824</v>
       </c>
       <c r="AP36" s="3">
-        <f>+AO36*(1+$AT$48)</f>
-        <v>73357.471129240526</v>
+        <f t="shared" ref="AP36" si="105">+AP34-AP35</f>
+        <v>56994.23428413186</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36:CS36" si="88">+AP36*(1+$AT$48)</f>
-        <v>69689.597572778497</v>
+        <f t="shared" ref="AQ36" si="106">+AQ34-AQ35</f>
+        <v>61096.368823786121</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" si="88"/>
-        <v>66205.117694139568</v>
+        <f t="shared" ref="AR36" si="107">+AR34-AR35</f>
+        <v>65201.509775286991</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" si="88"/>
-        <v>62894.861809432587</v>
+        <f t="shared" ref="AS36" si="108">+AS34-AS35</f>
+        <v>69322.730313063672</v>
       </c>
       <c r="AT36" s="3">
-        <f t="shared" si="88"/>
-        <v>59750.118718960955</v>
+        <f>+AS36*(1+$AX$48)</f>
+        <v>65856.593797410489</v>
       </c>
       <c r="AU36" s="3">
-        <f t="shared" si="88"/>
-        <v>56762.612783012904</v>
+        <f t="shared" ref="AU36:CW36" si="109">+AT36*(1+$AX$48)</f>
+        <v>62563.764107539959</v>
       </c>
       <c r="AV36" s="3">
-        <f t="shared" si="88"/>
-        <v>53924.48214386226</v>
+        <f t="shared" si="109"/>
+        <v>59435.575902162956</v>
       </c>
       <c r="AW36" s="3">
-        <f t="shared" si="88"/>
-        <v>51228.258036669147</v>
+        <f t="shared" si="109"/>
+        <v>56463.797107054808</v>
       </c>
       <c r="AX36" s="3">
-        <f t="shared" si="88"/>
-        <v>48666.84513483569</v>
+        <f t="shared" si="109"/>
+        <v>53640.607251702066</v>
       </c>
       <c r="AY36" s="3">
-        <f t="shared" si="88"/>
-        <v>46233.502878093903</v>
+        <f t="shared" si="109"/>
+        <v>50958.576889116957</v>
       </c>
       <c r="AZ36" s="3">
-        <f t="shared" si="88"/>
-        <v>43921.827734189203</v>
+        <f t="shared" si="109"/>
+        <v>48410.648044661109</v>
       </c>
       <c r="BA36" s="3">
-        <f t="shared" si="88"/>
-        <v>41725.736347479738</v>
+        <f t="shared" si="109"/>
+        <v>45990.115642428049</v>
       </c>
       <c r="BB36" s="3">
-        <f t="shared" si="88"/>
-        <v>39639.449530105747</v>
+        <f t="shared" si="109"/>
+        <v>43690.609860306642</v>
       </c>
       <c r="BC36" s="3">
-        <f t="shared" si="88"/>
-        <v>37657.477053600458</v>
+        <f t="shared" si="109"/>
+        <v>41506.079367291306</v>
       </c>
       <c r="BD36" s="3">
-        <f t="shared" si="88"/>
-        <v>35774.603200920435</v>
+        <f t="shared" si="109"/>
+        <v>39430.775398926737</v>
       </c>
       <c r="BE36" s="3">
-        <f t="shared" si="88"/>
-        <v>33985.873040874409</v>
+        <f t="shared" si="109"/>
+        <v>37459.236628980398</v>
       </c>
       <c r="BF36" s="3">
-        <f t="shared" si="88"/>
-        <v>32286.579388830687</v>
+        <f t="shared" si="109"/>
+        <v>35586.274797531376</v>
       </c>
       <c r="BG36" s="3">
-        <f t="shared" si="88"/>
-        <v>30672.250419389151</v>
+        <f t="shared" si="109"/>
+        <v>33806.961057654808</v>
       </c>
       <c r="BH36" s="3">
-        <f t="shared" si="88"/>
-        <v>29138.637898419693</v>
+        <f t="shared" si="109"/>
+        <v>32116.613004772065</v>
       </c>
       <c r="BI36" s="3">
-        <f t="shared" si="88"/>
-        <v>27681.706003498708</v>
+        <f t="shared" si="109"/>
+        <v>30510.782354533461</v>
       </c>
       <c r="BJ36" s="3">
-        <f t="shared" si="88"/>
-        <v>26297.62070332377</v>
+        <f t="shared" si="109"/>
+        <v>28985.243236806786</v>
       </c>
       <c r="BK36" s="3">
-        <f t="shared" si="88"/>
-        <v>24982.739668157581</v>
+        <f t="shared" si="109"/>
+        <v>27535.981074966447</v>
       </c>
       <c r="BL36" s="3">
-        <f t="shared" si="88"/>
-        <v>23733.602684749701</v>
+        <f t="shared" si="109"/>
+        <v>26159.182021218123</v>
       </c>
       <c r="BM36" s="3">
-        <f t="shared" si="88"/>
-        <v>22546.922550512216</v>
+        <f t="shared" si="109"/>
+        <v>24851.222920157215</v>
       </c>
       <c r="BN36" s="3">
-        <f t="shared" si="88"/>
-        <v>21419.576422986604</v>
+        <f t="shared" si="109"/>
+        <v>23608.661774149354</v>
       </c>
       <c r="BO36" s="3">
-        <f t="shared" si="88"/>
-        <v>20348.597601837271</v>
+        <f t="shared" si="109"/>
+        <v>22428.228685441885</v>
       </c>
       <c r="BP36" s="3">
-        <f t="shared" si="88"/>
-        <v>19331.167721745405</v>
+        <f t="shared" si="109"/>
+        <v>21306.817251169789</v>
       </c>
       <c r="BQ36" s="3">
-        <f t="shared" si="88"/>
-        <v>18364.609335658133</v>
+        <f t="shared" si="109"/>
+        <v>20241.4763886113</v>
       </c>
       <c r="BR36" s="3">
-        <f t="shared" si="88"/>
-        <v>17446.378868875225</v>
+        <f t="shared" si="109"/>
+        <v>19229.402569180733</v>
       </c>
       <c r="BS36" s="3">
-        <f t="shared" si="88"/>
-        <v>16574.059925431462</v>
+        <f t="shared" si="109"/>
+        <v>18267.932440721695</v>
       </c>
       <c r="BT36" s="3">
-        <f t="shared" si="88"/>
-        <v>15745.356929159889</v>
+        <f t="shared" si="109"/>
+        <v>17354.53581868561</v>
       </c>
       <c r="BU36" s="3">
-        <f t="shared" si="88"/>
-        <v>14958.089082701894</v>
+        <f t="shared" si="109"/>
+        <v>16486.809027751329</v>
       </c>
       <c r="BV36" s="3">
-        <f t="shared" si="88"/>
-        <v>14210.184628566798</v>
+        <f t="shared" si="109"/>
+        <v>15662.468576363763</v>
       </c>
       <c r="BW36" s="3">
-        <f t="shared" si="88"/>
-        <v>13499.675397138457</v>
+        <f t="shared" si="109"/>
+        <v>14879.345147545573</v>
       </c>
       <c r="BX36" s="3">
-        <f t="shared" si="88"/>
-        <v>12824.691627281534</v>
+        <f t="shared" si="109"/>
+        <v>14135.377890168294</v>
       </c>
       <c r="BY36" s="3">
-        <f t="shared" si="88"/>
-        <v>12183.457045917457</v>
+        <f t="shared" si="109"/>
+        <v>13428.608995659879</v>
       </c>
       <c r="BZ36" s="3">
-        <f t="shared" si="88"/>
-        <v>11574.284193621585</v>
+        <f t="shared" si="109"/>
+        <v>12757.178545876885</v>
       </c>
       <c r="CA36" s="3">
-        <f t="shared" si="88"/>
-        <v>10995.569983940504</v>
+        <f t="shared" si="109"/>
+        <v>12119.31961858304</v>
       </c>
       <c r="CB36" s="3">
-        <f t="shared" si="88"/>
-        <v>10445.791484743479</v>
+        <f t="shared" si="109"/>
+        <v>11513.353637653887</v>
       </c>
       <c r="CC36" s="3">
-        <f t="shared" si="88"/>
-        <v>9923.5019105063038</v>
+        <f t="shared" si="109"/>
+        <v>10937.685955771192</v>
       </c>
       <c r="CD36" s="3">
-        <f t="shared" si="88"/>
-        <v>9427.3268149809883</v>
+        <f t="shared" si="109"/>
+        <v>10390.801657982633</v>
       </c>
       <c r="CE36" s="3">
-        <f t="shared" si="88"/>
-        <v>8955.9604742319389</v>
+        <f t="shared" si="109"/>
+        <v>9871.2615750835012</v>
       </c>
       <c r="CF36" s="3">
-        <f t="shared" si="88"/>
-        <v>8508.1624505203417</v>
+        <f t="shared" si="109"/>
+        <v>9377.6984963293253</v>
       </c>
       <c r="CG36" s="3">
-        <f t="shared" si="88"/>
-        <v>8082.7543279943238</v>
+        <f t="shared" si="109"/>
+        <v>8908.8135715128592</v>
       </c>
       <c r="CH36" s="3">
-        <f t="shared" si="88"/>
-        <v>7678.6166115946071</v>
+        <f t="shared" si="109"/>
+        <v>8463.3728929372155</v>
       </c>
       <c r="CI36" s="3">
-        <f t="shared" si="88"/>
-        <v>7294.6857810148767</v>
+        <f t="shared" si="109"/>
+        <v>8040.2042482903544</v>
       </c>
       <c r="CJ36" s="3">
-        <f t="shared" si="88"/>
-        <v>6929.9514919641324</v>
+        <f t="shared" si="109"/>
+        <v>7638.1940358758366</v>
       </c>
       <c r="CK36" s="3">
-        <f t="shared" si="88"/>
-        <v>6583.4539173659259</v>
+        <f t="shared" si="109"/>
+        <v>7256.2843340820446</v>
       </c>
       <c r="CL36" s="3">
-        <f t="shared" si="88"/>
-        <v>6254.2812214976293</v>
+        <f t="shared" si="109"/>
+        <v>6893.4701173779422</v>
       </c>
       <c r="CM36" s="3">
-        <f t="shared" si="88"/>
-        <v>5941.5671604227473</v>
+        <f t="shared" si="109"/>
+        <v>6548.7966115090449</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" si="88"/>
-        <v>5644.48880240161</v>
+        <f t="shared" si="109"/>
+        <v>6221.3567809335927</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="88"/>
-        <v>5362.2643622815294</v>
+        <f t="shared" si="109"/>
+        <v>5910.2889418869127</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="88"/>
-        <v>5094.1511441674529</v>
+        <f t="shared" si="109"/>
+        <v>5614.7744947925667</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="88"/>
-        <v>4839.4435869590798</v>
+        <f t="shared" si="109"/>
+        <v>5334.0357700529385</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="88"/>
-        <v>4597.4714076111259</v>
+        <f t="shared" si="109"/>
+        <v>5067.3339815502914</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="88"/>
-        <v>4367.597837230569</v>
-      </c>
-    </row>
-    <row r="37" spans="2:97" x14ac:dyDescent="0.2">
+        <f t="shared" si="109"/>
+        <v>4813.9672824727768</v>
+      </c>
+      <c r="CT36" s="3">
+        <f t="shared" si="109"/>
+        <v>4573.2689183491375</v>
+      </c>
+      <c r="CU36" s="3">
+        <f t="shared" si="109"/>
+        <v>4344.60547243168</v>
+      </c>
+      <c r="CV36" s="3">
+        <f t="shared" si="109"/>
+        <v>4127.3751988100958</v>
+      </c>
+      <c r="CW36" s="3">
+        <f t="shared" si="109"/>
+        <v>3921.006438869591</v>
+      </c>
+    </row>
+    <row r="37" spans="2:101" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C37" s="9">
+        <f t="shared" ref="C37:D37" si="110">+C36/C38</f>
+        <v>1.6933786078098472</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="110"/>
+        <v>1.7426621160409557</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" ref="E37:G37" si="111">+E36/E38</f>
+        <v>1.7634740817027119</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="111"/>
+        <v>2.3846153846153846</v>
+      </c>
       <c r="G37" s="9">
-        <f t="shared" ref="G37:H37" si="89">+G36/G38</f>
+        <f t="shared" si="111"/>
+        <v>1.4980869565217392</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" ref="H37" si="112">+H36/H38</f>
+        <v>1.6055652173913044</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" ref="I37:J37" si="113">+I36/I38</f>
+        <v>2.1193458594293668</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="113"/>
+        <v>2.559735283873215</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" ref="K37:L37" si="114">+K36/K38</f>
         <v>1.7092050209205021</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="89"/>
+      <c r="L37" s="9">
+        <f t="shared" si="114"/>
         <v>1.7985411601250434</v>
       </c>
-      <c r="I37" s="9">
-        <f t="shared" ref="I37:N37" si="90">+I36/I38</f>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37:R37" si="115">+M36/M38</f>
         <v>2.7139398132134209</v>
       </c>
-      <c r="J37" s="9">
-        <f t="shared" si="90"/>
+      <c r="N37" s="9">
+        <f t="shared" si="115"/>
         <v>3.882006920415225</v>
       </c>
-      <c r="K37" s="9">
-        <f t="shared" si="90"/>
+      <c r="O37" s="9">
+        <f t="shared" si="115"/>
         <v>3.2952810548230396</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="90"/>
+      <c r="P37" s="9">
+        <f t="shared" si="115"/>
         <v>3.6127911018421965</v>
       </c>
-      <c r="M37" s="9">
-        <f t="shared" si="90"/>
+      <c r="Q37" s="9">
+        <f t="shared" si="115"/>
         <v>3.2158097236796084</v>
       </c>
-      <c r="N37" s="9">
-        <f t="shared" si="90"/>
+      <c r="R37" s="9">
+        <f t="shared" si="115"/>
         <v>3.6745266166488033</v>
       </c>
-      <c r="O37" s="9">
-        <f>+O36/O38</f>
+      <c r="S37" s="9">
+        <f>+S36/S38</f>
         <v>2.7224653537563821</v>
       </c>
-      <c r="P37" s="9">
-        <f t="shared" ref="P37:R37" si="91">+P36/P38</f>
+      <c r="T37" s="9">
+        <f t="shared" ref="T37:V37" si="116">+T36/T38</f>
         <v>2.4647991153704387</v>
       </c>
-      <c r="Q37" s="9">
-        <f t="shared" si="91"/>
+      <c r="U37" s="9">
+        <f t="shared" si="116"/>
         <v>1.9104827792112047</v>
       </c>
-      <c r="R37" s="9">
-        <f t="shared" si="91"/>
+      <c r="V37" s="9">
+        <f t="shared" si="116"/>
         <v>3.4526064891264294</v>
       </c>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="AE37" s="17">
-        <f>+AE36/AE38</f>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="AG37" s="17">
+        <f>+AG36/AG38</f>
+        <v>7.5696679219445393</v>
+      </c>
+      <c r="AH37" s="17">
+        <f>+AH36/AH38</f>
+        <v>8.1658553546592483</v>
+      </c>
+      <c r="AI37" s="17">
+        <f>+AI36/AI38</f>
         <v>10.092105263157896</v>
       </c>
-      <c r="AF37" s="17">
-        <f t="shared" ref="AF37" si="92">+AF36/AF38</f>
+      <c r="AJ37" s="17">
+        <f t="shared" ref="AJ37" si="117">+AJ36/AJ38</f>
         <v>13.770549143057012</v>
       </c>
-      <c r="AG37" s="17">
-        <f t="shared" ref="AG37" si="93">+AG36/AG38</f>
+      <c r="AK37" s="17">
+        <f t="shared" ref="AK37" si="118">+AK36/AK38</f>
         <v>15.336751118463377</v>
       </c>
-      <c r="AH37" s="17">
-        <f t="shared" ref="AH37" si="94">+AH36/AH38</f>
-        <v>17.067901313709037</v>
-      </c>
-      <c r="AI37" s="17">
-        <f t="shared" ref="AI37" si="95">+AI36/AI38</f>
-        <v>18.712805488511233</v>
-      </c>
-      <c r="AJ37" s="17">
-        <f t="shared" ref="AJ37" si="96">+AJ36/AJ38</f>
-        <v>20.338086557132208</v>
-      </c>
-      <c r="AK37" s="17">
-        <f t="shared" ref="AK37" si="97">+AK36/AK38</f>
-        <v>21.950416244682398</v>
-      </c>
       <c r="AL37" s="17">
-        <f t="shared" ref="AL37" si="98">+AL36/AL38</f>
-        <v>23.555943366036207</v>
+        <f t="shared" ref="AL37" si="119">+AL36/AL38</f>
+        <v>14.73016831916809</v>
       </c>
       <c r="AM37" s="17">
-        <f t="shared" ref="AM37" si="99">+AM36/AM38</f>
-        <v>25.16035046915858</v>
+        <f t="shared" ref="AM37" si="120">+AM36/AM38</f>
+        <v>14.064924748764922</v>
       </c>
       <c r="AN37" s="17">
-        <f t="shared" ref="AN37" si="100">+AN36/AN38</f>
-        <v>26.768904944868307</v>
+        <f t="shared" ref="AN37" si="121">+AN36/AN38</f>
+        <v>17.3593103795708</v>
       </c>
       <c r="AO37" s="17">
-        <f t="shared" ref="AO37" si="101">+AO36/AO38</f>
-        <v>28.386505160319253</v>
-      </c>
-    </row>
-    <row r="38" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AO37" si="122">+AO36/AO38</f>
+        <v>19.43976538569941</v>
+      </c>
+      <c r="AP37" s="17">
+        <f t="shared" ref="AP37" si="123">+AP36/AP38</f>
+        <v>20.951836884158389</v>
+      </c>
+      <c r="AQ37" s="17">
+        <f t="shared" ref="AQ37" si="124">+AQ36/AQ38</f>
+        <v>22.459835979702646</v>
+      </c>
+      <c r="AR37" s="17">
+        <f t="shared" ref="AR37" si="125">+AR36/AR38</f>
+        <v>23.968940272139321</v>
+      </c>
+      <c r="AS37" s="17">
+        <f t="shared" ref="AS37" si="126">+AS36/AS38</f>
+        <v>25.483955633880591</v>
+      </c>
+    </row>
+    <row r="38" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="6">
+        <v>2945</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2930</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2913</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2886</v>
+      </c>
       <c r="G38" s="6">
+        <v>2875</v>
+      </c>
+      <c r="H38" s="6">
+        <v>2875</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2874</v>
+      </c>
+      <c r="J38" s="6">
+        <v>2871</v>
+      </c>
+      <c r="K38" s="6">
         <v>2868</v>
       </c>
-      <c r="H38" s="6">
+      <c r="L38" s="6">
         <v>2879</v>
       </c>
-      <c r="I38" s="6">
+      <c r="M38" s="6">
         <v>2891</v>
       </c>
-      <c r="J38" s="6">
+      <c r="N38" s="6">
         <v>2890</v>
       </c>
-      <c r="K38" s="6">
+      <c r="O38" s="6">
         <v>2882</v>
       </c>
-      <c r="L38" s="6">
+      <c r="P38" s="6">
         <v>2877</v>
       </c>
-      <c r="M38" s="6">
+      <c r="Q38" s="6">
         <v>2859</v>
       </c>
-      <c r="N38" s="6">
+      <c r="R38" s="6">
         <v>2799</v>
       </c>
-      <c r="O38" s="6">
+      <c r="S38" s="6">
         <v>2742</v>
       </c>
-      <c r="P38" s="6">
+      <c r="T38" s="6">
         <v>2713</v>
       </c>
-      <c r="Q38" s="6">
-        <f>+P38</f>
+      <c r="U38" s="6">
+        <f>+T38</f>
         <v>2713</v>
       </c>
-      <c r="R38" s="6">
-        <f>+Q38</f>
+      <c r="V38" s="6">
+        <f>+U38</f>
         <v>2713</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="AE38" s="3">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="AG38" s="3">
+        <v>2921</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>2876</v>
+      </c>
+      <c r="AI38" s="3">
         <v>2888</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AJ38" s="3">
         <v>2859</v>
       </c>
-      <c r="AG38" s="3">
-        <f>AVERAGE(O38:R38)</f>
+      <c r="AK38" s="3">
+        <f>AVERAGE(S38:V38)</f>
         <v>2720.25</v>
       </c>
-      <c r="AH38" s="3">
-        <f t="shared" ref="AH38:AO38" si="102">+AG38</f>
+      <c r="AL38" s="3">
+        <f t="shared" ref="AL38:AS38" si="127">+AK38</f>
         <v>2720.25</v>
       </c>
-      <c r="AI38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AM38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
-      <c r="AJ38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AN38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
-      <c r="AK38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AO38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
-      <c r="AL38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AP38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
-      <c r="AM38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AQ38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
-      <c r="AN38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AR38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
-      <c r="AO38" s="3">
-        <f t="shared" si="102"/>
+      <c r="AS38" s="3">
+        <f t="shared" si="127"/>
         <v>2720.25</v>
       </c>
     </row>
-    <row r="39" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="2:97" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:101" x14ac:dyDescent="0.2">
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>48</v>
       </c>
@@ -3922,87 +4769,123 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="G40" s="11">
+        <f t="shared" ref="G40:K40" si="128">+G25/C25-1</f>
+        <v>0.25998662878154777</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="128"/>
+        <v>0.2762451817700855</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="128"/>
+        <v>0.2859328331026445</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="128"/>
+        <v>0.2464230814709707</v>
+      </c>
       <c r="K40" s="11">
-        <f t="shared" ref="K40" si="103">+K25/G25-1</f>
-        <v>0.47550318543158365</v>
+        <f t="shared" si="128"/>
+        <v>0.17642767128739134</v>
       </c>
       <c r="L40" s="11">
         <f>+L25/H25-1</f>
-        <v>0.5560014983678494</v>
+        <v>0.10665640175293145</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" ref="M40:N40" si="104">+M25/I25-1</f>
-        <v>0.35118770377270603</v>
+        <f>+M25/I25-1</f>
+        <v>0.21629277135735325</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="104"/>
-        <v>0.19945141065830718</v>
+        <f>+N25/J25-1</f>
+        <v>0.33156247035385644</v>
       </c>
       <c r="O40" s="11">
         <f>+O25/K25-1</f>
+        <v>0.47550318543158365</v>
+      </c>
+      <c r="P40" s="11">
+        <f>+P25/L25-1</f>
+        <v>0.5560014983678494</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" ref="Q40:R40" si="129">+Q25/M25-1</f>
+        <v>0.35118770377270603</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" si="129"/>
+        <v>0.19945141065830718</v>
+      </c>
+      <c r="S40" s="11">
+        <f>+S25/O25-1</f>
         <v>6.6371174200450911E-2</v>
       </c>
-      <c r="P40" s="11">
-        <f t="shared" ref="P40:R40" si="105">+P25/L25-1</f>
+      <c r="T40" s="11">
+        <f t="shared" ref="T40:V40" si="130">+T25/P25-1</f>
         <v>-8.7698180692643568E-3</v>
       </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="105"/>
+      <c r="U40" s="11">
+        <f t="shared" si="130"/>
         <v>-5.2664598414340014E-2</v>
       </c>
-      <c r="R40" s="11">
-        <f t="shared" si="105"/>
+      <c r="V40" s="11">
+        <f t="shared" si="130"/>
         <v>5.3308485046479337E-2</v>
       </c>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="AF40" s="18">
-        <f>+AF25/AE25-1</f>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="AH40" s="18">
+        <f>+AH25/AG25-1</f>
+        <v>0.26610910132884413</v>
+      </c>
+      <c r="AI40" s="18">
+        <f>+AI25/AH25-1</f>
+        <v>0.21596390228722573</v>
+      </c>
+      <c r="AJ40" s="18">
+        <f>+AJ25/AI25-1</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="AG40" s="18">
-        <f>+AG25/AF25-1</f>
+      <c r="AK40" s="18">
+        <f>+AK25/AJ25-1</f>
         <v>1.4832229561855037E-2</v>
       </c>
-      <c r="AH40" s="18">
-        <f t="shared" ref="AH40:AO40" si="106">+AH25/AG25-1</f>
+      <c r="AL40" s="18">
+        <f t="shared" ref="AL40:AS40" si="131">+AL25/AK25-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="AM40" s="18">
+        <f t="shared" si="131"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="AN40" s="18">
+        <f t="shared" si="131"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AO40" s="18">
+        <f t="shared" si="131"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AP40" s="18">
+        <f t="shared" si="131"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AI40" s="18">
-        <f t="shared" si="106"/>
+      <c r="AQ40" s="18">
+        <f t="shared" si="131"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AJ40" s="18">
-        <f t="shared" si="106"/>
+      <c r="AR40" s="18">
+        <f t="shared" si="131"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AK40" s="18">
-        <f t="shared" si="106"/>
+      <c r="AS40" s="18">
+        <f t="shared" si="131"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AL40" s="18">
-        <f t="shared" si="106"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AM40" s="18">
-        <f t="shared" si="106"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AN40" s="18">
-        <f t="shared" si="106"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AO40" s="18">
-        <f t="shared" si="106"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:97" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>95</v>
       </c>
@@ -4014,43 +4897,47 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="11">
-        <f t="shared" ref="K41" si="107">+K21/G21-1</f>
-        <v>0.41985917173887088</v>
-      </c>
-      <c r="L41" s="11">
-        <f t="shared" ref="L41:N41" si="108">+L21/H21-1</f>
-        <v>0.47543879015343848</v>
-      </c>
-      <c r="M41" s="11">
-        <f t="shared" si="108"/>
-        <v>0.31097316780136164</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="108"/>
-        <v>0.14539923954372624</v>
-      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="11">
         <f>+O21/K21-1</f>
+        <v>0.41985917173887088</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" ref="P41:R41" si="132">+P21/L21-1</f>
+        <v>0.47543879015343848</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="132"/>
+        <v>0.31097316780136164</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="132"/>
+        <v>0.14539923954372624</v>
+      </c>
+      <c r="S41" s="11">
+        <f>+S21/O21-1</f>
         <v>1.0674960073968176E-2</v>
       </c>
-      <c r="P41" s="11">
-        <f>+P21/L21-1</f>
+      <c r="T41" s="11">
+        <f>+T21/P21-1</f>
         <v>-4.3244052072422545E-2</v>
       </c>
-      <c r="Q41" s="11">
-        <f t="shared" ref="Q41:R41" si="109">+Q21/M21-1</f>
+      <c r="U41" s="11">
+        <f t="shared" ref="U41:V41" si="133">+U21/Q21-1</f>
         <v>-1</v>
       </c>
-      <c r="R41" s="11">
-        <f t="shared" si="109"/>
+      <c r="V41" s="11">
+        <f t="shared" si="133"/>
         <v>-1</v>
       </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+    </row>
+    <row r="42" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>97</v>
       </c>
@@ -4066,19 +4953,23 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="10">
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="10">
         <v>0.15</v>
       </c>
-      <c r="P42" s="10">
+      <c r="T42" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-    </row>
-    <row r="43" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U42" s="10"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+    </row>
+    <row r="43" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>96</v>
       </c>
@@ -4094,19 +4985,23 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="10">
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="10">
         <v>-0.08</v>
       </c>
-      <c r="P43" s="10">
+      <c r="T43" s="10">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-    </row>
-    <row r="44" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U43" s="10"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+    </row>
+    <row r="44" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>108</v>
       </c>
@@ -4118,42 +5013,46 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10">
-        <f t="shared" ref="N44" si="110">+N23/J23-1</f>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10">
+        <f t="shared" ref="R44" si="134">+R23/N23-1</f>
         <v>0.22315202231520215</v>
       </c>
-      <c r="O44" s="10">
-        <f>+O23/K23-1</f>
+      <c r="S44" s="10">
+        <f>+S23/O23-1</f>
         <v>0.30149812734082393</v>
       </c>
-      <c r="P44" s="10">
-        <f>+P23/L23-1</f>
+      <c r="T44" s="10">
+        <f>+T23/P23-1</f>
         <v>0.4819672131147541</v>
       </c>
-      <c r="Q44" s="10">
-        <f>+Q23/M23-1</f>
+      <c r="U44" s="10">
+        <f>+U23/Q23-1</f>
         <v>-0.27956989247311825</v>
       </c>
-      <c r="R44" s="10">
-        <f>+R23/N23-1</f>
+      <c r="V44" s="10">
+        <f>+V23/R23-1</f>
         <v>0.11402508551881407</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="AE44" s="19">
-        <f t="shared" ref="AE44" si="111">AE23/AD23-1</f>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="AI44" s="19">
+        <f t="shared" ref="AI44" si="135">AI23/AH23-1</f>
         <v>1.2734530938123751</v>
       </c>
-      <c r="AF44" s="19">
-        <f>AF23/AE23-1</f>
+      <c r="AJ44" s="19">
+        <f>AJ23/AI23-1</f>
         <v>0.99648814749780512</v>
       </c>
     </row>
-    <row r="45" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -4164,241 +5063,323 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
-    </row>
-    <row r="46" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+    </row>
+    <row r="46" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="C46" s="10">
+        <f t="shared" ref="C46:G46" si="136">+C27/C25</f>
+        <v>0.8389603877653351</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="136"/>
+        <v>0.83266570931902351</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="136"/>
+        <v>0.82385080498288044</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="136"/>
+        <v>0.83469315360056762</v>
+      </c>
       <c r="G46" s="10">
-        <f t="shared" ref="G46:N46" si="112">+G27/G25</f>
+        <f t="shared" si="136"/>
+        <v>0.81322544272733299</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" ref="H46:I46" si="137">+H27/H25</f>
+        <v>0.80415729006277392</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" si="137"/>
+        <v>0.82126671198731027</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" ref="J46:R46" si="138">+J27/J25</f>
+        <v>0.83436106631249407</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="138"/>
         <v>0.80498393189378137</v>
       </c>
-      <c r="H46" s="10">
-        <f t="shared" si="112"/>
+      <c r="L46" s="10">
+        <f t="shared" si="138"/>
         <v>0.7950981966072671</v>
       </c>
-      <c r="I46" s="10">
-        <f t="shared" si="112"/>
+      <c r="M46" s="10">
+        <f t="shared" si="138"/>
         <v>0.80465766185374943</v>
       </c>
-      <c r="J46" s="10">
-        <f t="shared" si="112"/>
+      <c r="N46" s="10">
+        <f t="shared" si="138"/>
         <v>0.81440581362211462</v>
       </c>
-      <c r="K46" s="10">
-        <f t="shared" si="112"/>
+      <c r="O46" s="10">
+        <f t="shared" si="138"/>
         <v>0.80394329601467274</v>
       </c>
-      <c r="L46" s="10">
-        <f t="shared" si="112"/>
+      <c r="P46" s="10">
+        <f t="shared" si="138"/>
         <v>0.81432059703545756</v>
       </c>
-      <c r="M46" s="10">
-        <f t="shared" si="112"/>
+      <c r="Q46" s="10">
+        <f t="shared" si="138"/>
         <v>0.80106859703550504</v>
       </c>
-      <c r="N46" s="10">
-        <f t="shared" si="112"/>
+      <c r="R46" s="10">
+        <f t="shared" si="138"/>
         <v>0.81146981081642955</v>
       </c>
-      <c r="O46" s="10">
-        <f>+O27/O25</f>
+      <c r="S46" s="10">
+        <f>+S27/S25</f>
         <v>0.78482872294682526</v>
       </c>
-      <c r="P46" s="10">
-        <f t="shared" ref="P46:R46" si="113">+P27/P25</f>
+      <c r="T46" s="10">
+        <f t="shared" ref="T46:V46" si="139">+T27/T25</f>
         <v>0.81985982929706469</v>
       </c>
-      <c r="Q46" s="10">
-        <f t="shared" si="113"/>
+      <c r="U46" s="10">
+        <f t="shared" si="139"/>
         <v>0.79</v>
       </c>
-      <c r="R46" s="10">
-        <f t="shared" si="113"/>
+      <c r="V46" s="10">
+        <f t="shared" si="139"/>
         <v>0.79</v>
       </c>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="AE46" s="19">
-        <f t="shared" ref="AE46" si="114">+AE27/AE25</f>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="AG46" s="19">
+        <f t="shared" ref="AG46:AI46" si="140">+AG27/AG25</f>
+        <v>0.8324617643898421</v>
+      </c>
+      <c r="AH46" s="19">
+        <f t="shared" si="140"/>
+        <v>0.81936998741106415</v>
+      </c>
+      <c r="AI46" s="19">
+        <f t="shared" si="140"/>
         <v>0.80582795323678236</v>
       </c>
-      <c r="AF46" s="19">
-        <f>+AF27/AF25</f>
+      <c r="AJ46" s="19">
+        <f>+AJ27/AJ25</f>
         <v>0.80794376277251567</v>
       </c>
-      <c r="AG46" s="19">
-        <f t="shared" ref="AG46:AO46" si="115">+AG27/AG25</f>
+      <c r="AK46" s="19">
+        <f t="shared" ref="AK46:AS46" si="141">+AK27/AK25</f>
         <v>0.81</v>
       </c>
-      <c r="AH46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AL46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AI46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AM46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AJ46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AN46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AK46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AO46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AL46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AP46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AM46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AQ46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AN46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AR46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AO46" s="19">
-        <f t="shared" si="115"/>
+      <c r="AS46" s="19">
+        <f t="shared" si="141"/>
         <v>0.81</v>
       </c>
-      <c r="AS46" t="s">
+      <c r="AW46" t="s">
         <v>112</v>
       </c>
-      <c r="AT46" s="3">
-        <f>NPV(AT47,AH36:CS36)</f>
-        <v>715483.21517933928</v>
-      </c>
-    </row>
-    <row r="47" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AX46" s="3">
+        <f>NPV(AX47,AL36:CW36)</f>
+        <v>572532.83808128291</v>
+      </c>
+    </row>
+    <row r="47" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="10">
+        <f t="shared" ref="C47:G47" si="142">+C35/C34</f>
+        <v>0.11105169340463458</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="142"/>
+        <v>0.12985685071574643</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="142"/>
+        <v>0.13108930987821379</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="142"/>
+        <v>0.13662024840045164</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="142"/>
+        <v>0.33972098727579336</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" ref="H47:M47" si="143">+H35/H34</f>
+        <v>0.32435597189695553</v>
+      </c>
       <c r="I47" s="10">
-        <f>+I35/I34</f>
+        <f t="shared" si="143"/>
+        <v>0.16891799699822621</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="143"/>
+        <v>0.19849492856363835</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="143"/>
+        <v>0.16362395495649207</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" si="143"/>
+        <v>0.15543956940140272</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="143"/>
         <v>3.5288331488995447E-2</v>
       </c>
-      <c r="J47" s="10">
-        <f t="shared" ref="J47:R47" si="116">+J35/J34</f>
+      <c r="N47" s="10">
+        <f t="shared" ref="N47:V47" si="144">+N35/N34</f>
         <v>0.14063577173496744</v>
       </c>
-      <c r="K47" s="10">
-        <f t="shared" si="116"/>
+      <c r="O47" s="10">
+        <f t="shared" si="144"/>
         <v>0.17438928975049986</v>
       </c>
-      <c r="L47" s="10">
-        <f t="shared" si="116"/>
+      <c r="P47" s="10">
+        <f t="shared" si="144"/>
         <v>0.16934388236234316</v>
       </c>
-      <c r="M47" s="10">
-        <f t="shared" si="116"/>
+      <c r="Q47" s="10">
+        <f t="shared" si="144"/>
         <v>0.12976810222432561</v>
       </c>
-      <c r="N47" s="10">
-        <f t="shared" si="116"/>
+      <c r="R47" s="10">
+        <f t="shared" si="144"/>
         <v>0.19028499448905684</v>
       </c>
-      <c r="O47" s="10">
-        <f t="shared" si="116"/>
+      <c r="S47" s="10">
+        <f t="shared" si="144"/>
         <v>0.1619892231701841</v>
       </c>
-      <c r="P47" s="10">
-        <f t="shared" si="116"/>
+      <c r="T47" s="10">
+        <f t="shared" si="144"/>
         <v>0.18311751771316884</v>
       </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="116"/>
+      <c r="U47" s="10">
+        <f t="shared" si="144"/>
         <v>0.19</v>
       </c>
-      <c r="R47" s="10">
-        <f t="shared" si="116"/>
+      <c r="V47" s="10">
+        <f t="shared" si="144"/>
         <v>0.19</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="AE47" s="19">
-        <f>+AE35/AE34</f>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="AG47" s="19">
+        <f t="shared" ref="AG47:AH47" si="145">+AG35/AG34</f>
+        <v>0.12814952091794488</v>
+      </c>
+      <c r="AH47" s="19">
+        <f t="shared" si="145"/>
+        <v>0.21222997450690997</v>
+      </c>
+      <c r="AI47" s="19">
+        <f>+AI35/AI34</f>
         <v>0.12157926461723931</v>
       </c>
-      <c r="AF47" s="19">
-        <f t="shared" ref="AF47:AG47" si="117">+AF35/AF34</f>
+      <c r="AJ47" s="19">
+        <f t="shared" ref="AJ47:AK47" si="146">+AJ35/AJ34</f>
         <v>0.16737162676592504</v>
       </c>
-      <c r="AG47" s="19">
-        <f t="shared" si="117"/>
+      <c r="AK47" s="19">
+        <f t="shared" si="146"/>
         <v>0.18</v>
       </c>
-      <c r="AH47" s="19">
-        <f t="shared" ref="AH47:AO47" si="118">+AH35/AH34</f>
+      <c r="AL47" s="19">
+        <f t="shared" ref="AL47:AS47" si="147">+AL35/AL34</f>
         <v>0.18</v>
       </c>
-      <c r="AI47" s="19">
-        <f t="shared" si="118"/>
+      <c r="AM47" s="19">
+        <f t="shared" si="147"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AN47" s="19">
+        <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
-      <c r="AJ47" s="19">
-        <f t="shared" si="118"/>
+      <c r="AO47" s="19">
+        <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
-      <c r="AK47" s="19">
-        <f t="shared" si="118"/>
+      <c r="AP47" s="19">
+        <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
-      <c r="AL47" s="19">
-        <f t="shared" si="118"/>
+      <c r="AQ47" s="19">
+        <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
-      <c r="AM47" s="19">
-        <f t="shared" si="118"/>
+      <c r="AR47" s="19">
+        <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
-      <c r="AN47" s="19">
-        <f t="shared" si="118"/>
+      <c r="AS47" s="19">
+        <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
-      <c r="AO47" s="19">
-        <f t="shared" si="118"/>
-        <v>0.18</v>
-      </c>
-      <c r="AS47" s="3" t="s">
+      <c r="AW47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AT47" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="O48" s="6"/>
-      <c r="AS48" t="s">
+      <c r="AX47" s="19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="48" spans="2:101" x14ac:dyDescent="0.2">
+      <c r="S48" s="6"/>
+      <c r="AW48" t="s">
         <v>114</v>
       </c>
-      <c r="AT48" s="19">
+      <c r="AX48" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="49" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4409,87 +5390,97 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="6">
-        <f>17576+44378+6234</f>
-        <v>68188</v>
-      </c>
-      <c r="K49" s="6">
-        <f>19513+44706+6342</f>
-        <v>70561</v>
-      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6">
+        <f>17576+44378+6234</f>
+        <v>68188</v>
+      </c>
+      <c r="O49" s="6">
+        <f>19513+44706+6342</f>
+        <v>70561</v>
+      </c>
+      <c r="P49" s="6">
+        <f>16186+47894+6393</f>
+        <v>70473</v>
+      </c>
+      <c r="Q49" s="6">
+        <f>14496+43579+6758</f>
+        <v>64833</v>
+      </c>
+      <c r="R49" s="6">
         <f>16601+31397+6775</f>
         <v>54773</v>
       </c>
-      <c r="O49" s="6">
+      <c r="S49" s="6">
         <f>14886+29004+6775</f>
         <v>50665</v>
       </c>
-      <c r="P49" s="6">
+      <c r="T49" s="6">
         <f>12681+27808+6536</f>
         <v>47025</v>
       </c>
-      <c r="Q49" s="6">
-        <f t="shared" ref="Q49:R49" si="119">+P49+Q36</f>
+      <c r="U49" s="6">
+        <f t="shared" ref="U49:V49" si="148">+T49+U36</f>
         <v>52208.139779999998</v>
       </c>
-      <c r="R49" s="6">
-        <f t="shared" si="119"/>
+      <c r="V49" s="6">
+        <f t="shared" si="148"/>
         <v>61575.061184999999</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="AF49" s="3">
-        <f>+N49</f>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="AJ49" s="3">
+        <f>+R49</f>
         <v>54773</v>
       </c>
-      <c r="AG49" s="3">
-        <f>+R49</f>
+      <c r="AK49" s="3">
+        <f>+V49</f>
         <v>61575.061184999999</v>
       </c>
-      <c r="AH49" s="3">
-        <f>+AG49+AH36</f>
-        <v>108004.01973361701</v>
-      </c>
-      <c r="AI49" s="3">
-        <f t="shared" ref="AI49:AO49" si="120">+AH49+AI36</f>
-        <v>158907.52886373969</v>
-      </c>
-      <c r="AJ49" s="3">
-        <f t="shared" si="120"/>
-        <v>214232.20882077859</v>
-      </c>
-      <c r="AK49" s="3">
-        <f t="shared" si="120"/>
-        <v>273942.82861037587</v>
-      </c>
       <c r="AL49" s="3">
-        <f t="shared" si="120"/>
-        <v>338020.8835518359</v>
+        <f>+AK49+AL36</f>
+        <v>101644.801555217</v>
       </c>
       <c r="AM49" s="3">
-        <f t="shared" si="120"/>
-        <v>406463.32691556454</v>
+        <f t="shared" ref="AM49:AS49" si="149">+AL49+AM36</f>
+        <v>139904.91310304479</v>
       </c>
       <c r="AN49" s="3">
-        <f t="shared" si="120"/>
-        <v>479281.44059184252</v>
+        <f t="shared" si="149"/>
+        <v>187126.57716307224</v>
       </c>
       <c r="AO49" s="3">
-        <f t="shared" si="120"/>
-        <v>556499.83125420101</v>
-      </c>
-      <c r="AS49" s="3" t="s">
+        <f t="shared" si="149"/>
+        <v>240007.59895352105</v>
+      </c>
+      <c r="AP49" s="3">
+        <f t="shared" si="149"/>
+        <v>297001.8332376529</v>
+      </c>
+      <c r="AQ49" s="3">
+        <f t="shared" si="149"/>
+        <v>358098.20206143905</v>
+      </c>
+      <c r="AR49" s="3">
+        <f t="shared" si="149"/>
+        <v>423299.71183672606</v>
+      </c>
+      <c r="AS49" s="3">
+        <f t="shared" si="149"/>
+        <v>492622.44214978971</v>
+      </c>
+      <c r="AW49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AT49" s="19">
+      <c r="AX49" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
@@ -4500,37 +5491,45 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="6">
-        <v>11335</v>
-      </c>
-      <c r="K50" s="6">
-        <v>10276</v>
-      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6">
+        <v>11335</v>
+      </c>
+      <c r="O50" s="6">
+        <v>10276</v>
+      </c>
+      <c r="P50" s="6">
+        <v>11698</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>12088</v>
+      </c>
+      <c r="R50" s="6">
         <v>14039</v>
       </c>
-      <c r="O50" s="6">
+      <c r="S50" s="6">
         <v>11390</v>
       </c>
-      <c r="P50" s="6">
+      <c r="T50" s="6">
         <v>11525</v>
       </c>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="AS50" s="3" t="s">
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="AW50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AT50" s="17">
-        <f>AT46/Main!M3</f>
-        <v>260.93479765840237</v>
-      </c>
-    </row>
-    <row r="51" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AX50" s="17">
+        <f>AX46/Main!M3</f>
+        <v>211.03311392601657</v>
+      </c>
+    </row>
+    <row r="51" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
@@ -4541,37 +5540,45 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="6">
-        <v>2381</v>
-      </c>
-      <c r="K51" s="6">
-        <v>2827</v>
-      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6">
+        <v>2381</v>
+      </c>
+      <c r="O51" s="6">
+        <v>2827</v>
+      </c>
+      <c r="P51" s="6">
+        <v>4919</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>5258</v>
+      </c>
+      <c r="R51" s="6">
         <v>4629</v>
       </c>
-      <c r="O51" s="6">
+      <c r="S51" s="6">
         <v>3985</v>
       </c>
-      <c r="P51" s="6">
+      <c r="T51" s="6">
         <v>3973</v>
       </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
-      <c r="AS51" s="3" t="s">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="AW51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AT51" s="19">
-        <f>AT50/Main!M2-1</f>
-        <v>0.48621517148944804</v>
-      </c>
-    </row>
-    <row r="52" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AX51" s="19">
+        <f>AX50/Main!M2-1</f>
+        <v>0.5494354913804449</v>
+      </c>
+    </row>
+    <row r="52" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
@@ -4582,30 +5589,38 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="6">
-        <v>45633</v>
-      </c>
-      <c r="K52" s="6">
-        <v>47720</v>
-      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6">
+        <v>45633</v>
+      </c>
+      <c r="O52" s="6">
+        <v>47720</v>
+      </c>
+      <c r="P52" s="6">
+        <v>50909</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>53726</v>
+      </c>
+      <c r="R52" s="6">
         <v>57809</v>
       </c>
-      <c r="O52" s="6">
+      <c r="S52" s="6">
         <v>61582</v>
       </c>
-      <c r="P52" s="6">
+      <c r="T52" s="6">
         <v>67588</v>
       </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
-    </row>
-    <row r="53" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+    </row>
+    <row r="53" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
@@ -4616,30 +5631,38 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="6">
-        <v>9348</v>
-      </c>
-      <c r="K53" s="6">
-        <v>10202</v>
-      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6">
+        <v>9348</v>
+      </c>
+      <c r="O53" s="6">
+        <v>10202</v>
+      </c>
+      <c r="P53" s="6">
+        <v>10525</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>11063</v>
+      </c>
+      <c r="R53" s="6">
         <v>12155</v>
       </c>
-      <c r="O53" s="6">
+      <c r="S53" s="6">
         <v>12241</v>
       </c>
-      <c r="P53" s="6">
+      <c r="T53" s="6">
         <v>14130</v>
       </c>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-    </row>
-    <row r="54" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+    </row>
+    <row r="54" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
@@ -4650,35 +5673,45 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="6">
-        <f>623+19050</f>
-        <v>19673</v>
-      </c>
-      <c r="K54" s="6">
-        <f>505+19056</f>
-        <v>19561</v>
-      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6">
+        <f>623+19050</f>
+        <v>19673</v>
+      </c>
+      <c r="O54" s="6">
+        <f>505+19056</f>
+        <v>19561</v>
+      </c>
+      <c r="P54" s="6">
+        <f>19219+514</f>
+        <v>19733</v>
+      </c>
+      <c r="Q54" s="6">
+        <f>365+19065</f>
+        <v>19430</v>
+      </c>
+      <c r="R54" s="6">
         <f>19197+634</f>
         <v>19831</v>
       </c>
-      <c r="O54" s="6">
+      <c r="S54" s="6">
         <f>910+19923</f>
         <v>20833</v>
       </c>
-      <c r="P54" s="6">
+      <c r="T54" s="6">
         <f>965+20229</f>
         <v>21194</v>
       </c>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-    </row>
-    <row r="55" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+    </row>
+    <row r="55" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
@@ -4689,30 +5722,38 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="6">
-        <v>2758</v>
-      </c>
-      <c r="K55" s="6">
-        <v>2376</v>
-      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6">
+        <v>2758</v>
+      </c>
+      <c r="O55" s="6">
+        <v>2376</v>
+      </c>
+      <c r="P55" s="6">
+        <v>2352</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>3187</v>
+      </c>
+      <c r="R55" s="6">
         <v>2751</v>
       </c>
-      <c r="O55" s="6">
+      <c r="S55" s="6">
         <v>3522</v>
       </c>
-      <c r="P55" s="6">
+      <c r="T55" s="6">
         <v>4344</v>
       </c>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
       <c r="U55" s="6"/>
-    </row>
-    <row r="56" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+    </row>
+    <row r="56" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>53</v>
       </c>
@@ -4723,403 +5764,541 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="6">
-        <f t="shared" ref="J56:K56" si="121">SUM(J49:J55)</f>
-        <v>159316</v>
-      </c>
-      <c r="K56" s="6">
-        <f t="shared" si="121"/>
-        <v>163523</v>
-      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6">
-        <f t="shared" ref="N56" si="122">SUM(N49:N55)</f>
+        <f t="shared" ref="N56:O56" si="150">SUM(N49:N55)</f>
+        <v>159316</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="150"/>
+        <v>163523</v>
+      </c>
+      <c r="P56" s="6">
+        <f t="shared" ref="P56:Q56" si="151">SUM(P49:P55)</f>
+        <v>170609</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="151"/>
+        <v>169585</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" ref="R56" si="152">SUM(R49:R55)</f>
         <v>165987</v>
       </c>
-      <c r="O56" s="6">
-        <f>SUM(O49:O55)</f>
+      <c r="S56" s="6">
+        <f>SUM(S49:S55)</f>
         <v>164218</v>
       </c>
-      <c r="P56" s="6">
-        <f>SUM(P49:P55)</f>
+      <c r="T56" s="6">
+        <f>SUM(T49:T55)</f>
         <v>169779</v>
       </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
       <c r="U56" s="6"/>
-    </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="O57" s="6"/>
-    </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+    </row>
+    <row r="57" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="J58" s="6">
+      <c r="N58" s="6">
         <v>1331</v>
       </c>
-      <c r="K58" s="6">
+      <c r="O58" s="6">
         <v>878</v>
       </c>
-      <c r="N58" s="6">
+      <c r="P58" s="6">
+        <v>973</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>2195</v>
+      </c>
+      <c r="R58" s="6">
         <v>4083</v>
       </c>
-      <c r="O58" s="6">
+      <c r="S58" s="6">
         <v>3246</v>
       </c>
-      <c r="P58" s="6">
+      <c r="T58" s="6">
         <v>4008</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="J59" s="6">
+      <c r="N59" s="6">
         <v>1093</v>
       </c>
-      <c r="K59" s="6">
+      <c r="O59" s="6">
         <v>1006</v>
       </c>
-      <c r="N59" s="6">
+      <c r="P59" s="6">
+        <v>949</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>909</v>
+      </c>
+      <c r="R59" s="6">
         <v>1052</v>
       </c>
-      <c r="O59" s="6">
+      <c r="S59" s="6">
         <v>935</v>
       </c>
-      <c r="P59" s="6">
+      <c r="T59" s="6">
         <v>982</v>
       </c>
     </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="J60" s="6">
+      <c r="N60" s="6">
         <f>1023+9631</f>
         <v>10654</v>
       </c>
-      <c r="K60" s="6">
+      <c r="O60" s="6">
         <f>1040+10574</f>
         <v>11614</v>
       </c>
-      <c r="N60" s="6">
+      <c r="P60" s="6">
+        <f>1051+10956</f>
+        <v>12007</v>
+      </c>
+      <c r="Q60" s="6">
+        <f>1086+11554</f>
+        <v>12640</v>
+      </c>
+      <c r="R60" s="6">
         <f>1127+12746</f>
         <v>13873</v>
       </c>
-      <c r="O60" s="6">
+      <c r="S60" s="6">
         <f>1159+12894</f>
         <v>14053</v>
       </c>
-      <c r="P60" s="6">
+      <c r="T60" s="6">
         <f>1275+14792</f>
         <v>16067</v>
       </c>
     </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="J61" s="6">
+      <c r="N61" s="6">
         <v>11152</v>
       </c>
-      <c r="K61" s="6">
+      <c r="O61" s="6">
         <v>9411</v>
       </c>
-      <c r="N61" s="6">
+      <c r="P61" s="6">
+        <v>11510</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>13158</v>
+      </c>
+      <c r="R61" s="6">
         <v>14312</v>
       </c>
-      <c r="O61" s="6">
+      <c r="S61" s="6">
         <v>15226</v>
       </c>
-      <c r="P61" s="6">
+      <c r="T61" s="6">
         <v>15420</v>
       </c>
     </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="6">
+      <c r="N62" s="6">
         <v>382</v>
       </c>
-      <c r="K62" s="6">
+      <c r="O62" s="6">
         <v>382</v>
       </c>
-      <c r="N62" s="6">
+      <c r="P62" s="6">
+        <v>391</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>464</v>
+      </c>
+      <c r="R62" s="6">
         <v>561</v>
       </c>
-      <c r="O62" s="6">
+      <c r="S62" s="6">
         <v>520</v>
       </c>
-      <c r="P62" s="6">
+      <c r="T62" s="6">
         <v>532</v>
       </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="J63" s="6">
+      <c r="N63" s="6">
         <v>6414</v>
       </c>
-      <c r="K63" s="6">
+      <c r="O63" s="6">
         <v>6575</v>
       </c>
-      <c r="N63" s="6">
+      <c r="P63" s="6">
+        <v>6552</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>6859</v>
+      </c>
+      <c r="R63" s="6">
         <v>7227</v>
       </c>
-      <c r="O63" s="6">
+      <c r="S63" s="6">
         <v>7010</v>
       </c>
-      <c r="P63" s="6">
+      <c r="T63" s="6">
         <v>7003</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="J64" s="6">
+      <c r="N64" s="6">
         <v>50018</v>
       </c>
-      <c r="K64" s="6">
+      <c r="O64" s="6">
         <v>51160</v>
       </c>
-      <c r="N64" s="6">
+      <c r="P64" s="6">
+        <v>52845</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>54334</v>
+      </c>
+      <c r="R64" s="6">
         <v>55811</v>
       </c>
-      <c r="O64" s="6">
+      <c r="S64" s="6">
         <v>57512</v>
       </c>
-      <c r="P64" s="6">
+      <c r="T64" s="6">
         <v>59929</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="6">
+      <c r="N65" s="6">
         <v>927</v>
       </c>
-      <c r="K65" s="6">
+      <c r="O65" s="6">
         <v>154</v>
       </c>
-      <c r="N65" s="6">
+      <c r="P65" s="6">
+        <v>285</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>-207</v>
+      </c>
+      <c r="R65" s="6">
         <v>-693</v>
       </c>
-      <c r="O65" s="6">
+      <c r="S65" s="6">
         <v>-1996</v>
       </c>
-      <c r="P65" s="6">
+      <c r="T65" s="6">
         <v>-3411</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>62</v>
       </c>
-      <c r="J66" s="6">
+      <c r="N66" s="6">
         <v>77345</v>
       </c>
-      <c r="K66" s="6">
+      <c r="O66" s="6">
         <v>82343</v>
       </c>
-      <c r="N66" s="6">
+      <c r="P66" s="6">
+        <v>85097</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>79233</v>
+      </c>
+      <c r="R66" s="6">
         <v>69761</v>
       </c>
-      <c r="O66" s="6">
+      <c r="S66" s="6">
         <v>67712</v>
       </c>
-      <c r="P66" s="6">
+      <c r="T66" s="6">
         <v>69249</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>61</v>
       </c>
-      <c r="J67" s="6">
-        <f t="shared" ref="J67:K67" si="123">SUM(J58:J66)</f>
+      <c r="N67" s="6">
+        <f t="shared" ref="N67:O67" si="153">SUM(N58:N66)</f>
         <v>159316</v>
       </c>
-      <c r="K67" s="6">
-        <f t="shared" si="123"/>
+      <c r="O67" s="6">
+        <f t="shared" si="153"/>
         <v>163523</v>
       </c>
-      <c r="N67" s="6">
-        <f t="shared" ref="N67:P67" si="124">SUM(N58:N66)</f>
+      <c r="P67" s="6">
+        <f t="shared" ref="P67:Q67" si="154">SUM(P58:P66)</f>
+        <v>170609</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" si="154"/>
+        <v>169585</v>
+      </c>
+      <c r="R67" s="6">
+        <f t="shared" ref="R67:T67" si="155">SUM(R58:R66)</f>
         <v>165987</v>
       </c>
-      <c r="O67" s="6">
-        <f t="shared" si="124"/>
+      <c r="S67" s="6">
+        <f t="shared" si="155"/>
         <v>164218</v>
       </c>
-      <c r="P67" s="6">
-        <f t="shared" si="124"/>
+      <c r="T67" s="6">
+        <f t="shared" si="155"/>
         <v>169779</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="O68" s="6"/>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S68" s="6"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>66</v>
       </c>
-      <c r="K69" s="6">
-        <f t="shared" ref="K69" si="125">K36</f>
+      <c r="O69" s="6">
+        <f t="shared" ref="O69:P69" si="156">O36</f>
         <v>9497</v>
       </c>
-      <c r="N69" s="6">
-        <f t="shared" ref="N69" si="126">N36</f>
+      <c r="P69" s="6">
+        <f t="shared" si="156"/>
+        <v>10394</v>
+      </c>
+      <c r="Q69" s="6">
+        <f>Q36</f>
+        <v>9194</v>
+      </c>
+      <c r="R69" s="6">
+        <f t="shared" ref="R69" si="157">R36</f>
         <v>10285</v>
       </c>
-      <c r="O69" s="6">
-        <f>O36</f>
+      <c r="S69" s="6">
+        <f>S36</f>
         <v>7465</v>
       </c>
-      <c r="P69" s="6">
-        <f>P36</f>
+      <c r="T69" s="6">
+        <f>T36</f>
         <v>6687</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>67</v>
       </c>
-      <c r="K70" s="6">
+      <c r="O70" s="6">
         <v>9497</v>
       </c>
-      <c r="N70" s="6">
+      <c r="P70" s="6">
+        <f>19892-O70</f>
+        <v>10395</v>
+      </c>
+      <c r="Q70" s="6">
+        <f>29085-P70-O70</f>
+        <v>9193</v>
+      </c>
+      <c r="R70" s="6">
         <v>10285</v>
       </c>
-      <c r="O70" s="6">
+      <c r="S70" s="6">
         <v>7465</v>
       </c>
-      <c r="P70" s="6">
+      <c r="T70" s="6">
         <v>6687</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>69</v>
       </c>
-      <c r="K71" s="6">
+      <c r="O71" s="6">
         <v>1972</v>
       </c>
-      <c r="N71" s="6">
+      <c r="P71" s="6">
+        <f>3958-O71</f>
+        <v>1986</v>
+      </c>
+      <c r="Q71" s="6">
+        <f>5953-P71-O71</f>
+        <v>1995</v>
+      </c>
+      <c r="R71" s="6">
         <v>2014</v>
       </c>
-      <c r="O71" s="6">
+      <c r="S71" s="6">
         <v>2156</v>
       </c>
-      <c r="P71" s="6">
+      <c r="T71" s="6">
         <v>1979</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="K72" s="6">
+      <c r="O72" s="6">
         <v>1830</v>
       </c>
-      <c r="N72" s="6">
+      <c r="P72" s="6">
+        <f>4379-O72</f>
+        <v>2549</v>
+      </c>
+      <c r="Q72" s="6">
+        <f>6757-P72-O72</f>
+        <v>2378</v>
+      </c>
+      <c r="R72" s="6">
         <v>2406</v>
       </c>
-      <c r="O72" s="6">
+      <c r="S72" s="6">
         <v>2498</v>
       </c>
-      <c r="P72" s="6">
+      <c r="T72" s="6">
         <v>3351</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>71</v>
       </c>
-      <c r="K73" s="6">
+      <c r="O73" s="6">
         <v>418</v>
       </c>
-      <c r="N73" s="6">
+      <c r="P73" s="6">
+        <f>647-O73</f>
+        <v>229</v>
+      </c>
+      <c r="Q73" s="6">
+        <f>-139-P73-O73</f>
+        <v>-786</v>
+      </c>
+      <c r="R73" s="6">
         <v>748</v>
       </c>
-      <c r="O73" s="6">
+      <c r="S73" s="6">
         <v>-563</v>
       </c>
-      <c r="P73" s="6">
+      <c r="T73" s="6">
         <v>-453</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>55</v>
       </c>
-      <c r="K74" s="6">
+      <c r="O74" s="6">
         <v>-66</v>
       </c>
-      <c r="N74" s="6">
+      <c r="P74" s="6">
+        <f>-88-O74</f>
+        <v>-22</v>
+      </c>
+      <c r="Q74" s="6">
+        <f>-161-P74-O74</f>
+        <v>-73</v>
+      </c>
+      <c r="R74" s="6">
         <v>34</v>
       </c>
-      <c r="O74" s="6">
+      <c r="S74" s="6">
         <v>-221</v>
       </c>
-      <c r="P74" s="6">
+      <c r="T74" s="6">
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="K75" s="6">
+      <c r="O75" s="6">
         <f>849-461-10-250-72-1681+6+210</f>
         <v>-1409</v>
       </c>
-      <c r="N75" s="6">
+      <c r="P75" s="6">
+        <f>-517-2313-195-134-133-200+9+184-O75</f>
+        <v>-1890</v>
+      </c>
+      <c r="Q75" s="6">
+        <f>-1072-2566-184+560-163+895+87+527-P75-O75</f>
+        <v>1383</v>
+      </c>
+      <c r="R75" s="6">
         <f>-2038+817-165+876+151+2462+100+414</f>
         <v>2617</v>
       </c>
-      <c r="O75" s="6">
+      <c r="S75" s="6">
         <f>2557+573-108-882-105+763-52-5</f>
         <v>2741</v>
       </c>
-      <c r="P75" s="6">
+      <c r="T75" s="6">
         <f>-522-435-25+237+73+1180+24-88</f>
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>68</v>
       </c>
-      <c r="K76" s="6">
-        <f>SUM(K70:K75)</f>
+      <c r="O76" s="6">
+        <f t="shared" ref="O76:T76" si="158">SUM(O70:O75)</f>
         <v>12242</v>
       </c>
-      <c r="N76" s="6">
-        <f>SUM(N70:N75)</f>
+      <c r="P76" s="6">
+        <f t="shared" si="158"/>
+        <v>13247</v>
+      </c>
+      <c r="Q76" s="6">
+        <f t="shared" si="158"/>
+        <v>14090</v>
+      </c>
+      <c r="R76" s="6">
+        <f t="shared" si="158"/>
         <v>18104</v>
       </c>
-      <c r="O76" s="6">
-        <f>SUM(O70:O75)</f>
+      <c r="S76" s="6">
+        <f t="shared" si="158"/>
         <v>14076</v>
       </c>
-      <c r="P76" s="6">
-        <f>SUM(P70:P75)</f>
+      <c r="T76" s="6">
+        <f t="shared" si="158"/>
         <v>12197</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-    </row>
-    <row r="78" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>73</v>
       </c>
@@ -5131,29 +6310,39 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6">
-        <v>-4272</v>
-      </c>
+      <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="6">
+      <c r="N78" s="6"/>
+      <c r="O78" s="6">
+        <v>-4272</v>
+      </c>
+      <c r="P78" s="6">
+        <f>-8884-O78</f>
+        <v>-4612</v>
+      </c>
+      <c r="Q78" s="6">
+        <f>-13198-P78-O78</f>
+        <v>-4314</v>
+      </c>
+      <c r="R78" s="6">
         <v>-5370</v>
       </c>
-      <c r="O78" s="6">
+      <c r="S78" s="6">
         <f>-5441+126</f>
         <v>-5315</v>
       </c>
-      <c r="P78" s="6">
+      <c r="T78" s="6">
         <f>-7572+44</f>
         <v>-7528</v>
       </c>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
-    </row>
-    <row r="79" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+    </row>
+    <row r="79" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>74</v>
       </c>
@@ -5165,31 +6354,41 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6">
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6">
         <f>-6231+1650+3981-2</f>
         <v>-602</v>
       </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6">
+      <c r="P79" s="6">
+        <f>-16528+6337+6327-O79-62</f>
+        <v>-3324</v>
+      </c>
+      <c r="Q79" s="6">
+        <f>-24314+15331+9318-46-160-P79-O79</f>
+        <v>4055</v>
+      </c>
+      <c r="R79" s="6">
         <f>-6093+16340+1598-2-123</f>
         <v>11720</v>
       </c>
-      <c r="O79" s="6">
+      <c r="S79" s="6">
         <f>-4068+5065+402-10</f>
         <v>1389</v>
       </c>
-      <c r="P79" s="6">
+      <c r="T79" s="6">
         <f>-2220+2648+511-7</f>
         <v>932</v>
       </c>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
       <c r="U79" s="6"/>
-    </row>
-    <row r="80" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+    </row>
+    <row r="80" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>75</v>
       </c>
@@ -5201,27 +6400,37 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="6">
-        <v>0</v>
-      </c>
+      <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="6">
+      <c r="N80" s="6"/>
+      <c r="O80" s="6">
+        <v>0</v>
+      </c>
+      <c r="P80" s="6">
+        <f>-259-O80</f>
+        <v>-259</v>
+      </c>
+      <c r="Q80" s="6">
+        <f>-330-P80-O80</f>
+        <v>-71</v>
+      </c>
+      <c r="R80" s="6">
         <v>-521</v>
       </c>
-      <c r="O80" s="6">
+      <c r="S80" s="6">
         <v>-853</v>
       </c>
-      <c r="P80" s="6">
+      <c r="T80" s="6">
         <v>-363</v>
       </c>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
       <c r="U80" s="6"/>
-    </row>
-    <row r="81" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+    </row>
+    <row r="81" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>76</v>
       </c>
@@ -5233,31 +6442,41 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6">
-        <f>SUM(K78:K80)</f>
-        <v>-4874</v>
-      </c>
+      <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="6">
-        <f>SUM(N78:N80)</f>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6">
+        <f t="shared" ref="O81:T81" si="159">SUM(O78:O80)</f>
+        <v>-4874</v>
+      </c>
+      <c r="P81" s="6">
+        <f t="shared" si="159"/>
+        <v>-8195</v>
+      </c>
+      <c r="Q81" s="6">
+        <f t="shared" si="159"/>
+        <v>-330</v>
+      </c>
+      <c r="R81" s="6">
+        <f t="shared" si="159"/>
         <v>5829</v>
       </c>
-      <c r="O81" s="6">
-        <f>SUM(O78:O80)</f>
+      <c r="S81" s="6">
+        <f t="shared" si="159"/>
         <v>-4779</v>
       </c>
-      <c r="P81" s="6">
-        <f>SUM(P78:P80)</f>
+      <c r="T81" s="6">
+        <f t="shared" si="159"/>
         <v>-6959</v>
       </c>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
       <c r="U81" s="6"/>
-    </row>
-    <row r="82" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+    </row>
+    <row r="82" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -5277,8 +6496,12 @@
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
-    </row>
-    <row r="83" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+    </row>
+    <row r="83" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
@@ -5290,27 +6513,37 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="6">
-        <v>-1077</v>
-      </c>
+      <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="6">
+      <c r="N83" s="6"/>
+      <c r="O83" s="6">
+        <v>-1077</v>
+      </c>
+      <c r="P83" s="6">
+        <f>-2432-O83</f>
+        <v>-1355</v>
+      </c>
+      <c r="Q83" s="6">
+        <f>-4007-P83-O83</f>
+        <v>-1575</v>
+      </c>
+      <c r="R83" s="6">
         <v>-1507</v>
       </c>
-      <c r="O83" s="6">
+      <c r="S83" s="6">
         <v>-925</v>
       </c>
-      <c r="P83" s="6">
+      <c r="T83" s="6">
         <v>-1002</v>
       </c>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
       <c r="U83" s="6"/>
-    </row>
-    <row r="84" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+    </row>
+    <row r="84" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>78</v>
       </c>
@@ -5322,27 +6555,37 @@
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
-      <c r="K84" s="8">
-        <v>-3939</v>
-      </c>
+      <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
-      <c r="N84" s="8">
+      <c r="N84" s="8"/>
+      <c r="O84" s="8">
+        <v>-3939</v>
+      </c>
+      <c r="P84" s="8">
+        <f>-11018-O84</f>
+        <v>-7079</v>
+      </c>
+      <c r="Q84" s="8">
+        <f>-24476-P84-O84</f>
+        <v>-13458</v>
+      </c>
+      <c r="R84" s="8">
         <v>-20063</v>
       </c>
-      <c r="O84" s="8">
+      <c r="S84" s="8">
         <v>-9506</v>
       </c>
-      <c r="P84" s="8">
+      <c r="T84" s="8">
         <v>-5233</v>
       </c>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-    </row>
-    <row r="85" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+    </row>
+    <row r="85" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>55</v>
       </c>
@@ -5354,30 +6597,40 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="6">
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6">
         <f>-151+32-50</f>
         <v>-169</v>
       </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6">
+      <c r="P85" s="6">
+        <f>-274-O85+3-13</f>
+        <v>-115</v>
+      </c>
+      <c r="Q85" s="6">
+        <f>-505+15-13-P85-O85</f>
+        <v>-219</v>
+      </c>
+      <c r="R85" s="6">
         <v>-172</v>
       </c>
-      <c r="O85" s="6">
+      <c r="S85" s="6">
         <f>-233+20-16</f>
         <v>-229</v>
       </c>
-      <c r="P85" s="6">
+      <c r="T85" s="6">
         <f>-219-79-30</f>
         <v>-328</v>
       </c>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
       <c r="U85" s="6"/>
-    </row>
-    <row r="86" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+    </row>
+    <row r="86" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>79</v>
       </c>
@@ -5389,72 +6642,98 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6">
-        <f t="shared" ref="K86" si="127">SUM(K83:K85)</f>
-        <v>-5185</v>
-      </c>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="6">
-        <f t="shared" ref="N86" si="128">SUM(N83:N85)</f>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6">
+        <f t="shared" ref="O86:Q86" si="160">SUM(O83:O85)</f>
+        <v>-5185</v>
+      </c>
+      <c r="P86" s="6">
+        <f t="shared" si="160"/>
+        <v>-8549</v>
+      </c>
+      <c r="Q86" s="6">
+        <f t="shared" si="160"/>
+        <v>-15252</v>
+      </c>
+      <c r="R86" s="6">
+        <f t="shared" ref="R86" si="161">SUM(R83:R85)</f>
         <v>-21742</v>
       </c>
-      <c r="O86" s="6">
-        <f>SUM(O83:O85)</f>
+      <c r="S86" s="6">
+        <f>SUM(S83:S85)</f>
         <v>-10660</v>
       </c>
-      <c r="P86" s="6">
-        <f>SUM(P83:P85)</f>
+      <c r="T86" s="6">
+        <f>SUM(T83:T85)</f>
         <v>-6563</v>
       </c>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
       <c r="U86" s="6"/>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>80</v>
       </c>
-      <c r="K87" s="1">
+      <c r="O87" s="1">
         <v>-246</v>
       </c>
-      <c r="N87" s="1">
+      <c r="P87" s="1">
+        <f>-129-O87</f>
+        <v>117</v>
+      </c>
+      <c r="Q87" s="1">
+        <f>-344-P87-O87</f>
+        <v>-215</v>
+      </c>
+      <c r="R87" s="1">
         <v>-130</v>
       </c>
-      <c r="O87" s="6">
+      <c r="S87" s="6">
         <v>-149</v>
       </c>
-      <c r="P87" s="1">
+      <c r="T87" s="1">
         <v>-550</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>81</v>
       </c>
-      <c r="K88" s="6">
-        <f>+K87+K86+K81+K76</f>
+      <c r="O88" s="6">
+        <f t="shared" ref="O88:T88" si="162">+O87+O86+O81+O76</f>
         <v>1937</v>
       </c>
-      <c r="N88" s="6">
-        <f>+N87+N86+N81+N76</f>
+      <c r="P88" s="6">
+        <f t="shared" si="162"/>
+        <v>-3380</v>
+      </c>
+      <c r="Q88" s="6">
+        <f t="shared" si="162"/>
+        <v>-1707</v>
+      </c>
+      <c r="R88" s="6">
+        <f t="shared" si="162"/>
         <v>2061</v>
       </c>
-      <c r="O88" s="6">
-        <f>+O87+O86+O81+O76</f>
+      <c r="S88" s="6">
+        <f t="shared" si="162"/>
         <v>-1512</v>
       </c>
-      <c r="P88" s="6">
-        <f>+P87+P86+P81+P76</f>
+      <c r="T88" s="6">
+        <f t="shared" si="162"/>
         <v>-1875</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="O89" s="6"/>
-    </row>
-    <row r="90" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S89" s="6"/>
+    </row>
+    <row r="90" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>35</v>
       </c>
@@ -5464,34 +6743,92 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="I90" s="6">
+        <v>43030</v>
+      </c>
+      <c r="J90" s="6">
+        <v>44942</v>
+      </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="6">
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6">
         <v>71970</v>
       </c>
-      <c r="O90" s="6">
+      <c r="S90" s="6">
         <v>77805</v>
       </c>
-      <c r="P90" s="6">
+      <c r="T90" s="6">
         <v>83553</v>
       </c>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
       <c r="U90" s="6"/>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="O91" s="6">
-        <f>+O90-N90</f>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S91" s="6">
+        <f>+S90-R90</f>
         <v>5835</v>
       </c>
-      <c r="P91" s="6">
-        <f>+P90-O90</f>
+      <c r="T91" s="6">
+        <f>+T90-S90</f>
         <v>5748</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+      <c r="O93" s="6">
+        <f>+O76+O78</f>
+        <v>7970</v>
+      </c>
+      <c r="P93" s="6">
+        <f t="shared" ref="P93:S93" si="163">+P76+P78</f>
+        <v>8635</v>
+      </c>
+      <c r="Q93" s="6">
+        <f t="shared" si="163"/>
+        <v>9776</v>
+      </c>
+      <c r="R93" s="6">
+        <f t="shared" si="163"/>
+        <v>12734</v>
+      </c>
+      <c r="S93" s="6">
+        <f t="shared" si="163"/>
+        <v>8761</v>
+      </c>
+      <c r="T93" s="6">
+        <f>+T76+T78</f>
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="R94" s="6">
+        <f t="shared" ref="R94:S94" si="164">SUM(O93:R93)</f>
+        <v>39115</v>
+      </c>
+      <c r="S94" s="6">
+        <f t="shared" si="164"/>
+        <v>39906</v>
+      </c>
+      <c r="T94" s="6">
+        <f>SUM(Q93:T93)</f>
+        <v>35940</v>
       </c>
     </row>
   </sheetData>
@@ -5503,4 +6840,670 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A23622-E2D2-4236-A05B-563099E7C6CE}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>11449606</v>
+      </c>
+      <c r="C3" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D3" s="20">
+        <v>44824</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>11449189</v>
+      </c>
+      <c r="C4" s="20">
+        <v>43740</v>
+      </c>
+      <c r="D4" s="20">
+        <v>44824</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>11448803</v>
+      </c>
+      <c r="C5" s="20">
+        <v>43836</v>
+      </c>
+      <c r="D5" s="20">
+        <v>44824</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>11442272</v>
+      </c>
+      <c r="C6" s="20">
+        <v>43902</v>
+      </c>
+      <c r="D6" s="20">
+        <v>44817</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>11441702</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43594</v>
+      </c>
+      <c r="D7" s="20">
+        <v>44817</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>11436793</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44239</v>
+      </c>
+      <c r="D8" s="20">
+        <v>44810</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>11435820</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43601</v>
+      </c>
+      <c r="D9" s="20">
+        <v>44810</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>11435448</v>
+      </c>
+      <c r="C10" s="20">
+        <v>44071</v>
+      </c>
+      <c r="D10" s="20">
+        <v>44810</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>11431955</v>
+      </c>
+      <c r="C11" s="20">
+        <v>43802</v>
+      </c>
+      <c r="D11" s="20">
+        <v>44803</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>11430398</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44455</v>
+      </c>
+      <c r="D12" s="20">
+        <v>44803</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11430141</v>
+      </c>
+      <c r="C13" s="20">
+        <v>43844</v>
+      </c>
+      <c r="D13" s="20">
+        <v>44803</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11430085</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44096</v>
+      </c>
+      <c r="D14" s="20">
+        <v>44803</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>11425523</v>
+      </c>
+      <c r="C15" s="20">
+        <v>43931</v>
+      </c>
+      <c r="D15" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>11423621</v>
+      </c>
+      <c r="C16" s="20">
+        <v>43972</v>
+      </c>
+      <c r="D16" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>11423616</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43917</v>
+      </c>
+      <c r="D17" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>11423520</v>
+      </c>
+      <c r="C18" s="20">
+        <v>44134</v>
+      </c>
+      <c r="D18" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>11423152</v>
+      </c>
+      <c r="C19" s="20">
+        <v>43690</v>
+      </c>
+      <c r="D19" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>11422669</v>
+      </c>
+      <c r="C20" s="20">
+        <v>43623</v>
+      </c>
+      <c r="D20" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>11422373</v>
+      </c>
+      <c r="C21" s="20">
+        <v>43868</v>
+      </c>
+      <c r="D21" s="20">
+        <v>44796</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>11417054</v>
+      </c>
+      <c r="C22" s="20">
+        <v>44272</v>
+      </c>
+      <c r="D22" s="20">
+        <v>44789</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>11416239</v>
+      </c>
+      <c r="C23" s="20">
+        <v>44195</v>
+      </c>
+      <c r="D23" s="20">
+        <v>44789</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>11416075</v>
+      </c>
+      <c r="C24" s="20">
+        <v>43915</v>
+      </c>
+      <c r="D24" s="20">
+        <v>44789</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>11416067</v>
+      </c>
+      <c r="C25" s="20">
+        <v>44452</v>
+      </c>
+      <c r="D25" s="20">
+        <v>44789</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>11415880</v>
+      </c>
+      <c r="C26" s="20">
+        <v>43483</v>
+      </c>
+      <c r="D26" s="20">
+        <v>44789</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>11415808</v>
+      </c>
+      <c r="C27" s="20">
+        <v>43818</v>
+      </c>
+      <c r="D27" s="20">
+        <v>44789</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="20">
+        <v>44537</v>
+      </c>
+      <c r="D28" s="20">
+        <v>44782</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>11412511</v>
+      </c>
+      <c r="C29" s="20">
+        <v>43956</v>
+      </c>
+      <c r="D29" s="20">
+        <v>44782</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC18734B-E328-4F52-8264-FF05D5925E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39941484-C35B-4AA5-8C2E-0B0D4C9CB704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56040" yWindow="645" windowWidth="22515" windowHeight="19365" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="52230" yWindow="2520" windowWidth="27720" windowHeight="16485" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <author>tc={BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}</author>
     <author>tc={8C543166-7E6A-448B-B7E3-720F51E35135}</author>
     <author>tc={37B1D132-4F99-4BFA-B9DE-FA9D39796D75}</author>
+    <author>tc={9BAC047B-9C13-4083-9E91-56CC4B86282A}</author>
   </authors>
   <commentList>
     <comment ref="T24" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
@@ -86,12 +87,20 @@
     Q222 guidance: 26-28.5B</t>
       </text>
     </comment>
+    <comment ref="V25" authorId="5" shapeId="0" xr:uid="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q322: 30.0-32.5B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -676,6 +685,9 @@
   </si>
   <si>
     <t>Switching between different communication protocols</t>
+  </si>
+  <si>
+    <t>Reality Labs OI</t>
   </si>
 </sst>
 </file>
@@ -804,16 +816,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36909</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36909</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>120254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -828,8 +840,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10153650" y="180975"/>
-          <a:ext cx="0" cy="18459450"/>
+          <a:off x="13175456" y="120253"/>
+          <a:ext cx="0" cy="18484454"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1223,6 +1235,9 @@
   <threadedComment ref="U25" dT="2022-07-27T23:03:53.04" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
     <text>Q222 guidance: 26-28.5B</text>
   </threadedComment>
+  <threadedComment ref="V25" dT="2022-10-27T13:48:29.91" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
+    <text>Q322: 30.0-32.5B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1230,9 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1249,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>136.19999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1281,7 +1294,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>369510.6</v>
+        <v>271300</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,7 +1331,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>322485.59999999998</v>
+        <v>224275</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1403,13 +1416,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:CW94"/>
+  <dimension ref="A1:CW96"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1618,9 @@
       <c r="T3" s="6">
         <v>2880</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="6">
+        <v>2930</v>
+      </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -1655,7 +1670,9 @@
       <c r="T4" s="6">
         <v>3650</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="6">
+        <v>3710</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -1711,7 +1728,9 @@
       <c r="T5" s="6">
         <v>1968</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="6">
+        <v>1980</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -1815,7 +1834,9 @@
       <c r="T7" s="6">
         <v>2934</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="6">
+        <v>2960</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -1946,7 +1967,10 @@
         <f>+T25/T4</f>
         <v>7.8964383561643832</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="9">
+        <f>+U25/U4</f>
+        <v>7.4700808625336927</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -2001,7 +2025,10 @@
         <f>AVERAGE(S10:T10)</f>
         <v>7.7817356615986757</v>
       </c>
-      <c r="U11" s="6"/>
+      <c r="U11" s="9">
+        <f>AVERAGE(T10:U10)</f>
+        <v>7.6832596093490384</v>
+      </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -2044,7 +2071,10 @@
         <f>T11/P11-1</f>
         <v>-1.9305255154011935E-2</v>
       </c>
-      <c r="U12" s="14"/>
+      <c r="U12" s="16">
+        <f>U11/Q11-1</f>
+        <v>-6.2296549418736191E-2</v>
+      </c>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
@@ -2102,7 +2132,10 @@
         <f>+T24/T4</f>
         <v>7.7128767123287671</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="9">
+        <f>+U24/U4</f>
+        <v>7.3415094339622637</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -2157,10 +2190,13 @@
         <v>9.4069686411149824</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" ref="T14" si="6">+T24/T3</f>
+        <f t="shared" ref="T14:U14" si="6">+T24/T3</f>
         <v>9.7750000000000004</v>
       </c>
-      <c r="U14" s="6"/>
+      <c r="U14" s="9">
+        <f t="shared" si="6"/>
+        <v>9.2959044368600683</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2212,10 +2248,13 @@
         <v>10.490541058146142</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" ref="T15" si="8">AVERAGE(S14:T14)</f>
+        <f t="shared" ref="T15:U15" si="8">AVERAGE(S14:T14)</f>
         <v>9.5909843205574923</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="9">
+        <f t="shared" si="8"/>
+        <v>9.5354522184300343</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2258,7 +2297,10 @@
         <f>T15/P15-1</f>
         <v>-2.6673776880648981E-2</v>
       </c>
-      <c r="U16" s="14"/>
+      <c r="U16" s="16">
+        <f>U15/Q15-1</f>
+        <v>-6.5962429100717701E-2</v>
+      </c>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
@@ -2536,12 +2578,11 @@
         <v>218</v>
       </c>
       <c r="U22" s="6">
-        <f>+T22</f>
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="V22" s="6">
         <f>+U22</f>
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2596,8 +2637,7 @@
         <v>452</v>
       </c>
       <c r="U23" s="6">
-        <f>+T23-50</f>
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="V23" s="6">
         <f>+R23+100</f>
@@ -2685,16 +2725,28 @@
         <v>28152</v>
       </c>
       <c r="U24" s="6">
-        <f>+Q24*0.95</f>
-        <v>26862.199999999997</v>
+        <v>27237</v>
       </c>
       <c r="V24" s="6">
-        <f>+R24*1.05</f>
-        <v>34270.950000000004</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
+        <f>+R24*0.98</f>
+        <v>31986.22</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" ref="W24:Z24" si="11">+S24*0.98</f>
+        <v>26458.04</v>
+      </c>
+      <c r="X24" s="6">
+        <f t="shared" si="11"/>
+        <v>27588.959999999999</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="11"/>
+        <v>26692.26</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="11"/>
+        <v>31346.495600000002</v>
+      </c>
       <c r="AG24" s="3">
         <v>55013</v>
       </c>
@@ -2713,31 +2765,31 @@
         <v>24</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25:I25" si="11">SUM(C22:C24)</f>
+        <f t="shared" ref="C25:I25" si="12">SUM(C22:C24)</f>
         <v>11966</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13231</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13727</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16914</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25" si="12">SUM(G22:G24)</f>
+        <f t="shared" ref="G25" si="13">SUM(G22:G24)</f>
         <v>15077</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16886</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17652</v>
       </c>
       <c r="J25" s="8">
@@ -2780,42 +2832,42 @@
       </c>
       <c r="U25" s="8">
         <f>SUM(U22:U24)</f>
-        <v>27482.199999999997</v>
+        <v>27714</v>
       </c>
       <c r="V25" s="8">
         <f>SUM(V22:V24)</f>
-        <v>35465.950000000004</v>
+        <v>33155.22</v>
       </c>
       <c r="W25" s="8">
         <f>SUM(W22:W24)</f>
+        <v>26458.04</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" ref="X25:Z25" si="14">SUM(X22:X24)</f>
+        <v>27588.959999999999</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="14"/>
+        <v>26692.26</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" si="14"/>
+        <v>31346.495600000002</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" ref="AD25:AG25" si="15">SUM(AD22:AD24)</f>
         <v>0</v>
       </c>
-      <c r="X25" s="8">
-        <f t="shared" ref="X25:Z25" si="13">SUM(X22:X24)</f>
+      <c r="AE25" s="7">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="13"/>
+      <c r="AF25" s="7">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AG25" si="14">SUM(AD22:AD24)</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="AG25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55838</v>
       </c>
       <c r="AH25" s="7">
@@ -2823,48 +2875,48 @@
         <v>70697</v>
       </c>
       <c r="AI25" s="7">
-        <f t="shared" ref="AI25:AJ25" si="15">SUM(AI22:AI24)</f>
+        <f t="shared" ref="AI25:AJ25" si="16">SUM(AI22:AI24)</f>
         <v>85965</v>
       </c>
       <c r="AJ25" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>117929</v>
       </c>
       <c r="AK25" s="7">
         <f>SUM(S25:V25)</f>
-        <v>119678.15</v>
+        <v>117599.22</v>
       </c>
       <c r="AL25" s="7">
         <f>+AK25*0.95</f>
-        <v>113694.24249999999</v>
+        <v>111719.25899999999</v>
       </c>
       <c r="AM25" s="7">
         <f>+AL25*0.95</f>
-        <v>108009.53037499999</v>
+        <v>106133.29604999999</v>
       </c>
       <c r="AN25" s="7">
         <f>+AM25*1.1</f>
-        <v>118810.48341249999</v>
+        <v>116746.625655</v>
       </c>
       <c r="AO25" s="7">
         <f>+AN25*1.05</f>
-        <v>124751.007583125</v>
+        <v>122583.95693775</v>
       </c>
       <c r="AP25" s="7">
-        <f t="shared" ref="AP25:AS25" si="16">+AO25*1.03</f>
-        <v>128493.53781061876</v>
+        <f t="shared" ref="AP25:AS25" si="17">+AO25*1.03</f>
+        <v>126261.4756458825</v>
       </c>
       <c r="AQ25" s="7">
-        <f t="shared" si="16"/>
-        <v>132348.34394493731</v>
+        <f t="shared" si="17"/>
+        <v>130049.31991525898</v>
       </c>
       <c r="AR25" s="7">
-        <f t="shared" si="16"/>
-        <v>136318.79426328544</v>
+        <f t="shared" si="17"/>
+        <v>133950.79951271677</v>
       </c>
       <c r="AS25" s="7">
-        <f t="shared" si="16"/>
-        <v>140408.358091184</v>
+        <f t="shared" si="17"/>
+        <v>137969.32349809827</v>
       </c>
     </row>
     <row r="26" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2926,12 +2978,11 @@
         <v>5192</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" ref="U26:V26" si="17">+U25-U27</f>
-        <v>5771.2619999999988</v>
+        <v>5716</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="17"/>
-        <v>7447.8495000000003</v>
+        <f t="shared" ref="V26" si="18">+V25-V27</f>
+        <v>6962.5962</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -2950,39 +3001,39 @@
       </c>
       <c r="AK26" s="3">
         <f>+AK25-AK27</f>
-        <v>22738.848499999993</v>
+        <v>22343.851799999989</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" ref="AL26:AS26" si="18">+AL25-AL27</f>
-        <v>21601.906074999992</v>
+        <f t="shared" ref="AL26:AS26" si="19">+AL25-AL27</f>
+        <v>21226.659209999998</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="18"/>
-        <v>20521.810771249991</v>
+        <f t="shared" si="19"/>
+        <v>20165.326249499994</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="18"/>
-        <v>22573.991848374993</v>
+        <f t="shared" si="19"/>
+        <v>22181.858874449987</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="18"/>
-        <v>23702.691440793744</v>
+        <f t="shared" si="19"/>
+        <v>23290.9518181725</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" si="18"/>
-        <v>24413.772184017551</v>
+        <f t="shared" si="19"/>
+        <v>23989.680372717674</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="18"/>
-        <v>25146.185349538078</v>
+        <f t="shared" si="19"/>
+        <v>24709.370783899198</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="18"/>
-        <v>25900.570910024224</v>
+        <f t="shared" si="19"/>
+        <v>25450.651907416177</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="18"/>
-        <v>26677.588037324953</v>
+        <f t="shared" si="19"/>
+        <v>26214.171464638668</v>
       </c>
     </row>
     <row r="27" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2990,51 +3041,51 @@
         <v>37</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:D27" si="19">+C25-C26</f>
+        <f t="shared" ref="C27:D27" si="20">+C25-C26</f>
         <v>10039</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11017</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" ref="E27:G27" si="20">+E25-E26</f>
+        <f t="shared" ref="E27:G27" si="21">+E25-E26</f>
         <v>11309</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14118</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12261</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27" si="21">+H25-H26</f>
+        <f t="shared" ref="H27" si="22">+H25-H26</f>
         <v>13579</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:J27" si="22">+I25-I26</f>
+        <f t="shared" ref="I27:J27" si="23">+I25-I26</f>
         <v>14497</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17590</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ref="K27:N27" si="23">+K25-K26</f>
+        <f t="shared" ref="K27:N27" si="24">+K25-K26</f>
         <v>14278</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14858</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17276</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>22862</v>
       </c>
       <c r="O27" s="6">
@@ -3042,15 +3093,15 @@
         <v>21040</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:R27" si="24">+P25-P26</f>
+        <f t="shared" ref="P27:R27" si="25">+P25-P26</f>
         <v>23678</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23239</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>27323</v>
       </c>
       <c r="S27" s="6">
@@ -3062,12 +3113,12 @@
         <v>23630</v>
       </c>
       <c r="U27" s="6">
-        <f>+U25*0.79</f>
-        <v>21710.937999999998</v>
+        <f>+U25-U26</f>
+        <v>21998</v>
       </c>
       <c r="V27" s="6">
         <f>+V25*0.79</f>
-        <v>28018.100500000004</v>
+        <v>26192.623800000001</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -3085,44 +3136,44 @@
         <v>69273</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="25">+AJ25-AJ26</f>
+        <f t="shared" ref="AJ27" si="26">+AJ25-AJ26</f>
         <v>95280</v>
       </c>
       <c r="AK27" s="3">
         <f>+AK25*0.81</f>
-        <v>96939.301500000001</v>
+        <v>95255.368200000012</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AS27" si="26">+AL25*0.81</f>
-        <v>92092.336425000001</v>
+        <f t="shared" ref="AL27:AS27" si="27">+AL25*0.81</f>
+        <v>90492.599789999993</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" si="26"/>
-        <v>87487.719603749996</v>
+        <f t="shared" si="27"/>
+        <v>85967.969800499995</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="26"/>
-        <v>96236.491564124997</v>
+        <f t="shared" si="27"/>
+        <v>94564.76678055001</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" si="26"/>
-        <v>101048.31614233126</v>
+        <f t="shared" si="27"/>
+        <v>99293.005119577501</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" si="26"/>
-        <v>104079.76562660121</v>
+        <f t="shared" si="27"/>
+        <v>102271.79527316483</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="26"/>
-        <v>107202.15859539923</v>
+        <f t="shared" si="27"/>
+        <v>105339.94913135978</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="26"/>
-        <v>110418.22335326122</v>
+        <f t="shared" si="27"/>
+        <v>108500.14760530059</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="26"/>
-        <v>113730.77005385904</v>
+        <f t="shared" si="27"/>
+        <v>111755.1520334596</v>
       </c>
     </row>
     <row r="28" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3184,12 +3235,11 @@
         <v>8690</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" ref="U28:V28" si="27">+T28-50</f>
-        <v>8640</v>
+        <v>9170</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" si="27"/>
-        <v>8590</v>
+        <f t="shared" ref="V28" si="28">+U28-50</f>
+        <v>9120</v>
       </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -3207,39 +3257,39 @@
         <v>24655</v>
       </c>
       <c r="AK28" s="3">
-        <f>+AJ28*0.9</f>
+        <f t="shared" ref="AK28:AP28" si="29">+AJ28*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="AL28" s="3">
-        <f>+AK28*0.9</f>
+        <f t="shared" si="29"/>
         <v>19970.55</v>
       </c>
       <c r="AM28" s="3">
-        <f>+AL28*0.9</f>
+        <f t="shared" si="29"/>
         <v>17973.494999999999</v>
       </c>
       <c r="AN28" s="3">
-        <f>+AM28*0.9</f>
+        <f t="shared" si="29"/>
         <v>16176.145499999999</v>
       </c>
       <c r="AO28" s="3">
-        <f>+AN28*0.9</f>
+        <f t="shared" si="29"/>
         <v>14558.530949999998</v>
       </c>
       <c r="AP28" s="3">
-        <f>+AO28*0.9</f>
+        <f t="shared" si="29"/>
         <v>13102.677854999998</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AL28:AS28" si="28">+AP28*0.9</f>
+        <f t="shared" ref="AQ28:AS28" si="30">+AP28*0.9</f>
         <v>11792.410069499998</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10613.169062549998</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -3302,11 +3352,10 @@
         <v>3595</v>
       </c>
       <c r="U29" s="6">
-        <f>+Q29</f>
-        <v>3554</v>
+        <v>3780</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29" si="29">+R29</f>
+        <f t="shared" ref="V29" si="31">+R29</f>
         <v>4387</v>
       </c>
       <c r="W29" s="6"/>
@@ -3329,35 +3378,35 @@
         <v>14043</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" ref="AL29:AS29" si="30">+AK29</f>
+        <f t="shared" ref="AL29:AS29" si="32">+AK29</f>
         <v>14043</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>14043</v>
       </c>
     </row>
@@ -3422,11 +3471,10 @@
         <v>2987</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" ref="U30" si="31">+Q30</f>
-        <v>2946</v>
+        <v>3384</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" ref="V30" si="32">+R30</f>
+        <f t="shared" ref="V30" si="33">+R30</f>
         <v>3305</v>
       </c>
       <c r="W30" s="6"/>
@@ -3446,39 +3494,39 @@
         <v>9829</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" ref="AK30:AS30" si="33">+AJ30</f>
+        <f t="shared" ref="AK30:AS30" si="34">+AJ30</f>
         <v>9829</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9829</v>
       </c>
     </row>
@@ -3487,67 +3535,67 @@
         <v>41</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" ref="C31:D31" si="34">+C30+C29+C28</f>
+        <f t="shared" ref="C31:D31" si="35">+C30+C29+C28</f>
         <v>4590</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5154</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:G31" si="35">+E30+E29+E28</f>
+        <f t="shared" ref="E31:G31" si="36">+E30+E29+E28</f>
         <v>5528</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6298</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5944</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="36">+H30+H29+H28</f>
+        <f t="shared" ref="H31:I31" si="37">+H30+H29+H28</f>
         <v>6953</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>7312</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31:K31" si="37">+J30+J29+J28</f>
+        <f t="shared" ref="J31:K31" si="38">+J30+J29+J28</f>
         <v>8732</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8385</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31" si="38">+L30+L29+L28</f>
+        <f t="shared" ref="L31" si="39">+L30+L29+L28</f>
         <v>8895</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ref="M31" si="39">+M30+M29+M28</f>
+        <f t="shared" ref="M31" si="40">+M30+M29+M28</f>
         <v>9236</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31" si="40">+N30+N29+N28</f>
+        <f t="shared" ref="N31" si="41">+N30+N29+N28</f>
         <v>10087</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" ref="O31:R31" si="41">+O30+O29+O28</f>
+        <f t="shared" ref="O31:R31" si="42">+O30+O29+O28</f>
         <v>9662</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11311</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12816</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14738</v>
       </c>
       <c r="S31" s="6">
@@ -3555,16 +3603,16 @@
         <v>13379</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" ref="T31:V31" si="42">+T30+T29+T28</f>
+        <f t="shared" ref="T31:V31" si="43">+T30+T29+T28</f>
         <v>15272</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="42"/>
-        <v>15140</v>
+        <f t="shared" si="43"/>
+        <v>16334</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="42"/>
-        <v>16282</v>
+        <f t="shared" si="43"/>
+        <v>16812</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
@@ -3582,43 +3630,43 @@
         <v>36602</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="43">SUM(AJ28:AJ30)</f>
+        <f t="shared" ref="AJ31" si="44">SUM(AJ28:AJ30)</f>
         <v>48527</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="44">SUM(AK28:AK30)</f>
+        <f t="shared" ref="AK31" si="45">SUM(AK28:AK30)</f>
         <v>46061.5</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="45">SUM(AL28:AL30)</f>
+        <f t="shared" ref="AL31" si="46">SUM(AL28:AL30)</f>
         <v>43842.55</v>
       </c>
       <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="46">SUM(AM28:AM30)</f>
+        <f t="shared" ref="AM31" si="47">SUM(AM28:AM30)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="47">SUM(AN28:AN30)</f>
+        <f t="shared" ref="AN31" si="48">SUM(AN28:AN30)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="48">SUM(AO28:AO30)</f>
+        <f t="shared" ref="AO31" si="49">SUM(AO28:AO30)</f>
         <v>38430.53095</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" ref="AP31" si="49">SUM(AP28:AP30)</f>
+        <f t="shared" ref="AP31" si="50">SUM(AP28:AP30)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" ref="AQ31" si="50">SUM(AQ28:AQ30)</f>
+        <f t="shared" ref="AQ31" si="51">SUM(AQ28:AQ30)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="AR31" s="3">
-        <f t="shared" ref="AR31" si="51">SUM(AR28:AR30)</f>
+        <f t="shared" ref="AR31" si="52">SUM(AR28:AR30)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" ref="AS31" si="52">SUM(AS28:AS30)</f>
+        <f t="shared" ref="AS31" si="53">SUM(AS28:AS30)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -3627,67 +3675,67 @@
         <v>42</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="53">+C27-C31</f>
+        <f t="shared" ref="C32:D32" si="54">+C27-C31</f>
         <v>5449</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5863</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:G32" si="54">+E27-E31</f>
+        <f t="shared" ref="E32:G32" si="55">+E27-E31</f>
         <v>5781</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7820</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6317</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:I32" si="55">+H27-H31</f>
+        <f t="shared" ref="H32:I32" si="56">+H27-H31</f>
         <v>6626</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7185</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:K32" si="56">+J27-J31</f>
+        <f t="shared" ref="J32:K32" si="57">+J27-J31</f>
         <v>8858</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5893</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32" si="57">+L27-L31</f>
+        <f t="shared" ref="L32" si="58">+L27-L31</f>
         <v>5963</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32" si="58">+M27-M31</f>
+        <f t="shared" ref="M32" si="59">+M27-M31</f>
         <v>8040</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="59">+N27-N31</f>
+        <f t="shared" ref="N32" si="60">+N27-N31</f>
         <v>12775</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32:R32" si="60">+O27-O31</f>
+        <f t="shared" ref="O32:R32" si="61">+O27-O31</f>
         <v>11378</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12367</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>10423</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12585</v>
       </c>
       <c r="S32" s="6">
@@ -3695,16 +3743,16 @@
         <v>8524</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ref="T32:V32" si="61">+T27-T31</f>
+        <f t="shared" ref="T32:V32" si="62">+T27-T31</f>
         <v>8358</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="61"/>
-        <v>6570.9379999999983</v>
+        <f t="shared" si="62"/>
+        <v>5664</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="61"/>
-        <v>11736.100500000004</v>
+        <f t="shared" si="62"/>
+        <v>9380.6238000000012</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -3722,44 +3770,44 @@
         <v>32671</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="62">AJ27-AJ31</f>
+        <f t="shared" ref="AJ32" si="63">AJ27-AJ31</f>
         <v>46753</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="63">AK27-AK31</f>
-        <v>50877.801500000001</v>
+        <f t="shared" ref="AK32" si="64">AK27-AK31</f>
+        <v>49193.868200000012</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="64">AL27-AL31</f>
-        <v>48249.786424999998</v>
+        <f t="shared" ref="AL32" si="65">AL27-AL31</f>
+        <v>46650.04978999999</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="65">AM27-AM31</f>
-        <v>45642.224603750001</v>
+        <f t="shared" ref="AM32" si="66">AM27-AM31</f>
+        <v>44122.4748005</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="66">AN27-AN31</f>
-        <v>56188.346064124999</v>
+        <f t="shared" ref="AN32" si="67">AN27-AN31</f>
+        <v>54516.621280550011</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="67">AO27-AO31</f>
-        <v>62617.785192331256</v>
+        <f t="shared" ref="AO32" si="68">AO27-AO31</f>
+        <v>60862.474169577501</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="68">AP27-AP31</f>
-        <v>67105.087771601204</v>
+        <f t="shared" ref="AP32" si="69">AP27-AP31</f>
+        <v>65297.117418164824</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="69">AQ27-AQ31</f>
-        <v>71537.748525899238</v>
+        <f t="shared" ref="AQ32" si="70">AQ27-AQ31</f>
+        <v>69675.539061859788</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="70">AR27-AR31</f>
-        <v>75933.05429071121</v>
+        <f t="shared" ref="AR32" si="71">AR27-AR31</f>
+        <v>74014.978542750585</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" ref="AS32" si="71">AS27-AS31</f>
-        <v>80306.917897564039</v>
+        <f t="shared" ref="AS32" si="72">AS27-AS31</f>
+        <v>78331.299877164594</v>
       </c>
     </row>
     <row r="33" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3821,12 +3869,11 @@
         <v>-172</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" ref="U33:V33" si="72">+T33</f>
-        <v>-172</v>
+        <v>-88</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="72"/>
-        <v>-172</v>
+        <f t="shared" ref="V33" si="73">+U33</f>
+        <v>-88</v>
       </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -3845,35 +3892,35 @@
       </c>
       <c r="AL33" s="3">
         <f>+AK49*$AX$49</f>
-        <v>615.75061185000004</v>
+        <v>589.47025278000001</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" ref="AM33:AS33" si="73">+AL49*$AX$49</f>
-        <v>1016.44801555217</v>
+        <f t="shared" ref="AM33:AS33" si="74">+AL49*$AX$49</f>
+        <v>976.83431713079597</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="73"/>
-        <v>1399.0491310304478</v>
+        <f t="shared" si="74"/>
+        <v>1346.6486518953686</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="73"/>
-        <v>1871.2657716307224</v>
+        <f t="shared" si="74"/>
+        <v>1804.7274653414206</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" si="73"/>
-        <v>2400.0759895352107</v>
+        <f t="shared" si="74"/>
+        <v>2318.5985187477559</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="73"/>
-        <v>2970.0183323765291</v>
+        <f t="shared" si="74"/>
+        <v>2873.0473894304387</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" si="73"/>
-        <v>3580.9820206143904</v>
+        <f t="shared" si="74"/>
+        <v>3467.9457983310185</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" si="73"/>
-        <v>4232.9971183672606</v>
+        <f t="shared" si="74"/>
+        <v>4103.3057779278879</v>
       </c>
     </row>
     <row r="34" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,67 +3928,67 @@
         <v>44</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="74">+C32+C33</f>
+        <f t="shared" ref="C34:D34" si="75">+C32+C33</f>
         <v>5610</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5868</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:G34" si="75">+E32+E33</f>
+        <f t="shared" ref="E34:G34" si="76">+E32+E33</f>
         <v>5912</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7971</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>6523</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34" si="76">+H32+H33</f>
+        <f t="shared" ref="H34" si="77">+H32+H33</f>
         <v>6832</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="77">+I32+I33</f>
+        <f t="shared" ref="I34:J34" si="78">+I32+I33</f>
         <v>7329</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>9169</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34:R34" si="78">+K32+K33</f>
+        <f t="shared" ref="K34:R34" si="79">+K32+K33</f>
         <v>5861</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6131</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>8133</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>13055</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>11503</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>12513</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>10565</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>12702</v>
       </c>
       <c r="S34" s="6">
@@ -3949,16 +3996,16 @@
         <v>8908</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" ref="T34:V34" si="79">+T32+T33</f>
+        <f t="shared" ref="T34:V34" si="80">+T32+T33</f>
         <v>8186</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="79"/>
-        <v>6398.9379999999983</v>
+        <f t="shared" si="80"/>
+        <v>5576</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="79"/>
-        <v>11564.100500000004</v>
+        <f t="shared" si="80"/>
+        <v>9292.6238000000012</v>
       </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -3976,44 +4023,44 @@
         <v>33180</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="80">+AJ32+AJ33</f>
+        <f t="shared" ref="AJ34" si="81">+AJ32+AJ33</f>
         <v>47284</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="81">+AK32+AK33</f>
-        <v>50877.801500000001</v>
+        <f t="shared" ref="AK34" si="82">+AK32+AK33</f>
+        <v>49193.868200000012</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="82">+AL32+AL33</f>
-        <v>48865.537036850001</v>
+        <f t="shared" ref="AL34" si="83">+AL32+AL33</f>
+        <v>47239.520042779986</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="83">+AM32+AM33</f>
-        <v>46658.672619302168</v>
+        <f t="shared" ref="AM34" si="84">+AM32+AM33</f>
+        <v>45099.309117630793</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="84">+AN32+AN33</f>
-        <v>57587.395195155448</v>
+        <f t="shared" ref="AN34" si="85">+AN32+AN33</f>
+        <v>55863.269932445379</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="85">+AO32+AO33</f>
-        <v>64489.050963961978</v>
+        <f t="shared" ref="AO34" si="86">+AO32+AO33</f>
+        <v>62667.201634918922</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" ref="AP34" si="86">+AP32+AP33</f>
-        <v>69505.163761136413</v>
+        <f t="shared" ref="AP34" si="87">+AP32+AP33</f>
+        <v>67615.715936912573</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" ref="AQ34" si="87">+AQ32+AQ33</f>
-        <v>74507.766858275761</v>
+        <f t="shared" ref="AQ34" si="88">+AQ32+AQ33</f>
+        <v>72548.586451290234</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" ref="AR34" si="88">+AR32+AR33</f>
-        <v>79514.036311325603</v>
+        <f t="shared" ref="AR34" si="89">+AR32+AR33</f>
+        <v>77482.924341081598</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" ref="AS34" si="89">+AS32+AS33</f>
-        <v>84539.915015931299</v>
+        <f t="shared" ref="AS34" si="90">+AS32+AS33</f>
+        <v>82434.605655092484</v>
       </c>
     </row>
     <row r="35" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4076,12 +4123,11 @@
         <v>1499</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" ref="U35:V35" si="90">+U34*0.19</f>
-        <v>1215.7982199999997</v>
+        <v>1181</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="90"/>
-        <v>2197.1790950000009</v>
+        <f t="shared" ref="V35" si="91">+V34*0.19</f>
+        <v>1765.5985220000002</v>
       </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -4101,39 +4147,39 @@
       </c>
       <c r="AK35" s="3">
         <f>+AK34*0.18</f>
-        <v>9158.0042699999995</v>
+        <v>8854.8962760000013</v>
       </c>
       <c r="AL35" s="3">
-        <f t="shared" ref="AL35:AS35" si="91">+AL34*0.18</f>
-        <v>8795.7966666329994</v>
+        <f t="shared" ref="AL35:AS35" si="92">+AL34*0.18</f>
+        <v>8503.1136077003976</v>
       </c>
       <c r="AM35" s="3">
-        <f t="shared" si="91"/>
-        <v>8398.5610714743907</v>
+        <f t="shared" si="92"/>
+        <v>8117.8756411735421</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" si="91"/>
-        <v>10365.73113512798</v>
+        <f t="shared" si="92"/>
+        <v>10055.388587840167</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" si="91"/>
-        <v>11608.029173513156</v>
+        <f t="shared" si="92"/>
+        <v>11280.096294285406</v>
       </c>
       <c r="AP35" s="3">
-        <f t="shared" si="91"/>
-        <v>12510.929477004554</v>
+        <f t="shared" si="92"/>
+        <v>12170.828868644263</v>
       </c>
       <c r="AQ35" s="3">
-        <f t="shared" si="91"/>
-        <v>13411.398034489637</v>
+        <f t="shared" si="92"/>
+        <v>13058.745561232241</v>
       </c>
       <c r="AR35" s="3">
-        <f t="shared" si="91"/>
-        <v>14312.526536038607</v>
+        <f t="shared" si="92"/>
+        <v>13946.926381394687</v>
       </c>
       <c r="AS35" s="3">
-        <f t="shared" si="91"/>
-        <v>15217.184702867633</v>
+        <f t="shared" si="92"/>
+        <v>14838.229017916647</v>
       </c>
     </row>
     <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4141,67 +4187,67 @@
         <v>46</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="92">+C34-C35</f>
+        <f t="shared" ref="C36:D36" si="93">+C34-C35</f>
         <v>4987</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>5106</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ref="E36:G36" si="93">+E34-E35</f>
+        <f t="shared" ref="E36:G36" si="94">+E34-E35</f>
         <v>5137</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6882</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4307</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" ref="H36" si="94">+H34-H35</f>
+        <f t="shared" ref="H36" si="95">+H34-H35</f>
         <v>4616</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" ref="I36:J36" si="95">+I34-I35</f>
+        <f t="shared" ref="I36:J36" si="96">+I34-I35</f>
         <v>6091</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>7349</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="96">+K34-K35</f>
+        <f t="shared" ref="K36:L36" si="97">+K34-K35</f>
         <v>4902</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5178</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" ref="M36:R36" si="97">+M34-M35</f>
+        <f t="shared" ref="M36:R36" si="98">+M34-M35</f>
         <v>7846</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>11219</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>9497</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10394</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>9194</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10285</v>
       </c>
       <c r="S36" s="6">
@@ -4209,16 +4255,16 @@
         <v>7465</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" ref="T36:V36" si="98">+T34-T35</f>
+        <f t="shared" ref="T36:V36" si="99">+T34-T35</f>
         <v>6687</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="98"/>
-        <v>5183.1397799999986</v>
+        <f t="shared" si="99"/>
+        <v>4395</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="98"/>
-        <v>9366.9214050000028</v>
+        <f t="shared" si="99"/>
+        <v>7527.025278000001</v>
       </c>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -4236,268 +4282,268 @@
         <v>29146</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="99">+AJ34-AJ35</f>
+        <f t="shared" ref="AJ36" si="100">+AJ34-AJ35</f>
         <v>39370</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="100">+AK34-AK35</f>
-        <v>41719.797230000004</v>
+        <f t="shared" ref="AK36" si="101">+AK34-AK35</f>
+        <v>40338.971924000012</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="101">+AL34-AL35</f>
-        <v>40069.740370216998</v>
+        <f t="shared" ref="AL36" si="102">+AL34-AL35</f>
+        <v>38736.406435079589</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="102">+AM34-AM35</f>
-        <v>38260.111547827779</v>
+        <f t="shared" ref="AM36" si="103">+AM34-AM35</f>
+        <v>36981.433476457249</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="103">+AN34-AN35</f>
-        <v>47221.66406002747</v>
+        <f t="shared" ref="AN36" si="104">+AN34-AN35</f>
+        <v>45807.881344605208</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="104">+AO34-AO35</f>
-        <v>52881.021790448824</v>
+        <f t="shared" ref="AO36" si="105">+AO34-AO35</f>
+        <v>51387.105340633512</v>
       </c>
       <c r="AP36" s="3">
-        <f t="shared" ref="AP36" si="105">+AP34-AP35</f>
-        <v>56994.23428413186</v>
+        <f t="shared" ref="AP36" si="106">+AP34-AP35</f>
+        <v>55444.887068268312</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36" si="106">+AQ34-AQ35</f>
-        <v>61096.368823786121</v>
+        <f t="shared" ref="AQ36" si="107">+AQ34-AQ35</f>
+        <v>59489.840890057996</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" ref="AR36" si="107">+AR34-AR35</f>
-        <v>65201.509775286991</v>
+        <f t="shared" ref="AR36" si="108">+AR34-AR35</f>
+        <v>63535.997959686909</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" ref="AS36" si="108">+AS34-AS35</f>
-        <v>69322.730313063672</v>
+        <f t="shared" ref="AS36" si="109">+AS34-AS35</f>
+        <v>67596.376637175839</v>
       </c>
       <c r="AT36" s="3">
         <f>+AS36*(1+$AX$48)</f>
-        <v>65856.593797410489</v>
+        <v>64216.557805317047</v>
       </c>
       <c r="AU36" s="3">
-        <f t="shared" ref="AU36:CW36" si="109">+AT36*(1+$AX$48)</f>
-        <v>62563.764107539959</v>
+        <f t="shared" ref="AU36:CW36" si="110">+AT36*(1+$AX$48)</f>
+        <v>61005.72991505119</v>
       </c>
       <c r="AV36" s="3">
-        <f t="shared" si="109"/>
-        <v>59435.575902162956</v>
+        <f t="shared" si="110"/>
+        <v>57955.44341929863</v>
       </c>
       <c r="AW36" s="3">
-        <f t="shared" si="109"/>
-        <v>56463.797107054808</v>
+        <f t="shared" si="110"/>
+        <v>55057.671248333696</v>
       </c>
       <c r="AX36" s="3">
-        <f t="shared" si="109"/>
-        <v>53640.607251702066</v>
+        <f t="shared" si="110"/>
+        <v>52304.787685917006</v>
       </c>
       <c r="AY36" s="3">
-        <f t="shared" si="109"/>
-        <v>50958.576889116957</v>
+        <f t="shared" si="110"/>
+        <v>49689.548301621151</v>
       </c>
       <c r="AZ36" s="3">
-        <f t="shared" si="109"/>
-        <v>48410.648044661109</v>
+        <f t="shared" si="110"/>
+        <v>47205.070886540088</v>
       </c>
       <c r="BA36" s="3">
-        <f t="shared" si="109"/>
-        <v>45990.115642428049</v>
+        <f t="shared" si="110"/>
+        <v>44844.817342213079</v>
       </c>
       <c r="BB36" s="3">
-        <f t="shared" si="109"/>
-        <v>43690.609860306642</v>
+        <f t="shared" si="110"/>
+        <v>42602.576475102425</v>
       </c>
       <c r="BC36" s="3">
-        <f t="shared" si="109"/>
-        <v>41506.079367291306</v>
+        <f t="shared" si="110"/>
+        <v>40472.447651347306</v>
       </c>
       <c r="BD36" s="3">
-        <f t="shared" si="109"/>
-        <v>39430.775398926737</v>
+        <f t="shared" si="110"/>
+        <v>38448.82526877994</v>
       </c>
       <c r="BE36" s="3">
-        <f t="shared" si="109"/>
-        <v>37459.236628980398</v>
+        <f t="shared" si="110"/>
+        <v>36526.384005340944</v>
       </c>
       <c r="BF36" s="3">
-        <f t="shared" si="109"/>
-        <v>35586.274797531376</v>
+        <f t="shared" si="110"/>
+        <v>34700.064805073896</v>
       </c>
       <c r="BG36" s="3">
-        <f t="shared" si="109"/>
-        <v>33806.961057654808</v>
+        <f t="shared" si="110"/>
+        <v>32965.0615648202</v>
       </c>
       <c r="BH36" s="3">
-        <f t="shared" si="109"/>
-        <v>32116.613004772065</v>
+        <f t="shared" si="110"/>
+        <v>31316.80848657919</v>
       </c>
       <c r="BI36" s="3">
-        <f t="shared" si="109"/>
-        <v>30510.782354533461</v>
+        <f t="shared" si="110"/>
+        <v>29750.968062250227</v>
       </c>
       <c r="BJ36" s="3">
-        <f t="shared" si="109"/>
-        <v>28985.243236806786</v>
+        <f t="shared" si="110"/>
+        <v>28263.419659137715</v>
       </c>
       <c r="BK36" s="3">
-        <f t="shared" si="109"/>
-        <v>27535.981074966447</v>
+        <f t="shared" si="110"/>
+        <v>26850.248676180829</v>
       </c>
       <c r="BL36" s="3">
-        <f t="shared" si="109"/>
-        <v>26159.182021218123</v>
+        <f t="shared" si="110"/>
+        <v>25507.736242371786</v>
       </c>
       <c r="BM36" s="3">
-        <f t="shared" si="109"/>
-        <v>24851.222920157215</v>
+        <f t="shared" si="110"/>
+        <v>24232.349430253194</v>
       </c>
       <c r="BN36" s="3">
-        <f t="shared" si="109"/>
-        <v>23608.661774149354</v>
+        <f t="shared" si="110"/>
+        <v>23020.731958740533</v>
       </c>
       <c r="BO36" s="3">
-        <f t="shared" si="109"/>
-        <v>22428.228685441885</v>
+        <f t="shared" si="110"/>
+        <v>21869.695360803504</v>
       </c>
       <c r="BP36" s="3">
-        <f t="shared" si="109"/>
-        <v>21306.817251169789</v>
+        <f t="shared" si="110"/>
+        <v>20776.210592763327</v>
       </c>
       <c r="BQ36" s="3">
-        <f t="shared" si="109"/>
-        <v>20241.4763886113</v>
+        <f t="shared" si="110"/>
+        <v>19737.400063125158</v>
       </c>
       <c r="BR36" s="3">
-        <f t="shared" si="109"/>
-        <v>19229.402569180733</v>
+        <f t="shared" si="110"/>
+        <v>18750.5300599689</v>
       </c>
       <c r="BS36" s="3">
-        <f t="shared" si="109"/>
-        <v>18267.932440721695</v>
+        <f t="shared" si="110"/>
+        <v>17813.003556970452</v>
       </c>
       <c r="BT36" s="3">
-        <f t="shared" si="109"/>
-        <v>17354.53581868561</v>
+        <f t="shared" si="110"/>
+        <v>16922.353379121931</v>
       </c>
       <c r="BU36" s="3">
-        <f t="shared" si="109"/>
-        <v>16486.809027751329</v>
+        <f t="shared" si="110"/>
+        <v>16076.235710165833</v>
       </c>
       <c r="BV36" s="3">
-        <f t="shared" si="109"/>
-        <v>15662.468576363763</v>
+        <f t="shared" si="110"/>
+        <v>15272.42392465754</v>
       </c>
       <c r="BW36" s="3">
-        <f t="shared" si="109"/>
-        <v>14879.345147545573</v>
+        <f t="shared" si="110"/>
+        <v>14508.802728424662</v>
       </c>
       <c r="BX36" s="3">
-        <f t="shared" si="109"/>
-        <v>14135.377890168294</v>
+        <f t="shared" si="110"/>
+        <v>13783.362592003428</v>
       </c>
       <c r="BY36" s="3">
-        <f t="shared" si="109"/>
-        <v>13428.608995659879</v>
+        <f t="shared" si="110"/>
+        <v>13094.194462403257</v>
       </c>
       <c r="BZ36" s="3">
-        <f t="shared" si="109"/>
-        <v>12757.178545876885</v>
+        <f t="shared" si="110"/>
+        <v>12439.484739283092</v>
       </c>
       <c r="CA36" s="3">
-        <f t="shared" si="109"/>
-        <v>12119.31961858304</v>
+        <f t="shared" si="110"/>
+        <v>11817.510502318937</v>
       </c>
       <c r="CB36" s="3">
-        <f t="shared" si="109"/>
-        <v>11513.353637653887</v>
+        <f t="shared" si="110"/>
+        <v>11226.63497720299</v>
       </c>
       <c r="CC36" s="3">
-        <f t="shared" si="109"/>
-        <v>10937.685955771192</v>
+        <f t="shared" si="110"/>
+        <v>10665.30322834284</v>
       </c>
       <c r="CD36" s="3">
-        <f t="shared" si="109"/>
-        <v>10390.801657982633</v>
+        <f t="shared" si="110"/>
+        <v>10132.038066925697</v>
       </c>
       <c r="CE36" s="3">
-        <f t="shared" si="109"/>
-        <v>9871.2615750835012</v>
+        <f t="shared" si="110"/>
+        <v>9625.4361635794121</v>
       </c>
       <c r="CF36" s="3">
-        <f t="shared" si="109"/>
-        <v>9377.6984963293253</v>
+        <f t="shared" si="110"/>
+        <v>9144.1643554004404</v>
       </c>
       <c r="CG36" s="3">
-        <f t="shared" si="109"/>
-        <v>8908.8135715128592</v>
+        <f t="shared" si="110"/>
+        <v>8686.9561376304173</v>
       </c>
       <c r="CH36" s="3">
-        <f t="shared" si="109"/>
-        <v>8463.3728929372155</v>
+        <f t="shared" si="110"/>
+        <v>8252.6083307488952</v>
       </c>
       <c r="CI36" s="3">
-        <f t="shared" si="109"/>
-        <v>8040.2042482903544</v>
+        <f t="shared" si="110"/>
+        <v>7839.9779142114503</v>
       </c>
       <c r="CJ36" s="3">
-        <f t="shared" si="109"/>
-        <v>7638.1940358758366</v>
+        <f t="shared" si="110"/>
+        <v>7447.9790185008778</v>
       </c>
       <c r="CK36" s="3">
-        <f t="shared" si="109"/>
-        <v>7256.2843340820446</v>
+        <f t="shared" si="110"/>
+        <v>7075.5800675758337</v>
       </c>
       <c r="CL36" s="3">
-        <f t="shared" si="109"/>
-        <v>6893.4701173779422</v>
+        <f t="shared" si="110"/>
+        <v>6721.8010641970413</v>
       </c>
       <c r="CM36" s="3">
-        <f t="shared" si="109"/>
-        <v>6548.7966115090449</v>
+        <f t="shared" si="110"/>
+        <v>6385.7110109871892</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" si="109"/>
-        <v>6221.3567809335927</v>
+        <f t="shared" si="110"/>
+        <v>6066.4254604378293</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="109"/>
-        <v>5910.2889418869127</v>
+        <f t="shared" si="110"/>
+        <v>5763.1041874159373</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="109"/>
-        <v>5614.7744947925667</v>
+        <f t="shared" si="110"/>
+        <v>5474.9489780451404</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="109"/>
-        <v>5334.0357700529385</v>
+        <f t="shared" si="110"/>
+        <v>5201.2015291428834</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="109"/>
-        <v>5067.3339815502914</v>
+        <f t="shared" si="110"/>
+        <v>4941.1414526857388</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="109"/>
-        <v>4813.9672824727768</v>
+        <f t="shared" si="110"/>
+        <v>4694.0843800514513</v>
       </c>
       <c r="CT36" s="3">
-        <f t="shared" si="109"/>
-        <v>4573.2689183491375</v>
+        <f t="shared" si="110"/>
+        <v>4459.3801610488781</v>
       </c>
       <c r="CU36" s="3">
-        <f t="shared" si="109"/>
-        <v>4344.60547243168</v>
+        <f t="shared" si="110"/>
+        <v>4236.4111529964339</v>
       </c>
       <c r="CV36" s="3">
-        <f t="shared" si="109"/>
-        <v>4127.3751988100958</v>
+        <f t="shared" si="110"/>
+        <v>4024.5905953466122</v>
       </c>
       <c r="CW36" s="3">
-        <f t="shared" si="109"/>
-        <v>3921.006438869591</v>
+        <f t="shared" si="110"/>
+        <v>3823.3610655792813</v>
       </c>
     </row>
     <row r="37" spans="2:101" x14ac:dyDescent="0.2">
@@ -4505,67 +4551,67 @@
         <v>47</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:D37" si="110">+C36/C38</f>
+        <f t="shared" ref="C37:D37" si="111">+C36/C38</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" ref="E37:G37" si="111">+E36/E38</f>
+        <f t="shared" ref="E37:G37" si="112">+E36/E38</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" ref="H37" si="112">+H36/H38</f>
+        <f t="shared" ref="H37" si="113">+H36/H38</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" ref="I37:J37" si="113">+I36/I38</f>
+        <f t="shared" ref="I37:J37" si="114">+I36/I38</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2.559735283873215</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" ref="K37:L37" si="114">+K36/K38</f>
+        <f t="shared" ref="K37:L37" si="115">+K36/K38</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" ref="M37:R37" si="115">+M36/M38</f>
+        <f t="shared" ref="M37:R37" si="116">+M36/M38</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S37" s="9">
@@ -4573,16 +4619,16 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" ref="T37:V37" si="116">+T36/T38</f>
+        <f t="shared" ref="T37:V37" si="117">+T36/T38</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="116"/>
-        <v>1.9104827792112047</v>
+        <f t="shared" si="117"/>
+        <v>1.6356531447711202</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="116"/>
-        <v>3.4526064891264294</v>
+        <f t="shared" si="117"/>
+        <v>2.8012747592110165</v>
       </c>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4600,44 +4646,44 @@
         <v>10.092105263157896</v>
       </c>
       <c r="AJ37" s="17">
-        <f t="shared" ref="AJ37" si="117">+AJ36/AJ38</f>
+        <f t="shared" ref="AJ37" si="118">+AJ36/AJ38</f>
         <v>13.770549143057012</v>
       </c>
       <c r="AK37" s="17">
-        <f t="shared" ref="AK37" si="118">+AK36/AK38</f>
-        <v>15.336751118463377</v>
+        <f t="shared" ref="AK37" si="119">+AK36/AK38</f>
+        <v>14.900349773386282</v>
       </c>
       <c r="AL37" s="17">
-        <f t="shared" ref="AL37" si="119">+AL36/AL38</f>
-        <v>14.73016831916809</v>
+        <f t="shared" ref="AL37" si="120">+AL36/AL38</f>
+        <v>14.308396503861701</v>
       </c>
       <c r="AM37" s="17">
-        <f t="shared" ref="AM37" si="120">+AM36/AM38</f>
-        <v>14.064924748764922</v>
+        <f t="shared" ref="AM37" si="121">+AM36/AM38</f>
+        <v>13.660147188644288</v>
       </c>
       <c r="AN37" s="17">
-        <f t="shared" ref="AN37" si="121">+AN36/AN38</f>
-        <v>17.3593103795708</v>
+        <f t="shared" ref="AN37" si="122">+AN36/AN38</f>
+        <v>16.920447444678256</v>
       </c>
       <c r="AO37" s="17">
-        <f t="shared" ref="AO37" si="122">+AO36/AO38</f>
-        <v>19.43976538569941</v>
+        <f t="shared" ref="AO37" si="123">+AO36/AO38</f>
+        <v>18.981292950644939</v>
       </c>
       <c r="AP37" s="17">
-        <f t="shared" ref="AP37" si="123">+AP36/AP38</f>
-        <v>20.951836884158389</v>
+        <f t="shared" ref="AP37" si="124">+AP36/AP38</f>
+        <v>20.480150362274749</v>
       </c>
       <c r="AQ37" s="17">
-        <f t="shared" ref="AQ37" si="124">+AQ36/AQ38</f>
-        <v>22.459835979702646</v>
+        <f t="shared" ref="AQ37" si="125">+AQ36/AQ38</f>
+        <v>21.97426942102059</v>
       </c>
       <c r="AR37" s="17">
-        <f t="shared" ref="AR37" si="125">+AR36/AR38</f>
-        <v>23.968940272139321</v>
+        <f t="shared" ref="AR37" si="126">+AR36/AR38</f>
+        <v>23.468832933673252</v>
       </c>
       <c r="AS37" s="17">
-        <f t="shared" ref="AS37" si="126">+AS36/AS38</f>
-        <v>25.483955633880591</v>
+        <f t="shared" ref="AS37" si="127">+AS36/AS38</f>
+        <v>24.968649602798351</v>
       </c>
     </row>
     <row r="38" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4699,12 +4745,11 @@
         <v>2713</v>
       </c>
       <c r="U38" s="6">
-        <f>+T38</f>
-        <v>2713</v>
+        <v>2687</v>
       </c>
       <c r="V38" s="6">
         <f>+U38</f>
-        <v>2713</v>
+        <v>2687</v>
       </c>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
@@ -4723,39 +4768,39 @@
       </c>
       <c r="AK38" s="3">
         <f>AVERAGE(S38:V38)</f>
-        <v>2720.25</v>
+        <v>2707.25</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" ref="AL38:AS38" si="127">+AK38</f>
-        <v>2720.25</v>
+        <f t="shared" ref="AL38:AS38" si="128">+AK38</f>
+        <v>2707.25</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" si="127"/>
-        <v>2720.25</v>
+        <f t="shared" si="128"/>
+        <v>2707.25</v>
       </c>
     </row>
     <row r="39" spans="2:101" x14ac:dyDescent="0.2">
@@ -4770,23 +4815,23 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:K40" si="128">+G25/C25-1</f>
+        <f t="shared" ref="G40:K40" si="129">+G25/C25-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L40" s="11">
@@ -4810,11 +4855,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40:R40" si="129">+Q25/M25-1</f>
+        <f t="shared" ref="Q40:R40" si="130">+Q25/M25-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S40" s="11">
@@ -4822,16 +4867,16 @@
         <v>6.6371174200450911E-2</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" ref="T40:V40" si="130">+T25/P25-1</f>
+        <f t="shared" ref="T40:V40" si="131">+T25/P25-1</f>
         <v>-8.7698180692643568E-3</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="130"/>
-        <v>-5.2664598414340014E-2</v>
+        <f t="shared" si="131"/>
+        <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="130"/>
-        <v>5.3308485046479337E-2</v>
+        <f t="shared" si="131"/>
+        <v>-1.5318226366903276E-2</v>
       </c>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -4850,38 +4895,38 @@
       </c>
       <c r="AK40" s="18">
         <f>+AK25/AJ25-1</f>
-        <v>1.4832229561855037E-2</v>
+        <v>-2.7964283594366091E-3</v>
       </c>
       <c r="AL40" s="18">
-        <f t="shared" ref="AL40:AS40" si="131">+AL25/AK25-1</f>
+        <f t="shared" ref="AL40:AS40" si="132">+AL25/AK25-1</f>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="AM40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="AN40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AQ40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AR40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS40" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -4906,15 +4951,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" ref="P41:R41" si="132">+P21/L21-1</f>
+        <f t="shared" ref="P41:R41" si="133">+P21/L21-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R41" s="11">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S41" s="11">
@@ -4926,11 +4971,11 @@
         <v>-4.3244052072422545E-2</v>
       </c>
       <c r="U41" s="11">
-        <f t="shared" ref="U41:V41" si="133">+U21/Q21-1</f>
+        <f t="shared" ref="U41:V41" si="134">+U21/Q21-1</f>
         <v>-1</v>
       </c>
       <c r="V41" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-1</v>
       </c>
       <c r="W41" s="12"/>
@@ -4963,7 +5008,9 @@
       <c r="T42" s="10">
         <v>0.15</v>
       </c>
-      <c r="U42" s="10"/>
+      <c r="U42" s="10">
+        <v>0.17</v>
+      </c>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -4995,7 +5042,9 @@
       <c r="T43" s="10">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="U43" s="10"/>
+      <c r="U43" s="10">
+        <v>-0.18</v>
+      </c>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -5021,7 +5070,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10">
-        <f t="shared" ref="R44" si="134">+R23/N23-1</f>
+        <f t="shared" ref="R44" si="135">+R23/N23-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S44" s="10">
@@ -5034,7 +5083,7 @@
       </c>
       <c r="U44" s="10">
         <f>+U23/Q23-1</f>
-        <v>-0.27956989247311825</v>
+        <v>-0.489247311827957</v>
       </c>
       <c r="V44" s="10">
         <f>+V23/R23-1</f>
@@ -5044,7 +5093,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="AI44" s="19">
-        <f t="shared" ref="AI44" si="135">AI23/AH23-1</f>
+        <f t="shared" ref="AI44" si="136">AI23/AH23-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AJ44" s="19">
@@ -5082,67 +5131,67 @@
         <v>37</v>
       </c>
       <c r="C46" s="10">
-        <f t="shared" ref="C46:G46" si="136">+C27/C25</f>
+        <f t="shared" ref="C46:G46" si="137">+C27/C25</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D46" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" ref="H46:I46" si="137">+H27/H25</f>
+        <f t="shared" ref="H46:I46" si="138">+H27/H25</f>
         <v>0.80415729006277392</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J46" s="10">
-        <f t="shared" ref="J46:R46" si="138">+J27/J25</f>
+        <f t="shared" ref="J46:R46" si="139">+J27/J25</f>
         <v>0.83436106631249407</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R46" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S46" s="10">
@@ -5150,30 +5199,30 @@
         <v>0.78482872294682526</v>
       </c>
       <c r="T46" s="10">
-        <f t="shared" ref="T46:V46" si="139">+T27/T25</f>
+        <f t="shared" ref="T46:V46" si="140">+T27/T25</f>
         <v>0.81985982929706469</v>
       </c>
       <c r="U46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.79</v>
+        <f t="shared" si="140"/>
+        <v>0.79375045103557773</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.79</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
       <c r="AG46" s="19">
-        <f t="shared" ref="AG46:AI46" si="140">+AG27/AG25</f>
+        <f t="shared" ref="AG46:AI46" si="141">+AG27/AG25</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AH46" s="19">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AI46" s="19">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AJ46" s="19">
@@ -5181,39 +5230,39 @@
         <v>0.80794376277251567</v>
       </c>
       <c r="AK46" s="19">
-        <f t="shared" ref="AK46:AS46" si="141">+AK27/AK25</f>
+        <f t="shared" ref="AK46:AS46" si="142">+AK27/AK25</f>
         <v>0.81</v>
       </c>
       <c r="AL46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AM46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AN46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AO46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AP46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AQ46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AR46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AS46" s="19">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.81</v>
       </c>
       <c r="AW46" t="s">
@@ -5221,7 +5270,7 @@
       </c>
       <c r="AX46" s="3">
         <f>NPV(AX47,AL36:CW36)</f>
-        <v>572532.83808128291</v>
+        <v>557199.61010097212</v>
       </c>
     </row>
     <row r="47" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5229,94 +5278,94 @@
         <v>110</v>
       </c>
       <c r="C47" s="10">
-        <f t="shared" ref="C47:G47" si="142">+C35/C34</f>
+        <f t="shared" ref="C47:G47" si="143">+C35/C34</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" ref="H47:M47" si="143">+H35/H34</f>
+        <f t="shared" ref="H47:M47" si="144">+H35/H34</f>
         <v>0.32435597189695553</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" ref="N47:V47" si="144">+N35/N34</f>
+        <f t="shared" ref="N47:V47" si="145">+N35/N34</f>
         <v>0.14063577173496744</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="144"/>
-        <v>0.19</v>
+        <f t="shared" si="145"/>
+        <v>0.21180057388809181</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.19</v>
       </c>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
       <c r="AG47" s="19">
-        <f t="shared" ref="AG47:AH47" si="145">+AG35/AG34</f>
+        <f t="shared" ref="AG47:AH47" si="146">+AG35/AG34</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="AH47" s="19">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="AI47" s="19">
@@ -5324,43 +5373,43 @@
         <v>0.12157926461723931</v>
       </c>
       <c r="AJ47" s="19">
-        <f t="shared" ref="AJ47:AK47" si="146">+AJ35/AJ34</f>
+        <f t="shared" ref="AJ47:AK47" si="147">+AJ35/AJ34</f>
         <v>0.16737162676592504</v>
       </c>
       <c r="AK47" s="19">
-        <f t="shared" si="146"/>
-        <v>0.18</v>
-      </c>
-      <c r="AL47" s="19">
-        <f t="shared" ref="AL47:AS47" si="147">+AL35/AL34</f>
-        <v>0.18</v>
-      </c>
-      <c r="AM47" s="19">
-        <f t="shared" si="147"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="AN47" s="19">
         <f t="shared" si="147"/>
         <v>0.18</v>
       </c>
+      <c r="AL47" s="19">
+        <f t="shared" ref="AL47:AS47" si="148">+AL35/AL34</f>
+        <v>0.18</v>
+      </c>
+      <c r="AM47" s="19">
+        <f t="shared" si="148"/>
+        <v>0.18</v>
+      </c>
+      <c r="AN47" s="19">
+        <f t="shared" si="148"/>
+        <v>0.17999999999999997</v>
+      </c>
       <c r="AO47" s="19">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.18</v>
       </c>
       <c r="AP47" s="19">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.18</v>
       </c>
       <c r="AQ47" s="19">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.18</v>
       </c>
       <c r="AR47" s="19">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.18</v>
       </c>
       <c r="AS47" s="19">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.18</v>
       </c>
       <c r="AW47" s="3" t="s">
@@ -5423,12 +5472,12 @@
         <v>47025</v>
       </c>
       <c r="U49" s="6">
-        <f t="shared" ref="U49:V49" si="148">+T49+U36</f>
-        <v>52208.139779999998</v>
+        <f t="shared" ref="U49:V49" si="149">+T49+U36</f>
+        <v>51420</v>
       </c>
       <c r="V49" s="6">
-        <f t="shared" si="148"/>
-        <v>61575.061184999999</v>
+        <f t="shared" si="149"/>
+        <v>58947.025278000001</v>
       </c>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -5439,39 +5488,39 @@
       </c>
       <c r="AK49" s="3">
         <f>+V49</f>
-        <v>61575.061184999999</v>
+        <v>58947.025278000001</v>
       </c>
       <c r="AL49" s="3">
         <f>+AK49+AL36</f>
-        <v>101644.801555217</v>
+        <v>97683.431713079597</v>
       </c>
       <c r="AM49" s="3">
-        <f t="shared" ref="AM49:AS49" si="149">+AL49+AM36</f>
-        <v>139904.91310304479</v>
+        <f t="shared" ref="AM49:AS49" si="150">+AL49+AM36</f>
+        <v>134664.86518953685</v>
       </c>
       <c r="AN49" s="3">
-        <f t="shared" si="149"/>
-        <v>187126.57716307224</v>
+        <f t="shared" si="150"/>
+        <v>180472.74653414206</v>
       </c>
       <c r="AO49" s="3">
-        <f t="shared" si="149"/>
-        <v>240007.59895352105</v>
+        <f t="shared" si="150"/>
+        <v>231859.85187477557</v>
       </c>
       <c r="AP49" s="3">
-        <f t="shared" si="149"/>
-        <v>297001.8332376529</v>
+        <f t="shared" si="150"/>
+        <v>287304.73894304386</v>
       </c>
       <c r="AQ49" s="3">
-        <f t="shared" si="149"/>
-        <v>358098.20206143905</v>
+        <f t="shared" si="150"/>
+        <v>346794.57983310183</v>
       </c>
       <c r="AR49" s="3">
-        <f t="shared" si="149"/>
-        <v>423299.71183672606</v>
+        <f t="shared" si="150"/>
+        <v>410330.57779278874</v>
       </c>
       <c r="AS49" s="3">
-        <f t="shared" si="149"/>
-        <v>492622.44214978971</v>
+        <f t="shared" si="150"/>
+        <v>477926.95442996459</v>
       </c>
       <c r="AW49" s="3" t="s">
         <v>111</v>
@@ -5526,7 +5575,7 @@
       </c>
       <c r="AX50" s="17">
         <f>AX46/Main!M3</f>
-        <v>211.03311392601657</v>
+        <v>205.38135278325549</v>
       </c>
     </row>
     <row r="51" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5575,7 +5624,7 @@
       </c>
       <c r="AX51" s="19">
         <f>AX50/Main!M2-1</f>
-        <v>0.5494354913804449</v>
+        <v>1.0538135278325549</v>
       </c>
     </row>
     <row r="52" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5769,23 +5818,23 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6">
-        <f t="shared" ref="N56:O56" si="150">SUM(N49:N55)</f>
+        <f t="shared" ref="N56:O56" si="151">SUM(N49:N55)</f>
         <v>159316</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>163523</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" ref="P56:Q56" si="151">SUM(P49:P55)</f>
+        <f t="shared" ref="P56:Q56" si="152">SUM(P49:P55)</f>
         <v>170609</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>169585</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" ref="R56" si="152">SUM(R49:R55)</f>
+        <f t="shared" ref="R56" si="153">SUM(R49:R55)</f>
         <v>165987</v>
       </c>
       <c r="S56" s="6">
@@ -6051,31 +6100,31 @@
         <v>61</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" ref="N67:O67" si="153">SUM(N58:N66)</f>
+        <f t="shared" ref="N67:O67" si="154">SUM(N58:N66)</f>
         <v>159316</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>163523</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" ref="P67:Q67" si="154">SUM(P58:P66)</f>
+        <f t="shared" ref="P67:Q67" si="155">SUM(P58:P66)</f>
         <v>170609</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>169585</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" ref="R67:T67" si="155">SUM(R58:R66)</f>
+        <f t="shared" ref="R67:T67" si="156">SUM(R58:R66)</f>
         <v>165987</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>164218</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>169779</v>
       </c>
     </row>
@@ -6087,11 +6136,11 @@
         <v>66</v>
       </c>
       <c r="O69" s="6">
-        <f t="shared" ref="O69:P69" si="156">O36</f>
+        <f t="shared" ref="O69:P69" si="157">O36</f>
         <v>9497</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>10394</v>
       </c>
       <c r="Q69" s="6">
@@ -6099,7 +6148,7 @@
         <v>9194</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" ref="R69" si="157">R36</f>
+        <f t="shared" ref="R69" si="158">R36</f>
         <v>10285</v>
       </c>
       <c r="S69" s="6">
@@ -6270,27 +6319,27 @@
         <v>68</v>
       </c>
       <c r="O76" s="6">
-        <f t="shared" ref="O76:T76" si="158">SUM(O70:O75)</f>
+        <f t="shared" ref="O76:T76" si="159">SUM(O70:O75)</f>
         <v>12242</v>
       </c>
       <c r="P76" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>13247</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>14090</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>18104</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>14076</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>12197</v>
       </c>
     </row>
@@ -6447,27 +6496,27 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6">
-        <f t="shared" ref="O81:T81" si="159">SUM(O78:O80)</f>
+        <f t="shared" ref="O81:T81" si="160">SUM(O78:O80)</f>
         <v>-4874</v>
       </c>
       <c r="P81" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-8195</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-330</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>5829</v>
       </c>
       <c r="S81" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-4779</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-6959</v>
       </c>
       <c r="U81" s="6"/>
@@ -6647,19 +6696,19 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6">
-        <f t="shared" ref="O86:Q86" si="160">SUM(O83:O85)</f>
+        <f t="shared" ref="O86:Q86" si="161">SUM(O83:O85)</f>
         <v>-5185</v>
       </c>
       <c r="P86" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-8549</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-15252</v>
       </c>
       <c r="R86" s="6">
-        <f t="shared" ref="R86" si="161">SUM(R83:R85)</f>
+        <f t="shared" ref="R86" si="162">SUM(R83:R85)</f>
         <v>-21742</v>
       </c>
       <c r="S86" s="6">
@@ -6706,27 +6755,27 @@
         <v>81</v>
       </c>
       <c r="O88" s="6">
-        <f t="shared" ref="O88:T88" si="162">+O87+O86+O81+O76</f>
+        <f t="shared" ref="O88:T88" si="163">+O87+O86+O81+O76</f>
         <v>1937</v>
       </c>
       <c r="P88" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-3380</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1707</v>
       </c>
       <c r="R88" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>2061</v>
       </c>
       <c r="S88" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1512</v>
       </c>
       <c r="T88" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1875</v>
       </c>
     </row>
@@ -6794,19 +6843,19 @@
         <v>7970</v>
       </c>
       <c r="P93" s="6">
-        <f t="shared" ref="P93:S93" si="163">+P76+P78</f>
+        <f t="shared" ref="P93:S93" si="164">+P76+P78</f>
         <v>8635</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9776</v>
       </c>
       <c r="R93" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>12734</v>
       </c>
       <c r="S93" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8761</v>
       </c>
       <c r="T93" s="6">
@@ -6819,16 +6868,27 @@
         <v>128</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" ref="R94:S94" si="164">SUM(O93:R93)</f>
+        <f t="shared" ref="R94:S94" si="165">SUM(O93:R93)</f>
         <v>39115</v>
       </c>
       <c r="S94" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>39906</v>
       </c>
       <c r="T94" s="6">
         <f>SUM(Q93:T93)</f>
         <v>35940</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>-2631</v>
+      </c>
+      <c r="U96" s="1">
+        <v>-3672</v>
       </c>
     </row>
   </sheetData>

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39941484-C35B-4AA5-8C2E-0B0D4C9CB704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8134841-7276-438A-B223-61B9C1B99B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52230" yWindow="2520" windowWidth="27720" windowHeight="16485" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="-26430" yWindow="2460" windowWidth="24870" windowHeight="17595" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -688,6 +688,33 @@
   </si>
   <si>
     <t>Reality Labs OI</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>tbh 2017 - Nikita Bier</t>
+  </si>
+  <si>
+    <t>Reality Labs 6mo y/y</t>
+  </si>
+  <si>
+    <t>Family OI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Change q/q</t>
+  </si>
+  <si>
+    <t>OpEx y/y</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Family OM%</t>
+  </si>
+  <si>
+    <t>Stock Price (period end)</t>
   </si>
 </sst>
 </file>
@@ -752,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -794,6 +821,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -824,7 +855,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>36909</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>120254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -874,7 +905,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1245,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1262,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1276,10 +1307,11 @@
         <v>2</v>
       </c>
       <c r="M3" s="3">
-        <v>2713</v>
+        <f>2248.672204+402.87647</f>
+        <v>2651.5486740000001</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1294,7 +1326,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>271300</v>
+        <v>291670.35414000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1305,10 +1337,10 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>47025</v>
+        <v>48304</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1319,10 +1351,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>9922</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1331,7 +1363,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>224275</v>
+        <v>253288.35414000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1373,37 +1405,43 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="L18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1416,13 +1454,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:CW96"/>
+  <dimension ref="A1:CW107"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U35" sqref="U35"/>
+      <selection pane="bottomRight" activeCell="AD40" sqref="AD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1510,6 +1548,12 @@
       <c r="Z2" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AB2">
+        <v>2013</v>
+      </c>
+      <c r="AC2">
+        <v>2014</v>
+      </c>
       <c r="AD2">
         <v>2015</v>
       </c>
@@ -1729,7 +1773,7 @@
         <v>1968</v>
       </c>
       <c r="U5" s="6">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1778,7 +1822,9 @@
       <c r="T6" s="6">
         <v>197</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6">
+        <v>197</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -1835,7 +1881,7 @@
         <v>2934</v>
       </c>
       <c r="U7" s="6">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -1884,8 +1930,10 @@
       <c r="T8" s="6">
         <v>264</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="U8" s="6">
+        <v>266</v>
+      </c>
+      <c r="V8" s="9"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -1909,7 +1957,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="U9" s="10"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -2373,7 +2421,9 @@
       <c r="T18" s="6">
         <v>3169</v>
       </c>
-      <c r="U18" s="6"/>
+      <c r="U18" s="6">
+        <v>3047</v>
+      </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2421,7 +2471,9 @@
       <c r="T19" s="6">
         <v>5835</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="6">
+        <v>5717</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2469,7 +2521,9 @@
       <c r="T20" s="6">
         <v>6360</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="6">
+        <v>5707</v>
+      </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2517,7 +2571,9 @@
       <c r="T21" s="6">
         <v>12788</v>
       </c>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6">
+        <v>12766</v>
+      </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2725,6 +2781,7 @@
         <v>28152</v>
       </c>
       <c r="U24" s="6">
+        <f>SUM(U18:U21)</f>
         <v>27237</v>
       </c>
       <c r="V24" s="6">
@@ -2747,6 +2804,21 @@
         <f t="shared" si="11"/>
         <v>31346.495600000002</v>
       </c>
+      <c r="AB24" s="3">
+        <v>7872</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>12466</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>17928</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>27638</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>40653</v>
+      </c>
       <c r="AG24" s="3">
         <v>55013</v>
       </c>
@@ -2854,17 +2926,25 @@
         <f t="shared" si="14"/>
         <v>31346.495600000002</v>
       </c>
+      <c r="AB25" s="7">
+        <f t="shared" ref="AB25:AG25" si="15">SUM(AB22:AB24)</f>
+        <v>7872</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="15"/>
+        <v>12466</v>
+      </c>
       <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AG25" si="15">SUM(AD22:AD24)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>17928</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>27638</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40653</v>
       </c>
       <c r="AG25" s="7">
         <f t="shared" si="15"/>
@@ -2984,9 +3064,22 @@
         <f t="shared" ref="V26" si="18">+V25-V27</f>
         <v>6962.5962</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
+      <c r="W26" s="6">
+        <f>+W25-W27</f>
+        <v>5556.1883999999991</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" ref="X26:Z26" si="19">+X25-X27</f>
+        <v>5793.6815999999999</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="19"/>
+        <v>5605.3745999999992</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="19"/>
+        <v>6582.7640759999995</v>
+      </c>
       <c r="AG26" s="3">
         <v>9355</v>
       </c>
@@ -3004,35 +3097,35 @@
         <v>22343.851799999989</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" ref="AL26:AS26" si="19">+AL25-AL27</f>
+        <f t="shared" ref="AL26:AS26" si="20">+AL25-AL27</f>
         <v>21226.659209999998</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20165.326249499994</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22181.858874449987</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23290.9518181725</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23989.680372717674</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24709.370783899198</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25450.651907416177</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>26214.171464638668</v>
       </c>
     </row>
@@ -3041,51 +3134,51 @@
         <v>37</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:D27" si="20">+C25-C26</f>
+        <f t="shared" ref="C27:D27" si="21">+C25-C26</f>
         <v>10039</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11017</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" ref="E27:G27" si="21">+E25-E26</f>
+        <f t="shared" ref="E27:G27" si="22">+E25-E26</f>
         <v>11309</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14118</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12261</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27" si="22">+H25-H26</f>
+        <f t="shared" ref="H27" si="23">+H25-H26</f>
         <v>13579</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:J27" si="23">+I25-I26</f>
+        <f t="shared" ref="I27:J27" si="24">+I25-I26</f>
         <v>14497</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17590</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ref="K27:N27" si="24">+K25-K26</f>
+        <f t="shared" ref="K27:N27" si="25">+K25-K26</f>
         <v>14278</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14858</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>17276</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22862</v>
       </c>
       <c r="O27" s="6">
@@ -3093,15 +3186,15 @@
         <v>21040</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:R27" si="25">+P25-P26</f>
+        <f t="shared" ref="P27:R27" si="26">+P25-P26</f>
         <v>23678</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>23239</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>27323</v>
       </c>
       <c r="S27" s="6">
@@ -3120,9 +3213,22 @@
         <f>+V25*0.79</f>
         <v>26192.623800000001</v>
       </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
+      <c r="W27" s="6">
+        <f>+W25*0.79</f>
+        <v>20901.851600000002</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" ref="X27:Z27" si="27">+X25*0.79</f>
+        <v>21795.278399999999</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="27"/>
+        <v>21086.885399999999</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="27"/>
+        <v>24763.731524000003</v>
+      </c>
       <c r="AG27" s="3">
         <f>+AG25-AG26</f>
         <v>46483</v>
@@ -3136,7 +3242,7 @@
         <v>69273</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="26">+AJ25-AJ26</f>
+        <f t="shared" ref="AJ27" si="28">+AJ25-AJ26</f>
         <v>95280</v>
       </c>
       <c r="AK27" s="3">
@@ -3144,35 +3250,35 @@
         <v>95255.368200000012</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AS27" si="27">+AL25*0.81</f>
+        <f t="shared" ref="AL27:AS27" si="29">+AL25*0.81</f>
         <v>90492.599789999993</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>85967.969800499995</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>94564.76678055001</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>99293.005119577501</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>102271.79527316483</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>105339.94913135978</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>108500.14760530059</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>111755.1520334596</v>
       </c>
     </row>
@@ -3238,12 +3344,25 @@
         <v>9170</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28" si="28">+U28-50</f>
+        <f t="shared" ref="V28" si="30">+U28-50</f>
         <v>9120</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
+      <c r="W28" s="6">
+        <f>+S28*0.9</f>
+        <v>6936.3</v>
+      </c>
+      <c r="X28" s="6">
+        <f t="shared" ref="X28:X30" si="31">+T28*0.9</f>
+        <v>7821</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" ref="Y28:Y30" si="32">+U28*0.9</f>
+        <v>8253</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" ref="Z28:Z30" si="33">+V28*0.9</f>
+        <v>8208</v>
+      </c>
       <c r="AG28" s="3">
         <v>10273</v>
       </c>
@@ -3257,39 +3376,39 @@
         <v>24655</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" ref="AK28:AP28" si="29">+AJ28*0.9</f>
+        <f t="shared" ref="AK28:AP28" si="34">+AJ28*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>19970.55</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>17973.494999999999</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>16176.145499999999</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>14558.530949999998</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>13102.677854999998</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AQ28:AS28" si="30">+AP28*0.9</f>
+        <f t="shared" ref="AQ28:AS28" si="35">+AP28*0.9</f>
         <v>11792.410069499998</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>10613.169062549998</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -3355,12 +3474,25 @@
         <v>3780</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29" si="31">+R29</f>
+        <f t="shared" ref="V29" si="36">+R29</f>
         <v>4387</v>
       </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
+      <c r="W29" s="6">
+        <f t="shared" ref="W29:W30" si="37">+S29*0.9</f>
+        <v>2980.8</v>
+      </c>
+      <c r="X29" s="6">
+        <f t="shared" si="31"/>
+        <v>3235.5</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" si="32"/>
+        <v>3402</v>
+      </c>
+      <c r="Z29" s="6">
+        <f t="shared" si="33"/>
+        <v>3948.3</v>
+      </c>
       <c r="AG29" s="3">
         <v>7846</v>
       </c>
@@ -3378,35 +3510,35 @@
         <v>14043</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" ref="AL29:AS29" si="32">+AK29</f>
+        <f t="shared" ref="AL29:AS29" si="38">+AK29</f>
         <v>14043</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14043</v>
       </c>
     </row>
@@ -3474,12 +3606,25 @@
         <v>3384</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" ref="V30" si="33">+R30</f>
+        <f t="shared" ref="V30" si="39">+R30</f>
         <v>3305</v>
       </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
+      <c r="W30" s="6">
+        <f t="shared" si="37"/>
+        <v>2124</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" si="31"/>
+        <v>2688.3</v>
+      </c>
+      <c r="Y30" s="6">
+        <f t="shared" si="32"/>
+        <v>3045.6</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="33"/>
+        <v>2974.5</v>
+      </c>
       <c r="AG30" s="3">
         <v>3451</v>
       </c>
@@ -3494,39 +3639,39 @@
         <v>9829</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" ref="AK30:AS30" si="34">+AJ30</f>
+        <f t="shared" ref="AK30:AS30" si="40">+AJ30</f>
         <v>9829</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9829</v>
       </c>
     </row>
@@ -3535,67 +3680,67 @@
         <v>41</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" ref="C31:D31" si="35">+C30+C29+C28</f>
+        <f t="shared" ref="C31:D31" si="41">+C30+C29+C28</f>
         <v>4590</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>5154</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:G31" si="36">+E30+E29+E28</f>
+        <f t="shared" ref="E31:G31" si="42">+E30+E29+E28</f>
         <v>5528</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6298</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>5944</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="37">+H30+H29+H28</f>
+        <f t="shared" ref="H31:I31" si="43">+H30+H29+H28</f>
         <v>6953</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>7312</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31:K31" si="38">+J30+J29+J28</f>
+        <f t="shared" ref="J31:K31" si="44">+J30+J29+J28</f>
         <v>8732</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>8385</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31" si="39">+L30+L29+L28</f>
+        <f t="shared" ref="L31" si="45">+L30+L29+L28</f>
         <v>8895</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ref="M31" si="40">+M30+M29+M28</f>
+        <f t="shared" ref="M31" si="46">+M30+M29+M28</f>
         <v>9236</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31" si="41">+N30+N29+N28</f>
+        <f t="shared" ref="N31" si="47">+N30+N29+N28</f>
         <v>10087</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" ref="O31:R31" si="42">+O30+O29+O28</f>
+        <f t="shared" ref="O31:R31" si="48">+O30+O29+O28</f>
         <v>9662</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>11311</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>12816</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>14738</v>
       </c>
       <c r="S31" s="6">
@@ -3603,20 +3748,33 @@
         <v>13379</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" ref="T31:V31" si="43">+T30+T29+T28</f>
+        <f t="shared" ref="T31:V31" si="49">+T30+T29+T28</f>
         <v>15272</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>16334</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>16812</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
+      <c r="W31" s="6">
+        <f t="shared" ref="W31:Z31" si="50">+W30+W29+W28</f>
+        <v>12041.1</v>
+      </c>
+      <c r="X31" s="6">
+        <f t="shared" si="50"/>
+        <v>13744.8</v>
+      </c>
+      <c r="Y31" s="6">
+        <f t="shared" si="50"/>
+        <v>14700.6</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="50"/>
+        <v>15130.8</v>
+      </c>
       <c r="AG31" s="3">
         <f>SUM(AG28:AG30)</f>
         <v>21570</v>
@@ -3630,43 +3788,43 @@
         <v>36602</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="44">SUM(AJ28:AJ30)</f>
+        <f t="shared" ref="AJ31" si="51">SUM(AJ28:AJ30)</f>
         <v>48527</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="45">SUM(AK28:AK30)</f>
+        <f t="shared" ref="AK31" si="52">SUM(AK28:AK30)</f>
         <v>46061.5</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="46">SUM(AL28:AL30)</f>
+        <f t="shared" ref="AL31" si="53">SUM(AL28:AL30)</f>
         <v>43842.55</v>
       </c>
       <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="47">SUM(AM28:AM30)</f>
+        <f t="shared" ref="AM31" si="54">SUM(AM28:AM30)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="48">SUM(AN28:AN30)</f>
+        <f t="shared" ref="AN31" si="55">SUM(AN28:AN30)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="49">SUM(AO28:AO30)</f>
+        <f t="shared" ref="AO31" si="56">SUM(AO28:AO30)</f>
         <v>38430.53095</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" ref="AP31" si="50">SUM(AP28:AP30)</f>
+        <f t="shared" ref="AP31" si="57">SUM(AP28:AP30)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" ref="AQ31" si="51">SUM(AQ28:AQ30)</f>
+        <f t="shared" ref="AQ31" si="58">SUM(AQ28:AQ30)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="AR31" s="3">
-        <f t="shared" ref="AR31" si="52">SUM(AR28:AR30)</f>
+        <f t="shared" ref="AR31" si="59">SUM(AR28:AR30)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" ref="AS31" si="53">SUM(AS28:AS30)</f>
+        <f t="shared" ref="AS31" si="60">SUM(AS28:AS30)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -3675,67 +3833,67 @@
         <v>42</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="54">+C27-C31</f>
+        <f t="shared" ref="C32:D32" si="61">+C27-C31</f>
         <v>5449</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>5863</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:G32" si="55">+E27-E31</f>
+        <f t="shared" ref="E32:G32" si="62">+E27-E31</f>
         <v>5781</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>7820</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>6317</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:I32" si="56">+H27-H31</f>
+        <f t="shared" ref="H32:I32" si="63">+H27-H31</f>
         <v>6626</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>7185</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:K32" si="57">+J27-J31</f>
+        <f t="shared" ref="J32:K32" si="64">+J27-J31</f>
         <v>8858</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>5893</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32" si="58">+L27-L31</f>
+        <f t="shared" ref="L32" si="65">+L27-L31</f>
         <v>5963</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32" si="59">+M27-M31</f>
+        <f t="shared" ref="M32" si="66">+M27-M31</f>
         <v>8040</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="60">+N27-N31</f>
+        <f t="shared" ref="N32" si="67">+N27-N31</f>
         <v>12775</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32:R32" si="61">+O27-O31</f>
+        <f t="shared" ref="O32:R32" si="68">+O27-O31</f>
         <v>11378</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>12367</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>10423</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>12585</v>
       </c>
       <c r="S32" s="6">
@@ -3743,20 +3901,33 @@
         <v>8524</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ref="T32:V32" si="62">+T27-T31</f>
+        <f t="shared" ref="T32:V32" si="69">+T27-T31</f>
         <v>8358</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>5664</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>9380.6238000000012</v>
       </c>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
+      <c r="W32" s="6">
+        <f t="shared" ref="W32:Z32" si="70">+W27-W31</f>
+        <v>8860.7516000000014</v>
+      </c>
+      <c r="X32" s="6">
+        <f t="shared" si="70"/>
+        <v>8050.4784</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" si="70"/>
+        <v>6386.2853999999988</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="70"/>
+        <v>9632.9315240000033</v>
+      </c>
       <c r="AG32" s="3">
         <f>AG27-AG31</f>
         <v>24913</v>
@@ -3770,43 +3941,43 @@
         <v>32671</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="63">AJ27-AJ31</f>
+        <f t="shared" ref="AJ32" si="71">AJ27-AJ31</f>
         <v>46753</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="64">AK27-AK31</f>
+        <f t="shared" ref="AK32" si="72">AK27-AK31</f>
         <v>49193.868200000012</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="65">AL27-AL31</f>
+        <f t="shared" ref="AL32" si="73">AL27-AL31</f>
         <v>46650.04978999999</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="66">AM27-AM31</f>
+        <f t="shared" ref="AM32" si="74">AM27-AM31</f>
         <v>44122.4748005</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="67">AN27-AN31</f>
+        <f t="shared" ref="AN32" si="75">AN27-AN31</f>
         <v>54516.621280550011</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="68">AO27-AO31</f>
+        <f t="shared" ref="AO32" si="76">AO27-AO31</f>
         <v>60862.474169577501</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="69">AP27-AP31</f>
+        <f t="shared" ref="AP32" si="77">AP27-AP31</f>
         <v>65297.117418164824</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="70">AQ27-AQ31</f>
+        <f t="shared" ref="AQ32" si="78">AQ27-AQ31</f>
         <v>69675.539061859788</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="71">AR27-AR31</f>
+        <f t="shared" ref="AR32" si="79">AR27-AR31</f>
         <v>74014.978542750585</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" ref="AS32" si="72">AS27-AS31</f>
+        <f t="shared" ref="AS32" si="80">AS27-AS31</f>
         <v>78331.299877164594</v>
       </c>
     </row>
@@ -3872,12 +4043,25 @@
         <v>-88</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" ref="V33" si="73">+U33</f>
+        <f t="shared" ref="V33" si="81">+U33</f>
         <v>-88</v>
       </c>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
+      <c r="W33" s="6">
+        <f>+V33</f>
+        <v>-88</v>
+      </c>
+      <c r="X33" s="6">
+        <f t="shared" ref="X33:Z33" si="82">+W33</f>
+        <v>-88</v>
+      </c>
+      <c r="Y33" s="6">
+        <f t="shared" si="82"/>
+        <v>-88</v>
+      </c>
+      <c r="Z33" s="6">
+        <f t="shared" si="82"/>
+        <v>-88</v>
+      </c>
       <c r="AG33" s="3">
         <v>448</v>
       </c>
@@ -3891,36 +4075,36 @@
         <v>531</v>
       </c>
       <c r="AL33" s="3">
-        <f>+AK49*$AX$49</f>
-        <v>589.47025278000001</v>
+        <f>+AK52*$AX$51</f>
+        <v>1116.6205055600001</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" ref="AM33:AS33" si="74">+AL49*$AX$49</f>
-        <v>976.83431713079597</v>
+        <f>+AL52*$AX$51</f>
+        <v>1899.9938984071839</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="74"/>
-        <v>1346.6486518953686</v>
+        <f>+AM52*$AX$51</f>
+        <v>2654.7623850692617</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="74"/>
-        <v>1804.7274653414206</v>
+        <f>+AN52*$AX$51</f>
+        <v>3592.3730771854175</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" si="74"/>
-        <v>2318.5985187477559</v>
+        <f>+AO52*$AX$51</f>
+        <v>4649.4325720323295</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="74"/>
-        <v>2873.0473894304387</v>
+        <f>+AP52*$AX$51</f>
+        <v>5796.5559918715635</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" si="74"/>
-        <v>3467.9457983310185</v>
+        <f>+AQ52*$AX$51</f>
+        <v>7034.2983507527579</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" si="74"/>
-        <v>4103.3057779278879</v>
+        <f>+AR52*$AX$51</f>
+        <v>8363.5064918062108</v>
       </c>
     </row>
     <row r="34" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3928,67 +4112,67 @@
         <v>44</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="75">+C32+C33</f>
+        <f t="shared" ref="C34:D34" si="83">+C32+C33</f>
         <v>5610</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>5868</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:G34" si="76">+E32+E33</f>
+        <f t="shared" ref="E34:G34" si="84">+E32+E33</f>
         <v>5912</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>7971</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>6523</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34" si="77">+H32+H33</f>
+        <f t="shared" ref="H34" si="85">+H32+H33</f>
         <v>6832</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="78">+I32+I33</f>
+        <f t="shared" ref="I34:J34" si="86">+I32+I33</f>
         <v>7329</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>9169</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34:R34" si="79">+K32+K33</f>
+        <f t="shared" ref="K34:R34" si="87">+K32+K33</f>
         <v>5861</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>6131</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>8133</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>13055</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>11503</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>12513</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>10565</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>12702</v>
       </c>
       <c r="S34" s="6">
@@ -3996,20 +4180,33 @@
         <v>8908</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" ref="T34:V34" si="80">+T32+T33</f>
+        <f t="shared" ref="T34:Z34" si="88">+T32+T33</f>
         <v>8186</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>5576</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9292.6238000000012</v>
       </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
+      <c r="W34" s="6">
+        <f t="shared" si="88"/>
+        <v>8772.7516000000014</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" si="88"/>
+        <v>7962.4784</v>
+      </c>
+      <c r="Y34" s="6">
+        <f t="shared" si="88"/>
+        <v>6298.2853999999988</v>
+      </c>
+      <c r="Z34" s="6">
+        <f t="shared" si="88"/>
+        <v>9544.9315240000033</v>
+      </c>
       <c r="AG34" s="3">
         <f>+AG32+AG33</f>
         <v>25361</v>
@@ -4023,44 +4220,44 @@
         <v>33180</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="81">+AJ32+AJ33</f>
+        <f t="shared" ref="AJ34" si="89">+AJ32+AJ33</f>
         <v>47284</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="82">+AK32+AK33</f>
+        <f t="shared" ref="AK34" si="90">+AK32+AK33</f>
         <v>49193.868200000012</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="83">+AL32+AL33</f>
-        <v>47239.520042779986</v>
+        <f t="shared" ref="AL34" si="91">+AL32+AL33</f>
+        <v>47766.67029555999</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="84">+AM32+AM33</f>
-        <v>45099.309117630793</v>
+        <f t="shared" ref="AM34" si="92">+AM32+AM33</f>
+        <v>46022.468698907185</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="85">+AN32+AN33</f>
-        <v>55863.269932445379</v>
+        <f t="shared" ref="AN34" si="93">+AN32+AN33</f>
+        <v>57171.383665619273</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="86">+AO32+AO33</f>
-        <v>62667.201634918922</v>
+        <f t="shared" ref="AO34" si="94">+AO32+AO33</f>
+        <v>64454.847246762918</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" ref="AP34" si="87">+AP32+AP33</f>
-        <v>67615.715936912573</v>
+        <f t="shared" ref="AP34" si="95">+AP32+AP33</f>
+        <v>69946.549990197149</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" ref="AQ34" si="88">+AQ32+AQ33</f>
-        <v>72548.586451290234</v>
+        <f t="shared" ref="AQ34" si="96">+AQ32+AQ33</f>
+        <v>75472.095053731347</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" ref="AR34" si="89">+AR32+AR33</f>
-        <v>77482.924341081598</v>
+        <f t="shared" ref="AR34" si="97">+AR32+AR33</f>
+        <v>81049.276893503338</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" ref="AS34" si="90">+AS32+AS33</f>
-        <v>82434.605655092484</v>
+        <f t="shared" ref="AS34" si="98">+AS32+AS33</f>
+        <v>86694.806368970807</v>
       </c>
     </row>
     <row r="35" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4126,12 +4323,25 @@
         <v>1181</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" ref="V35" si="91">+V34*0.19</f>
+        <f t="shared" ref="V35:Z35" si="99">+V34*0.19</f>
         <v>1765.5985220000002</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
+      <c r="W35" s="6">
+        <f t="shared" si="99"/>
+        <v>1666.8228040000004</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="99"/>
+        <v>1512.8708959999999</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="99"/>
+        <v>1196.6742259999999</v>
+      </c>
+      <c r="Z35" s="6">
+        <f t="shared" si="99"/>
+        <v>1813.5369895600006</v>
+      </c>
       <c r="AG35" s="3">
         <f>3249+1</f>
         <v>3250</v>
@@ -4150,36 +4360,36 @@
         <v>8854.8962760000013</v>
       </c>
       <c r="AL35" s="3">
-        <f t="shared" ref="AL35:AS35" si="92">+AL34*0.18</f>
-        <v>8503.1136077003976</v>
+        <f t="shared" ref="AL35:AS35" si="100">+AL34*0.18</f>
+        <v>8598.0006532007974</v>
       </c>
       <c r="AM35" s="3">
-        <f t="shared" si="92"/>
-        <v>8117.8756411735421</v>
+        <f t="shared" si="100"/>
+        <v>8284.0443658032927</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" si="92"/>
-        <v>10055.388587840167</v>
+        <f t="shared" si="100"/>
+        <v>10290.849059811469</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" si="92"/>
-        <v>11280.096294285406</v>
+        <f t="shared" si="100"/>
+        <v>11601.872504417324</v>
       </c>
       <c r="AP35" s="3">
-        <f t="shared" si="92"/>
-        <v>12170.828868644263</v>
+        <f t="shared" si="100"/>
+        <v>12590.378998235487</v>
       </c>
       <c r="AQ35" s="3">
-        <f t="shared" si="92"/>
-        <v>13058.745561232241</v>
+        <f t="shared" si="100"/>
+        <v>13584.977109671641</v>
       </c>
       <c r="AR35" s="3">
-        <f t="shared" si="92"/>
-        <v>13946.926381394687</v>
+        <f t="shared" si="100"/>
+        <v>14588.869840830601</v>
       </c>
       <c r="AS35" s="3">
-        <f t="shared" si="92"/>
-        <v>14838.229017916647</v>
+        <f t="shared" si="100"/>
+        <v>15605.065146414745</v>
       </c>
     </row>
     <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4187,67 +4397,67 @@
         <v>46</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="93">+C34-C35</f>
+        <f t="shared" ref="C36:D36" si="101">+C34-C35</f>
         <v>4987</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>5106</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ref="E36:G36" si="94">+E34-E35</f>
+        <f t="shared" ref="E36:G36" si="102">+E34-E35</f>
         <v>5137</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>6882</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>4307</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" ref="H36" si="95">+H34-H35</f>
+        <f t="shared" ref="H36" si="103">+H34-H35</f>
         <v>4616</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" ref="I36:J36" si="96">+I34-I35</f>
+        <f t="shared" ref="I36:J36" si="104">+I34-I35</f>
         <v>6091</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>7349</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="97">+K34-K35</f>
+        <f t="shared" ref="K36:L36" si="105">+K34-K35</f>
         <v>4902</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>5178</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" ref="M36:R36" si="98">+M34-M35</f>
+        <f t="shared" ref="M36:R36" si="106">+M34-M35</f>
         <v>7846</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>11219</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>9497</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>10394</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>9194</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>10285</v>
       </c>
       <c r="S36" s="6">
@@ -4255,20 +4465,33 @@
         <v>7465</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" ref="T36:V36" si="99">+T34-T35</f>
+        <f t="shared" ref="T36:V36" si="107">+T34-T35</f>
         <v>6687</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>4395</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>7527.025278000001</v>
       </c>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
+      <c r="W36" s="6">
+        <f t="shared" ref="W36:Z36" si="108">+W34-W35</f>
+        <v>7105.9287960000011</v>
+      </c>
+      <c r="X36" s="6">
+        <f t="shared" si="108"/>
+        <v>6449.6075039999996</v>
+      </c>
+      <c r="Y36" s="6">
+        <f t="shared" si="108"/>
+        <v>5101.6111739999988</v>
+      </c>
+      <c r="Z36" s="6">
+        <f t="shared" si="108"/>
+        <v>7731.3945344400026</v>
+      </c>
       <c r="AG36" s="3">
         <f>+AG34-AG35</f>
         <v>22111</v>
@@ -4282,268 +4505,268 @@
         <v>29146</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="100">+AJ34-AJ35</f>
+        <f t="shared" ref="AJ36" si="109">+AJ34-AJ35</f>
         <v>39370</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="101">+AK34-AK35</f>
+        <f t="shared" ref="AK36" si="110">+AK34-AK35</f>
         <v>40338.971924000012</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="102">+AL34-AL35</f>
-        <v>38736.406435079589</v>
+        <f t="shared" ref="AL36" si="111">+AL34-AL35</f>
+        <v>39168.669642359193</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="103">+AM34-AM35</f>
-        <v>36981.433476457249</v>
+        <f t="shared" ref="AM36" si="112">+AM34-AM35</f>
+        <v>37738.424333103889</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="104">+AN34-AN35</f>
-        <v>45807.881344605208</v>
+        <f t="shared" ref="AN36" si="113">+AN34-AN35</f>
+        <v>46880.534605807799</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="105">+AO34-AO35</f>
-        <v>51387.105340633512</v>
+        <f t="shared" ref="AO36" si="114">+AO34-AO35</f>
+        <v>52852.974742345592</v>
       </c>
       <c r="AP36" s="3">
-        <f t="shared" ref="AP36" si="106">+AP34-AP35</f>
-        <v>55444.887068268312</v>
+        <f t="shared" ref="AP36" si="115">+AP34-AP35</f>
+        <v>57356.170991961662</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36" si="107">+AQ34-AQ35</f>
-        <v>59489.840890057996</v>
+        <f t="shared" ref="AQ36" si="116">+AQ34-AQ35</f>
+        <v>61887.117944059704</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" ref="AR36" si="108">+AR34-AR35</f>
-        <v>63535.997959686909</v>
+        <f t="shared" ref="AR36" si="117">+AR34-AR35</f>
+        <v>66460.40705267273</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" ref="AS36" si="109">+AS34-AS35</f>
-        <v>67596.376637175839</v>
+        <f t="shared" ref="AS36" si="118">+AS34-AS35</f>
+        <v>71089.741222556069</v>
       </c>
       <c r="AT36" s="3">
-        <f>+AS36*(1+$AX$48)</f>
-        <v>64216.557805317047</v>
+        <f>+AS36*(1+$AX$50)</f>
+        <v>67535.254161428267</v>
       </c>
       <c r="AU36" s="3">
-        <f t="shared" ref="AU36:CW36" si="110">+AT36*(1+$AX$48)</f>
-        <v>61005.72991505119</v>
+        <f>+AT36*(1+$AX$50)</f>
+        <v>64158.491453356852</v>
       </c>
       <c r="AV36" s="3">
-        <f t="shared" si="110"/>
-        <v>57955.44341929863</v>
+        <f>+AU36*(1+$AX$50)</f>
+        <v>60950.56688068901</v>
       </c>
       <c r="AW36" s="3">
-        <f t="shared" si="110"/>
-        <v>55057.671248333696</v>
+        <f>+AV36*(1+$AX$50)</f>
+        <v>57903.03853665456</v>
       </c>
       <c r="AX36" s="3">
-        <f t="shared" si="110"/>
-        <v>52304.787685917006</v>
+        <f>+AW36*(1+$AX$50)</f>
+        <v>55007.886609821828</v>
       </c>
       <c r="AY36" s="3">
-        <f t="shared" si="110"/>
-        <v>49689.548301621151</v>
+        <f>+AX36*(1+$AX$50)</f>
+        <v>52257.492279330734</v>
       </c>
       <c r="AZ36" s="3">
-        <f t="shared" si="110"/>
-        <v>47205.070886540088</v>
+        <f>+AY36*(1+$AX$50)</f>
+        <v>49644.617665364196</v>
       </c>
       <c r="BA36" s="3">
-        <f t="shared" si="110"/>
-        <v>44844.817342213079</v>
+        <f>+AZ36*(1+$AX$50)</f>
+        <v>47162.386782095986</v>
       </c>
       <c r="BB36" s="3">
-        <f t="shared" si="110"/>
-        <v>42602.576475102425</v>
+        <f>+BA36*(1+$AX$50)</f>
+        <v>44804.267442991186</v>
       </c>
       <c r="BC36" s="3">
-        <f t="shared" si="110"/>
-        <v>40472.447651347306</v>
+        <f>+BB36*(1+$AX$50)</f>
+        <v>42564.054070841623</v>
       </c>
       <c r="BD36" s="3">
-        <f t="shared" si="110"/>
-        <v>38448.82526877994</v>
+        <f>+BC36*(1+$AX$50)</f>
+        <v>40435.85136729954</v>
       </c>
       <c r="BE36" s="3">
-        <f t="shared" si="110"/>
-        <v>36526.384005340944</v>
+        <f>+BD36*(1+$AX$50)</f>
+        <v>38414.058798934559</v>
       </c>
       <c r="BF36" s="3">
-        <f t="shared" si="110"/>
-        <v>34700.064805073896</v>
+        <f>+BE36*(1+$AX$50)</f>
+        <v>36493.35585898783</v>
       </c>
       <c r="BG36" s="3">
-        <f t="shared" si="110"/>
-        <v>32965.0615648202</v>
+        <f>+BF36*(1+$AX$50)</f>
+        <v>34668.688066038434</v>
       </c>
       <c r="BH36" s="3">
-        <f t="shared" si="110"/>
-        <v>31316.80848657919</v>
+        <f>+BG36*(1+$AX$50)</f>
+        <v>32935.253662736512</v>
       </c>
       <c r="BI36" s="3">
-        <f t="shared" si="110"/>
-        <v>29750.968062250227</v>
+        <f>+BH36*(1+$AX$50)</f>
+        <v>31288.490979599683</v>
       </c>
       <c r="BJ36" s="3">
-        <f t="shared" si="110"/>
-        <v>28263.419659137715</v>
+        <f>+BI36*(1+$AX$50)</f>
+        <v>29724.066430619696</v>
       </c>
       <c r="BK36" s="3">
-        <f t="shared" si="110"/>
-        <v>26850.248676180829</v>
+        <f>+BJ36*(1+$AX$50)</f>
+        <v>28237.86310908871</v>
       </c>
       <c r="BL36" s="3">
-        <f t="shared" si="110"/>
-        <v>25507.736242371786</v>
+        <f>+BK36*(1+$AX$50)</f>
+        <v>26825.969953634274</v>
       </c>
       <c r="BM36" s="3">
-        <f t="shared" si="110"/>
-        <v>24232.349430253194</v>
+        <f>+BL36*(1+$AX$50)</f>
+        <v>25484.671455952561</v>
       </c>
       <c r="BN36" s="3">
-        <f t="shared" si="110"/>
-        <v>23020.731958740533</v>
+        <f>+BM36*(1+$AX$50)</f>
+        <v>24210.437883154933</v>
       </c>
       <c r="BO36" s="3">
-        <f t="shared" si="110"/>
-        <v>21869.695360803504</v>
+        <f>+BN36*(1+$AX$50)</f>
+        <v>22999.915988997185</v>
       </c>
       <c r="BP36" s="3">
-        <f t="shared" si="110"/>
-        <v>20776.210592763327</v>
+        <f>+BO36*(1+$AX$50)</f>
+        <v>21849.920189547323</v>
       </c>
       <c r="BQ36" s="3">
-        <f t="shared" si="110"/>
-        <v>19737.400063125158</v>
+        <f>+BP36*(1+$AX$50)</f>
+        <v>20757.424180069956</v>
       </c>
       <c r="BR36" s="3">
-        <f t="shared" si="110"/>
-        <v>18750.5300599689</v>
+        <f>+BQ36*(1+$AX$50)</f>
+        <v>19719.552971066456</v>
       </c>
       <c r="BS36" s="3">
-        <f t="shared" si="110"/>
-        <v>17813.003556970452</v>
+        <f>+BR36*(1+$AX$50)</f>
+        <v>18733.575322513134</v>
       </c>
       <c r="BT36" s="3">
-        <f t="shared" si="110"/>
-        <v>16922.353379121931</v>
+        <f>+BS36*(1+$AX$50)</f>
+        <v>17796.896556387477</v>
       </c>
       <c r="BU36" s="3">
-        <f t="shared" si="110"/>
-        <v>16076.235710165833</v>
+        <f>+BT36*(1+$AX$50)</f>
+        <v>16907.051728568102</v>
       </c>
       <c r="BV36" s="3">
-        <f t="shared" si="110"/>
-        <v>15272.42392465754</v>
+        <f>+BU36*(1+$AX$50)</f>
+        <v>16061.699142139696</v>
       </c>
       <c r="BW36" s="3">
-        <f t="shared" si="110"/>
-        <v>14508.802728424662</v>
+        <f>+BV36*(1+$AX$50)</f>
+        <v>15258.614185032711</v>
       </c>
       <c r="BX36" s="3">
-        <f t="shared" si="110"/>
-        <v>13783.362592003428</v>
+        <f>+BW36*(1+$AX$50)</f>
+        <v>14495.683475781076</v>
       </c>
       <c r="BY36" s="3">
-        <f t="shared" si="110"/>
-        <v>13094.194462403257</v>
+        <f>+BX36*(1+$AX$50)</f>
+        <v>13770.899301992022</v>
       </c>
       <c r="BZ36" s="3">
-        <f t="shared" si="110"/>
-        <v>12439.484739283092</v>
+        <f>+BY36*(1+$AX$50)</f>
+        <v>13082.35433689242</v>
       </c>
       <c r="CA36" s="3">
-        <f t="shared" si="110"/>
-        <v>11817.510502318937</v>
+        <f>+BZ36*(1+$AX$50)</f>
+        <v>12428.236620047799</v>
       </c>
       <c r="CB36" s="3">
-        <f t="shared" si="110"/>
-        <v>11226.63497720299</v>
+        <f>+CA36*(1+$AX$50)</f>
+        <v>11806.824789045408</v>
       </c>
       <c r="CC36" s="3">
-        <f t="shared" si="110"/>
-        <v>10665.30322834284</v>
+        <f>+CB36*(1+$AX$50)</f>
+        <v>11216.483549593137</v>
       </c>
       <c r="CD36" s="3">
-        <f t="shared" si="110"/>
-        <v>10132.038066925697</v>
+        <f>+CC36*(1+$AX$50)</f>
+        <v>10655.65937211348</v>
       </c>
       <c r="CE36" s="3">
-        <f t="shared" si="110"/>
-        <v>9625.4361635794121</v>
+        <f>+CD36*(1+$AX$50)</f>
+        <v>10122.876403507806</v>
       </c>
       <c r="CF36" s="3">
-        <f t="shared" si="110"/>
-        <v>9144.1643554004404</v>
+        <f>+CE36*(1+$AX$50)</f>
+        <v>9616.7325833324157</v>
       </c>
       <c r="CG36" s="3">
-        <f t="shared" si="110"/>
-        <v>8686.9561376304173</v>
+        <f>+CF36*(1+$AX$50)</f>
+        <v>9135.895954165795</v>
       </c>
       <c r="CH36" s="3">
-        <f t="shared" si="110"/>
-        <v>8252.6083307488952</v>
+        <f>+CG36*(1+$AX$50)</f>
+        <v>8679.1011564575056</v>
       </c>
       <c r="CI36" s="3">
-        <f t="shared" si="110"/>
-        <v>7839.9779142114503</v>
+        <f>+CH36*(1+$AX$50)</f>
+        <v>8245.1460986346301</v>
       </c>
       <c r="CJ36" s="3">
-        <f t="shared" si="110"/>
-        <v>7447.9790185008778</v>
+        <f>+CI36*(1+$AX$50)</f>
+        <v>7832.8887937028985</v>
       </c>
       <c r="CK36" s="3">
-        <f t="shared" si="110"/>
-        <v>7075.5800675758337</v>
+        <f>+CJ36*(1+$AX$50)</f>
+        <v>7441.2443540177528</v>
       </c>
       <c r="CL36" s="3">
-        <f t="shared" si="110"/>
-        <v>6721.8010641970413</v>
+        <f>+CK36*(1+$AX$50)</f>
+        <v>7069.1821363168647</v>
       </c>
       <c r="CM36" s="3">
-        <f t="shared" si="110"/>
-        <v>6385.7110109871892</v>
+        <f>+CL36*(1+$AX$50)</f>
+        <v>6715.7230295010213</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" si="110"/>
-        <v>6066.4254604378293</v>
+        <f>+CM36*(1+$AX$50)</f>
+        <v>6379.9368780259701</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="110"/>
-        <v>5763.1041874159373</v>
+        <f>+CN36*(1+$AX$50)</f>
+        <v>6060.940034124671</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="110"/>
-        <v>5474.9489780451404</v>
+        <f>+CO36*(1+$AX$50)</f>
+        <v>5757.8930324184375</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="110"/>
-        <v>5201.2015291428834</v>
+        <f>+CP36*(1+$AX$50)</f>
+        <v>5469.998380797515</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="110"/>
-        <v>4941.1414526857388</v>
+        <f>+CQ36*(1+$AX$50)</f>
+        <v>5196.4984617576392</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="110"/>
-        <v>4694.0843800514513</v>
+        <f>+CR36*(1+$AX$50)</f>
+        <v>4936.6735386697574</v>
       </c>
       <c r="CT36" s="3">
-        <f t="shared" si="110"/>
-        <v>4459.3801610488781</v>
+        <f>+CS36*(1+$AX$50)</f>
+        <v>4689.8398617362691</v>
       </c>
       <c r="CU36" s="3">
-        <f t="shared" si="110"/>
-        <v>4236.4111529964339</v>
+        <f>+CT36*(1+$AX$50)</f>
+        <v>4455.3478686494554</v>
       </c>
       <c r="CV36" s="3">
-        <f t="shared" si="110"/>
-        <v>4024.5905953466122</v>
+        <f>+CU36*(1+$AX$50)</f>
+        <v>4232.5804752169824</v>
       </c>
       <c r="CW36" s="3">
-        <f t="shared" si="110"/>
-        <v>3823.3610655792813</v>
+        <f>+CV36*(1+$AX$50)</f>
+        <v>4020.9514514561333</v>
       </c>
     </row>
     <row r="37" spans="2:101" x14ac:dyDescent="0.2">
@@ -4551,67 +4774,67 @@
         <v>47</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:D37" si="111">+C36/C38</f>
+        <f t="shared" ref="C37:D37" si="119">+C36/C38</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="119"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" ref="E37:G37" si="112">+E36/E38</f>
+        <f t="shared" ref="E37:G37" si="120">+E36/E38</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="120"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="120"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" ref="H37" si="113">+H36/H38</f>
+        <f t="shared" ref="H37" si="121">+H36/H38</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" ref="I37:J37" si="114">+I36/I38</f>
+        <f t="shared" ref="I37:J37" si="122">+I36/I38</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="122"/>
         <v>2.559735283873215</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" ref="K37:L37" si="115">+K36/K38</f>
+        <f t="shared" ref="K37:L37" si="123">+K36/K38</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" ref="M37:R37" si="116">+M36/M38</f>
+        <f t="shared" ref="M37:R37" si="124">+M36/M38</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S37" s="9">
@@ -4619,20 +4842,33 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" ref="T37:V37" si="117">+T36/T38</f>
+        <f t="shared" ref="T37:V37" si="125">+T36/T38</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>2.8012747592110165</v>
       </c>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
+      <c r="W37" s="9">
+        <f t="shared" ref="W37:Z37" si="126">+W36/W38</f>
+        <v>2.6445585396352813</v>
+      </c>
+      <c r="X37" s="9">
+        <f t="shared" si="126"/>
+        <v>2.4003005225158169</v>
+      </c>
+      <c r="Y37" s="9">
+        <f t="shared" si="126"/>
+        <v>1.8986271581689611</v>
+      </c>
+      <c r="Z37" s="9">
+        <f t="shared" si="126"/>
+        <v>2.877333284123559</v>
+      </c>
       <c r="AG37" s="17">
         <f>+AG36/AG38</f>
         <v>7.5696679219445393</v>
@@ -4646,44 +4882,44 @@
         <v>10.092105263157896</v>
       </c>
       <c r="AJ37" s="17">
-        <f t="shared" ref="AJ37" si="118">+AJ36/AJ38</f>
+        <f t="shared" ref="AJ37" si="127">+AJ36/AJ38</f>
         <v>13.770549143057012</v>
       </c>
       <c r="AK37" s="17">
-        <f t="shared" ref="AK37" si="119">+AK36/AK38</f>
+        <f t="shared" ref="AK37" si="128">+AK36/AK38</f>
         <v>14.900349773386282</v>
       </c>
       <c r="AL37" s="17">
-        <f t="shared" ref="AL37" si="120">+AL36/AL38</f>
-        <v>14.308396503861701</v>
+        <f t="shared" ref="AL37" si="129">+AL36/AL38</f>
+        <v>14.468065247893321</v>
       </c>
       <c r="AM37" s="17">
-        <f t="shared" ref="AM37" si="121">+AM36/AM38</f>
-        <v>13.660147188644288</v>
+        <f t="shared" ref="AM37" si="130">+AM36/AM38</f>
+        <v>13.939763351409692</v>
       </c>
       <c r="AN37" s="17">
-        <f t="shared" ref="AN37" si="122">+AN36/AN38</f>
-        <v>16.920447444678256</v>
+        <f t="shared" ref="AN37" si="131">+AN36/AN38</f>
+        <v>17.316662519459893</v>
       </c>
       <c r="AO37" s="17">
-        <f t="shared" ref="AO37" si="123">+AO36/AO38</f>
-        <v>18.981292950644939</v>
+        <f t="shared" ref="AO37" si="132">+AO36/AO38</f>
+        <v>19.522753621699358</v>
       </c>
       <c r="AP37" s="17">
-        <f t="shared" ref="AP37" si="124">+AP36/AP38</f>
-        <v>20.480150362274749</v>
+        <f t="shared" ref="AP37" si="133">+AP36/AP38</f>
+        <v>21.18613759052975</v>
       </c>
       <c r="AQ37" s="17">
-        <f t="shared" ref="AQ37" si="125">+AQ36/AQ38</f>
-        <v>21.97426942102059</v>
+        <f t="shared" ref="AQ37" si="134">+AQ36/AQ38</f>
+        <v>22.859772072789621</v>
       </c>
       <c r="AR37" s="17">
-        <f t="shared" ref="AR37" si="126">+AR36/AR38</f>
-        <v>23.468832933673252</v>
+        <f t="shared" ref="AR37" si="135">+AR36/AR38</f>
+        <v>24.549046838183667</v>
       </c>
       <c r="AS37" s="17">
-        <f t="shared" ref="AS37" si="127">+AS36/AS38</f>
-        <v>24.968649602798351</v>
+        <f t="shared" ref="AS37" si="136">+AS36/AS38</f>
+        <v>26.259023445398864</v>
       </c>
     </row>
     <row r="38" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4751,9 +4987,26 @@
         <f>+U38</f>
         <v>2687</v>
       </c>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
+      <c r="W38" s="6">
+        <f>+V38</f>
+        <v>2687</v>
+      </c>
+      <c r="X38" s="6">
+        <f t="shared" ref="X38:Z38" si="137">+W38</f>
+        <v>2687</v>
+      </c>
+      <c r="Y38" s="6">
+        <f t="shared" si="137"/>
+        <v>2687</v>
+      </c>
+      <c r="Z38" s="6">
+        <f t="shared" si="137"/>
+        <v>2687</v>
+      </c>
+      <c r="AF38" s="3">
+        <f>2395.921635+509.079123</f>
+        <v>2905.0007580000001</v>
+      </c>
       <c r="AG38" s="3">
         <v>2921</v>
       </c>
@@ -4771,35 +5024,35 @@
         <v>2707.25</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" ref="AL38:AS38" si="128">+AK38</f>
+        <f t="shared" ref="AL38:AS38" si="138">+AK38</f>
         <v>2707.25</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>2707.25</v>
       </c>
     </row>
@@ -4815,23 +5068,23 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:K40" si="129">+G25/C25-1</f>
+        <f t="shared" ref="G40:K40" si="139">+G25/C25-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L40" s="11">
@@ -4855,11 +5108,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40:R40" si="130">+Q25/M25-1</f>
+        <f t="shared" ref="Q40:R40" si="140">+Q25/M25-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S40" s="11">
@@ -4867,20 +5120,53 @@
         <v>6.6371174200450911E-2</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" ref="T40:V40" si="131">+T25/P25-1</f>
+        <f>+T25/P25-1</f>
         <v>-8.7698180692643568E-3</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="131"/>
+        <f>+U25/Q25-1</f>
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" ref="V40" si="141">+V25/R25-1</f>
         <v>-1.5318226366903276E-2</v>
       </c>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
+      <c r="W40" s="11">
+        <f t="shared" ref="W40" si="142">+W25/S25-1</f>
+        <v>-5.1954994983517189E-2</v>
+      </c>
+      <c r="X40" s="11">
+        <f t="shared" ref="X40" si="143">+X25/T25-1</f>
+        <v>-4.2781208798834292E-2</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" ref="Y40" si="144">+Y25/U25-1</f>
+        <v>-3.6867287291621587E-2</v>
+      </c>
+      <c r="Z40" s="11">
+        <f t="shared" ref="Z40" si="145">+Z25/V25-1</f>
+        <v>-5.4553231738471375E-2</v>
+      </c>
+      <c r="AC40" s="18">
+        <f t="shared" ref="AC40:AH40" si="146">+AC25/AB25-1</f>
+        <v>0.58358739837398366</v>
+      </c>
+      <c r="AD40" s="18">
+        <f t="shared" si="146"/>
+        <v>0.43815177282207607</v>
+      </c>
+      <c r="AE40" s="18">
+        <f t="shared" si="146"/>
+        <v>0.54161088799643009</v>
+      </c>
+      <c r="AF40" s="18">
+        <f t="shared" si="146"/>
+        <v>0.47090961719371882</v>
+      </c>
+      <c r="AG40" s="18">
+        <f t="shared" si="146"/>
+        <v>0.37352716896661997</v>
+      </c>
       <c r="AH40" s="18">
         <f>+AH25/AG25-1</f>
         <v>0.26610910132884413</v>
@@ -4898,35 +5184,35 @@
         <v>-2.7964283594366091E-3</v>
       </c>
       <c r="AL40" s="18">
-        <f t="shared" ref="AL40:AS40" si="132">+AL25/AK25-1</f>
+        <f t="shared" ref="AL40:AS40" si="147">+AL25/AK25-1</f>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="AM40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="AN40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AQ40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AR40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS40" s="18">
-        <f t="shared" si="132"/>
+        <f t="shared" si="147"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -4951,15 +5237,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" ref="P41:R41" si="133">+P21/L21-1</f>
+        <f t="shared" ref="P41:R41" si="148">+P21/L21-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="148"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R41" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="148"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S41" s="11">
@@ -4971,13 +5257,10 @@
         <v>-4.3244052072422545E-2</v>
       </c>
       <c r="U41" s="11">
-        <f t="shared" ref="U41:V41" si="134">+U21/Q21-1</f>
-        <v>-1</v>
-      </c>
-      <c r="V41" s="11">
-        <f t="shared" si="134"/>
-        <v>-1</v>
-      </c>
+        <f t="shared" ref="U41" si="149">+U21/Q21-1</f>
+        <v>-2.5049641056972605E-2</v>
+      </c>
+      <c r="V41" s="11"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -5011,7 +5294,9 @@
       <c r="U42" s="10">
         <v>0.17</v>
       </c>
-      <c r="V42" s="6"/>
+      <c r="V42" s="10">
+        <v>0.17</v>
+      </c>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
@@ -5045,7 +5330,9 @@
       <c r="U43" s="10">
         <v>-0.18</v>
       </c>
-      <c r="V43" s="6"/>
+      <c r="V43" s="10">
+        <v>-0.18</v>
+      </c>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
@@ -5070,7 +5357,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10">
-        <f t="shared" ref="R44" si="135">+R23/N23-1</f>
+        <f t="shared" ref="R44" si="150">+R23/N23-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S44" s="10">
@@ -5089,11 +5376,12 @@
         <f>+V23/R23-1</f>
         <v>0.11402508551881407</v>
       </c>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
       <c r="AI44" s="19">
-        <f t="shared" ref="AI44" si="136">AI23/AH23-1</f>
+        <f t="shared" ref="AI44" si="151">AI23/AH23-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AJ44" s="19">
@@ -5102,6 +5390,9 @@
       </c>
     </row>
     <row r="45" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -5116,520 +5407,608 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
+      <c r="Q45" s="10">
+        <f t="shared" ref="Q45:T45" si="152">+Q31/M31-1</f>
+        <v>0.38761368557817244</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" si="152"/>
+        <v>0.46108852979081982</v>
+      </c>
+      <c r="S45" s="10">
+        <f t="shared" si="152"/>
+        <v>0.38470296004967919</v>
+      </c>
+      <c r="T45" s="10">
+        <f t="shared" si="152"/>
+        <v>0.35019008045265676</v>
+      </c>
+      <c r="U45" s="10">
+        <f>+U31/Q31-1</f>
+        <v>0.27450062421972543</v>
+      </c>
+      <c r="V45" s="10">
+        <f t="shared" ref="V45:Z45" si="153">+V31/R31-1</f>
+        <v>0.14072465734835116</v>
+      </c>
+      <c r="W45" s="10">
+        <f t="shared" si="153"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="X45" s="10">
+        <f t="shared" si="153"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="Y45" s="10">
+        <f t="shared" si="153"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="Z45" s="10">
+        <f t="shared" si="153"/>
+        <v>-0.10000000000000009</v>
+      </c>
     </row>
     <row r="46" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="10">
-        <f t="shared" ref="C46:G46" si="137">+C27/C25</f>
-        <v>0.8389603877653351</v>
-      </c>
-      <c r="D46" s="10">
-        <f t="shared" si="137"/>
-        <v>0.83266570931902351</v>
-      </c>
-      <c r="E46" s="10">
-        <f t="shared" si="137"/>
-        <v>0.82385080498288044</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" si="137"/>
-        <v>0.83469315360056762</v>
-      </c>
-      <c r="G46" s="10">
-        <f t="shared" si="137"/>
-        <v>0.81322544272733299</v>
-      </c>
-      <c r="H46" s="10">
-        <f t="shared" ref="H46:I46" si="138">+H27/H25</f>
-        <v>0.80415729006277392</v>
-      </c>
-      <c r="I46" s="10">
-        <f t="shared" si="138"/>
-        <v>0.82126671198731027</v>
-      </c>
-      <c r="J46" s="10">
-        <f t="shared" ref="J46:R46" si="139">+J27/J25</f>
-        <v>0.83436106631249407</v>
-      </c>
-      <c r="K46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.80498393189378137</v>
-      </c>
-      <c r="L46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.7950981966072671</v>
-      </c>
-      <c r="M46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.80465766185374943</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.81440581362211462</v>
-      </c>
-      <c r="O46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.80394329601467274</v>
-      </c>
-      <c r="P46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.81432059703545756</v>
-      </c>
-      <c r="Q46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.80106859703550504</v>
-      </c>
-      <c r="R46" s="10">
-        <f t="shared" si="139"/>
-        <v>0.81146981081642955</v>
-      </c>
-      <c r="S46" s="10">
-        <f>+S27/S25</f>
-        <v>0.78482872294682526</v>
-      </c>
-      <c r="T46" s="10">
-        <f t="shared" ref="T46:V46" si="140">+T27/T25</f>
-        <v>0.81985982929706469</v>
-      </c>
-      <c r="U46" s="10">
-        <f t="shared" si="140"/>
-        <v>0.79375045103557773</v>
-      </c>
-      <c r="V46" s="10">
-        <f t="shared" si="140"/>
-        <v>0.79</v>
-      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
-      <c r="AG46" s="19">
-        <f t="shared" ref="AG46:AI46" si="141">+AG27/AG25</f>
+      <c r="Z46" s="10"/>
+    </row>
+    <row r="47" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="10">
+        <f>+C27/C25</f>
+        <v>0.8389603877653351</v>
+      </c>
+      <c r="D47" s="10">
+        <f>+D27/D25</f>
+        <v>0.83266570931902351</v>
+      </c>
+      <c r="E47" s="10">
+        <f>+E27/E25</f>
+        <v>0.82385080498288044</v>
+      </c>
+      <c r="F47" s="10">
+        <f>+F27/F25</f>
+        <v>0.83469315360056762</v>
+      </c>
+      <c r="G47" s="10">
+        <f>+G27/G25</f>
+        <v>0.81322544272733299</v>
+      </c>
+      <c r="H47" s="10">
+        <f>+H27/H25</f>
+        <v>0.80415729006277392</v>
+      </c>
+      <c r="I47" s="10">
+        <f>+I27/I25</f>
+        <v>0.82126671198731027</v>
+      </c>
+      <c r="J47" s="10">
+        <f>+J27/J25</f>
+        <v>0.83436106631249407</v>
+      </c>
+      <c r="K47" s="10">
+        <f>+K27/K25</f>
+        <v>0.80498393189378137</v>
+      </c>
+      <c r="L47" s="10">
+        <f>+L27/L25</f>
+        <v>0.7950981966072671</v>
+      </c>
+      <c r="M47" s="10">
+        <f>+M27/M25</f>
+        <v>0.80465766185374943</v>
+      </c>
+      <c r="N47" s="10">
+        <f>+N27/N25</f>
+        <v>0.81440581362211462</v>
+      </c>
+      <c r="O47" s="10">
+        <f>+O27/O25</f>
+        <v>0.80394329601467274</v>
+      </c>
+      <c r="P47" s="10">
+        <f>+P27/P25</f>
+        <v>0.81432059703545756</v>
+      </c>
+      <c r="Q47" s="10">
+        <f>+Q27/Q25</f>
+        <v>0.80106859703550504</v>
+      </c>
+      <c r="R47" s="10">
+        <f>+R27/R25</f>
+        <v>0.81146981081642955</v>
+      </c>
+      <c r="S47" s="10">
+        <f>+S27/S25</f>
+        <v>0.78482872294682526</v>
+      </c>
+      <c r="T47" s="10">
+        <f>+T27/T25</f>
+        <v>0.81985982929706469</v>
+      </c>
+      <c r="U47" s="10">
+        <f>+U27/U25</f>
+        <v>0.79375045103557773</v>
+      </c>
+      <c r="V47" s="10">
+        <f>+V27/V25</f>
+        <v>0.79</v>
+      </c>
+      <c r="W47" s="10">
+        <f>+W27/W25</f>
+        <v>0.79</v>
+      </c>
+      <c r="X47" s="10">
+        <f>+X27/X25</f>
+        <v>0.79</v>
+      </c>
+      <c r="Y47" s="10">
+        <f>+Y27/Y25</f>
+        <v>0.79</v>
+      </c>
+      <c r="Z47" s="10">
+        <f>+Z27/Z25</f>
+        <v>0.79</v>
+      </c>
+      <c r="AG47" s="19">
+        <f>+AG27/AG25</f>
         <v>0.8324617643898421</v>
       </c>
-      <c r="AH46" s="19">
-        <f t="shared" si="141"/>
+      <c r="AH47" s="19">
+        <f>+AH27/AH25</f>
         <v>0.81936998741106415</v>
       </c>
-      <c r="AI46" s="19">
-        <f t="shared" si="141"/>
+      <c r="AI47" s="19">
+        <f>+AI27/AI25</f>
         <v>0.80582795323678236</v>
       </c>
-      <c r="AJ46" s="19">
+      <c r="AJ47" s="19">
         <f>+AJ27/AJ25</f>
         <v>0.80794376277251567</v>
       </c>
-      <c r="AK46" s="19">
-        <f t="shared" ref="AK46:AS46" si="142">+AK27/AK25</f>
+      <c r="AK47" s="19">
+        <f>+AK27/AK25</f>
         <v>0.81</v>
       </c>
-      <c r="AL46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AL47" s="19">
+        <f>+AL27/AL25</f>
         <v>0.81</v>
       </c>
-      <c r="AM46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AM47" s="19">
+        <f>+AM27/AM25</f>
         <v>0.81</v>
       </c>
-      <c r="AN46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AN47" s="19">
+        <f>+AN27/AN25</f>
         <v>0.81</v>
       </c>
-      <c r="AO46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AO47" s="19">
+        <f>+AO27/AO25</f>
         <v>0.81</v>
       </c>
-      <c r="AP46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AP47" s="19">
+        <f>+AP27/AP25</f>
         <v>0.81</v>
       </c>
-      <c r="AQ46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AQ47" s="19">
+        <f>+AQ27/AQ25</f>
         <v>0.81</v>
       </c>
-      <c r="AR46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AR47" s="19">
+        <f>+AR27/AR25</f>
         <v>0.81</v>
       </c>
-      <c r="AS46" s="19">
-        <f t="shared" si="142"/>
+      <c r="AS47" s="19">
+        <f>+AS27/AS25</f>
         <v>0.81</v>
       </c>
-      <c r="AW46" t="s">
+    </row>
+    <row r="48" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" ref="C48:F48" si="154">+C32/C25</f>
+        <v>0.45537355841551064</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="154"/>
+        <v>0.44312599198851182</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="154"/>
+        <v>0.42114081736723247</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" ref="F48:J48" si="155">+F32/F25</f>
+        <v>0.46233889085964291</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="155"/>
+        <v>0.41898255621144792</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="155"/>
+        <v>0.39239606774843067</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="155"/>
+        <v>0.40703602991162474</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" ref="J48:M48" si="156">+J32/J25</f>
+        <v>0.42016886443411439</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="156"/>
+        <v>0.33224333314540228</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="156"/>
+        <v>0.31909883876491679</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" ref="M48:Q48" si="157">+M32/M25</f>
+        <v>0.37447601304145317</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.45507979481333716</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.43475602766420846</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.42531898063761736</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" ref="Q48:U48" si="158">+Q32/Q25</f>
+        <v>0.35928990003447087</v>
+      </c>
+      <c r="R48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.37376377297971547</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.30543213415508097</v>
+      </c>
+      <c r="T48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.28998681562695161</v>
+      </c>
+      <c r="U48" s="10">
+        <f>+U32/U25</f>
+        <v>0.20437324096124701</v>
+      </c>
+      <c r="V48" s="10">
+        <f t="shared" ref="V48:Z48" si="159">+V32/V25</f>
+        <v>0.2829305249671093</v>
+      </c>
+      <c r="W48" s="10">
+        <f t="shared" si="159"/>
+        <v>0.33489826154923047</v>
+      </c>
+      <c r="X48" s="10">
+        <f t="shared" si="159"/>
+        <v>0.29180072028811527</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" si="159"/>
+        <v>0.23925607648059771</v>
+      </c>
+      <c r="Z48" s="10">
+        <f t="shared" si="159"/>
+        <v>0.30730489452224452</v>
+      </c>
+      <c r="AG48" s="10">
+        <f t="shared" ref="AG48:AS48" si="160">+AG32/AG25</f>
+        <v>0.44616569361366809</v>
+      </c>
+      <c r="AH48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.41000325332050863</v>
+      </c>
+      <c r="AI48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.3800500203571221</v>
+      </c>
+      <c r="AJ48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.39645040660058173</v>
+      </c>
+      <c r="AK48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.4183179803403459</v>
+      </c>
+      <c r="AL48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.41756497677808618</v>
+      </c>
+      <c r="AM48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.41572698147161713</v>
+      </c>
+      <c r="AN48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.46696528464688164</v>
+      </c>
+      <c r="AO48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.49649624379872476</v>
+      </c>
+      <c r="AP48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.51715788275197638</v>
+      </c>
+      <c r="AQ48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.53576242541876296</v>
+      </c>
+      <c r="AR48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.55255346598900956</v>
+      </c>
+      <c r="AS48" s="10">
+        <f t="shared" si="160"/>
+        <v>0.56774432091960136</v>
+      </c>
+      <c r="AW48" t="s">
         <v>112</v>
       </c>
-      <c r="AX46" s="3">
-        <f>NPV(AX47,AL36:CW36)</f>
-        <v>557199.61010097212</v>
-      </c>
-    </row>
-    <row r="47" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+      <c r="AX48" s="3">
+        <f>NPV(AX49,AL36:CW36)</f>
+        <v>580364.75242722826</v>
+      </c>
+    </row>
+    <row r="49" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="10">
-        <f t="shared" ref="C47:G47" si="143">+C35/C34</f>
+      <c r="C49" s="10">
+        <f>+C35/C34</f>
         <v>0.11105169340463458</v>
       </c>
-      <c r="D47" s="10">
-        <f t="shared" si="143"/>
+      <c r="D49" s="10">
+        <f>+D35/D34</f>
         <v>0.12985685071574643</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="143"/>
+      <c r="E49" s="10">
+        <f>+E35/E34</f>
         <v>0.13108930987821379</v>
       </c>
-      <c r="F47" s="10">
-        <f t="shared" si="143"/>
+      <c r="F49" s="10">
+        <f>+F35/F34</f>
         <v>0.13662024840045164</v>
       </c>
-      <c r="G47" s="10">
-        <f t="shared" si="143"/>
+      <c r="G49" s="10">
+        <f>+G35/G34</f>
         <v>0.33972098727579336</v>
       </c>
-      <c r="H47" s="10">
-        <f t="shared" ref="H47:M47" si="144">+H35/H34</f>
+      <c r="H49" s="10">
+        <f>+H35/H34</f>
         <v>0.32435597189695553</v>
       </c>
-      <c r="I47" s="10">
-        <f t="shared" si="144"/>
+      <c r="I49" s="10">
+        <f>+I35/I34</f>
         <v>0.16891799699822621</v>
       </c>
-      <c r="J47" s="10">
-        <f t="shared" si="144"/>
+      <c r="J49" s="10">
+        <f>+J35/J34</f>
         <v>0.19849492856363835</v>
       </c>
-      <c r="K47" s="10">
-        <f t="shared" si="144"/>
+      <c r="K49" s="10">
+        <f>+K35/K34</f>
         <v>0.16362395495649207</v>
       </c>
-      <c r="L47" s="10">
-        <f t="shared" si="144"/>
+      <c r="L49" s="10">
+        <f>+L35/L34</f>
         <v>0.15543956940140272</v>
       </c>
-      <c r="M47" s="10">
-        <f t="shared" si="144"/>
+      <c r="M49" s="10">
+        <f>+M35/M34</f>
         <v>3.5288331488995447E-2</v>
       </c>
-      <c r="N47" s="10">
-        <f t="shared" ref="N47:V47" si="145">+N35/N34</f>
+      <c r="N49" s="10">
+        <f>+N35/N34</f>
         <v>0.14063577173496744</v>
       </c>
-      <c r="O47" s="10">
-        <f t="shared" si="145"/>
+      <c r="O49" s="10">
+        <f>+O35/O34</f>
         <v>0.17438928975049986</v>
       </c>
-      <c r="P47" s="10">
-        <f t="shared" si="145"/>
+      <c r="P49" s="10">
+        <f>+P35/P34</f>
         <v>0.16934388236234316</v>
       </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="145"/>
+      <c r="Q49" s="10">
+        <f>+Q35/Q34</f>
         <v>0.12976810222432561</v>
       </c>
-      <c r="R47" s="10">
-        <f t="shared" si="145"/>
+      <c r="R49" s="10">
+        <f>+R35/R34</f>
         <v>0.19028499448905684</v>
       </c>
-      <c r="S47" s="10">
-        <f t="shared" si="145"/>
+      <c r="S49" s="10">
+        <f>+S35/S34</f>
         <v>0.1619892231701841</v>
       </c>
-      <c r="T47" s="10">
-        <f t="shared" si="145"/>
+      <c r="T49" s="10">
+        <f>+T35/T34</f>
         <v>0.18311751771316884</v>
       </c>
-      <c r="U47" s="10">
-        <f t="shared" si="145"/>
+      <c r="U49" s="10">
+        <f>+U35/U34</f>
         <v>0.21180057388809181</v>
       </c>
-      <c r="V47" s="10">
-        <f t="shared" si="145"/>
+      <c r="V49" s="10">
+        <f>+V35/V34</f>
         <v>0.19</v>
       </c>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="AG47" s="19">
-        <f t="shared" ref="AG47:AH47" si="146">+AG35/AG34</f>
+      <c r="W49" s="10">
+        <f t="shared" ref="W49:Z49" si="161">+W35/W34</f>
+        <v>0.19</v>
+      </c>
+      <c r="X49" s="10">
+        <f t="shared" si="161"/>
+        <v>0.19</v>
+      </c>
+      <c r="Y49" s="10">
+        <f t="shared" si="161"/>
+        <v>0.19</v>
+      </c>
+      <c r="Z49" s="10">
+        <f t="shared" si="161"/>
+        <v>0.19</v>
+      </c>
+      <c r="AG49" s="19">
+        <f>+AG35/AG34</f>
         <v>0.12814952091794488</v>
       </c>
-      <c r="AH47" s="19">
-        <f t="shared" si="146"/>
+      <c r="AH49" s="19">
+        <f>+AH35/AH34</f>
         <v>0.21222997450690997</v>
       </c>
-      <c r="AI47" s="19">
+      <c r="AI49" s="19">
         <f>+AI35/AI34</f>
         <v>0.12157926461723931</v>
       </c>
-      <c r="AJ47" s="19">
-        <f t="shared" ref="AJ47:AK47" si="147">+AJ35/AJ34</f>
+      <c r="AJ49" s="19">
+        <f>+AJ35/AJ34</f>
         <v>0.16737162676592504</v>
       </c>
-      <c r="AK47" s="19">
-        <f t="shared" si="147"/>
+      <c r="AK49" s="19">
+        <f>+AK35/AK34</f>
         <v>0.18</v>
       </c>
-      <c r="AL47" s="19">
-        <f t="shared" ref="AL47:AS47" si="148">+AL35/AL34</f>
+      <c r="AL49" s="19">
+        <f>+AL35/AL34</f>
         <v>0.18</v>
       </c>
-      <c r="AM47" s="19">
-        <f t="shared" si="148"/>
+      <c r="AM49" s="19">
+        <f>+AM35/AM34</f>
         <v>0.18</v>
       </c>
-      <c r="AN47" s="19">
-        <f t="shared" si="148"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="AO47" s="19">
-        <f t="shared" si="148"/>
+      <c r="AN49" s="19">
+        <f>+AN35/AN34</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AO49" s="19">
+        <f>+AO35/AO34</f>
         <v>0.18</v>
       </c>
-      <c r="AP47" s="19">
-        <f t="shared" si="148"/>
+      <c r="AP49" s="19">
+        <f>+AP35/AP34</f>
         <v>0.18</v>
       </c>
-      <c r="AQ47" s="19">
-        <f t="shared" si="148"/>
+      <c r="AQ49" s="19">
+        <f>+AQ35/AQ34</f>
         <v>0.18</v>
       </c>
-      <c r="AR47" s="19">
-        <f t="shared" si="148"/>
+      <c r="AR49" s="19">
+        <f>+AR35/AR34</f>
         <v>0.18</v>
       </c>
-      <c r="AS47" s="19">
-        <f t="shared" si="148"/>
+      <c r="AS49" s="19">
+        <f>+AS35/AS34</f>
         <v>0.18</v>
       </c>
-      <c r="AW47" s="3" t="s">
+      <c r="AW49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AX47" s="19">
+      <c r="AX49" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="48" spans="2:101" x14ac:dyDescent="0.2">
-      <c r="S48" s="6"/>
-      <c r="AW48" t="s">
+    <row r="50" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="S50" s="6"/>
+      <c r="AW50" t="s">
         <v>114</v>
       </c>
-      <c r="AX48" s="19">
+      <c r="AX50" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="49" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6">
-        <f>17576+44378+6234</f>
-        <v>68188</v>
-      </c>
-      <c r="O49" s="6">
-        <f>19513+44706+6342</f>
-        <v>70561</v>
-      </c>
-      <c r="P49" s="6">
-        <f>16186+47894+6393</f>
-        <v>70473</v>
-      </c>
-      <c r="Q49" s="6">
-        <f>14496+43579+6758</f>
+    <row r="51" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" ref="Q51:S51" si="162">+Q52-Q66</f>
         <v>64833</v>
       </c>
-      <c r="R49" s="6">
-        <f>16601+31397+6775</f>
+      <c r="R51" s="6">
+        <f t="shared" si="162"/>
         <v>54773</v>
       </c>
-      <c r="S49" s="6">
-        <f>14886+29004+6775</f>
+      <c r="S51" s="6">
+        <f t="shared" si="162"/>
         <v>50665</v>
       </c>
-      <c r="T49" s="6">
-        <f>12681+27808+6536</f>
+      <c r="T51" s="6">
+        <f>+T52-T66</f>
         <v>47025</v>
       </c>
-      <c r="U49" s="6">
-        <f t="shared" ref="U49:V49" si="149">+T49+U36</f>
-        <v>51420</v>
-      </c>
-      <c r="V49" s="6">
-        <f t="shared" si="149"/>
-        <v>58947.025278000001</v>
-      </c>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="AJ49" s="3">
-        <f>+R49</f>
-        <v>54773</v>
-      </c>
-      <c r="AK49" s="3">
-        <f>+V49</f>
-        <v>58947.025278000001</v>
-      </c>
-      <c r="AL49" s="3">
-        <f>+AK49+AL36</f>
-        <v>97683.431713079597</v>
-      </c>
-      <c r="AM49" s="3">
-        <f t="shared" ref="AM49:AS49" si="150">+AL49+AM36</f>
-        <v>134664.86518953685</v>
-      </c>
-      <c r="AN49" s="3">
-        <f t="shared" si="150"/>
-        <v>180472.74653414206</v>
-      </c>
-      <c r="AO49" s="3">
-        <f t="shared" si="150"/>
-        <v>231859.85187477557</v>
-      </c>
-      <c r="AP49" s="3">
-        <f t="shared" si="150"/>
-        <v>287304.73894304386</v>
-      </c>
-      <c r="AQ49" s="3">
-        <f t="shared" si="150"/>
-        <v>346794.57983310183</v>
-      </c>
-      <c r="AR49" s="3">
-        <f t="shared" si="150"/>
-        <v>410330.57779278874</v>
-      </c>
-      <c r="AS49" s="3">
-        <f t="shared" si="150"/>
-        <v>477926.95442996459</v>
-      </c>
-      <c r="AW49" s="3" t="s">
+      <c r="U51" s="6">
+        <f>+U52-U66</f>
+        <v>38382</v>
+      </c>
+      <c r="V51" s="6">
+        <f>+V52-V66</f>
+        <v>45909.025278000001</v>
+      </c>
+      <c r="W51" s="6">
+        <f>+W52-W66</f>
+        <v>53014.954074000001</v>
+      </c>
+      <c r="X51" s="6">
+        <f>+X52-X66</f>
+        <v>59464.561577999993</v>
+      </c>
+      <c r="Y51" s="6">
+        <f>+Y52-Y66</f>
+        <v>64566.172751999999</v>
+      </c>
+      <c r="Z51" s="6">
+        <f>+Z52-Z66</f>
+        <v>72297.567286439997</v>
+      </c>
+      <c r="AW51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AX49" s="19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6">
-        <v>11335</v>
-      </c>
-      <c r="O50" s="6">
-        <v>10276</v>
-      </c>
-      <c r="P50" s="6">
-        <v>11698</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>12088</v>
-      </c>
-      <c r="R50" s="6">
-        <v>14039</v>
-      </c>
-      <c r="S50" s="6">
-        <v>11390</v>
-      </c>
-      <c r="T50" s="6">
-        <v>11525</v>
-      </c>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="AW50" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX50" s="17">
-        <f>AX46/Main!M3</f>
-        <v>205.38135278325549</v>
-      </c>
-    </row>
-    <row r="51" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6">
-        <v>2381</v>
-      </c>
-      <c r="O51" s="6">
-        <v>2827</v>
-      </c>
-      <c r="P51" s="6">
-        <v>4919</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>5258</v>
-      </c>
-      <c r="R51" s="6">
-        <v>4629</v>
-      </c>
-      <c r="S51" s="6">
-        <v>3985</v>
-      </c>
-      <c r="T51" s="6">
-        <v>3973</v>
-      </c>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="AW51" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="AX51" s="19">
-        <f>AX50/Main!M2-1</f>
-        <v>1.0538135278325549</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="52" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -5643,35 +6022,108 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6">
-        <v>45633</v>
+        <f>17576+44378+6234</f>
+        <v>68188</v>
       </c>
       <c r="O52" s="6">
-        <v>47720</v>
+        <f>19513+44706+6342</f>
+        <v>70561</v>
       </c>
       <c r="P52" s="6">
-        <v>50909</v>
+        <f>16186+47894+6393</f>
+        <v>70473</v>
       </c>
       <c r="Q52" s="6">
-        <v>53726</v>
+        <f>14496+43579+6758</f>
+        <v>64833</v>
       </c>
       <c r="R52" s="6">
-        <v>57809</v>
+        <f>16601+31397+6775</f>
+        <v>54773</v>
       </c>
       <c r="S52" s="6">
-        <v>61582</v>
+        <f>14886+29004+6775</f>
+        <v>50665</v>
       </c>
       <c r="T52" s="6">
-        <v>67588</v>
-      </c>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
+        <f>12681+27808+6536</f>
+        <v>47025</v>
+      </c>
+      <c r="U52" s="6">
+        <f>14308+27468+6528</f>
+        <v>48304</v>
+      </c>
+      <c r="V52" s="6">
+        <f>+U52+V36</f>
+        <v>55831.025278000001</v>
+      </c>
+      <c r="W52" s="6">
+        <f>+V52+W36</f>
+        <v>62936.954074000001</v>
+      </c>
+      <c r="X52" s="6">
+        <f>+W52+X36</f>
+        <v>69386.561577999993</v>
+      </c>
+      <c r="Y52" s="6">
+        <f>+X52+Y36</f>
+        <v>74488.172751999999</v>
+      </c>
+      <c r="Z52" s="6">
+        <f>+Y52+Z36</f>
+        <v>82219.567286439997</v>
+      </c>
+      <c r="AJ52" s="3">
+        <f>+R52</f>
+        <v>54773</v>
+      </c>
+      <c r="AK52" s="3">
+        <f>+V52</f>
+        <v>55831.025278000001</v>
+      </c>
+      <c r="AL52" s="3">
+        <f>+AK52+AL36</f>
+        <v>94999.694920359194</v>
+      </c>
+      <c r="AM52" s="3">
+        <f>+AL52+AM36</f>
+        <v>132738.11925346308</v>
+      </c>
+      <c r="AN52" s="3">
+        <f>+AM52+AN36</f>
+        <v>179618.65385927088</v>
+      </c>
+      <c r="AO52" s="3">
+        <f>+AN52+AO36</f>
+        <v>232471.62860161648</v>
+      </c>
+      <c r="AP52" s="3">
+        <f>+AO52+AP36</f>
+        <v>289827.79959357815</v>
+      </c>
+      <c r="AQ52" s="3">
+        <f>+AP52+AQ36</f>
+        <v>351714.91753763787</v>
+      </c>
+      <c r="AR52" s="3">
+        <f>+AQ52+AR36</f>
+        <v>418175.32459031057</v>
+      </c>
+      <c r="AS52" s="3">
+        <f>+AR52+AS36</f>
+        <v>489265.06581286667</v>
+      </c>
+      <c r="AW52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX52" s="17">
+        <f>AX48/Main!M3</f>
+        <v>218.87765369651601</v>
+      </c>
     </row>
     <row r="53" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -5685,35 +6137,44 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6">
-        <v>9348</v>
+        <v>11335</v>
       </c>
       <c r="O53" s="6">
-        <v>10202</v>
+        <v>10276</v>
       </c>
       <c r="P53" s="6">
-        <v>10525</v>
+        <v>11698</v>
       </c>
       <c r="Q53" s="6">
-        <v>11063</v>
+        <v>12088</v>
       </c>
       <c r="R53" s="6">
-        <v>12155</v>
+        <v>14039</v>
       </c>
       <c r="S53" s="6">
-        <v>12241</v>
+        <v>11390</v>
       </c>
       <c r="T53" s="6">
-        <v>14130</v>
-      </c>
-      <c r="U53" s="6"/>
+        <v>11525</v>
+      </c>
+      <c r="U53" s="6">
+        <v>11227</v>
+      </c>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
+      <c r="AW53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX53" s="19">
+        <f>AX52/Main!M2-1</f>
+        <v>0.98979685178650922</v>
+      </c>
     </row>
     <row r="54" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -5727,34 +6188,29 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6">
-        <f>623+19050</f>
-        <v>19673</v>
+        <v>2381</v>
       </c>
       <c r="O54" s="6">
-        <f>505+19056</f>
-        <v>19561</v>
+        <v>2827</v>
       </c>
       <c r="P54" s="6">
-        <f>19219+514</f>
-        <v>19733</v>
+        <v>4919</v>
       </c>
       <c r="Q54" s="6">
-        <f>365+19065</f>
-        <v>19430</v>
+        <v>5258</v>
       </c>
       <c r="R54" s="6">
-        <f>19197+634</f>
-        <v>19831</v>
+        <v>4629</v>
       </c>
       <c r="S54" s="6">
-        <f>910+19923</f>
-        <v>20833</v>
+        <v>3985</v>
       </c>
       <c r="T54" s="6">
-        <f>965+20229</f>
-        <v>21194</v>
-      </c>
-      <c r="U54" s="6"/>
+        <v>3973</v>
+      </c>
+      <c r="U54" s="6">
+        <v>5312</v>
+      </c>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
@@ -5762,7 +6218,7 @@
     </row>
     <row r="55" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -5776,27 +6232,29 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6">
-        <v>2758</v>
+        <v>45633</v>
       </c>
       <c r="O55" s="6">
-        <v>2376</v>
+        <v>47720</v>
       </c>
       <c r="P55" s="6">
-        <v>2352</v>
+        <v>50909</v>
       </c>
       <c r="Q55" s="6">
-        <v>3187</v>
+        <v>53726</v>
       </c>
       <c r="R55" s="6">
-        <v>2751</v>
+        <v>57809</v>
       </c>
       <c r="S55" s="6">
-        <v>3522</v>
+        <v>61582</v>
       </c>
       <c r="T55" s="6">
-        <v>4344</v>
-      </c>
-      <c r="U55" s="6"/>
+        <v>67588</v>
+      </c>
+      <c r="U55" s="6">
+        <v>73738</v>
+      </c>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
@@ -5804,7 +6262,7 @@
     </row>
     <row r="56" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -5818,714 +6276,781 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6">
-        <f t="shared" ref="N56:O56" si="151">SUM(N49:N55)</f>
-        <v>159316</v>
+        <v>9348</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="151"/>
-        <v>163523</v>
+        <v>10202</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" ref="P56:Q56" si="152">SUM(P49:P55)</f>
-        <v>170609</v>
+        <v>10525</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="152"/>
-        <v>169585</v>
+        <v>11063</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" ref="R56" si="153">SUM(R49:R55)</f>
-        <v>165987</v>
+        <v>12155</v>
       </c>
       <c r="S56" s="6">
-        <f>SUM(S49:S55)</f>
-        <v>164218</v>
+        <v>12241</v>
       </c>
       <c r="T56" s="6">
-        <f>SUM(T49:T55)</f>
-        <v>169779</v>
-      </c>
-      <c r="U56" s="6"/>
+        <v>14130</v>
+      </c>
+      <c r="U56" s="6">
+        <v>13641</v>
+      </c>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
     </row>
-    <row r="57" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="S57" s="6"/>
-    </row>
-    <row r="58" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="57" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6">
+        <f>623+19050</f>
+        <v>19673</v>
+      </c>
+      <c r="O57" s="6">
+        <f>505+19056</f>
+        <v>19561</v>
+      </c>
+      <c r="P57" s="6">
+        <f>19219+514</f>
+        <v>19733</v>
+      </c>
+      <c r="Q57" s="6">
+        <f>365+19065</f>
+        <v>19430</v>
+      </c>
+      <c r="R57" s="6">
+        <f>19197+634</f>
+        <v>19831</v>
+      </c>
+      <c r="S57" s="6">
+        <f>910+19923</f>
+        <v>20833</v>
+      </c>
+      <c r="T57" s="6">
+        <f>965+20229</f>
+        <v>21194</v>
+      </c>
+      <c r="U57" s="6">
+        <f>875+20268</f>
+        <v>21143</v>
+      </c>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+    </row>
+    <row r="58" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6">
+        <v>2758</v>
+      </c>
+      <c r="O58" s="6">
+        <v>2376</v>
+      </c>
+      <c r="P58" s="6">
+        <v>2352</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>3187</v>
+      </c>
+      <c r="R58" s="6">
+        <v>2751</v>
+      </c>
+      <c r="S58" s="6">
+        <v>3522</v>
+      </c>
+      <c r="T58" s="6">
+        <v>4344</v>
+      </c>
+      <c r="U58" s="6">
+        <v>5529</v>
+      </c>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+    </row>
+    <row r="59" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6">
+        <f t="shared" ref="N59:O59" si="163">SUM(N52:N58)</f>
+        <v>159316</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="163"/>
+        <v>163523</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" ref="P59:Q59" si="164">SUM(P52:P58)</f>
+        <v>170609</v>
+      </c>
+      <c r="Q59" s="6">
+        <f t="shared" si="164"/>
+        <v>169585</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" ref="R59" si="165">SUM(R52:R58)</f>
+        <v>165987</v>
+      </c>
+      <c r="S59" s="6">
+        <f>SUM(S52:S58)</f>
+        <v>164218</v>
+      </c>
+      <c r="T59" s="6">
+        <f>SUM(T52:T58)</f>
+        <v>169779</v>
+      </c>
+      <c r="U59" s="6">
+        <f>SUM(U52:U58)</f>
+        <v>178894</v>
+      </c>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+    </row>
+    <row r="60" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N61" s="6">
         <v>1331</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O61" s="6">
         <v>878</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P61" s="6">
         <v>973</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="Q61" s="6">
         <v>2195</v>
       </c>
-      <c r="R58" s="6">
+      <c r="R61" s="6">
         <v>4083</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S61" s="6">
         <v>3246</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T61" s="6">
         <v>4008</v>
       </c>
-    </row>
-    <row r="59" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="U61" s="6">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="62" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N62" s="6">
         <v>1093</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O62" s="6">
         <v>1006</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P62" s="6">
         <v>949</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="Q62" s="6">
         <v>909</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R62" s="6">
         <v>1052</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S62" s="6">
         <v>935</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T62" s="6">
         <v>982</v>
       </c>
-    </row>
-    <row r="60" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="U62" s="6">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="63" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N63" s="6">
         <f>1023+9631</f>
         <v>10654</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O63" s="6">
         <f>1040+10574</f>
         <v>11614</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P63" s="6">
         <f>1051+10956</f>
         <v>12007</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="Q63" s="6">
         <f>1086+11554</f>
         <v>12640</v>
       </c>
-      <c r="R60" s="6">
+      <c r="R63" s="6">
         <f>1127+12746</f>
         <v>13873</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S63" s="6">
         <f>1159+12894</f>
         <v>14053</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T63" s="6">
         <f>1275+14792</f>
         <v>16067</v>
       </c>
-    </row>
-    <row r="61" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="N61" s="6">
-        <v>11152</v>
-      </c>
-      <c r="O61" s="6">
-        <v>9411</v>
-      </c>
-      <c r="P61" s="6">
-        <v>11510</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>13158</v>
-      </c>
-      <c r="R61" s="6">
-        <v>14312</v>
-      </c>
-      <c r="S61" s="6">
-        <v>15226</v>
-      </c>
-      <c r="T61" s="6">
-        <v>15420</v>
-      </c>
-    </row>
-    <row r="62" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="N62" s="6">
-        <v>382</v>
-      </c>
-      <c r="O62" s="6">
-        <v>382</v>
-      </c>
-      <c r="P62" s="6">
-        <v>391</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>464</v>
-      </c>
-      <c r="R62" s="6">
-        <v>561</v>
-      </c>
-      <c r="S62" s="6">
-        <v>520</v>
-      </c>
-      <c r="T62" s="6">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="63" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="N63" s="6">
-        <v>6414</v>
-      </c>
-      <c r="O63" s="6">
-        <v>6575</v>
-      </c>
-      <c r="P63" s="6">
-        <v>6552</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>6859</v>
-      </c>
-      <c r="R63" s="6">
-        <v>7227</v>
-      </c>
-      <c r="S63" s="6">
-        <v>7010</v>
-      </c>
-      <c r="T63" s="6">
-        <v>7003</v>
+      <c r="U63" s="6">
+        <f>1291+14687</f>
+        <v>15978</v>
       </c>
     </row>
     <row r="64" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="N64" s="6">
+        <v>11152</v>
+      </c>
+      <c r="O64" s="6">
+        <v>9411</v>
+      </c>
+      <c r="P64" s="6">
+        <v>11510</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>13158</v>
+      </c>
+      <c r="R64" s="6">
+        <v>14312</v>
+      </c>
+      <c r="S64" s="6">
+        <v>15226</v>
+      </c>
+      <c r="T64" s="6">
+        <v>15420</v>
+      </c>
+      <c r="U64" s="6">
+        <v>16036</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N65" s="6">
+        <v>382</v>
+      </c>
+      <c r="O65" s="6">
+        <v>382</v>
+      </c>
+      <c r="P65" s="6">
+        <v>391</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>464</v>
+      </c>
+      <c r="R65" s="6">
+        <v>561</v>
+      </c>
+      <c r="S65" s="6">
+        <v>520</v>
+      </c>
+      <c r="T65" s="6">
+        <v>532</v>
+      </c>
+      <c r="U65" s="6">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6">
+        <v>9922</v>
+      </c>
+      <c r="V66" s="6">
+        <f>+U66</f>
+        <v>9922</v>
+      </c>
+      <c r="W66" s="6">
+        <f>+V66</f>
+        <v>9922</v>
+      </c>
+      <c r="X66" s="6">
+        <f>+W66</f>
+        <v>9922</v>
+      </c>
+      <c r="Y66" s="6">
+        <f>+X66</f>
+        <v>9922</v>
+      </c>
+      <c r="Z66" s="6">
+        <f>+Y66</f>
+        <v>9922</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="N67" s="6">
+        <v>6414</v>
+      </c>
+      <c r="O67" s="6">
+        <v>6575</v>
+      </c>
+      <c r="P67" s="6">
+        <v>6552</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>6859</v>
+      </c>
+      <c r="R67" s="6">
+        <v>7227</v>
+      </c>
+      <c r="S67" s="6">
+        <v>7010</v>
+      </c>
+      <c r="T67" s="6">
+        <v>7003</v>
+      </c>
+      <c r="U67" s="6">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N68" s="6">
         <v>50018</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O68" s="6">
         <v>51160</v>
       </c>
-      <c r="P64" s="6">
+      <c r="P68" s="6">
         <v>52845</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="Q68" s="6">
         <v>54334</v>
       </c>
-      <c r="R64" s="6">
+      <c r="R68" s="6">
         <v>55811</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S68" s="6">
         <v>57512</v>
       </c>
-      <c r="T64" s="6">
+      <c r="T68" s="6">
         <v>59929</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="U68" s="6">
+        <v>62092</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N69" s="6">
         <v>927</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O69" s="6">
         <v>154</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P69" s="6">
         <v>285</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="Q69" s="6">
         <v>-207</v>
       </c>
-      <c r="R65" s="6">
+      <c r="R69" s="6">
         <v>-693</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S69" s="6">
         <v>-1996</v>
       </c>
-      <c r="T65" s="6">
+      <c r="T69" s="6">
         <v>-3411</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="U69" s="6">
+        <v>-5054</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>62</v>
       </c>
-      <c r="N66" s="6">
+      <c r="N70" s="6">
         <v>77345</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O70" s="6">
         <v>82343</v>
       </c>
-      <c r="P66" s="6">
+      <c r="P70" s="6">
         <v>85097</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="Q70" s="6">
         <v>79233</v>
       </c>
-      <c r="R66" s="6">
+      <c r="R70" s="6">
         <v>69761</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S70" s="6">
         <v>67712</v>
       </c>
-      <c r="T66" s="6">
+      <c r="T70" s="6">
         <v>69249</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="U70" s="6">
+        <v>67056</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>61</v>
       </c>
-      <c r="N67" s="6">
-        <f t="shared" ref="N67:O67" si="154">SUM(N58:N66)</f>
+      <c r="N71" s="6">
+        <f t="shared" ref="N71:O71" si="166">SUM(N61:N70)</f>
         <v>159316</v>
       </c>
-      <c r="O67" s="6">
-        <f t="shared" si="154"/>
+      <c r="O71" s="6">
+        <f t="shared" si="166"/>
         <v>163523</v>
       </c>
-      <c r="P67" s="6">
-        <f t="shared" ref="P67:Q67" si="155">SUM(P58:P66)</f>
+      <c r="P71" s="6">
+        <f t="shared" ref="P71:Q71" si="167">SUM(P61:P70)</f>
         <v>170609</v>
       </c>
-      <c r="Q67" s="6">
-        <f t="shared" si="155"/>
+      <c r="Q71" s="6">
+        <f t="shared" si="167"/>
         <v>169585</v>
       </c>
-      <c r="R67" s="6">
-        <f t="shared" ref="R67:T67" si="156">SUM(R58:R66)</f>
+      <c r="R71" s="6">
+        <f t="shared" ref="R71:U71" si="168">SUM(R61:R70)</f>
         <v>165987</v>
       </c>
-      <c r="S67" s="6">
-        <f t="shared" si="156"/>
+      <c r="S71" s="6">
+        <f t="shared" si="168"/>
         <v>164218</v>
       </c>
-      <c r="T67" s="6">
-        <f t="shared" si="156"/>
+      <c r="T71" s="6">
+        <f t="shared" si="168"/>
         <v>169779</v>
       </c>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S68" s="6"/>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="U71" s="6">
+        <f t="shared" si="168"/>
+        <v>178894</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="S72" s="6"/>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>66</v>
       </c>
-      <c r="O69" s="6">
-        <f t="shared" ref="O69:P69" si="157">O36</f>
+      <c r="O73" s="6">
+        <f>O36</f>
         <v>9497</v>
       </c>
-      <c r="P69" s="6">
-        <f t="shared" si="157"/>
+      <c r="P73" s="6">
+        <f>P36</f>
         <v>10394</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="Q73" s="6">
         <f>Q36</f>
         <v>9194</v>
       </c>
-      <c r="R69" s="6">
-        <f t="shared" ref="R69" si="158">R36</f>
+      <c r="R73" s="6">
+        <f>R36</f>
         <v>10285</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S73" s="6">
         <f>S36</f>
         <v>7465</v>
       </c>
-      <c r="T69" s="6">
+      <c r="T73" s="6">
         <f>T36</f>
         <v>6687</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="U73" s="6">
+        <f>U36</f>
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>67</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O74" s="6">
         <v>9497</v>
       </c>
-      <c r="P70" s="6">
-        <f>19892-O70</f>
+      <c r="P74" s="6">
+        <f>19892-O74</f>
         <v>10395</v>
       </c>
-      <c r="Q70" s="6">
-        <f>29085-P70-O70</f>
+      <c r="Q74" s="6">
+        <f>29085-P74-O74</f>
         <v>9193</v>
       </c>
-      <c r="R70" s="6">
+      <c r="R74" s="6">
         <v>10285</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S74" s="6">
         <v>7465</v>
       </c>
-      <c r="T70" s="6">
+      <c r="T74" s="6">
         <v>6687</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+      <c r="U74" s="6">
+        <f>18547-T74-S74</f>
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>69</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O75" s="6">
         <v>1972</v>
       </c>
-      <c r="P71" s="6">
-        <f>3958-O71</f>
+      <c r="P75" s="6">
+        <f>3958-O75</f>
         <v>1986</v>
       </c>
-      <c r="Q71" s="6">
-        <f>5953-P71-O71</f>
+      <c r="Q75" s="6">
+        <f>5953-P75-O75</f>
         <v>1995</v>
       </c>
-      <c r="R71" s="6">
+      <c r="R75" s="6">
         <v>2014</v>
       </c>
-      <c r="S71" s="6">
+      <c r="S75" s="6">
         <v>2156</v>
       </c>
-      <c r="T71" s="6">
+      <c r="T75" s="6">
         <v>1979</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+      <c r="U75" s="6">
+        <f>6310-T75-S75</f>
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>70</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O76" s="6">
         <v>1830</v>
       </c>
-      <c r="P72" s="6">
-        <f>4379-O72</f>
+      <c r="P76" s="6">
+        <f>4379-O76</f>
         <v>2549</v>
       </c>
-      <c r="Q72" s="6">
-        <f>6757-P72-O72</f>
+      <c r="Q76" s="6">
+        <f>6757-P76-O76</f>
         <v>2378</v>
       </c>
-      <c r="R72" s="6">
+      <c r="R76" s="6">
         <v>2406</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S76" s="6">
         <v>2498</v>
       </c>
-      <c r="T72" s="6">
+      <c r="T76" s="6">
         <v>3351</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+      <c r="U76" s="6">
+        <f>8984-T76-S76</f>
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>71</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O77" s="6">
         <v>418</v>
       </c>
-      <c r="P73" s="6">
-        <f>647-O73</f>
+      <c r="P77" s="6">
+        <f>647-O77</f>
         <v>229</v>
       </c>
-      <c r="Q73" s="6">
-        <f>-139-P73-O73</f>
+      <c r="Q77" s="6">
+        <f>-139-P77-O77</f>
         <v>-786</v>
       </c>
-      <c r="R73" s="6">
+      <c r="R77" s="6">
         <v>748</v>
       </c>
-      <c r="S73" s="6">
+      <c r="S77" s="6">
         <v>-563</v>
       </c>
-      <c r="T73" s="6">
+      <c r="T77" s="6">
         <v>-453</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="U77" s="6">
+        <f>-2113-T77-S77</f>
+        <v>-1097</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>55</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O78" s="6">
         <v>-66</v>
       </c>
-      <c r="P74" s="6">
-        <f>-88-O74</f>
+      <c r="P78" s="6">
+        <f>-88-O78</f>
         <v>-22</v>
       </c>
-      <c r="Q74" s="6">
-        <f>-161-P74-O74</f>
+      <c r="Q78" s="6">
+        <f>-161-P78-O78</f>
         <v>-73</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R78" s="6">
         <v>34</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S78" s="6">
         <v>-221</v>
       </c>
-      <c r="T74" s="6">
+      <c r="T78" s="6">
         <v>189</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="U78" s="6">
+        <f>413-T78-S78+71</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>72</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O79" s="6">
         <f>849-461-10-250-72-1681+6+210</f>
         <v>-1409</v>
       </c>
-      <c r="P75" s="6">
-        <f>-517-2313-195-134-133-200+9+184-O75</f>
+      <c r="P79" s="6">
+        <f>-517-2313-195-134-133-200+9+184-O79</f>
         <v>-1890</v>
       </c>
-      <c r="Q75" s="6">
-        <f>-1072-2566-184+560-163+895+87+527-P75-O75</f>
+      <c r="Q79" s="6">
+        <f>-1072-2566-184+560-163+895+87+527-P79-O79</f>
         <v>1383</v>
       </c>
-      <c r="R75" s="6">
+      <c r="R79" s="6">
         <f>-2038+817-165+876+151+2462+100+414</f>
         <v>2617</v>
       </c>
-      <c r="S75" s="6">
+      <c r="S79" s="6">
         <f>2557+573-108-882-105+763-52-5</f>
         <v>2741</v>
       </c>
-      <c r="T75" s="6">
+      <c r="T79" s="6">
         <f>-522-435-25+237+73+1180+24-88</f>
         <v>444</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="U79" s="6">
+        <f>1930-693-160-666-12+2942-35+446-T79-S79</f>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>68</v>
       </c>
-      <c r="O76" s="6">
-        <f t="shared" ref="O76:T76" si="159">SUM(O70:O75)</f>
+      <c r="O80" s="6">
+        <f t="shared" ref="O80:U80" si="169">SUM(O74:O79)</f>
         <v>12242</v>
       </c>
-      <c r="P76" s="6">
-        <f t="shared" si="159"/>
+      <c r="P80" s="6">
+        <f t="shared" si="169"/>
         <v>13247</v>
       </c>
-      <c r="Q76" s="6">
-        <f t="shared" si="159"/>
+      <c r="Q80" s="6">
+        <f t="shared" si="169"/>
         <v>14090</v>
       </c>
-      <c r="R76" s="6">
-        <f t="shared" si="159"/>
+      <c r="R80" s="6">
+        <f t="shared" si="169"/>
         <v>18104</v>
       </c>
-      <c r="S76" s="6">
-        <f t="shared" si="159"/>
+      <c r="S80" s="6">
+        <f t="shared" si="169"/>
         <v>14076</v>
       </c>
-      <c r="T76" s="6">
-        <f t="shared" si="159"/>
+      <c r="T80" s="6">
+        <f t="shared" si="169"/>
         <v>12197</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="3" t="s">
+      <c r="U80" s="6">
+        <f t="shared" si="169"/>
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6">
-        <v>-4272</v>
-      </c>
-      <c r="P78" s="6">
-        <f>-8884-O78</f>
-        <v>-4612</v>
-      </c>
-      <c r="Q78" s="6">
-        <f>-13198-P78-O78</f>
-        <v>-4314</v>
-      </c>
-      <c r="R78" s="6">
-        <v>-5370</v>
-      </c>
-      <c r="S78" s="6">
-        <f>-5441+126</f>
-        <v>-5315</v>
-      </c>
-      <c r="T78" s="6">
-        <f>-7572+44</f>
-        <v>-7528</v>
-      </c>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-    </row>
-    <row r="79" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6">
-        <f>-6231+1650+3981-2</f>
-        <v>-602</v>
-      </c>
-      <c r="P79" s="6">
-        <f>-16528+6337+6327-O79-62</f>
-        <v>-3324</v>
-      </c>
-      <c r="Q79" s="6">
-        <f>-24314+15331+9318-46-160-P79-O79</f>
-        <v>4055</v>
-      </c>
-      <c r="R79" s="6">
-        <f>-6093+16340+1598-2-123</f>
-        <v>11720</v>
-      </c>
-      <c r="S79" s="6">
-        <f>-4068+5065+402-10</f>
-        <v>1389</v>
-      </c>
-      <c r="T79" s="6">
-        <f>-2220+2648+511-7</f>
-        <v>932</v>
-      </c>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-    </row>
-    <row r="80" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6">
-        <v>0</v>
-      </c>
-      <c r="P80" s="6">
-        <f>-259-O80</f>
-        <v>-259</v>
-      </c>
-      <c r="Q80" s="6">
-        <f>-330-P80-O80</f>
-        <v>-71</v>
-      </c>
-      <c r="R80" s="6">
-        <v>-521</v>
-      </c>
-      <c r="S80" s="6">
-        <v>-853</v>
-      </c>
-      <c r="T80" s="6">
-        <v>-363</v>
-      </c>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-    </row>
-    <row r="81" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6">
-        <f t="shared" ref="O81:T81" si="160">SUM(O78:O80)</f>
-        <v>-4874</v>
-      </c>
-      <c r="P81" s="6">
-        <f t="shared" si="160"/>
-        <v>-8195</v>
-      </c>
-      <c r="Q81" s="6">
-        <f t="shared" si="160"/>
-        <v>-330</v>
-      </c>
-      <c r="R81" s="6">
-        <f t="shared" si="160"/>
-        <v>5829</v>
-      </c>
-      <c r="S81" s="6">
-        <f t="shared" si="160"/>
-        <v>-4779</v>
-      </c>
-      <c r="T81" s="6">
-        <f t="shared" si="160"/>
-        <v>-6959</v>
-      </c>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-    </row>
-    <row r="82" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -6538,13 +7063,32 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
+      <c r="O82" s="6">
+        <v>-4272</v>
+      </c>
+      <c r="P82" s="6">
+        <f>-8884-O82</f>
+        <v>-4612</v>
+      </c>
+      <c r="Q82" s="6">
+        <f>-13198-P82-O82</f>
+        <v>-4314</v>
+      </c>
+      <c r="R82" s="6">
+        <v>-5370</v>
+      </c>
+      <c r="S82" s="6">
+        <f>-5441+126</f>
+        <v>-5315</v>
+      </c>
+      <c r="T82" s="6">
+        <f>-7572+44</f>
+        <v>-7528</v>
+      </c>
+      <c r="U82" s="6">
+        <f>-22388-T82-S82+190</f>
+        <v>-9355</v>
+      </c>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -6552,7 +7096,7 @@
     </row>
     <row r="83" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -6567,76 +7111,86 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6">
-        <v>-1077</v>
+        <f>-6231+1650+3981-2</f>
+        <v>-602</v>
       </c>
       <c r="P83" s="6">
-        <f>-2432-O83</f>
-        <v>-1355</v>
+        <f>-16528+6337+6327-O83-62</f>
+        <v>-3324</v>
       </c>
       <c r="Q83" s="6">
-        <f>-4007-P83-O83</f>
-        <v>-1575</v>
+        <f>-24314+15331+9318-46-160-P83-O83</f>
+        <v>4055</v>
       </c>
       <c r="R83" s="6">
-        <v>-1507</v>
+        <f>-6093+16340+1598-2-123</f>
+        <v>11720</v>
       </c>
       <c r="S83" s="6">
-        <v>-925</v>
+        <f>-4068+5065+402-10</f>
+        <v>1389</v>
       </c>
       <c r="T83" s="6">
-        <v>-1002</v>
-      </c>
-      <c r="U83" s="6"/>
+        <f>-2220+2648+511-7</f>
+        <v>932</v>
+      </c>
+      <c r="U83" s="6">
+        <f>-8885+9333+1562-T83-S83</f>
+        <v>-311</v>
+      </c>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8">
-        <v>-3939</v>
-      </c>
-      <c r="P84" s="8">
-        <f>-11018-O84</f>
-        <v>-7079</v>
-      </c>
-      <c r="Q84" s="8">
-        <f>-24476-P84-O84</f>
-        <v>-13458</v>
-      </c>
-      <c r="R84" s="8">
-        <v>-20063</v>
-      </c>
-      <c r="S84" s="8">
-        <v>-9506</v>
-      </c>
-      <c r="T84" s="8">
-        <v>-5233</v>
-      </c>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
+    <row r="84" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <f>-259-O84</f>
+        <v>-259</v>
+      </c>
+      <c r="Q84" s="6">
+        <f>-330-P84-O84</f>
+        <v>-71</v>
+      </c>
+      <c r="R84" s="6">
+        <v>-521</v>
+      </c>
+      <c r="S84" s="6">
+        <v>-853</v>
+      </c>
+      <c r="T84" s="6">
+        <v>-363</v>
+      </c>
+      <c r="U84" s="6">
+        <f>-1250-1-T84-S84</f>
+        <v>-35</v>
+      </c>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -6651,38 +7205,39 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6">
-        <f>-151+32-50</f>
-        <v>-169</v>
+        <f t="shared" ref="O85:U85" si="170">SUM(O82:O84)</f>
+        <v>-4874</v>
       </c>
       <c r="P85" s="6">
-        <f>-274-O85+3-13</f>
-        <v>-115</v>
+        <f t="shared" si="170"/>
+        <v>-8195</v>
       </c>
       <c r="Q85" s="6">
-        <f>-505+15-13-P85-O85</f>
-        <v>-219</v>
+        <f t="shared" si="170"/>
+        <v>-330</v>
       </c>
       <c r="R85" s="6">
-        <v>-172</v>
+        <f t="shared" si="170"/>
+        <v>5829</v>
       </c>
       <c r="S85" s="6">
-        <f>-233+20-16</f>
-        <v>-229</v>
+        <f t="shared" si="170"/>
+        <v>-4779</v>
       </c>
       <c r="T85" s="6">
-        <f>-219-79-30</f>
-        <v>-328</v>
-      </c>
-      <c r="U85" s="6"/>
+        <f t="shared" si="170"/>
+        <v>-6959</v>
+      </c>
+      <c r="U85" s="6">
+        <f t="shared" si="170"/>
+        <v>-9701</v>
+      </c>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
     </row>
     <row r="86" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -6695,96 +7250,146 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="6">
-        <f t="shared" ref="O86:Q86" si="161">SUM(O83:O85)</f>
-        <v>-5185</v>
-      </c>
-      <c r="P86" s="6">
-        <f t="shared" si="161"/>
-        <v>-8549</v>
-      </c>
-      <c r="Q86" s="6">
-        <f t="shared" si="161"/>
-        <v>-15252</v>
-      </c>
-      <c r="R86" s="6">
-        <f t="shared" ref="R86" si="162">SUM(R83:R85)</f>
-        <v>-21742</v>
-      </c>
-      <c r="S86" s="6">
-        <f>SUM(S83:S85)</f>
-        <v>-10660</v>
-      </c>
-      <c r="T86" s="6">
-        <f>SUM(T83:T85)</f>
-        <v>-6563</v>
-      </c>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>80</v>
-      </c>
-      <c r="O87" s="1">
-        <v>-246</v>
-      </c>
-      <c r="P87" s="1">
-        <f>-129-O87</f>
-        <v>117</v>
-      </c>
-      <c r="Q87" s="1">
-        <f>-344-P87-O87</f>
-        <v>-215</v>
-      </c>
-      <c r="R87" s="1">
-        <v>-130</v>
+    <row r="87" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6">
+        <v>-1077</v>
+      </c>
+      <c r="P87" s="6">
+        <f>-2432-O87</f>
+        <v>-1355</v>
+      </c>
+      <c r="Q87" s="6">
+        <f>-4007-P87-O87</f>
+        <v>-1575</v>
+      </c>
+      <c r="R87" s="6">
+        <v>-1507</v>
       </c>
       <c r="S87" s="6">
-        <v>-149</v>
-      </c>
-      <c r="T87" s="1">
-        <v>-550</v>
-      </c>
-    </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-      <c r="O88" s="6">
-        <f t="shared" ref="O88:T88" si="163">+O87+O86+O81+O76</f>
-        <v>1937</v>
-      </c>
-      <c r="P88" s="6">
-        <f t="shared" si="163"/>
-        <v>-3380</v>
-      </c>
-      <c r="Q88" s="6">
-        <f t="shared" si="163"/>
-        <v>-1707</v>
-      </c>
-      <c r="R88" s="6">
-        <f t="shared" si="163"/>
-        <v>2061</v>
-      </c>
-      <c r="S88" s="6">
-        <f t="shared" si="163"/>
-        <v>-1512</v>
-      </c>
-      <c r="T88" s="6">
-        <f t="shared" si="163"/>
-        <v>-1875</v>
-      </c>
-    </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S89" s="6"/>
+        <v>-925</v>
+      </c>
+      <c r="T87" s="6">
+        <v>-1002</v>
+      </c>
+      <c r="U87" s="6">
+        <f>-2938-T87-S87</f>
+        <v>-1011</v>
+      </c>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+    </row>
+    <row r="88" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8">
+        <v>-3939</v>
+      </c>
+      <c r="P88" s="8">
+        <f>-11018-O88</f>
+        <v>-7079</v>
+      </c>
+      <c r="Q88" s="8">
+        <f>-24476-P88-O88</f>
+        <v>-13458</v>
+      </c>
+      <c r="R88" s="8">
+        <v>-20063</v>
+      </c>
+      <c r="S88" s="8">
+        <v>-9506</v>
+      </c>
+      <c r="T88" s="8">
+        <v>-5233</v>
+      </c>
+      <c r="U88" s="8">
+        <f>-21093-T88-S88</f>
+        <v>-6354</v>
+      </c>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+    </row>
+    <row r="89" spans="2:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22">
+        <v>0</v>
+      </c>
+      <c r="T89" s="22">
+        <v>0</v>
+      </c>
+      <c r="U89" s="22">
+        <f>9921-T89-S89</f>
+        <v>9921</v>
+      </c>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
     </row>
     <row r="90" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -6792,103 +7397,353 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="6">
-        <v>43030</v>
-      </c>
-      <c r="J90" s="6">
-        <v>44942</v>
-      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
+      <c r="O90" s="6">
+        <f>-151+32-50</f>
+        <v>-169</v>
+      </c>
+      <c r="P90" s="6">
+        <f>-274-O90+3-13</f>
+        <v>-115</v>
+      </c>
+      <c r="Q90" s="6">
+        <f>-505+15-13-P90-O90</f>
+        <v>-219</v>
+      </c>
       <c r="R90" s="6">
-        <v>71970</v>
+        <v>-172</v>
       </c>
       <c r="S90" s="6">
-        <v>77805</v>
+        <f>-233+20-16</f>
+        <v>-229</v>
       </c>
       <c r="T90" s="6">
-        <v>83553</v>
-      </c>
-      <c r="U90" s="6"/>
+        <f>-219-79-30</f>
+        <v>-328</v>
+      </c>
+      <c r="U90" s="6">
+        <f>-615-250-101-T90-S90</f>
+        <v>-409</v>
+      </c>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6">
+        <f t="shared" ref="O91:Q91" si="171">SUM(O87:O90)</f>
+        <v>-5185</v>
+      </c>
+      <c r="P91" s="6">
+        <f t="shared" si="171"/>
+        <v>-8549</v>
+      </c>
+      <c r="Q91" s="6">
+        <f t="shared" si="171"/>
+        <v>-15252</v>
+      </c>
+      <c r="R91" s="6">
+        <f t="shared" ref="R91" si="172">SUM(R87:R90)</f>
+        <v>-21742</v>
+      </c>
       <c r="S91" s="6">
-        <f>+S90-R90</f>
-        <v>5835</v>
+        <f>SUM(S87:S90)</f>
+        <v>-10660</v>
       </c>
       <c r="T91" s="6">
-        <f>+T90-S90</f>
-        <v>5748</v>
-      </c>
+        <f>SUM(T87:T90)</f>
+        <v>-6563</v>
+      </c>
+      <c r="U91" s="6">
+        <f>SUM(U87:U90)</f>
+        <v>2147</v>
+      </c>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
     </row>
     <row r="92" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="O92" s="1">
+        <v>-246</v>
+      </c>
+      <c r="P92" s="1">
+        <f>-129-O92</f>
+        <v>117</v>
+      </c>
+      <c r="Q92" s="1">
+        <f>-344-P92-O92</f>
+        <v>-215</v>
+      </c>
+      <c r="R92" s="1">
+        <v>-130</v>
+      </c>
+      <c r="S92" s="6">
+        <v>-149</v>
+      </c>
+      <c r="T92" s="1">
+        <v>-550</v>
+      </c>
+      <c r="U92" s="6">
+        <f>-1063-T92-S92</f>
+        <v>-364</v>
+      </c>
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="O93" s="6">
-        <f>+O76+O78</f>
-        <v>7970</v>
+        <f t="shared" ref="O93:U93" si="173">+O92+O91+O85+O80</f>
+        <v>1937</v>
       </c>
       <c r="P93" s="6">
-        <f t="shared" ref="P93:S93" si="164">+P76+P78</f>
-        <v>8635</v>
+        <f t="shared" si="173"/>
+        <v>-3380</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="164"/>
-        <v>9776</v>
+        <f t="shared" si="173"/>
+        <v>-1707</v>
       </c>
       <c r="R93" s="6">
-        <f t="shared" si="164"/>
-        <v>12734</v>
+        <f t="shared" si="173"/>
+        <v>2061</v>
       </c>
       <c r="S93" s="6">
-        <f t="shared" si="164"/>
-        <v>8761</v>
+        <f t="shared" si="173"/>
+        <v>-1512</v>
       </c>
       <c r="T93" s="6">
-        <f>+T76+T78</f>
-        <v>4669</v>
+        <f t="shared" si="173"/>
+        <v>-1875</v>
+      </c>
+      <c r="U93" s="6">
+        <f t="shared" si="173"/>
+        <v>1773</v>
       </c>
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>128</v>
-      </c>
-      <c r="R94" s="6">
-        <f t="shared" ref="R94:S94" si="165">SUM(O93:R93)</f>
-        <v>39115</v>
-      </c>
-      <c r="S94" s="6">
-        <f t="shared" si="165"/>
-        <v>39906</v>
-      </c>
-      <c r="T94" s="6">
-        <f>SUM(Q93:T93)</f>
-        <v>35940</v>
-      </c>
+      <c r="S94" s="6"/>
+    </row>
+    <row r="95" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6">
+        <v>43030</v>
+      </c>
+      <c r="J95" s="6">
+        <v>44942</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6">
+        <v>71970</v>
+      </c>
+      <c r="S95" s="6">
+        <v>77805</v>
+      </c>
+      <c r="T95" s="6">
+        <v>83553</v>
+      </c>
+      <c r="U95" s="6">
+        <v>87314</v>
+      </c>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
+        <v>200</v>
+      </c>
+      <c r="S96" s="6">
+        <f>+S95-R95</f>
+        <v>5835</v>
+      </c>
+      <c r="T96" s="6">
+        <f>+T95-S95</f>
+        <v>5748</v>
+      </c>
+      <c r="U96" s="6">
+        <f>+U95-T95</f>
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="O98" s="6">
+        <f>+O80+O82</f>
+        <v>7970</v>
+      </c>
+      <c r="P98" s="6">
+        <f t="shared" ref="P98:S98" si="174">+P80+P82</f>
+        <v>8635</v>
+      </c>
+      <c r="Q98" s="6">
+        <f t="shared" si="174"/>
+        <v>9776</v>
+      </c>
+      <c r="R98" s="6">
+        <f t="shared" si="174"/>
+        <v>12734</v>
+      </c>
+      <c r="S98" s="6">
+        <f t="shared" si="174"/>
+        <v>8761</v>
+      </c>
+      <c r="T98" s="6">
+        <f>+T80+T82</f>
+        <v>4669</v>
+      </c>
+      <c r="U98" s="6">
+        <f>+U80+U82</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+      <c r="R99" s="6">
+        <f t="shared" ref="R99:S99" si="175">SUM(O98:R98)</f>
+        <v>39115</v>
+      </c>
+      <c r="S99" s="6">
+        <f t="shared" si="175"/>
+        <v>39906</v>
+      </c>
+      <c r="T99" s="6">
+        <f>SUM(Q98:T98)</f>
+        <v>35940</v>
+      </c>
+      <c r="U99" s="6">
+        <f>SUM(R98:U98)</f>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6">
         <v>-2631</v>
       </c>
-      <c r="U96" s="1">
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6">
         <v>-3672</v>
+      </c>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10">
+        <f>SUM(Q23:R23)/SUM(M23:N23)-1</f>
+        <v>1.0013947001394699</v>
+      </c>
+      <c r="S102" s="10">
+        <f>SUM(R23:S23)/SUM(N23:O23)-1</f>
+        <v>0.25659472422062346</v>
+      </c>
+      <c r="T102" s="10">
+        <f>SUM(S23:T23)/SUM(O23:P23)-1</f>
+        <v>0.36710369487485095</v>
+      </c>
+      <c r="U102" s="10">
+        <f>SUM(T23:U23)/SUM(P23:Q23)-1</f>
+        <v>-0.14600231749710313</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>13054</v>
+      </c>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="U105" s="10">
+        <f>+U104/U25</f>
+        <v>0.33686945226239445</v>
+      </c>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8134841-7276-438A-B223-61B9C1B99B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8882BF-9293-41A9-9B6D-D31BD25DAF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26430" yWindow="2460" windowWidth="24870" windowHeight="17595" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="330" yWindow="1650" windowWidth="48345" windowHeight="18735" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <author>tc={8C543166-7E6A-448B-B7E3-720F51E35135}</author>
     <author>tc={37B1D132-4F99-4BFA-B9DE-FA9D39796D75}</author>
     <author>tc={9BAC047B-9C13-4083-9E91-56CC4B86282A}</author>
+    <author>tc={48BE0944-3BDD-4973-B1C2-88AA905BEB25}</author>
   </authors>
   <commentList>
     <comment ref="T24" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
@@ -95,6 +96,14 @@
     Q322: 30.0-32.5B</t>
       </text>
     </comment>
+    <comment ref="W25" authorId="6" shapeId="0" xr:uid="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    26.0-28.5B given Q422</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -721,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -757,6 +766,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -779,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -821,10 +836,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -847,16 +858,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36909</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>32263</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120253</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36909</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>32263</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>120254</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -871,8 +882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13175456" y="120253"/>
-          <a:ext cx="0" cy="18484454"/>
+          <a:off x="13808665" y="0"/>
+          <a:ext cx="0" cy="19514635"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1243,7 +1254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,6 +1280,9 @@
   <threadedComment ref="V25" dT="2022-10-27T13:48:29.91" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
     <text>Q322: 30.0-32.5B</text>
   </threadedComment>
+  <threadedComment ref="W25" dT="2023-02-01T21:20:58.90" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
+    <text>26.0-28.5B given Q422</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1457,10 +1471,10 @@
   <dimension ref="A1:CW107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD40" sqref="AD40"/>
+      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1679,9 @@
       <c r="U3" s="6">
         <v>2930</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="6">
+        <v>2960</v>
+      </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
@@ -1717,7 +1733,9 @@
       <c r="U4" s="6">
         <v>3710</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="V4" s="6">
+        <v>3740</v>
+      </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
@@ -1775,7 +1793,9 @@
       <c r="U5" s="6">
         <v>1984</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="6">
+        <v>2000</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
@@ -1883,7 +1903,9 @@
       <c r="U7" s="6">
         <v>2958</v>
       </c>
-      <c r="V7" s="6"/>
+      <c r="V7" s="6">
+        <v>2960</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -2019,7 +2041,10 @@
         <f>+U25/U4</f>
         <v>7.4700808625336927</v>
       </c>
-      <c r="V10" s="6"/>
+      <c r="V10" s="9">
+        <f>+V25/V4</f>
+        <v>8.6002673796791438</v>
+      </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -2077,7 +2102,10 @@
         <f>AVERAGE(T10:U10)</f>
         <v>7.6832596093490384</v>
       </c>
-      <c r="V11" s="6"/>
+      <c r="V11" s="9">
+        <f>AVERAGE(U10:V10)</f>
+        <v>8.0351741211064187</v>
+      </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -2123,7 +2151,10 @@
         <f>U11/Q11-1</f>
         <v>-6.2296549418736191E-2</v>
       </c>
-      <c r="V12" s="14"/>
+      <c r="V12" s="16">
+        <f>V11/R11-1</f>
+        <v>-8.0773089170694701E-2</v>
+      </c>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
@@ -2184,7 +2215,10 @@
         <f>+U24/U4</f>
         <v>7.3415094339622637</v>
       </c>
-      <c r="V13" s="6"/>
+      <c r="V13" s="9">
+        <f>+V24/V4</f>
+        <v>8.3566844919786103</v>
+      </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -2245,7 +2279,10 @@
         <f t="shared" si="6"/>
         <v>9.2959044368600683</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="9">
+        <f>+V24/V3</f>
+        <v>10.558783783783785</v>
+      </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -2303,7 +2340,10 @@
         <f t="shared" si="8"/>
         <v>9.5354522184300343</v>
       </c>
-      <c r="V15" s="6"/>
+      <c r="V15" s="9">
+        <f>AVERAGE(U14:V14)</f>
+        <v>9.9273441103219255</v>
+      </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
@@ -2349,7 +2389,10 @@
         <f>U15/Q15-1</f>
         <v>-6.5962429100717701E-2</v>
       </c>
-      <c r="V16" s="14"/>
+      <c r="V16" s="16">
+        <f>V15/R15-1</f>
+        <v>-8.2362598799723963E-2</v>
+      </c>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
@@ -2637,8 +2680,7 @@
         <v>192</v>
       </c>
       <c r="V22" s="6">
-        <f>+U22</f>
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2696,8 +2738,7 @@
         <v>285</v>
       </c>
       <c r="V23" s="6">
-        <f>+R23+100</f>
-        <v>977</v>
+        <v>727</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2785,8 +2826,7 @@
         <v>27237</v>
       </c>
       <c r="V24" s="6">
-        <f>+R24*0.98</f>
-        <v>31986.22</v>
+        <v>31254</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" ref="W24:Z24" si="11">+S24*0.98</f>
@@ -2802,7 +2842,7 @@
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="11"/>
-        <v>31346.495600000002</v>
+        <v>30628.92</v>
       </c>
       <c r="AB24" s="3">
         <v>7872</v>
@@ -2907,8 +2947,7 @@
         <v>27714</v>
       </c>
       <c r="V25" s="8">
-        <f>SUM(V22:V24)</f>
-        <v>33155.22</v>
+        <v>32165</v>
       </c>
       <c r="W25" s="8">
         <f>SUM(W22:W24)</f>
@@ -2924,7 +2963,7 @@
       </c>
       <c r="Z25" s="8">
         <f t="shared" si="14"/>
-        <v>31346.495600000002</v>
+        <v>30628.92</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" ref="AB25:AG25" si="15">SUM(AB22:AB24)</f>
@@ -2964,39 +3003,39 @@
       </c>
       <c r="AK25" s="7">
         <f>SUM(S25:V25)</f>
-        <v>117599.22</v>
+        <v>116609</v>
       </c>
       <c r="AL25" s="7">
         <f>+AK25*0.95</f>
-        <v>111719.25899999999</v>
+        <v>110778.54999999999</v>
       </c>
       <c r="AM25" s="7">
         <f>+AL25*0.95</f>
-        <v>106133.29604999999</v>
+        <v>105239.62249999998</v>
       </c>
       <c r="AN25" s="7">
         <f>+AM25*1.1</f>
-        <v>116746.625655</v>
+        <v>115763.58474999999</v>
       </c>
       <c r="AO25" s="7">
         <f>+AN25*1.05</f>
-        <v>122583.95693775</v>
+        <v>121551.7639875</v>
       </c>
       <c r="AP25" s="7">
         <f t="shared" ref="AP25:AS25" si="17">+AO25*1.03</f>
-        <v>126261.4756458825</v>
+        <v>125198.316907125</v>
       </c>
       <c r="AQ25" s="7">
         <f t="shared" si="17"/>
-        <v>130049.31991525898</v>
+        <v>128954.26641433875</v>
       </c>
       <c r="AR25" s="7">
         <f t="shared" si="17"/>
-        <v>133950.79951271677</v>
+        <v>132822.89440676893</v>
       </c>
       <c r="AS25" s="7">
         <f t="shared" si="17"/>
-        <v>137969.32349809827</v>
+        <v>136807.58123897199</v>
       </c>
     </row>
     <row r="26" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3061,24 +3100,23 @@
         <v>5716</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ref="V26" si="18">+V25-V27</f>
-        <v>6962.5962</v>
+        <v>8336</v>
       </c>
       <c r="W26" s="6">
         <f>+W25-W27</f>
         <v>5556.1883999999991</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" ref="X26:Z26" si="19">+X25-X27</f>
+        <f t="shared" ref="X26:Z26" si="18">+X25-X27</f>
         <v>5793.6815999999999</v>
       </c>
       <c r="Y26" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5605.3745999999992</v>
       </c>
       <c r="Z26" s="6">
-        <f t="shared" si="19"/>
-        <v>6582.7640759999995</v>
+        <f t="shared" si="18"/>
+        <v>6432.0731999999989</v>
       </c>
       <c r="AG26" s="3">
         <v>9355</v>
@@ -3094,39 +3132,39 @@
       </c>
       <c r="AK26" s="3">
         <f>+AK25-AK27</f>
-        <v>22343.851799999989</v>
+        <v>22155.709999999992</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" ref="AL26:AS26" si="20">+AL25-AL27</f>
-        <v>21226.659209999998</v>
+        <f t="shared" ref="AL26:AS26" si="19">+AL25-AL27</f>
+        <v>21047.924499999994</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" si="20"/>
-        <v>20165.326249499994</v>
+        <f t="shared" si="19"/>
+        <v>19995.52827499999</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="20"/>
-        <v>22181.858874449987</v>
+        <f t="shared" si="19"/>
+        <v>21995.081102499986</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="20"/>
-        <v>23290.9518181725</v>
+        <f t="shared" si="19"/>
+        <v>23094.835157624999</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" si="20"/>
-        <v>23989.680372717674</v>
+        <f t="shared" si="19"/>
+        <v>23787.680212353749</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="20"/>
-        <v>24709.370783899198</v>
+        <f t="shared" si="19"/>
+        <v>24501.310618724354</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="20"/>
-        <v>25450.651907416177</v>
+        <f t="shared" si="19"/>
+        <v>25236.349937286082</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="20"/>
-        <v>26214.171464638668</v>
+        <f t="shared" si="19"/>
+        <v>25993.440435404671</v>
       </c>
     </row>
     <row r="27" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3134,51 +3172,51 @@
         <v>37</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:D27" si="21">+C25-C26</f>
+        <f t="shared" ref="C27:D27" si="20">+C25-C26</f>
         <v>10039</v>
       </c>
       <c r="D27" s="6">
+        <f t="shared" si="20"/>
+        <v>11017</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" ref="E27:G27" si="21">+E25-E26</f>
+        <v>11309</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="21"/>
-        <v>11017</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" ref="E27:G27" si="22">+E25-E26</f>
-        <v>11309</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="22"/>
         <v>14118</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>12261</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27" si="23">+H25-H26</f>
+        <f t="shared" ref="H27" si="22">+H25-H26</f>
         <v>13579</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:J27" si="24">+I25-I26</f>
+        <f t="shared" ref="I27:J27" si="23">+I25-I26</f>
         <v>14497</v>
       </c>
       <c r="J27" s="6">
+        <f t="shared" si="23"/>
+        <v>17590</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" ref="K27:N27" si="24">+K25-K26</f>
+        <v>14278</v>
+      </c>
+      <c r="L27" s="6">
         <f t="shared" si="24"/>
-        <v>17590</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" ref="K27:N27" si="25">+K25-K26</f>
-        <v>14278</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="25"/>
         <v>14858</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>17276</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>22862</v>
       </c>
       <c r="O27" s="6">
@@ -3186,15 +3224,15 @@
         <v>21040</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:R27" si="26">+P25-P26</f>
+        <f t="shared" ref="P27:R27" si="25">+P25-P26</f>
         <v>23678</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>23239</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>27323</v>
       </c>
       <c r="S27" s="6">
@@ -3210,24 +3248,24 @@
         <v>21998</v>
       </c>
       <c r="V27" s="6">
-        <f>+V25*0.79</f>
-        <v>26192.623800000001</v>
+        <f>+V25-V26</f>
+        <v>23829</v>
       </c>
       <c r="W27" s="6">
         <f>+W25*0.79</f>
         <v>20901.851600000002</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" ref="X27:Z27" si="27">+X25*0.79</f>
+        <f t="shared" ref="X27:Z27" si="26">+X25*0.79</f>
         <v>21795.278399999999</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>21086.885399999999</v>
       </c>
       <c r="Z27" s="6">
-        <f t="shared" si="27"/>
-        <v>24763.731524000003</v>
+        <f t="shared" si="26"/>
+        <v>24196.846799999999</v>
       </c>
       <c r="AG27" s="3">
         <f>+AG25-AG26</f>
@@ -3242,44 +3280,44 @@
         <v>69273</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="28">+AJ25-AJ26</f>
+        <f t="shared" ref="AJ27" si="27">+AJ25-AJ26</f>
         <v>95280</v>
       </c>
       <c r="AK27" s="3">
         <f>+AK25*0.81</f>
-        <v>95255.368200000012</v>
+        <v>94453.290000000008</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AS27" si="29">+AL25*0.81</f>
-        <v>90492.599789999993</v>
+        <f t="shared" ref="AL27:AS27" si="28">+AL25*0.81</f>
+        <v>89730.625499999995</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" si="29"/>
-        <v>85967.969800499995</v>
+        <f t="shared" si="28"/>
+        <v>85244.094224999993</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="29"/>
-        <v>94564.76678055001</v>
+        <f t="shared" si="28"/>
+        <v>93768.503647500009</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" si="29"/>
-        <v>99293.005119577501</v>
+        <f t="shared" si="28"/>
+        <v>98456.928829875003</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" si="29"/>
-        <v>102271.79527316483</v>
+        <f t="shared" si="28"/>
+        <v>101410.63669477125</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="29"/>
-        <v>105339.94913135978</v>
+        <f t="shared" si="28"/>
+        <v>104452.9557956144</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="29"/>
-        <v>108500.14760530059</v>
+        <f t="shared" si="28"/>
+        <v>107586.54446948285</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="29"/>
-        <v>111755.1520334596</v>
+        <f t="shared" si="28"/>
+        <v>110814.14080356732</v>
       </c>
     </row>
     <row r="28" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3344,24 +3382,23 @@
         <v>9170</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28" si="30">+U28-50</f>
-        <v>9120</v>
+        <v>9771</v>
       </c>
       <c r="W28" s="6">
         <f>+S28*0.9</f>
         <v>6936.3</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" ref="X28:X30" si="31">+T28*0.9</f>
+        <f t="shared" ref="X28:X30" si="29">+T28*0.9</f>
         <v>7821</v>
       </c>
       <c r="Y28" s="6">
-        <f t="shared" ref="Y28:Y30" si="32">+U28*0.9</f>
+        <f t="shared" ref="Y28:Y30" si="30">+U28*0.9</f>
         <v>8253</v>
       </c>
       <c r="Z28" s="6">
-        <f t="shared" ref="Z28:Z30" si="33">+V28*0.9</f>
-        <v>8208</v>
+        <f t="shared" ref="Z28:Z30" si="31">+V28*0.9</f>
+        <v>8793.9</v>
       </c>
       <c r="AG28" s="3">
         <v>10273</v>
@@ -3376,39 +3413,39 @@
         <v>24655</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" ref="AK28:AP28" si="34">+AJ28*0.9</f>
+        <f t="shared" ref="AK28:AP28" si="32">+AJ28*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>19970.55</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>17973.494999999999</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>16176.145499999999</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>14558.530949999998</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>13102.677854999998</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AQ28:AS28" si="35">+AP28*0.9</f>
+        <f t="shared" ref="AQ28:AS28" si="33">+AP28*0.9</f>
         <v>11792.410069499998</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>10613.169062549998</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -3474,24 +3511,23 @@
         <v>3780</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29" si="36">+R29</f>
-        <v>4387</v>
+        <v>4574</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" ref="W29:W30" si="37">+S29*0.9</f>
+        <f t="shared" ref="W29:W30" si="34">+S29*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="X29" s="6">
+        <f t="shared" si="29"/>
+        <v>3235.5</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" si="30"/>
+        <v>3402</v>
+      </c>
+      <c r="Z29" s="6">
         <f t="shared" si="31"/>
-        <v>3235.5</v>
-      </c>
-      <c r="Y29" s="6">
-        <f t="shared" si="32"/>
-        <v>3402</v>
-      </c>
-      <c r="Z29" s="6">
-        <f t="shared" si="33"/>
-        <v>3948.3</v>
+        <v>4116.6000000000004</v>
       </c>
       <c r="AG29" s="3">
         <v>7846</v>
@@ -3510,35 +3546,35 @@
         <v>14043</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" ref="AL29:AS29" si="38">+AK29</f>
+        <f t="shared" ref="AL29:AS29" si="35">+AK29</f>
         <v>14043</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>14043</v>
       </c>
     </row>
@@ -3606,24 +3642,23 @@
         <v>3384</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" ref="V30" si="39">+R30</f>
-        <v>3305</v>
+        <v>3085</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>2124</v>
       </c>
       <c r="X30" s="6">
+        <f t="shared" si="29"/>
+        <v>2688.3</v>
+      </c>
+      <c r="Y30" s="6">
+        <f t="shared" si="30"/>
+        <v>3045.6</v>
+      </c>
+      <c r="Z30" s="6">
         <f t="shared" si="31"/>
-        <v>2688.3</v>
-      </c>
-      <c r="Y30" s="6">
-        <f t="shared" si="32"/>
-        <v>3045.6</v>
-      </c>
-      <c r="Z30" s="6">
-        <f t="shared" si="33"/>
-        <v>2974.5</v>
+        <v>2776.5</v>
       </c>
       <c r="AG30" s="3">
         <v>3451</v>
@@ -3639,39 +3674,39 @@
         <v>9829</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" ref="AK30:AS30" si="40">+AJ30</f>
+        <f t="shared" ref="AK30:AS30" si="36">+AJ30</f>
         <v>9829</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>9829</v>
       </c>
     </row>
@@ -3680,67 +3715,67 @@
         <v>41</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" ref="C31:D31" si="41">+C30+C29+C28</f>
+        <f t="shared" ref="C31:D31" si="37">+C30+C29+C28</f>
         <v>4590</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>5154</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:G31" si="42">+E30+E29+E28</f>
+        <f t="shared" ref="E31:G31" si="38">+E30+E29+E28</f>
         <v>5528</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>6298</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>5944</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="43">+H30+H29+H28</f>
+        <f t="shared" ref="H31:I31" si="39">+H30+H29+H28</f>
         <v>6953</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>7312</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31:K31" si="44">+J30+J29+J28</f>
+        <f t="shared" ref="J31:K31" si="40">+J30+J29+J28</f>
         <v>8732</v>
       </c>
       <c r="K31" s="6">
+        <f t="shared" si="40"/>
+        <v>8385</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" ref="L31" si="41">+L30+L29+L28</f>
+        <v>8895</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31" si="42">+M30+M29+M28</f>
+        <v>9236</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" ref="N31" si="43">+N30+N29+N28</f>
+        <v>10087</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" ref="O31:R31" si="44">+O30+O29+O28</f>
+        <v>9662</v>
+      </c>
+      <c r="P31" s="6">
         <f t="shared" si="44"/>
-        <v>8385</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" ref="L31" si="45">+L30+L29+L28</f>
-        <v>8895</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" ref="M31" si="46">+M30+M29+M28</f>
-        <v>9236</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" ref="N31" si="47">+N30+N29+N28</f>
-        <v>10087</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" ref="O31:R31" si="48">+O30+O29+O28</f>
-        <v>9662</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="48"/>
         <v>11311</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>12816</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>14738</v>
       </c>
       <c r="S31" s="6">
@@ -3748,32 +3783,32 @@
         <v>13379</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" ref="T31:V31" si="49">+T30+T29+T28</f>
+        <f t="shared" ref="T31:V31" si="45">+T30+T29+T28</f>
         <v>15272</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>16334</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="49"/>
-        <v>16812</v>
+        <f t="shared" si="45"/>
+        <v>17430</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" ref="W31:Z31" si="50">+W30+W29+W28</f>
+        <f t="shared" ref="W31:Z31" si="46">+W30+W29+W28</f>
         <v>12041.1</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>13744.8</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>14700.6</v>
       </c>
       <c r="Z31" s="6">
-        <f t="shared" si="50"/>
-        <v>15130.8</v>
+        <f t="shared" si="46"/>
+        <v>15687</v>
       </c>
       <c r="AG31" s="3">
         <f>SUM(AG28:AG30)</f>
@@ -3788,43 +3823,43 @@
         <v>36602</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="51">SUM(AJ28:AJ30)</f>
+        <f t="shared" ref="AJ31" si="47">SUM(AJ28:AJ30)</f>
         <v>48527</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="52">SUM(AK28:AK30)</f>
+        <f t="shared" ref="AK31" si="48">SUM(AK28:AK30)</f>
         <v>46061.5</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="53">SUM(AL28:AL30)</f>
+        <f t="shared" ref="AL31" si="49">SUM(AL28:AL30)</f>
         <v>43842.55</v>
       </c>
       <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="54">SUM(AM28:AM30)</f>
+        <f t="shared" ref="AM31" si="50">SUM(AM28:AM30)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="55">SUM(AN28:AN30)</f>
+        <f t="shared" ref="AN31" si="51">SUM(AN28:AN30)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="56">SUM(AO28:AO30)</f>
+        <f t="shared" ref="AO31" si="52">SUM(AO28:AO30)</f>
         <v>38430.53095</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" ref="AP31" si="57">SUM(AP28:AP30)</f>
+        <f t="shared" ref="AP31" si="53">SUM(AP28:AP30)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" ref="AQ31" si="58">SUM(AQ28:AQ30)</f>
+        <f t="shared" ref="AQ31" si="54">SUM(AQ28:AQ30)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="AR31" s="3">
-        <f t="shared" ref="AR31" si="59">SUM(AR28:AR30)</f>
+        <f t="shared" ref="AR31" si="55">SUM(AR28:AR30)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" ref="AS31" si="60">SUM(AS28:AS30)</f>
+        <f t="shared" ref="AS31" si="56">SUM(AS28:AS30)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -3833,67 +3868,67 @@
         <v>42</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="61">+C27-C31</f>
+        <f t="shared" ref="C32:D32" si="57">+C27-C31</f>
         <v>5449</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>5863</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:G32" si="62">+E27-E31</f>
+        <f t="shared" ref="E32:G32" si="58">+E27-E31</f>
         <v>5781</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>7820</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>6317</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:I32" si="63">+H27-H31</f>
+        <f t="shared" ref="H32:I32" si="59">+H27-H31</f>
         <v>6626</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>7185</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:K32" si="64">+J27-J31</f>
+        <f t="shared" ref="J32:K32" si="60">+J27-J31</f>
         <v>8858</v>
       </c>
       <c r="K32" s="6">
+        <f t="shared" si="60"/>
+        <v>5893</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" ref="L32" si="61">+L27-L31</f>
+        <v>5963</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32" si="62">+M27-M31</f>
+        <v>8040</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" ref="N32" si="63">+N27-N31</f>
+        <v>12775</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:R32" si="64">+O27-O31</f>
+        <v>11378</v>
+      </c>
+      <c r="P32" s="6">
         <f t="shared" si="64"/>
-        <v>5893</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" ref="L32" si="65">+L27-L31</f>
-        <v>5963</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" ref="M32" si="66">+M27-M31</f>
-        <v>8040</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" ref="N32" si="67">+N27-N31</f>
-        <v>12775</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32:R32" si="68">+O27-O31</f>
-        <v>11378</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" si="68"/>
         <v>12367</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>10423</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>12585</v>
       </c>
       <c r="S32" s="6">
@@ -3901,32 +3936,32 @@
         <v>8524</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ref="T32:V32" si="69">+T27-T31</f>
+        <f t="shared" ref="T32:V32" si="65">+T27-T31</f>
         <v>8358</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>5664</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="69"/>
-        <v>9380.6238000000012</v>
+        <f t="shared" si="65"/>
+        <v>6399</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" ref="W32:Z32" si="70">+W27-W31</f>
+        <f t="shared" ref="W32:Z32" si="66">+W27-W31</f>
         <v>8860.7516000000014</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>8050.4784</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>6386.2853999999988</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="70"/>
-        <v>9632.9315240000033</v>
+        <f t="shared" si="66"/>
+        <v>8509.8467999999993</v>
       </c>
       <c r="AG32" s="3">
         <f>AG27-AG31</f>
@@ -3941,44 +3976,44 @@
         <v>32671</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="71">AJ27-AJ31</f>
+        <f t="shared" ref="AJ32" si="67">AJ27-AJ31</f>
         <v>46753</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="72">AK27-AK31</f>
-        <v>49193.868200000012</v>
+        <f t="shared" ref="AK32" si="68">AK27-AK31</f>
+        <v>48391.790000000008</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="73">AL27-AL31</f>
-        <v>46650.04978999999</v>
+        <f t="shared" ref="AL32" si="69">AL27-AL31</f>
+        <v>45888.075499999992</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="74">AM27-AM31</f>
-        <v>44122.4748005</v>
+        <f t="shared" ref="AM32" si="70">AM27-AM31</f>
+        <v>43398.599224999998</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="75">AN27-AN31</f>
-        <v>54516.621280550011</v>
+        <f t="shared" ref="AN32" si="71">AN27-AN31</f>
+        <v>53720.35814750001</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="76">AO27-AO31</f>
-        <v>60862.474169577501</v>
+        <f t="shared" ref="AO32" si="72">AO27-AO31</f>
+        <v>60026.397879875003</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="77">AP27-AP31</f>
-        <v>65297.117418164824</v>
+        <f t="shared" ref="AP32" si="73">AP27-AP31</f>
+        <v>64435.95883977125</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="78">AQ27-AQ31</f>
-        <v>69675.539061859788</v>
+        <f t="shared" ref="AQ32" si="74">AQ27-AQ31</f>
+        <v>68788.545726114404</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="79">AR27-AR31</f>
-        <v>74014.978542750585</v>
+        <f t="shared" ref="AR32" si="75">AR27-AR31</f>
+        <v>73101.375406932842</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" ref="AS32" si="80">AS27-AS31</f>
-        <v>78331.299877164594</v>
+        <f t="shared" ref="AS32" si="76">AS27-AS31</f>
+        <v>77390.288647272333</v>
       </c>
     </row>
     <row r="33" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4043,24 +4078,23 @@
         <v>-88</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" ref="V33" si="81">+U33</f>
-        <v>-88</v>
+        <v>-250</v>
       </c>
       <c r="W33" s="6">
         <f>+V33</f>
-        <v>-88</v>
+        <v>-250</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" ref="X33:Z33" si="82">+W33</f>
-        <v>-88</v>
+        <f t="shared" ref="X33:Z33" si="77">+W33</f>
+        <v>-250</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="82"/>
-        <v>-88</v>
+        <f t="shared" si="77"/>
+        <v>-250</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="82"/>
-        <v>-88</v>
+        <f t="shared" si="77"/>
+        <v>-250</v>
       </c>
       <c r="AG33" s="3">
         <v>448</v>
@@ -4075,36 +4109,36 @@
         <v>531</v>
       </c>
       <c r="AL33" s="3">
-        <f>+AK52*$AX$51</f>
-        <v>1116.6205055600001</v>
+        <f t="shared" ref="AL33:AS33" si="78">+AK52*$AX$51</f>
+        <v>1059.1200000000001</v>
       </c>
       <c r="AM33" s="3">
-        <f>+AL52*$AX$51</f>
-        <v>1899.9938984071839</v>
+        <f t="shared" si="78"/>
+        <v>1829.0540062</v>
       </c>
       <c r="AN33" s="3">
-        <f>+AM52*$AX$51</f>
-        <v>2654.7623850692617</v>
+        <f t="shared" si="78"/>
+        <v>2570.7875191916801</v>
       </c>
       <c r="AO33" s="3">
-        <f>+AN52*$AX$51</f>
-        <v>3592.3730771854175</v>
+        <f t="shared" si="78"/>
+        <v>3493.962308125424</v>
       </c>
       <c r="AP33" s="3">
-        <f>+AO52*$AX$51</f>
-        <v>4649.4325720323295</v>
+        <f t="shared" si="78"/>
+        <v>4535.6962152086307</v>
       </c>
       <c r="AQ33" s="3">
-        <f>+AP52*$AX$51</f>
-        <v>5796.5559918715635</v>
+        <f t="shared" si="78"/>
+        <v>5666.8313581103021</v>
       </c>
       <c r="AR33" s="3">
-        <f>+AQ52*$AX$51</f>
-        <v>7034.2983507527579</v>
+        <f t="shared" si="78"/>
+        <v>6887.8995422915868</v>
       </c>
       <c r="AS33" s="3">
-        <f>+AR52*$AX$51</f>
-        <v>8363.5064918062108</v>
+        <f t="shared" si="78"/>
+        <v>8199.7236514588676</v>
       </c>
     </row>
     <row r="34" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4112,67 +4146,67 @@
         <v>44</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="83">+C32+C33</f>
+        <f t="shared" ref="C34:D34" si="79">+C32+C33</f>
         <v>5610</v>
       </c>
       <c r="D34" s="6">
+        <f t="shared" si="79"/>
+        <v>5868</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:G34" si="80">+E32+E33</f>
+        <v>5912</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="80"/>
+        <v>7971</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="80"/>
+        <v>6523</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" ref="H34" si="81">+H32+H33</f>
+        <v>6832</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34:J34" si="82">+I32+I33</f>
+        <v>7329</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="82"/>
+        <v>9169</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" ref="K34:R34" si="83">+K32+K33</f>
+        <v>5861</v>
+      </c>
+      <c r="L34" s="6">
         <f t="shared" si="83"/>
-        <v>5868</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34:G34" si="84">+E32+E33</f>
-        <v>5912</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="84"/>
-        <v>7971</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="84"/>
-        <v>6523</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" ref="H34" si="85">+H32+H33</f>
-        <v>6832</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="86">+I32+I33</f>
-        <v>7329</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="86"/>
-        <v>9169</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" ref="K34:R34" si="87">+K32+K33</f>
-        <v>5861</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="87"/>
         <v>6131</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>8133</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>13055</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>11503</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>12513</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>10565</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>12702</v>
       </c>
       <c r="S34" s="6">
@@ -4180,32 +4214,32 @@
         <v>8908</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" ref="T34:Z34" si="88">+T32+T33</f>
+        <f t="shared" ref="T34:Z34" si="84">+T32+T33</f>
         <v>8186</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>5576</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="88"/>
-        <v>9292.6238000000012</v>
+        <f t="shared" si="84"/>
+        <v>6149</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" si="88"/>
-        <v>8772.7516000000014</v>
+        <f t="shared" si="84"/>
+        <v>8610.7516000000014</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" si="88"/>
-        <v>7962.4784</v>
+        <f t="shared" si="84"/>
+        <v>7800.4784</v>
       </c>
       <c r="Y34" s="6">
-        <f t="shared" si="88"/>
-        <v>6298.2853999999988</v>
+        <f t="shared" si="84"/>
+        <v>6136.2853999999988</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" si="88"/>
-        <v>9544.9315240000033</v>
+        <f t="shared" si="84"/>
+        <v>8259.8467999999993</v>
       </c>
       <c r="AG34" s="3">
         <f>+AG32+AG33</f>
@@ -4220,44 +4254,44 @@
         <v>33180</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="89">+AJ32+AJ33</f>
+        <f t="shared" ref="AJ34" si="85">+AJ32+AJ33</f>
         <v>47284</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="90">+AK32+AK33</f>
-        <v>49193.868200000012</v>
+        <f t="shared" ref="AK34" si="86">+AK32+AK33</f>
+        <v>48391.790000000008</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="91">+AL32+AL33</f>
-        <v>47766.67029555999</v>
+        <f t="shared" ref="AL34" si="87">+AL32+AL33</f>
+        <v>46947.195499999994</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="92">+AM32+AM33</f>
-        <v>46022.468698907185</v>
+        <f t="shared" ref="AM34" si="88">+AM32+AM33</f>
+        <v>45227.653231199998</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="93">+AN32+AN33</f>
-        <v>57171.383665619273</v>
+        <f t="shared" ref="AN34" si="89">+AN32+AN33</f>
+        <v>56291.145666691693</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="94">+AO32+AO33</f>
-        <v>64454.847246762918</v>
+        <f t="shared" ref="AO34" si="90">+AO32+AO33</f>
+        <v>63520.360188000428</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" ref="AP34" si="95">+AP32+AP33</f>
-        <v>69946.549990197149</v>
+        <f t="shared" ref="AP34" si="91">+AP32+AP33</f>
+        <v>68971.655054979885</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" ref="AQ34" si="96">+AQ32+AQ33</f>
-        <v>75472.095053731347</v>
+        <f t="shared" ref="AQ34" si="92">+AQ32+AQ33</f>
+        <v>74455.377084224703</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" ref="AR34" si="97">+AR32+AR33</f>
-        <v>81049.276893503338</v>
+        <f t="shared" ref="AR34" si="93">+AR32+AR33</f>
+        <v>79989.274949224433</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" ref="AS34" si="98">+AS32+AS33</f>
-        <v>86694.806368970807</v>
+        <f t="shared" ref="AS34" si="94">+AS32+AS33</f>
+        <v>85590.012298731206</v>
       </c>
     </row>
     <row r="35" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4323,24 +4357,23 @@
         <v>1181</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" ref="V35:Z35" si="99">+V34*0.19</f>
-        <v>1765.5985220000002</v>
+        <v>1497</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="99"/>
-        <v>1666.8228040000004</v>
+        <f t="shared" ref="V35:Z35" si="95">+W34*0.19</f>
+        <v>1636.0428040000004</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="99"/>
-        <v>1512.8708959999999</v>
+        <f t="shared" si="95"/>
+        <v>1482.0908959999999</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="99"/>
-        <v>1196.6742259999999</v>
+        <f t="shared" si="95"/>
+        <v>1165.8942259999999</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="99"/>
-        <v>1813.5369895600006</v>
+        <f t="shared" si="95"/>
+        <v>1569.3708919999999</v>
       </c>
       <c r="AG35" s="3">
         <f>3249+1</f>
@@ -4357,39 +4390,39 @@
       </c>
       <c r="AK35" s="3">
         <f>+AK34*0.18</f>
-        <v>8854.8962760000013</v>
+        <v>8710.5222000000012</v>
       </c>
       <c r="AL35" s="3">
-        <f t="shared" ref="AL35:AS35" si="100">+AL34*0.18</f>
-        <v>8598.0006532007974</v>
+        <f t="shared" ref="AL35:AS35" si="96">+AL34*0.18</f>
+        <v>8450.4951899999978</v>
       </c>
       <c r="AM35" s="3">
-        <f t="shared" si="100"/>
-        <v>8284.0443658032927</v>
+        <f t="shared" si="96"/>
+        <v>8140.977581615999</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" si="100"/>
-        <v>10290.849059811469</v>
+        <f t="shared" si="96"/>
+        <v>10132.406220004505</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" si="100"/>
-        <v>11601.872504417324</v>
+        <f t="shared" si="96"/>
+        <v>11433.664833840077</v>
       </c>
       <c r="AP35" s="3">
-        <f t="shared" si="100"/>
-        <v>12590.378998235487</v>
+        <f t="shared" si="96"/>
+        <v>12414.897909896379</v>
       </c>
       <c r="AQ35" s="3">
-        <f t="shared" si="100"/>
-        <v>13584.977109671641</v>
+        <f t="shared" si="96"/>
+        <v>13401.967875160446</v>
       </c>
       <c r="AR35" s="3">
-        <f t="shared" si="100"/>
-        <v>14588.869840830601</v>
+        <f t="shared" si="96"/>
+        <v>14398.069490860398</v>
       </c>
       <c r="AS35" s="3">
-        <f t="shared" si="100"/>
-        <v>15605.065146414745</v>
+        <f t="shared" si="96"/>
+        <v>15406.202213771616</v>
       </c>
     </row>
     <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4397,67 +4430,67 @@
         <v>46</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="101">+C34-C35</f>
+        <f t="shared" ref="C36:D36" si="97">+C34-C35</f>
         <v>4987</v>
       </c>
       <c r="D36" s="6">
+        <f t="shared" si="97"/>
+        <v>5106</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:G36" si="98">+E34-E35</f>
+        <v>5137</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="98"/>
+        <v>6882</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="98"/>
+        <v>4307</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" ref="H36" si="99">+H34-H35</f>
+        <v>4616</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36:J36" si="100">+I34-I35</f>
+        <v>6091</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="100"/>
+        <v>7349</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36:L36" si="101">+K34-K35</f>
+        <v>4902</v>
+      </c>
+      <c r="L36" s="6">
         <f t="shared" si="101"/>
-        <v>5106</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" ref="E36:G36" si="102">+E34-E35</f>
-        <v>5137</v>
-      </c>
-      <c r="F36" s="6">
+        <v>5178</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" ref="M36:R36" si="102">+M34-M35</f>
+        <v>7846</v>
+      </c>
+      <c r="N36" s="6">
         <f t="shared" si="102"/>
-        <v>6882</v>
-      </c>
-      <c r="G36" s="6">
+        <v>11219</v>
+      </c>
+      <c r="O36" s="6">
         <f t="shared" si="102"/>
-        <v>4307</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" ref="H36" si="103">+H34-H35</f>
-        <v>4616</v>
-      </c>
-      <c r="I36" s="6">
-        <f t="shared" ref="I36:J36" si="104">+I34-I35</f>
-        <v>6091</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="104"/>
-        <v>7349</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="105">+K34-K35</f>
-        <v>4902</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" si="105"/>
-        <v>5178</v>
-      </c>
-      <c r="M36" s="6">
-        <f t="shared" ref="M36:R36" si="106">+M34-M35</f>
-        <v>7846</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="106"/>
-        <v>11219</v>
-      </c>
-      <c r="O36" s="6">
-        <f t="shared" si="106"/>
         <v>9497</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>10394</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>9194</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v>10285</v>
       </c>
       <c r="S36" s="6">
@@ -4465,32 +4498,32 @@
         <v>7465</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" ref="T36:V36" si="107">+T34-T35</f>
+        <f t="shared" ref="T36:V36" si="103">+T34-T35</f>
         <v>6687</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v>4395</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="107"/>
-        <v>7527.025278000001</v>
+        <f t="shared" si="103"/>
+        <v>4652</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" ref="W36:Z36" si="108">+W34-W35</f>
-        <v>7105.9287960000011</v>
+        <f t="shared" ref="W36:Z36" si="104">+W34-W35</f>
+        <v>6974.7087960000008</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="108"/>
-        <v>6449.6075039999996</v>
+        <f t="shared" si="104"/>
+        <v>6318.3875040000003</v>
       </c>
       <c r="Y36" s="6">
-        <f t="shared" si="108"/>
-        <v>5101.6111739999988</v>
+        <f t="shared" si="104"/>
+        <v>4970.3911739999985</v>
       </c>
       <c r="Z36" s="6">
-        <f t="shared" si="108"/>
-        <v>7731.3945344400026</v>
+        <f t="shared" si="104"/>
+        <v>6690.4759079999994</v>
       </c>
       <c r="AG36" s="3">
         <f>+AG34-AG35</f>
@@ -4505,268 +4538,268 @@
         <v>29146</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="109">+AJ34-AJ35</f>
+        <f t="shared" ref="AJ36" si="105">+AJ34-AJ35</f>
         <v>39370</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="110">+AK34-AK35</f>
-        <v>40338.971924000012</v>
+        <f t="shared" ref="AK36" si="106">+AK34-AK35</f>
+        <v>39681.267800000009</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="111">+AL34-AL35</f>
-        <v>39168.669642359193</v>
+        <f t="shared" ref="AL36" si="107">+AL34-AL35</f>
+        <v>38496.70031</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="112">+AM34-AM35</f>
-        <v>37738.424333103889</v>
+        <f t="shared" ref="AM36" si="108">+AM34-AM35</f>
+        <v>37086.675649584002</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="113">+AN34-AN35</f>
-        <v>46880.534605807799</v>
+        <f t="shared" ref="AN36" si="109">+AN34-AN35</f>
+        <v>46158.739446687192</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="114">+AO34-AO35</f>
-        <v>52852.974742345592</v>
+        <f t="shared" ref="AO36" si="110">+AO34-AO35</f>
+        <v>52086.695354160351</v>
       </c>
       <c r="AP36" s="3">
-        <f t="shared" ref="AP36" si="115">+AP34-AP35</f>
-        <v>57356.170991961662</v>
+        <f t="shared" ref="AP36" si="111">+AP34-AP35</f>
+        <v>56556.757145083509</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36" si="116">+AQ34-AQ35</f>
-        <v>61887.117944059704</v>
+        <f t="shared" ref="AQ36" si="112">+AQ34-AQ35</f>
+        <v>61053.409209064259</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" ref="AR36" si="117">+AR34-AR35</f>
-        <v>66460.40705267273</v>
+        <f t="shared" ref="AR36" si="113">+AR34-AR35</f>
+        <v>65591.205458364042</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" ref="AS36" si="118">+AS34-AS35</f>
-        <v>71089.741222556069</v>
+        <f t="shared" ref="AS36" si="114">+AS34-AS35</f>
+        <v>70183.810084959594</v>
       </c>
       <c r="AT36" s="3">
-        <f>+AS36*(1+$AX$50)</f>
-        <v>67535.254161428267</v>
+        <f t="shared" ref="AT36:BY36" si="115">+AS36*(1+$AX$50)</f>
+        <v>66674.619580711616</v>
       </c>
       <c r="AU36" s="3">
-        <f>+AT36*(1+$AX$50)</f>
-        <v>64158.491453356852</v>
+        <f t="shared" si="115"/>
+        <v>63340.88860167603</v>
       </c>
       <c r="AV36" s="3">
-        <f>+AU36*(1+$AX$50)</f>
-        <v>60950.56688068901</v>
+        <f t="shared" si="115"/>
+        <v>60173.844171592224</v>
       </c>
       <c r="AW36" s="3">
-        <f>+AV36*(1+$AX$50)</f>
-        <v>57903.03853665456</v>
+        <f t="shared" si="115"/>
+        <v>57165.151963012613</v>
       </c>
       <c r="AX36" s="3">
-        <f>+AW36*(1+$AX$50)</f>
-        <v>55007.886609821828</v>
+        <f t="shared" si="115"/>
+        <v>54306.894364861982</v>
       </c>
       <c r="AY36" s="3">
-        <f>+AX36*(1+$AX$50)</f>
-        <v>52257.492279330734</v>
+        <f t="shared" si="115"/>
+        <v>51591.549646618878</v>
       </c>
       <c r="AZ36" s="3">
-        <f>+AY36*(1+$AX$50)</f>
-        <v>49644.617665364196</v>
+        <f t="shared" si="115"/>
+        <v>49011.97216428793</v>
       </c>
       <c r="BA36" s="3">
-        <f>+AZ36*(1+$AX$50)</f>
-        <v>47162.386782095986</v>
+        <f t="shared" si="115"/>
+        <v>46561.373556073529</v>
       </c>
       <c r="BB36" s="3">
-        <f>+BA36*(1+$AX$50)</f>
-        <v>44804.267442991186</v>
+        <f t="shared" si="115"/>
+        <v>44233.304878269853</v>
       </c>
       <c r="BC36" s="3">
-        <f>+BB36*(1+$AX$50)</f>
-        <v>42564.054070841623</v>
+        <f t="shared" si="115"/>
+        <v>42021.639634356361</v>
       </c>
       <c r="BD36" s="3">
-        <f>+BC36*(1+$AX$50)</f>
-        <v>40435.85136729954</v>
+        <f t="shared" si="115"/>
+        <v>39920.557652638541</v>
       </c>
       <c r="BE36" s="3">
-        <f>+BD36*(1+$AX$50)</f>
-        <v>38414.058798934559</v>
+        <f t="shared" si="115"/>
+        <v>37924.529770006615</v>
       </c>
       <c r="BF36" s="3">
-        <f>+BE36*(1+$AX$50)</f>
-        <v>36493.35585898783</v>
+        <f t="shared" si="115"/>
+        <v>36028.303281506283</v>
       </c>
       <c r="BG36" s="3">
-        <f>+BF36*(1+$AX$50)</f>
-        <v>34668.688066038434</v>
+        <f t="shared" si="115"/>
+        <v>34226.888117430964</v>
       </c>
       <c r="BH36" s="3">
-        <f>+BG36*(1+$AX$50)</f>
-        <v>32935.253662736512</v>
+        <f t="shared" si="115"/>
+        <v>32515.543711559414</v>
       </c>
       <c r="BI36" s="3">
-        <f>+BH36*(1+$AX$50)</f>
-        <v>31288.490979599683</v>
+        <f t="shared" si="115"/>
+        <v>30889.766525981442</v>
       </c>
       <c r="BJ36" s="3">
-        <f>+BI36*(1+$AX$50)</f>
-        <v>29724.066430619696</v>
+        <f t="shared" si="115"/>
+        <v>29345.278199682369</v>
       </c>
       <c r="BK36" s="3">
-        <f>+BJ36*(1+$AX$50)</f>
-        <v>28237.86310908871</v>
+        <f t="shared" si="115"/>
+        <v>27878.014289698251</v>
       </c>
       <c r="BL36" s="3">
-        <f>+BK36*(1+$AX$50)</f>
-        <v>26825.969953634274</v>
+        <f t="shared" si="115"/>
+        <v>26484.113575213338</v>
       </c>
       <c r="BM36" s="3">
-        <f>+BL36*(1+$AX$50)</f>
-        <v>25484.671455952561</v>
+        <f t="shared" si="115"/>
+        <v>25159.907896452671</v>
       </c>
       <c r="BN36" s="3">
-        <f>+BM36*(1+$AX$50)</f>
-        <v>24210.437883154933</v>
+        <f t="shared" si="115"/>
+        <v>23901.912501630035</v>
       </c>
       <c r="BO36" s="3">
-        <f>+BN36*(1+$AX$50)</f>
-        <v>22999.915988997185</v>
+        <f t="shared" si="115"/>
+        <v>22706.816876548532</v>
       </c>
       <c r="BP36" s="3">
-        <f>+BO36*(1+$AX$50)</f>
-        <v>21849.920189547323</v>
+        <f t="shared" si="115"/>
+        <v>21571.476032721104</v>
       </c>
       <c r="BQ36" s="3">
-        <f>+BP36*(1+$AX$50)</f>
-        <v>20757.424180069956</v>
+        <f t="shared" si="115"/>
+        <v>20492.902231085049</v>
       </c>
       <c r="BR36" s="3">
-        <f>+BQ36*(1+$AX$50)</f>
-        <v>19719.552971066456</v>
+        <f t="shared" si="115"/>
+        <v>19468.257119530794</v>
       </c>
       <c r="BS36" s="3">
-        <f>+BR36*(1+$AX$50)</f>
-        <v>18733.575322513134</v>
+        <f t="shared" si="115"/>
+        <v>18494.844263554252</v>
       </c>
       <c r="BT36" s="3">
-        <f>+BS36*(1+$AX$50)</f>
-        <v>17796.896556387477</v>
+        <f t="shared" si="115"/>
+        <v>17570.102050376539</v>
       </c>
       <c r="BU36" s="3">
-        <f>+BT36*(1+$AX$50)</f>
-        <v>16907.051728568102</v>
+        <f t="shared" si="115"/>
+        <v>16691.59694785771</v>
       </c>
       <c r="BV36" s="3">
-        <f>+BU36*(1+$AX$50)</f>
-        <v>16061.699142139696</v>
+        <f t="shared" si="115"/>
+        <v>15857.017100464824</v>
       </c>
       <c r="BW36" s="3">
-        <f>+BV36*(1+$AX$50)</f>
-        <v>15258.614185032711</v>
+        <f t="shared" si="115"/>
+        <v>15064.166245441582</v>
       </c>
       <c r="BX36" s="3">
-        <f>+BW36*(1+$AX$50)</f>
-        <v>14495.683475781076</v>
+        <f t="shared" si="115"/>
+        <v>14310.957933169502</v>
       </c>
       <c r="BY36" s="3">
-        <f>+BX36*(1+$AX$50)</f>
-        <v>13770.899301992022</v>
+        <f t="shared" si="115"/>
+        <v>13595.410036511026</v>
       </c>
       <c r="BZ36" s="3">
-        <f>+BY36*(1+$AX$50)</f>
-        <v>13082.35433689242</v>
+        <f t="shared" ref="BZ36:CW36" si="116">+BY36*(1+$AX$50)</f>
+        <v>12915.639534685475</v>
       </c>
       <c r="CA36" s="3">
-        <f>+BZ36*(1+$AX$50)</f>
-        <v>12428.236620047799</v>
+        <f t="shared" si="116"/>
+        <v>12269.857557951202</v>
       </c>
       <c r="CB36" s="3">
-        <f>+CA36*(1+$AX$50)</f>
-        <v>11806.824789045408</v>
+        <f t="shared" si="116"/>
+        <v>11656.364680053641</v>
       </c>
       <c r="CC36" s="3">
-        <f>+CB36*(1+$AX$50)</f>
-        <v>11216.483549593137</v>
+        <f t="shared" si="116"/>
+        <v>11073.546446050957</v>
       </c>
       <c r="CD36" s="3">
-        <f>+CC36*(1+$AX$50)</f>
-        <v>10655.65937211348</v>
+        <f t="shared" si="116"/>
+        <v>10519.869123748409</v>
       </c>
       <c r="CE36" s="3">
-        <f>+CD36*(1+$AX$50)</f>
-        <v>10122.876403507806</v>
+        <f t="shared" si="116"/>
+        <v>9993.8756675609875</v>
       </c>
       <c r="CF36" s="3">
-        <f>+CE36*(1+$AX$50)</f>
-        <v>9616.7325833324157</v>
+        <f t="shared" si="116"/>
+        <v>9494.1818841829372</v>
       </c>
       <c r="CG36" s="3">
-        <f>+CF36*(1+$AX$50)</f>
-        <v>9135.895954165795</v>
+        <f t="shared" si="116"/>
+        <v>9019.47278997379</v>
       </c>
       <c r="CH36" s="3">
-        <f>+CG36*(1+$AX$50)</f>
-        <v>8679.1011564575056</v>
+        <f t="shared" si="116"/>
+        <v>8568.4991504750997</v>
       </c>
       <c r="CI36" s="3">
-        <f>+CH36*(1+$AX$50)</f>
-        <v>8245.1460986346301</v>
+        <f t="shared" si="116"/>
+        <v>8140.0741929513442</v>
       </c>
       <c r="CJ36" s="3">
-        <f>+CI36*(1+$AX$50)</f>
-        <v>7832.8887937028985</v>
+        <f t="shared" si="116"/>
+        <v>7733.0704833037771</v>
       </c>
       <c r="CK36" s="3">
-        <f>+CJ36*(1+$AX$50)</f>
-        <v>7441.2443540177528</v>
+        <f t="shared" si="116"/>
+        <v>7346.416959138588</v>
       </c>
       <c r="CL36" s="3">
-        <f>+CK36*(1+$AX$50)</f>
-        <v>7069.1821363168647</v>
+        <f t="shared" si="116"/>
+        <v>6979.0961111816587</v>
       </c>
       <c r="CM36" s="3">
-        <f>+CL36*(1+$AX$50)</f>
-        <v>6715.7230295010213</v>
+        <f t="shared" si="116"/>
+        <v>6630.1413056225756</v>
       </c>
       <c r="CN36" s="3">
-        <f>+CM36*(1+$AX$50)</f>
-        <v>6379.9368780259701</v>
+        <f t="shared" si="116"/>
+        <v>6298.6342403414465</v>
       </c>
       <c r="CO36" s="3">
-        <f>+CN36*(1+$AX$50)</f>
-        <v>6060.940034124671</v>
+        <f t="shared" si="116"/>
+        <v>5983.7025283243738</v>
       </c>
       <c r="CP36" s="3">
-        <f>+CO36*(1+$AX$50)</f>
-        <v>5757.8930324184375</v>
+        <f t="shared" si="116"/>
+        <v>5684.5174019081551</v>
       </c>
       <c r="CQ36" s="3">
-        <f>+CP36*(1+$AX$50)</f>
-        <v>5469.998380797515</v>
+        <f t="shared" si="116"/>
+        <v>5400.2915318127471</v>
       </c>
       <c r="CR36" s="3">
-        <f>+CQ36*(1+$AX$50)</f>
-        <v>5196.4984617576392</v>
+        <f t="shared" si="116"/>
+        <v>5130.2769552221098</v>
       </c>
       <c r="CS36" s="3">
-        <f>+CR36*(1+$AX$50)</f>
-        <v>4936.6735386697574</v>
+        <f t="shared" si="116"/>
+        <v>4873.7631074610044</v>
       </c>
       <c r="CT36" s="3">
-        <f>+CS36*(1+$AX$50)</f>
-        <v>4689.8398617362691</v>
+        <f t="shared" si="116"/>
+        <v>4630.0749520879544</v>
       </c>
       <c r="CU36" s="3">
-        <f>+CT36*(1+$AX$50)</f>
-        <v>4455.3478686494554</v>
+        <f t="shared" si="116"/>
+        <v>4398.5712044835564</v>
       </c>
       <c r="CV36" s="3">
-        <f>+CU36*(1+$AX$50)</f>
-        <v>4232.5804752169824</v>
+        <f t="shared" si="116"/>
+        <v>4178.6426442593784</v>
       </c>
       <c r="CW36" s="3">
-        <f>+CV36*(1+$AX$50)</f>
-        <v>4020.9514514561333</v>
+        <f t="shared" si="116"/>
+        <v>3969.7105120464093</v>
       </c>
     </row>
     <row r="37" spans="2:101" x14ac:dyDescent="0.2">
@@ -4774,67 +4807,67 @@
         <v>47</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:D37" si="119">+C36/C38</f>
+        <f t="shared" ref="C37:D37" si="117">+C36/C38</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" ref="E37:G37" si="120">+E36/E38</f>
+        <f t="shared" ref="E37:G37" si="118">+E36/E38</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F37" s="9">
+        <f t="shared" si="118"/>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="118"/>
+        <v>1.4980869565217392</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" ref="H37" si="119">+H36/H38</f>
+        <v>1.6055652173913044</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" ref="I37:J37" si="120">+I36/I38</f>
+        <v>2.1193458594293668</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" si="120"/>
-        <v>2.3846153846153846</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="120"/>
-        <v>1.4980869565217392</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" ref="H37" si="121">+H36/H38</f>
-        <v>1.6055652173913044</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" ref="I37:J37" si="122">+I36/I38</f>
-        <v>2.1193458594293668</v>
-      </c>
-      <c r="J37" s="9">
+        <v>2.559735283873215</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" ref="K37:L37" si="121">+K36/K38</f>
+        <v>1.7092050209205021</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="121"/>
+        <v>1.7985411601250434</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37:R37" si="122">+M36/M38</f>
+        <v>2.7139398132134209</v>
+      </c>
+      <c r="N37" s="9">
         <f t="shared" si="122"/>
-        <v>2.559735283873215</v>
-      </c>
-      <c r="K37" s="9">
-        <f t="shared" ref="K37:L37" si="123">+K36/K38</f>
-        <v>1.7092050209205021</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="123"/>
-        <v>1.7985411601250434</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="shared" ref="M37:R37" si="124">+M36/M38</f>
-        <v>2.7139398132134209</v>
-      </c>
-      <c r="N37" s="9">
-        <f t="shared" si="124"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S37" s="9">
@@ -4842,32 +4875,32 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" ref="T37:V37" si="125">+T36/T38</f>
+        <f t="shared" ref="T37:V37" si="123">+T36/T38</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="125"/>
-        <v>2.8012747592110165</v>
+        <f t="shared" si="123"/>
+        <v>1.7621212121212122</v>
       </c>
       <c r="W37" s="9">
-        <f t="shared" ref="W37:Z37" si="126">+W36/W38</f>
-        <v>2.6445585396352813</v>
+        <f t="shared" ref="W37:Z37" si="124">+W36/W38</f>
+        <v>2.6419351500000001</v>
       </c>
       <c r="X37" s="9">
-        <f t="shared" si="126"/>
-        <v>2.4003005225158169</v>
+        <f t="shared" si="124"/>
+        <v>2.3933286000000003</v>
       </c>
       <c r="Y37" s="9">
-        <f t="shared" si="126"/>
-        <v>1.8986271581689611</v>
+        <f t="shared" si="124"/>
+        <v>1.8827239295454539</v>
       </c>
       <c r="Z37" s="9">
-        <f t="shared" si="126"/>
-        <v>2.877333284123559</v>
+        <f t="shared" si="124"/>
+        <v>2.5342711772727271</v>
       </c>
       <c r="AG37" s="17">
         <f>+AG36/AG38</f>
@@ -4882,44 +4915,44 @@
         <v>10.092105263157896</v>
       </c>
       <c r="AJ37" s="17">
-        <f t="shared" ref="AJ37" si="127">+AJ36/AJ38</f>
+        <f t="shared" ref="AJ37" si="125">+AJ36/AJ38</f>
         <v>13.770549143057012</v>
       </c>
       <c r="AK37" s="17">
-        <f t="shared" ref="AK37" si="128">+AK36/AK38</f>
-        <v>14.900349773386282</v>
+        <f t="shared" ref="AK37" si="126">+AK36/AK38</f>
+        <v>14.721301354108704</v>
       </c>
       <c r="AL37" s="17">
-        <f t="shared" ref="AL37" si="129">+AL36/AL38</f>
-        <v>14.468065247893321</v>
+        <f t="shared" ref="AL37" si="127">+AL36/AL38</f>
+        <v>14.281840218883325</v>
       </c>
       <c r="AM37" s="17">
-        <f t="shared" ref="AM37" si="130">+AM36/AM38</f>
-        <v>13.939763351409692</v>
+        <f t="shared" ref="AM37" si="128">+AM36/AM38</f>
+        <v>13.758737024516417</v>
       </c>
       <c r="AN37" s="17">
-        <f t="shared" ref="AN37" si="131">+AN36/AN38</f>
-        <v>17.316662519459893</v>
+        <f t="shared" ref="AN37" si="129">+AN36/AN38</f>
+        <v>17.124370041434684</v>
       </c>
       <c r="AO37" s="17">
-        <f t="shared" ref="AO37" si="132">+AO36/AO38</f>
-        <v>19.522753621699358</v>
+        <f t="shared" ref="AO37" si="130">+AO36/AO38</f>
+        <v>19.323574607367966</v>
       </c>
       <c r="AP37" s="17">
-        <f t="shared" ref="AP37" si="133">+AP36/AP38</f>
-        <v>21.18613759052975</v>
+        <f t="shared" ref="AP37" si="131">+AP36/AP38</f>
+        <v>20.981916952358937</v>
       </c>
       <c r="AQ37" s="17">
-        <f t="shared" ref="AQ37" si="134">+AQ36/AQ38</f>
-        <v>22.859772072789621</v>
+        <f t="shared" ref="AQ37" si="132">+AQ36/AQ38</f>
+        <v>22.650123987781214</v>
       </c>
       <c r="AR37" s="17">
-        <f t="shared" ref="AR37" si="135">+AR36/AR38</f>
-        <v>24.549046838183667</v>
+        <f t="shared" ref="AR37" si="133">+AR36/AR38</f>
+        <v>24.333595050404021</v>
       </c>
       <c r="AS37" s="17">
-        <f t="shared" ref="AS37" si="136">+AS36/AS38</f>
-        <v>26.259023445398864</v>
+        <f t="shared" ref="AS37" si="134">+AS36/AS38</f>
+        <v>26.037399400838282</v>
       </c>
     </row>
     <row r="38" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4984,24 +5017,23 @@
         <v>2687</v>
       </c>
       <c r="V38" s="6">
-        <f>+U38</f>
-        <v>2687</v>
+        <v>2640</v>
       </c>
       <c r="W38" s="6">
         <f>+V38</f>
-        <v>2687</v>
+        <v>2640</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" ref="X38:Z38" si="137">+W38</f>
-        <v>2687</v>
+        <f t="shared" ref="X38:Z38" si="135">+W38</f>
+        <v>2640</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="137"/>
-        <v>2687</v>
+        <f t="shared" si="135"/>
+        <v>2640</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="137"/>
-        <v>2687</v>
+        <f t="shared" si="135"/>
+        <v>2640</v>
       </c>
       <c r="AF38" s="3">
         <f>2395.921635+509.079123</f>
@@ -5021,39 +5053,39 @@
       </c>
       <c r="AK38" s="3">
         <f>AVERAGE(S38:V38)</f>
-        <v>2707.25</v>
+        <v>2695.5</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" ref="AL38:AS38" si="138">+AK38</f>
-        <v>2707.25</v>
+        <f t="shared" ref="AL38:AS38" si="136">+AK38</f>
+        <v>2695.5</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" si="138"/>
-        <v>2707.25</v>
+        <f t="shared" si="136"/>
+        <v>2695.5</v>
       </c>
     </row>
     <row r="39" spans="2:101" x14ac:dyDescent="0.2">
@@ -5068,23 +5100,23 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:K40" si="139">+G25/C25-1</f>
+        <f t="shared" ref="G40:K40" si="137">+G25/C25-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L40" s="11">
@@ -5108,11 +5140,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40:R40" si="140">+Q25/M25-1</f>
+        <f t="shared" ref="Q40:R40" si="138">+Q25/M25-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S40" s="11">
@@ -5128,43 +5160,43 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" ref="V40" si="141">+V25/R25-1</f>
-        <v>-1.5318226366903276E-2</v>
+        <f t="shared" ref="V40" si="139">+V25/R25-1</f>
+        <v>-4.4726916337501144E-2</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" ref="W40" si="142">+W25/S25-1</f>
+        <f>+W25/S25-1</f>
         <v>-5.1954994983517189E-2</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" ref="X40" si="143">+X25/T25-1</f>
+        <f t="shared" ref="X40" si="140">+X25/T25-1</f>
         <v>-4.2781208798834292E-2</v>
       </c>
       <c r="Y40" s="11">
-        <f t="shared" ref="Y40" si="144">+Y25/U25-1</f>
+        <f t="shared" ref="Y40" si="141">+Y25/U25-1</f>
         <v>-3.6867287291621587E-2</v>
       </c>
       <c r="Z40" s="11">
-        <f t="shared" ref="Z40" si="145">+Z25/V25-1</f>
-        <v>-5.4553231738471375E-2</v>
+        <f t="shared" ref="Z40" si="142">+Z25/V25-1</f>
+        <v>-4.7756256800870589E-2</v>
       </c>
       <c r="AC40" s="18">
-        <f t="shared" ref="AC40:AH40" si="146">+AC25/AB25-1</f>
+        <f t="shared" ref="AC40:AG40" si="143">+AC25/AB25-1</f>
         <v>0.58358739837398366</v>
       </c>
       <c r="AD40" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="143"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="AE40" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="143"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="AF40" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="143"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="AG40" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="143"/>
         <v>0.37352716896661997</v>
       </c>
       <c r="AH40" s="18">
@@ -5181,38 +5213,38 @@
       </c>
       <c r="AK40" s="18">
         <f>+AK25/AJ25-1</f>
-        <v>-2.7964283594366091E-3</v>
+        <v>-1.1193175554782941E-2</v>
       </c>
       <c r="AL40" s="18">
-        <f t="shared" ref="AL40:AS40" si="147">+AL25/AK25-1</f>
+        <f t="shared" ref="AL40:AS40" si="144">+AL25/AK25-1</f>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="AM40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="AN40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AQ40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AR40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS40" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -5237,15 +5269,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" ref="P41:R41" si="148">+P21/L21-1</f>
+        <f t="shared" ref="P41:R41" si="145">+P21/L21-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R41" s="11">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S41" s="11">
@@ -5257,7 +5289,7 @@
         <v>-4.3244052072422545E-2</v>
       </c>
       <c r="U41" s="11">
-        <f t="shared" ref="U41" si="149">+U21/Q21-1</f>
+        <f t="shared" ref="U41" si="146">+U21/Q21-1</f>
         <v>-2.5049641056972605E-2</v>
       </c>
       <c r="V41" s="11"/>
@@ -5294,9 +5326,7 @@
       <c r="U42" s="10">
         <v>0.17</v>
       </c>
-      <c r="V42" s="10">
-        <v>0.17</v>
-      </c>
+      <c r="V42" s="10"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
@@ -5331,7 +5361,7 @@
         <v>-0.18</v>
       </c>
       <c r="V43" s="10">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -5357,7 +5387,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10">
-        <f t="shared" ref="R44" si="150">+R23/N23-1</f>
+        <f t="shared" ref="R44" si="147">+R23/N23-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S44" s="10">
@@ -5374,19 +5404,23 @@
       </c>
       <c r="V44" s="10">
         <f>+V23/R23-1</f>
-        <v>0.11402508551881407</v>
+        <v>-0.17103762827822122</v>
       </c>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
       <c r="AI44" s="19">
-        <f t="shared" ref="AI44" si="151">AI23/AH23-1</f>
+        <f t="shared" ref="AI44" si="148">AI23/AH23-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AJ44" s="19">
         <f>AJ23/AI23-1</f>
         <v>0.99648814749780512</v>
+      </c>
+      <c r="AK44" s="19">
+        <f>AK23/AJ23-1</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5408,19 +5442,19 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="10">
-        <f t="shared" ref="Q45:T45" si="152">+Q31/M31-1</f>
+        <f t="shared" ref="Q45:T45" si="149">+Q31/M31-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="R45" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="149"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="149"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="T45" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="149"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="U45" s="10">
@@ -5428,24 +5462,24 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" ref="V45:Z45" si="153">+V31/R31-1</f>
-        <v>0.14072465734835116</v>
+        <f t="shared" ref="V45:Z45" si="150">+V31/R31-1</f>
+        <v>0.18265707694395439</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="150"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X45" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="150"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="Y45" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="150"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="Z45" s="10">
-        <f t="shared" si="153"/>
-        <v>-0.10000000000000009</v>
+        <f t="shared" si="150"/>
+        <v>-9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="46" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5479,151 +5513,151 @@
         <v>37</v>
       </c>
       <c r="C47" s="10">
-        <f>+C27/C25</f>
+        <f t="shared" ref="C47:Z47" si="151">+C27/C25</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D47" s="10">
-        <f>+D27/D25</f>
+        <f t="shared" si="151"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E47" s="10">
-        <f>+E27/E25</f>
+        <f t="shared" si="151"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F47" s="10">
-        <f>+F27/F25</f>
+        <f t="shared" si="151"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G47" s="10">
-        <f>+G27/G25</f>
+        <f t="shared" si="151"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H47" s="10">
-        <f>+H27/H25</f>
+        <f t="shared" si="151"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="I47" s="10">
-        <f>+I27/I25</f>
+        <f t="shared" si="151"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J47" s="10">
-        <f>+J27/J25</f>
+        <f t="shared" si="151"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="K47" s="10">
-        <f>+K27/K25</f>
+        <f t="shared" si="151"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L47" s="10">
-        <f>+L27/L25</f>
+        <f t="shared" si="151"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M47" s="10">
-        <f>+M27/M25</f>
+        <f t="shared" si="151"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N47" s="10">
-        <f>+N27/N25</f>
+        <f t="shared" si="151"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O47" s="10">
-        <f>+O27/O25</f>
+        <f t="shared" si="151"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P47" s="10">
-        <f>+P27/P25</f>
+        <f t="shared" si="151"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q47" s="10">
-        <f>+Q27/Q25</f>
+        <f t="shared" si="151"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R47" s="10">
-        <f>+R27/R25</f>
+        <f t="shared" si="151"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S47" s="10">
-        <f>+S27/S25</f>
+        <f t="shared" si="151"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="T47" s="10">
-        <f>+T27/T25</f>
+        <f t="shared" si="151"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="U47" s="10">
-        <f>+U27/U25</f>
+        <f t="shared" si="151"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="V47" s="10">
-        <f>+V27/V25</f>
+        <f t="shared" si="151"/>
+        <v>0.74083631276231932</v>
+      </c>
+      <c r="W47" s="10">
+        <f t="shared" si="151"/>
         <v>0.79</v>
       </c>
-      <c r="W47" s="10">
-        <f>+W27/W25</f>
+      <c r="X47" s="10">
+        <f t="shared" si="151"/>
         <v>0.79</v>
       </c>
-      <c r="X47" s="10">
-        <f>+X27/X25</f>
+      <c r="Y47" s="10">
+        <f t="shared" si="151"/>
         <v>0.79</v>
       </c>
-      <c r="Y47" s="10">
-        <f>+Y27/Y25</f>
+      <c r="Z47" s="10">
+        <f t="shared" si="151"/>
         <v>0.79</v>
       </c>
-      <c r="Z47" s="10">
-        <f>+Z27/Z25</f>
-        <v>0.79</v>
-      </c>
       <c r="AG47" s="19">
-        <f>+AG27/AG25</f>
+        <f t="shared" ref="AG47:AS47" si="152">+AG27/AG25</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AH47" s="19">
-        <f>+AH27/AH25</f>
+        <f t="shared" si="152"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AI47" s="19">
-        <f>+AI27/AI25</f>
+        <f t="shared" si="152"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AJ47" s="19">
-        <f>+AJ27/AJ25</f>
+        <f t="shared" si="152"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="AK47" s="19">
-        <f>+AK27/AK25</f>
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
       <c r="AL47" s="19">
-        <f>+AL27/AL25</f>
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
       <c r="AM47" s="19">
-        <f>+AM27/AM25</f>
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
       <c r="AN47" s="19">
-        <f>+AN27/AN25</f>
+        <f t="shared" si="152"/>
+        <v>0.81000000000000016</v>
+      </c>
+      <c r="AO47" s="19">
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
-      <c r="AO47" s="19">
-        <f>+AO27/AO25</f>
+      <c r="AP47" s="19">
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
-      <c r="AP47" s="19">
-        <f>+AP27/AP25</f>
+      <c r="AQ47" s="19">
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
-      <c r="AQ47" s="19">
-        <f>+AQ27/AQ25</f>
+      <c r="AR47" s="19">
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
-      <c r="AR47" s="19">
-        <f>+AR27/AR25</f>
-        <v>0.81</v>
-      </c>
       <c r="AS47" s="19">
-        <f>+AS27/AS25</f>
+        <f t="shared" si="152"/>
         <v>0.81</v>
       </c>
     </row>
@@ -5632,75 +5666,75 @@
         <v>202</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" ref="C48:F48" si="154">+C32/C25</f>
+        <f t="shared" ref="C48:E48" si="153">+C32/C25</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D48" s="10">
+        <f t="shared" si="153"/>
+        <v>0.44312599198851182</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="153"/>
+        <v>0.42114081736723247</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" ref="F48:I48" si="154">+F32/F25</f>
+        <v>0.46233889085964291</v>
+      </c>
+      <c r="G48" s="10">
         <f t="shared" si="154"/>
-        <v>0.44312599198851182</v>
-      </c>
-      <c r="E48" s="10">
+        <v>0.41898255621144792</v>
+      </c>
+      <c r="H48" s="10">
         <f t="shared" si="154"/>
-        <v>0.42114081736723247</v>
-      </c>
-      <c r="F48" s="10">
-        <f t="shared" ref="F48:J48" si="155">+F32/F25</f>
-        <v>0.46233889085964291</v>
-      </c>
-      <c r="G48" s="10">
+        <v>0.39239606774843067</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="154"/>
+        <v>0.40703602991162474</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" ref="J48:L48" si="155">+J32/J25</f>
+        <v>0.42016886443411439</v>
+      </c>
+      <c r="K48" s="10">
         <f t="shared" si="155"/>
-        <v>0.41898255621144792</v>
-      </c>
-      <c r="H48" s="10">
+        <v>0.33224333314540228</v>
+      </c>
+      <c r="L48" s="10">
         <f t="shared" si="155"/>
-        <v>0.39239606774843067</v>
-      </c>
-      <c r="I48" s="10">
-        <f t="shared" si="155"/>
-        <v>0.40703602991162474</v>
-      </c>
-      <c r="J48" s="10">
-        <f t="shared" ref="J48:M48" si="156">+J32/J25</f>
-        <v>0.42016886443411439</v>
-      </c>
-      <c r="K48" s="10">
+        <v>0.31909883876491679</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" ref="M48:P48" si="156">+M32/M25</f>
+        <v>0.37447601304145317</v>
+      </c>
+      <c r="N48" s="10">
         <f t="shared" si="156"/>
-        <v>0.33224333314540228</v>
-      </c>
-      <c r="L48" s="10">
+        <v>0.45507979481333716</v>
+      </c>
+      <c r="O48" s="10">
         <f t="shared" si="156"/>
-        <v>0.31909883876491679</v>
-      </c>
-      <c r="M48" s="10">
-        <f t="shared" ref="M48:Q48" si="157">+M32/M25</f>
-        <v>0.37447601304145317</v>
-      </c>
-      <c r="N48" s="10">
+        <v>0.43475602766420846</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="156"/>
+        <v>0.42531898063761736</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" ref="Q48:T48" si="157">+Q32/Q25</f>
+        <v>0.35928990003447087</v>
+      </c>
+      <c r="R48" s="10">
         <f t="shared" si="157"/>
-        <v>0.45507979481333716</v>
-      </c>
-      <c r="O48" s="10">
+        <v>0.37376377297971547</v>
+      </c>
+      <c r="S48" s="10">
         <f t="shared" si="157"/>
-        <v>0.43475602766420846</v>
-      </c>
-      <c r="P48" s="10">
+        <v>0.30543213415508097</v>
+      </c>
+      <c r="T48" s="10">
         <f t="shared" si="157"/>
-        <v>0.42531898063761736</v>
-      </c>
-      <c r="Q48" s="10">
-        <f t="shared" ref="Q48:U48" si="158">+Q32/Q25</f>
-        <v>0.35928990003447087</v>
-      </c>
-      <c r="R48" s="10">
-        <f t="shared" si="158"/>
-        <v>0.37376377297971547</v>
-      </c>
-      <c r="S48" s="10">
-        <f t="shared" si="158"/>
-        <v>0.30543213415508097</v>
-      </c>
-      <c r="T48" s="10">
-        <f t="shared" si="158"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U48" s="10">
@@ -5708,83 +5742,83 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" ref="V48:Z48" si="159">+V32/V25</f>
-        <v>0.2829305249671093</v>
+        <f t="shared" ref="V48:Z48" si="158">+V32/V25</f>
+        <v>0.19894295041193844</v>
       </c>
       <c r="W48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.33489826154923047</v>
+      </c>
+      <c r="X48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.29180072028811527</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.23925607648059771</v>
+      </c>
+      <c r="Z48" s="10">
+        <f t="shared" si="158"/>
+        <v>0.27783698543729257</v>
+      </c>
+      <c r="AG48" s="10">
+        <f t="shared" ref="AG48:AS48" si="159">+AG32/AG25</f>
+        <v>0.44616569361366809</v>
+      </c>
+      <c r="AH48" s="10">
         <f t="shared" si="159"/>
-        <v>0.33489826154923047</v>
-      </c>
-      <c r="X48" s="10">
+        <v>0.41000325332050863</v>
+      </c>
+      <c r="AI48" s="10">
         <f t="shared" si="159"/>
-        <v>0.29180072028811527</v>
-      </c>
-      <c r="Y48" s="10">
+        <v>0.3800500203571221</v>
+      </c>
+      <c r="AJ48" s="10">
         <f t="shared" si="159"/>
-        <v>0.23925607648059771</v>
-      </c>
-      <c r="Z48" s="10">
+        <v>0.39645040660058173</v>
+      </c>
+      <c r="AK48" s="10">
         <f t="shared" si="159"/>
-        <v>0.30730489452224452</v>
-      </c>
-      <c r="AG48" s="10">
-        <f t="shared" ref="AG48:AS48" si="160">+AG32/AG25</f>
-        <v>0.44616569361366809</v>
-      </c>
-      <c r="AH48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.41000325332050863</v>
-      </c>
-      <c r="AI48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.3800500203571221</v>
-      </c>
-      <c r="AJ48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.39645040660058173</v>
-      </c>
-      <c r="AK48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.4183179803403459</v>
+        <v>0.4149918959943058</v>
       </c>
       <c r="AL48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.41756497677808618</v>
+        <f t="shared" si="159"/>
+        <v>0.41423249807837342</v>
       </c>
       <c r="AM48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.41572698147161713</v>
+        <f t="shared" si="159"/>
+        <v>0.41237889488818724</v>
       </c>
       <c r="AN48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.46696528464688164</v>
+        <f t="shared" si="159"/>
+        <v>0.46405230335181041</v>
       </c>
       <c r="AO48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.49649624379872476</v>
+        <f t="shared" si="159"/>
+        <v>0.49383403342503468</v>
       </c>
       <c r="AP48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.51715788275197638</v>
+        <f t="shared" si="159"/>
+        <v>0.51467112682969474</v>
       </c>
       <c r="AQ48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.53576242541876296</v>
+        <f t="shared" si="159"/>
+        <v>0.53343365550304611</v>
       </c>
       <c r="AR48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.55255346598900956</v>
+        <f t="shared" si="159"/>
+        <v>0.55036728218751607</v>
       </c>
       <c r="AS48" s="10">
-        <f t="shared" si="160"/>
-        <v>0.56774432091960136</v>
+        <f t="shared" si="159"/>
+        <v>0.56568713478011834</v>
       </c>
       <c r="AW48" t="s">
         <v>112</v>
       </c>
       <c r="AX48" s="3">
         <f>NPV(AX49,AL36:CW36)</f>
-        <v>580364.75242722826</v>
+        <v>572407.49836020486</v>
       </c>
     </row>
     <row r="49" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5792,84 +5826,84 @@
         <v>110</v>
       </c>
       <c r="C49" s="10">
-        <f>+C35/C34</f>
+        <f t="shared" ref="C49:V49" si="160">+C35/C34</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D49" s="10">
-        <f>+D35/D34</f>
+        <f t="shared" si="160"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E49" s="10">
-        <f>+E35/E34</f>
+        <f t="shared" si="160"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F49" s="10">
-        <f>+F35/F34</f>
+        <f t="shared" si="160"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G49" s="10">
-        <f>+G35/G34</f>
+        <f t="shared" si="160"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H49" s="10">
-        <f>+H35/H34</f>
+        <f t="shared" si="160"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I49" s="10">
-        <f>+I35/I34</f>
+        <f t="shared" si="160"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J49" s="10">
-        <f>+J35/J34</f>
+        <f t="shared" si="160"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K49" s="10">
-        <f>+K35/K34</f>
+        <f t="shared" si="160"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L49" s="10">
-        <f>+L35/L34</f>
+        <f t="shared" si="160"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M49" s="10">
-        <f>+M35/M34</f>
+        <f t="shared" si="160"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N49" s="10">
-        <f>+N35/N34</f>
+        <f t="shared" si="160"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O49" s="10">
-        <f>+O35/O34</f>
+        <f t="shared" si="160"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P49" s="10">
-        <f>+P35/P34</f>
+        <f t="shared" si="160"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q49" s="10">
-        <f>+Q35/Q34</f>
+        <f t="shared" si="160"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R49" s="10">
-        <f>+R35/R34</f>
+        <f t="shared" si="160"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S49" s="10">
-        <f>+S35/S34</f>
+        <f t="shared" si="160"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T49" s="10">
-        <f>+T35/T34</f>
+        <f t="shared" si="160"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U49" s="10">
-        <f>+U35/U34</f>
+        <f t="shared" si="160"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V49" s="10">
-        <f>+V35/V34</f>
-        <v>0.19</v>
+        <f t="shared" si="160"/>
+        <v>0.24345422019840623</v>
       </c>
       <c r="W49" s="10">
         <f t="shared" ref="W49:Z49" si="161">+W35/W34</f>
@@ -5881,62 +5915,62 @@
       </c>
       <c r="Y49" s="10">
         <f t="shared" si="161"/>
-        <v>0.19</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="Z49" s="10">
         <f t="shared" si="161"/>
         <v>0.19</v>
       </c>
       <c r="AG49" s="19">
-        <f>+AG35/AG34</f>
+        <f t="shared" ref="AG49:AS49" si="162">+AG35/AG34</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="AH49" s="19">
-        <f>+AH35/AH34</f>
+        <f t="shared" si="162"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="AI49" s="19">
-        <f>+AI35/AI34</f>
+        <f t="shared" si="162"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="AJ49" s="19">
-        <f>+AJ35/AJ34</f>
+        <f t="shared" si="162"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="AK49" s="19">
-        <f>+AK35/AK34</f>
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
       <c r="AL49" s="19">
-        <f>+AL35/AL34</f>
+        <f t="shared" si="162"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="AM49" s="19">
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
-      <c r="AM49" s="19">
-        <f>+AM35/AM34</f>
+      <c r="AN49" s="19">
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
-      <c r="AN49" s="19">
-        <f>+AN35/AN34</f>
-        <v>0.18000000000000002</v>
-      </c>
       <c r="AO49" s="19">
-        <f>+AO35/AO34</f>
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
       <c r="AP49" s="19">
-        <f>+AP35/AP34</f>
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
       <c r="AQ49" s="19">
-        <f>+AQ35/AQ34</f>
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
       <c r="AR49" s="19">
-        <f>+AR35/AR34</f>
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
       <c r="AS49" s="19">
-        <f>+AS35/AS34</f>
+        <f t="shared" si="162"/>
         <v>0.18</v>
       </c>
       <c r="AW49" s="3" t="s">
@@ -5960,44 +5994,44 @@
         <v>196</v>
       </c>
       <c r="Q51" s="6">
-        <f t="shared" ref="Q51:S51" si="162">+Q52-Q66</f>
+        <f t="shared" ref="Q51:S51" si="163">+Q52-Q66</f>
         <v>64833</v>
       </c>
       <c r="R51" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>54773</v>
       </c>
       <c r="S51" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>50665</v>
       </c>
       <c r="T51" s="6">
-        <f>+T52-T66</f>
+        <f t="shared" ref="T51:Z51" si="164">+T52-T66</f>
         <v>47025</v>
       </c>
       <c r="U51" s="6">
-        <f>+U52-U66</f>
+        <f t="shared" si="164"/>
         <v>38382</v>
       </c>
       <c r="V51" s="6">
-        <f>+V52-V66</f>
-        <v>45909.025278000001</v>
+        <f t="shared" si="164"/>
+        <v>43034</v>
       </c>
       <c r="W51" s="6">
-        <f>+W52-W66</f>
-        <v>53014.954074000001</v>
+        <f t="shared" si="164"/>
+        <v>50008.708795999999</v>
       </c>
       <c r="X51" s="6">
-        <f>+X52-X66</f>
-        <v>59464.561577999993</v>
+        <f t="shared" si="164"/>
+        <v>56327.096300000005</v>
       </c>
       <c r="Y51" s="6">
-        <f>+Y52-Y66</f>
-        <v>64566.172751999999</v>
+        <f t="shared" si="164"/>
+        <v>61297.487474000009</v>
       </c>
       <c r="Z51" s="6">
-        <f>+Z52-Z66</f>
-        <v>72297.567286439997</v>
+        <f t="shared" si="164"/>
+        <v>67987.963382000002</v>
       </c>
       <c r="AW51" s="3" t="s">
         <v>111</v>
@@ -6055,23 +6089,23 @@
       </c>
       <c r="V52" s="6">
         <f>+U52+V36</f>
-        <v>55831.025278000001</v>
+        <v>52956</v>
       </c>
       <c r="W52" s="6">
         <f>+V52+W36</f>
-        <v>62936.954074000001</v>
+        <v>59930.708795999999</v>
       </c>
       <c r="X52" s="6">
         <f>+W52+X36</f>
-        <v>69386.561577999993</v>
+        <v>66249.096300000005</v>
       </c>
       <c r="Y52" s="6">
         <f>+X52+Y36</f>
-        <v>74488.172751999999</v>
+        <v>71219.487474000009</v>
       </c>
       <c r="Z52" s="6">
         <f>+Y52+Z36</f>
-        <v>82219.567286439997</v>
+        <v>77909.963382000002</v>
       </c>
       <c r="AJ52" s="3">
         <f>+R52</f>
@@ -6079,46 +6113,46 @@
       </c>
       <c r="AK52" s="3">
         <f>+V52</f>
-        <v>55831.025278000001</v>
+        <v>52956</v>
       </c>
       <c r="AL52" s="3">
-        <f>+AK52+AL36</f>
-        <v>94999.694920359194</v>
+        <f t="shared" ref="AL52:AS52" si="165">+AK52+AL36</f>
+        <v>91452.70031</v>
       </c>
       <c r="AM52" s="3">
-        <f>+AL52+AM36</f>
-        <v>132738.11925346308</v>
+        <f t="shared" si="165"/>
+        <v>128539.37595958399</v>
       </c>
       <c r="AN52" s="3">
-        <f>+AM52+AN36</f>
-        <v>179618.65385927088</v>
+        <f t="shared" si="165"/>
+        <v>174698.11540627119</v>
       </c>
       <c r="AO52" s="3">
-        <f>+AN52+AO36</f>
-        <v>232471.62860161648</v>
+        <f t="shared" si="165"/>
+        <v>226784.81076043154</v>
       </c>
       <c r="AP52" s="3">
-        <f>+AO52+AP36</f>
-        <v>289827.79959357815</v>
+        <f t="shared" si="165"/>
+        <v>283341.56790551508</v>
       </c>
       <c r="AQ52" s="3">
-        <f>+AP52+AQ36</f>
-        <v>351714.91753763787</v>
+        <f t="shared" si="165"/>
+        <v>344394.97711457935</v>
       </c>
       <c r="AR52" s="3">
-        <f>+AQ52+AR36</f>
-        <v>418175.32459031057</v>
+        <f t="shared" si="165"/>
+        <v>409986.18257294339</v>
       </c>
       <c r="AS52" s="3">
-        <f>+AR52+AS36</f>
-        <v>489265.06581286667</v>
+        <f t="shared" si="165"/>
+        <v>480169.992657903</v>
       </c>
       <c r="AW52" s="3" t="s">
         <v>115</v>
       </c>
       <c r="AX52" s="17">
         <f>AX48/Main!M3</f>
-        <v>218.87765369651601</v>
+        <v>215.87667010339968</v>
       </c>
     </row>
     <row r="53" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6169,7 +6203,7 @@
       </c>
       <c r="AX53" s="19">
         <f>AX52/Main!M2-1</f>
-        <v>0.98979685178650922</v>
+        <v>0.96251518275817882</v>
       </c>
     </row>
     <row r="54" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6416,23 +6450,23 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6">
-        <f t="shared" ref="N59:O59" si="163">SUM(N52:N58)</f>
+        <f t="shared" ref="N59:O59" si="166">SUM(N52:N58)</f>
         <v>159316</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>163523</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" ref="P59:Q59" si="164">SUM(P52:P58)</f>
+        <f t="shared" ref="P59:Q59" si="167">SUM(P52:P58)</f>
         <v>170609</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>169585</v>
       </c>
       <c r="R59" s="6">
-        <f t="shared" ref="R59" si="165">SUM(R52:R58)</f>
+        <f t="shared" ref="R59" si="168">SUM(R52:R58)</f>
         <v>165987</v>
       </c>
       <c r="S59" s="6">
@@ -6764,35 +6798,35 @@
         <v>61</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" ref="N71:O71" si="166">SUM(N61:N70)</f>
+        <f t="shared" ref="N71:O71" si="169">SUM(N61:N70)</f>
         <v>159316</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>163523</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" ref="P71:Q71" si="167">SUM(P61:P70)</f>
+        <f t="shared" ref="P71:Q71" si="170">SUM(P61:P70)</f>
         <v>170609</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>169585</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" ref="R71:U71" si="168">SUM(R61:R70)</f>
+        <f t="shared" ref="R71:U71" si="171">SUM(R61:R70)</f>
         <v>165987</v>
       </c>
       <c r="S71" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>164218</v>
       </c>
       <c r="T71" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>169779</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>178894</v>
       </c>
     </row>
@@ -6804,31 +6838,31 @@
         <v>66</v>
       </c>
       <c r="O73" s="6">
-        <f>O36</f>
+        <f t="shared" ref="O73:U73" si="172">O36</f>
         <v>9497</v>
       </c>
       <c r="P73" s="6">
-        <f>P36</f>
+        <f t="shared" si="172"/>
         <v>10394</v>
       </c>
       <c r="Q73" s="6">
-        <f>Q36</f>
+        <f t="shared" si="172"/>
         <v>9194</v>
       </c>
       <c r="R73" s="6">
-        <f>R36</f>
+        <f t="shared" si="172"/>
         <v>10285</v>
       </c>
       <c r="S73" s="6">
-        <f>S36</f>
+        <f t="shared" si="172"/>
         <v>7465</v>
       </c>
       <c r="T73" s="6">
-        <f>T36</f>
+        <f t="shared" si="172"/>
         <v>6687</v>
       </c>
       <c r="U73" s="6">
-        <f>U36</f>
+        <f t="shared" si="172"/>
         <v>4395</v>
       </c>
     </row>
@@ -7015,31 +7049,31 @@
         <v>68</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" ref="O80:U80" si="169">SUM(O74:O79)</f>
+        <f t="shared" ref="O80:U80" si="173">SUM(O74:O79)</f>
         <v>12242</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>13247</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>14090</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>18104</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>14076</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>12197</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>9691</v>
       </c>
     </row>
@@ -7205,31 +7239,31 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6">
-        <f t="shared" ref="O85:U85" si="170">SUM(O82:O84)</f>
+        <f t="shared" ref="O85:U85" si="174">SUM(O82:O84)</f>
         <v>-4874</v>
       </c>
       <c r="P85" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-8195</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-330</v>
       </c>
       <c r="R85" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>5829</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-4779</v>
       </c>
       <c r="T85" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-6959</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-9701</v>
       </c>
       <c r="V85" s="6"/>
@@ -7352,40 +7386,40 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="2:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="21" t="s">
+    <row r="89" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6">
         <v>0</v>
       </c>
-      <c r="T89" s="22">
+      <c r="T89" s="6">
         <v>0</v>
       </c>
-      <c r="U89" s="22">
+      <c r="U89" s="6">
         <f>9921-T89-S89</f>
         <v>9921</v>
       </c>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
     </row>
     <row r="90" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
@@ -7452,19 +7486,19 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6">
-        <f t="shared" ref="O91:Q91" si="171">SUM(O87:O90)</f>
+        <f t="shared" ref="O91:Q91" si="175">SUM(O87:O90)</f>
         <v>-5185</v>
       </c>
       <c r="P91" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-8549</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-15252</v>
       </c>
       <c r="R91" s="6">
-        <f t="shared" ref="R91" si="172">SUM(R87:R90)</f>
+        <f t="shared" ref="R91" si="176">SUM(R87:R90)</f>
         <v>-21742</v>
       </c>
       <c r="S91" s="6">
@@ -7518,31 +7552,31 @@
         <v>81</v>
       </c>
       <c r="O93" s="6">
-        <f t="shared" ref="O93:U93" si="173">+O92+O91+O85+O80</f>
+        <f t="shared" ref="O93:U93" si="177">+O92+O91+O85+O80</f>
         <v>1937</v>
       </c>
       <c r="P93" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>-3380</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>-1707</v>
       </c>
       <c r="R93" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>2061</v>
       </c>
       <c r="S93" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>-1512</v>
       </c>
       <c r="T93" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>-1875</v>
       </c>
       <c r="U93" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>1773</v>
       </c>
     </row>
@@ -7584,7 +7618,9 @@
       <c r="U95" s="6">
         <v>87314</v>
       </c>
-      <c r="V95" s="6"/>
+      <c r="V95" s="6">
+        <v>86000</v>
+      </c>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
@@ -7619,19 +7655,19 @@
         <v>7970</v>
       </c>
       <c r="P98" s="6">
-        <f t="shared" ref="P98:S98" si="174">+P80+P82</f>
+        <f t="shared" ref="P98:S98" si="178">+P80+P82</f>
         <v>8635</v>
       </c>
       <c r="Q98" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>9776</v>
       </c>
       <c r="R98" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>12734</v>
       </c>
       <c r="S98" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>8761</v>
       </c>
       <c r="T98" s="6">
@@ -7648,11 +7684,11 @@
         <v>128</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" ref="R99:S99" si="175">SUM(O98:R98)</f>
+        <f t="shared" ref="R99:S99" si="179">SUM(O98:R98)</f>
         <v>39115</v>
       </c>
       <c r="S99" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>39906</v>
       </c>
       <c r="T99" s="6">

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8882BF-9293-41A9-9B6D-D31BD25DAF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A7F65-943D-4452-9462-0AD2DA9FA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1650" windowWidth="48345" windowHeight="18735" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="19320" yWindow="2220" windowWidth="29190" windowHeight="15915" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>tc={48BE0944-3BDD-4973-B1C2-88AA905BEB25}</author>
   </authors>
   <commentList>
-    <comment ref="T24" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
+    <comment ref="T25" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
     Reels &gt;1B run-rate</t>
       </text>
     </comment>
-    <comment ref="R25" authorId="1" shapeId="0" xr:uid="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
+    <comment ref="R26" authorId="1" shapeId="0" xr:uid="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Q321: 31.5B-34B guidance</t>
       </text>
     </comment>
-    <comment ref="S25" authorId="2" shapeId="0" xr:uid="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
+    <comment ref="S26" authorId="2" shapeId="0" xr:uid="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     Q421 guidance: 27-29B</t>
       </text>
     </comment>
-    <comment ref="T25" authorId="3" shapeId="0" xr:uid="{8C543166-7E6A-448B-B7E3-720F51E35135}">
+    <comment ref="T26" authorId="3" shapeId="0" xr:uid="{8C543166-7E6A-448B-B7E3-720F51E35135}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
     Q122 guidance: 28-30B</t>
       </text>
     </comment>
-    <comment ref="U25" authorId="4" shapeId="0" xr:uid="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
+    <comment ref="U26" authorId="4" shapeId="0" xr:uid="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +88,7 @@
     Q222 guidance: 26-28.5B</t>
       </text>
     </comment>
-    <comment ref="V25" authorId="5" shapeId="0" xr:uid="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
+    <comment ref="V26" authorId="5" shapeId="0" xr:uid="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +96,7 @@
     Q322: 30.0-32.5B</t>
       </text>
     </comment>
-    <comment ref="W25" authorId="6" shapeId="0" xr:uid="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
+    <comment ref="W26" authorId="6" shapeId="0" xr:uid="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="206">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -724,13 +724,16 @@
   </si>
   <si>
     <t>Stock Price (period end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  US/CA ARPU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -766,19 +769,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -794,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -836,13 +839,21 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{899881B5-ABB4-4217-96D2-F267F48EA763}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -866,7 +877,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>32263</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -916,7 +927,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1254,7 +1265,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1262,25 +1273,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T24" dT="2022-09-30T13:25:09.70" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
+  <threadedComment ref="T25" dT="2022-09-30T13:25:09.70" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
     <text>Reels &gt;1B run-rate</text>
   </threadedComment>
-  <threadedComment ref="R25" dT="2022-06-12T02:12:46.51" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
+  <threadedComment ref="R26" dT="2022-06-12T02:12:46.51" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{0E3DC74B-1EA6-4DE1-9FC1-22223C626216}">
     <text>Q321: 31.5B-34B guidance</text>
   </threadedComment>
-  <threadedComment ref="S25" dT="2022-06-12T01:45:07.26" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
+  <threadedComment ref="S26" dT="2022-06-12T01:45:07.26" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{BD43B5D8-C5C9-4E17-8362-9EF57E1B35E5}">
     <text>Q421 guidance: 27-29B</text>
   </threadedComment>
-  <threadedComment ref="T25" dT="2022-06-11T18:28:26.10" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{8C543166-7E6A-448B-B7E3-720F51E35135}">
+  <threadedComment ref="T26" dT="2022-06-11T18:28:26.10" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{8C543166-7E6A-448B-B7E3-720F51E35135}">
     <text>Q122 guidance: 28-30B</text>
   </threadedComment>
-  <threadedComment ref="U25" dT="2022-07-27T23:03:53.04" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
+  <threadedComment ref="U26" dT="2022-07-27T23:03:53.04" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{37B1D132-4F99-4BFA-B9DE-FA9D39796D75}">
     <text>Q222 guidance: 26-28.5B</text>
   </threadedComment>
-  <threadedComment ref="V25" dT="2022-10-27T13:48:29.91" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
+  <threadedComment ref="V26" dT="2022-10-27T13:48:29.91" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{9BAC047B-9C13-4083-9E91-56CC4B86282A}">
     <text>Q322: 30.0-32.5B</text>
   </threadedComment>
-  <threadedComment ref="W25" dT="2023-02-01T21:20:58.90" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
+  <threadedComment ref="W26" dT="2023-02-01T21:20:58.90" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
     <text>26.0-28.5B given Q422</text>
   </threadedComment>
 </ThreadedComments>
@@ -1468,13 +1479,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:CW107"/>
+  <dimension ref="A1:CW108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1845,122 +1856,136 @@
       <c r="U6" s="6">
         <v>197</v>
       </c>
-      <c r="V6" s="6"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <v>2380</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2410</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2450</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2500</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2603</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2701</v>
-      </c>
-      <c r="M7" s="6">
-        <v>2740</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2797</v>
-      </c>
-      <c r="O7" s="6">
-        <v>2853</v>
-      </c>
-      <c r="P7" s="6">
-        <v>2895</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>2910</v>
-      </c>
-      <c r="R7" s="6">
-        <v>2912</v>
-      </c>
-      <c r="S7" s="6">
-        <v>2936</v>
-      </c>
-      <c r="T7" s="6">
-        <v>2934</v>
-      </c>
-      <c r="U7" s="6">
-        <v>2958</v>
-      </c>
-      <c r="V7" s="6">
-        <v>2960</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <f t="shared" ref="K7" si="1">+K22/K6</f>
+        <v>42.969230769230769</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" ref="L7" si="2">+L22/L6</f>
+        <v>45.752525252525253</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" ref="M7" si="3">+M22/M6</f>
+        <v>50.95918367346939</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" ref="N7" si="4">+N22/N6</f>
+        <v>67.435897435897431</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" ref="O7" si="5">+O22/O6</f>
+        <v>61.01025641025641</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" ref="P7" si="6">+P22/P6</f>
+        <v>68.543589743589749</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" ref="Q7:T7" si="7">+Q22/Q6</f>
+        <v>66.806122448979593</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="7"/>
+        <v>77.241025641025644</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="7"/>
+        <v>61.346938775510203</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="7"/>
+        <v>64.913705583756339</v>
+      </c>
+      <c r="U7" s="9">
+        <f>+U22/U6</f>
+        <v>64.802030456852791</v>
+      </c>
+      <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="G8" s="6">
+        <v>2380</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2410</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2450</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2500</v>
+      </c>
       <c r="K8" s="6">
-        <v>253</v>
+        <v>2603</v>
       </c>
       <c r="L8" s="6">
-        <v>256</v>
+        <v>2701</v>
       </c>
       <c r="M8" s="6">
-        <v>255</v>
+        <v>2740</v>
       </c>
       <c r="N8" s="6">
-        <v>258</v>
+        <v>2797</v>
       </c>
       <c r="O8" s="6">
-        <v>259</v>
+        <v>2853</v>
       </c>
       <c r="P8" s="6">
-        <v>259</v>
+        <v>2895</v>
       </c>
       <c r="Q8" s="6">
-        <v>261</v>
+        <v>2910</v>
       </c>
       <c r="R8" s="6">
-        <v>262</v>
+        <v>2912</v>
       </c>
       <c r="S8" s="6">
-        <v>263</v>
+        <v>2936</v>
       </c>
       <c r="T8" s="6">
-        <v>264</v>
+        <v>2934</v>
       </c>
       <c r="U8" s="6">
-        <v>266</v>
-      </c>
-      <c r="V8" s="9"/>
+        <v>2958</v>
+      </c>
+      <c r="V8" s="6">
+        <v>2960</v>
+      </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1969,26 +1994,45 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="6"/>
+      <c r="K9" s="6">
+        <v>253</v>
+      </c>
+      <c r="L9" s="6">
+        <v>256</v>
+      </c>
+      <c r="M9" s="6">
+        <v>255</v>
+      </c>
+      <c r="N9" s="6">
+        <v>258</v>
+      </c>
+      <c r="O9" s="6">
+        <v>259</v>
+      </c>
+      <c r="P9" s="6">
+        <v>259</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>261</v>
+      </c>
+      <c r="R9" s="6">
+        <v>262</v>
+      </c>
+      <c r="S9" s="6">
+        <v>263</v>
+      </c>
+      <c r="T9" s="6">
+        <v>264</v>
+      </c>
+      <c r="U9" s="6">
+        <v>266</v>
+      </c>
+      <c r="V9" s="22"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1997,61 +2041,25 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="9">
-        <f t="shared" ref="K10:R10" si="1">+K25/K4</f>
-        <v>5.9321070234113709</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>5.9512738853503189</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="1"/>
-        <v>6.6884735202492216</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="1"/>
-        <v>8.5066666666666659</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="1"/>
-        <v>7.5857971014492751</v>
-      </c>
-      <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>8.2840455840455842</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="1"/>
-        <v>8.1033519553072626</v>
-      </c>
-      <c r="R10" s="9">
-        <f t="shared" si="1"/>
-        <v>9.3791086350974933</v>
-      </c>
-      <c r="S10" s="9">
-        <f>+S25/S4</f>
-        <v>7.6670329670329673</v>
-      </c>
-      <c r="T10" s="9">
-        <f>+T25/T4</f>
-        <v>7.8964383561643832</v>
-      </c>
-      <c r="U10" s="9">
-        <f>+U25/U4</f>
-        <v>7.4700808625336927</v>
-      </c>
-      <c r="V10" s="9">
-        <f>+V25/V4</f>
-        <v>8.6002673796791438</v>
-      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2061,171 +2069,171 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9">
+        <f t="shared" ref="K11:V11" si="8">+K26/K4</f>
+        <v>5.9321070234113709</v>
+      </c>
       <c r="L11" s="9">
-        <f t="shared" ref="L11:R11" si="2">AVERAGE(K10:L10)</f>
-        <v>5.9416904543808453</v>
+        <f t="shared" si="8"/>
+        <v>5.9512738853503189</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="2"/>
-        <v>6.3198737027997698</v>
+        <f t="shared" si="8"/>
+        <v>6.6884735202492216</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="2"/>
-        <v>7.5975700934579438</v>
+        <f t="shared" si="8"/>
+        <v>8.5066666666666659</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="2"/>
-        <v>8.0462318840579705</v>
+        <f t="shared" si="8"/>
+        <v>7.5857971014492751</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="2"/>
-        <v>7.9349213427474297</v>
+        <f t="shared" si="8"/>
+        <v>8.2840455840455842</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="2"/>
-        <v>8.1936987696764234</v>
+        <f t="shared" si="8"/>
+        <v>8.1033519553072626</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="2"/>
-        <v>8.7412302952023779</v>
+        <f t="shared" si="8"/>
+        <v>9.3791086350974933</v>
       </c>
       <c r="S11" s="9">
-        <f>AVERAGE(R10:S10)</f>
-        <v>8.5230708010652307</v>
+        <f t="shared" si="8"/>
+        <v>7.6670329670329673</v>
       </c>
       <c r="T11" s="9">
-        <f>AVERAGE(S10:T10)</f>
-        <v>7.7817356615986757</v>
+        <f t="shared" si="8"/>
+        <v>7.8964383561643832</v>
       </c>
       <c r="U11" s="9">
-        <f>AVERAGE(T10:U10)</f>
-        <v>7.6832596093490384</v>
+        <f t="shared" si="8"/>
+        <v>7.4700808625336927</v>
       </c>
       <c r="V11" s="9">
-        <f>AVERAGE(U10:V10)</f>
-        <v>8.0351741211064187</v>
+        <f t="shared" si="8"/>
+        <v>8.6002673796791438</v>
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:R12" si="9">AVERAGE(K11:L11)</f>
+        <v>5.9416904543808453</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="9"/>
+        <v>6.3198737027997698</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="9"/>
+        <v>7.5975700934579438</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="9"/>
+        <v>8.0462318840579705</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="9"/>
+        <v>7.9349213427474297</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="9"/>
+        <v>8.1936987696764234</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="9"/>
+        <v>8.7412302952023779</v>
+      </c>
+      <c r="S12" s="9">
+        <f>AVERAGE(R11:S11)</f>
+        <v>8.5230708010652307</v>
+      </c>
+      <c r="T12" s="9">
+        <f>AVERAGE(S11:T11)</f>
+        <v>7.7817356615986757</v>
+      </c>
+      <c r="U12" s="9">
+        <f>AVERAGE(T11:U11)</f>
+        <v>7.6832596093490384</v>
+      </c>
+      <c r="V12" s="9">
+        <f>AVERAGE(U11:V11)</f>
+        <v>8.0351741211064187</v>
+      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16">
-        <f t="shared" ref="P12:R12" si="3">P11/L11-1</f>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
+        <f t="shared" ref="P13:R13" si="10">P12/L12-1</f>
         <v>0.33546528612862403</v>
       </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="16">
+        <f t="shared" si="10"/>
         <v>0.29649723317200616</v>
       </c>
-      <c r="R12" s="16">
-        <f t="shared" si="3"/>
+      <c r="R13" s="16">
+        <f t="shared" si="10"/>
         <v>0.15052973354325583</v>
       </c>
-      <c r="S12" s="16">
-        <f>S11/O11-1</f>
+      <c r="S13" s="16">
+        <f>S12/O12-1</f>
         <v>5.9262388143700218E-2</v>
       </c>
-      <c r="T12" s="16">
-        <f>T11/P11-1</f>
+      <c r="T13" s="16">
+        <f>T12/P12-1</f>
         <v>-1.9305255154011935E-2</v>
       </c>
-      <c r="U12" s="16">
-        <f>U11/Q11-1</f>
+      <c r="U13" s="16">
+        <f>U12/Q12-1</f>
         <v>-6.2296549418736191E-2</v>
       </c>
-      <c r="V12" s="16">
-        <f>V11/R11-1</f>
+      <c r="V13" s="16">
+        <f>V12/R12-1</f>
         <v>-8.0773089170694701E-2</v>
       </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="9">
-        <f t="shared" ref="K13:R13" si="4">+K24/K4</f>
-        <v>5.8327759197324411</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="4"/>
-        <v>5.834713375796178</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="4"/>
-        <v>6.6109034267912774</v>
-      </c>
-      <c r="N13" s="9">
-        <f t="shared" si="4"/>
-        <v>8.2384848484848483</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="4"/>
-        <v>7.373623188405797</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" si="4"/>
-        <v>8.1424501424501425</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="4"/>
-        <v>7.8983240223463689</v>
-      </c>
-      <c r="R13" s="9">
-        <f t="shared" si="4"/>
-        <v>9.0916434540389979</v>
-      </c>
-      <c r="S13" s="9">
-        <f>+S24/S4</f>
-        <v>7.4170329670329673</v>
-      </c>
-      <c r="T13" s="9">
-        <f>+T24/T4</f>
-        <v>7.7128767123287671</v>
-      </c>
-      <c r="U13" s="9">
-        <f>+U24/U4</f>
-        <v>7.3415094339622637</v>
-      </c>
-      <c r="V13" s="9">
-        <f>+V24/V4</f>
-        <v>8.3566844919786103</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2236,52 +2244,52 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="9">
-        <f t="shared" ref="K14:R14" si="5">+K24/K3</f>
-        <v>7.3898305084745761</v>
+        <f t="shared" ref="K14:V14" si="11">+K25/K4</f>
+        <v>5.8327759197324411</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="5"/>
-        <v>7.4174089068825912</v>
+        <f t="shared" si="11"/>
+        <v>5.834713375796178</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="5"/>
-        <v>8.3547244094488189</v>
+        <f t="shared" si="11"/>
+        <v>6.6109034267912774</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" si="5"/>
-        <v>10.456538461538461</v>
+        <f t="shared" si="11"/>
+        <v>8.2384848484848483</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="5"/>
-        <v>9.3525735294117656</v>
+        <f t="shared" si="11"/>
+        <v>7.373623188405797</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="5"/>
-        <v>10.355072463768115</v>
+        <f t="shared" si="11"/>
+        <v>8.1424501424501425</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="5"/>
-        <v>10.062633451957295</v>
+        <f t="shared" si="11"/>
+        <v>7.8983240223463689</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="5"/>
-        <v>11.574113475177304</v>
+        <f t="shared" si="11"/>
+        <v>9.0916434540389979</v>
       </c>
       <c r="S14" s="9">
-        <f>+S24/S3</f>
-        <v>9.4069686411149824</v>
+        <f t="shared" si="11"/>
+        <v>7.4170329670329673</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" ref="T14:U14" si="6">+T24/T3</f>
-        <v>9.7750000000000004</v>
+        <f t="shared" si="11"/>
+        <v>7.7128767123287671</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="6"/>
-        <v>9.2959044368600683</v>
+        <f t="shared" si="11"/>
+        <v>7.3415094339622637</v>
       </c>
       <c r="V14" s="9">
-        <f>+V24/V3</f>
-        <v>10.558783783783785</v>
+        <f t="shared" si="11"/>
+        <v>8.3566844919786103</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2289,7 +2297,7 @@
     </row>
     <row r="15" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2299,133 +2307,169 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9">
+        <f t="shared" ref="K15:V15" si="12">+K25/K3</f>
+        <v>7.3898305084745761</v>
+      </c>
       <c r="L15" s="9">
-        <f t="shared" ref="L15:R15" si="7">AVERAGE(K14:L14)</f>
-        <v>7.4036197076785832</v>
+        <f t="shared" si="12"/>
+        <v>7.4174089068825912</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="7"/>
-        <v>7.8860666581657046</v>
+        <f t="shared" si="12"/>
+        <v>8.3547244094488189</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="7"/>
-        <v>9.405631435493639</v>
+        <f t="shared" si="12"/>
+        <v>10.456538461538461</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="7"/>
-        <v>9.9045559954751141</v>
+        <f t="shared" si="12"/>
+        <v>9.3525735294117656</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="7"/>
-        <v>9.8538229965899404</v>
+        <f t="shared" si="12"/>
+        <v>10.355072463768115</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="7"/>
-        <v>10.208852957862705</v>
+        <f t="shared" si="12"/>
+        <v>10.062633451957295</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="7"/>
-        <v>10.818373463567299</v>
+        <f t="shared" si="12"/>
+        <v>11.574113475177304</v>
       </c>
       <c r="S15" s="9">
-        <f>AVERAGE(R14:S14)</f>
-        <v>10.490541058146142</v>
+        <f t="shared" si="12"/>
+        <v>9.4069686411149824</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" ref="T15:U15" si="8">AVERAGE(S14:T14)</f>
-        <v>9.5909843205574923</v>
+        <f t="shared" si="12"/>
+        <v>9.7750000000000004</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="8"/>
-        <v>9.5354522184300343</v>
+        <f t="shared" si="12"/>
+        <v>9.2959044368600683</v>
       </c>
       <c r="V15" s="9">
-        <f>AVERAGE(U14:V14)</f>
-        <v>9.9273441103219255</v>
+        <f t="shared" si="12"/>
+        <v>10.558783783783785</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
+        <f t="shared" ref="L16:R16" si="13">AVERAGE(K15:L15)</f>
+        <v>7.4036197076785832</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="13"/>
+        <v>7.8860666581657046</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="13"/>
+        <v>9.405631435493639</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="13"/>
+        <v>9.9045559954751141</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="13"/>
+        <v>9.8538229965899404</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="13"/>
+        <v>10.208852957862705</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="13"/>
+        <v>10.818373463567299</v>
+      </c>
+      <c r="S16" s="9">
+        <f>AVERAGE(R15:S15)</f>
+        <v>10.490541058146142</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" ref="T16:U16" si="14">AVERAGE(S15:T15)</f>
+        <v>9.5909843205574923</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="14"/>
+        <v>9.5354522184300343</v>
+      </c>
+      <c r="V16" s="9">
+        <f>AVERAGE(U15:V15)</f>
+        <v>9.9273441103219255</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="2:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="16">
-        <f t="shared" ref="P16:R16" si="9">P15/L15-1</f>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="16">
+        <f t="shared" ref="P17:R17" si="15">P16/L16-1</f>
         <v>0.33094667009573109</v>
       </c>
-      <c r="Q16" s="16">
-        <f t="shared" si="9"/>
+      <c r="Q17" s="16">
+        <f t="shared" si="15"/>
         <v>0.29454307202588104</v>
       </c>
-      <c r="R16" s="16">
-        <f t="shared" si="9"/>
+      <c r="R17" s="16">
+        <f t="shared" si="15"/>
         <v>0.15020172093310546</v>
       </c>
-      <c r="S16" s="16">
-        <f>S15/O15-1</f>
+      <c r="S17" s="16">
+        <f>S16/O16-1</f>
         <v>5.9163183381338413E-2</v>
       </c>
-      <c r="T16" s="16">
-        <f>T15/P15-1</f>
+      <c r="T17" s="16">
+        <f>T16/P16-1</f>
         <v>-2.6673776880648981E-2</v>
       </c>
-      <c r="U16" s="16">
-        <f>U15/Q15-1</f>
+      <c r="U17" s="16">
+        <f>U16/Q16-1</f>
         <v>-6.5962429100717701E-2</v>
       </c>
-      <c r="V16" s="16">
-        <f>V15/R15-1</f>
+      <c r="V17" s="16">
+        <f>V16/R16-1</f>
         <v>-8.2362598799723963E-2</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-    </row>
-    <row r="17" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
     </row>
     <row r="18" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2434,39 +2478,17 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6">
-        <v>1654</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1539</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1980</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2512</v>
-      </c>
-      <c r="O18" s="6">
-        <v>2434</v>
-      </c>
-      <c r="P18" s="6">
-        <v>2857</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>2963</v>
-      </c>
-      <c r="R18" s="6">
-        <v>3220</v>
-      </c>
-      <c r="S18" s="6">
-        <v>2949</v>
-      </c>
-      <c r="T18" s="6">
-        <v>3169</v>
-      </c>
-      <c r="U18" s="6">
-        <v>3047</v>
-      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2474,7 +2496,7 @@
     </row>
     <row r="19" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2485,46 +2507,46 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6">
-        <v>3236</v>
+        <v>1654</v>
       </c>
       <c r="L19" s="6">
-        <v>3312</v>
+        <v>1539</v>
       </c>
       <c r="M19" s="6">
-        <v>4202</v>
+        <v>1980</v>
       </c>
       <c r="N19" s="6">
-        <v>4703</v>
+        <v>2512</v>
       </c>
       <c r="O19" s="6">
-        <v>4735</v>
+        <v>2434</v>
       </c>
       <c r="P19" s="6">
-        <v>5152</v>
+        <v>2857</v>
       </c>
       <c r="Q19" s="6">
-        <v>5398</v>
+        <v>2963</v>
       </c>
       <c r="R19" s="6">
-        <v>6183</v>
+        <v>3220</v>
       </c>
       <c r="S19" s="6">
-        <v>5661</v>
+        <v>2949</v>
       </c>
       <c r="T19" s="6">
-        <v>5835</v>
+        <v>3169</v>
       </c>
       <c r="U19" s="6">
-        <v>5717</v>
-      </c>
-      <c r="V19" s="6"/>
+        <v>3047</v>
+      </c>
+      <c r="V19" s="21"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2535,46 +2557,46 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6">
-        <v>4171</v>
+        <v>3236</v>
       </c>
       <c r="L20" s="6">
-        <v>4411</v>
+        <v>3312</v>
       </c>
       <c r="M20" s="6">
-        <v>5051</v>
+        <v>4202</v>
       </c>
       <c r="N20" s="6">
-        <v>6822</v>
+        <v>4703</v>
       </c>
       <c r="O20" s="6">
-        <v>6373</v>
+        <v>4735</v>
       </c>
       <c r="P20" s="6">
-        <v>7205</v>
+        <v>5152</v>
       </c>
       <c r="Q20" s="6">
-        <v>6821</v>
+        <v>5398</v>
       </c>
       <c r="R20" s="6">
-        <v>8174</v>
+        <v>6183</v>
       </c>
       <c r="S20" s="6">
-        <v>6364</v>
+        <v>5661</v>
       </c>
       <c r="T20" s="6">
-        <v>6360</v>
+        <v>5835</v>
       </c>
       <c r="U20" s="6">
-        <v>5707</v>
-      </c>
-      <c r="V20" s="6"/>
+        <v>5717</v>
+      </c>
+      <c r="V20" s="21"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2585,2755 +2607,2771 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6">
-        <v>8379</v>
+        <v>4171</v>
       </c>
       <c r="L21" s="6">
-        <v>9059</v>
+        <v>4411</v>
       </c>
       <c r="M21" s="6">
-        <v>9988</v>
+        <v>5051</v>
       </c>
       <c r="N21" s="6">
-        <v>13150</v>
+        <v>6822</v>
       </c>
       <c r="O21" s="6">
-        <v>11897</v>
+        <v>6373</v>
       </c>
       <c r="P21" s="6">
-        <v>13366</v>
+        <v>7205</v>
       </c>
       <c r="Q21" s="6">
-        <v>13094</v>
+        <v>6821</v>
       </c>
       <c r="R21" s="6">
-        <v>15062</v>
+        <v>8174</v>
       </c>
       <c r="S21" s="6">
-        <v>12024</v>
+        <v>6364</v>
       </c>
       <c r="T21" s="6">
-        <v>12788</v>
+        <v>6360</v>
       </c>
       <c r="U21" s="6">
-        <v>12766</v>
-      </c>
-      <c r="V21" s="6"/>
+        <v>5707</v>
+      </c>
+      <c r="V21" s="21"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6">
-        <v>171</v>
-      </c>
-      <c r="D22" s="6">
-        <v>193</v>
-      </c>
-      <c r="E22" s="6">
-        <v>188</v>
-      </c>
-      <c r="F22" s="6">
-        <v>274</v>
-      </c>
-      <c r="G22" s="6">
-        <v>165</v>
-      </c>
-      <c r="H22" s="6">
-        <v>262</v>
-      </c>
-      <c r="I22" s="6">
-        <v>269</v>
-      </c>
-      <c r="J22" s="6">
-        <v>346</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6">
-        <v>297</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+        <v>8379</v>
+      </c>
+      <c r="L22" s="6">
+        <v>9059</v>
+      </c>
+      <c r="M22" s="6">
+        <v>9988</v>
+      </c>
       <c r="N22" s="6">
-        <v>168</v>
+        <v>13150</v>
       </c>
       <c r="O22" s="6">
-        <v>198</v>
+        <v>11897</v>
       </c>
       <c r="P22" s="6">
-        <v>192</v>
+        <v>13366</v>
       </c>
       <c r="Q22" s="6">
-        <v>176</v>
+        <v>13094</v>
       </c>
       <c r="R22" s="6">
-        <v>155</v>
+        <v>15062</v>
       </c>
       <c r="S22" s="6">
-        <v>215</v>
+        <v>12024</v>
       </c>
       <c r="T22" s="6">
-        <v>218</v>
+        <v>12788</v>
       </c>
       <c r="U22" s="6">
-        <v>192</v>
-      </c>
-      <c r="V22" s="6">
-        <v>184</v>
-      </c>
+        <v>12766</v>
+      </c>
+      <c r="V22" s="21"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="AG22" s="3">
-        <v>825</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>541</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>657</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>721</v>
-      </c>
     </row>
     <row r="23" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="6">
+        <v>171</v>
+      </c>
+      <c r="D23" s="6">
+        <v>193</v>
+      </c>
+      <c r="E23" s="6">
+        <v>188</v>
+      </c>
+      <c r="F23" s="6">
+        <v>274</v>
+      </c>
+      <c r="G23" s="6">
+        <v>165</v>
+      </c>
+      <c r="H23" s="6">
+        <v>262</v>
+      </c>
+      <c r="I23" s="6">
+        <v>269</v>
+      </c>
+      <c r="J23" s="6">
+        <v>346</v>
+      </c>
+      <c r="K23" s="6">
+        <v>297</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6">
-        <v>717</v>
+        <v>168</v>
       </c>
       <c r="O23" s="6">
-        <v>534</v>
+        <v>198</v>
       </c>
       <c r="P23" s="6">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="6">
-        <v>558</v>
+        <v>176</v>
       </c>
       <c r="R23" s="6">
-        <v>877</v>
+        <v>155</v>
       </c>
       <c r="S23" s="6">
-        <v>695</v>
+        <v>215</v>
       </c>
       <c r="T23" s="6">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="U23" s="6">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="V23" s="6">
-        <v>727</v>
+        <v>184</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
+      <c r="AG23" s="3">
+        <v>825</v>
+      </c>
       <c r="AH23" s="3">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="AI23" s="3">
-        <v>1139</v>
+        <v>657</v>
       </c>
       <c r="AJ23" s="3">
-        <v>2274</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6">
+        <v>717</v>
+      </c>
+      <c r="O24" s="6">
+        <v>534</v>
+      </c>
+      <c r="P24" s="6">
+        <v>305</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>558</v>
+      </c>
+      <c r="R24" s="6">
+        <v>877</v>
+      </c>
+      <c r="S24" s="6">
+        <v>695</v>
+      </c>
+      <c r="T24" s="6">
+        <v>452</v>
+      </c>
+      <c r="U24" s="6">
+        <v>285</v>
+      </c>
+      <c r="V24" s="6">
+        <v>727</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="AH24" s="3">
+        <v>501</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>1139</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>11795</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>13038</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>13539</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>16640</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>14912</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <v>16624</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <v>17383</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="6">
         <v>20736</v>
       </c>
-      <c r="K24" s="6">
-        <f>SUM(K18:K21)</f>
+      <c r="K25" s="6">
+        <f>SUM(K19:K22)</f>
         <v>17440</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" ref="L24:T24" si="10">SUM(L18:L21)</f>
+      <c r="L25" s="6">
+        <f t="shared" ref="L25:T25" si="16">SUM(L19:L22)</f>
         <v>18321</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" si="10"/>
+      <c r="M25" s="6">
+        <f t="shared" si="16"/>
         <v>21221</v>
       </c>
-      <c r="N24" s="6">
-        <f t="shared" si="10"/>
+      <c r="N25" s="6">
+        <f t="shared" si="16"/>
         <v>27187</v>
       </c>
-      <c r="O24" s="6">
-        <f t="shared" si="10"/>
+      <c r="O25" s="6">
+        <f t="shared" si="16"/>
         <v>25439</v>
       </c>
-      <c r="P24" s="6">
-        <f t="shared" si="10"/>
+      <c r="P25" s="6">
+        <f t="shared" si="16"/>
         <v>28580</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="10"/>
+      <c r="Q25" s="6">
+        <f t="shared" si="16"/>
         <v>28276</v>
       </c>
-      <c r="R24" s="6">
-        <f t="shared" si="10"/>
+      <c r="R25" s="6">
+        <f t="shared" si="16"/>
         <v>32639</v>
       </c>
-      <c r="S24" s="6">
-        <f t="shared" si="10"/>
+      <c r="S25" s="6">
+        <f t="shared" si="16"/>
         <v>26998</v>
       </c>
-      <c r="T24" s="6">
-        <f t="shared" si="10"/>
+      <c r="T25" s="6">
+        <f t="shared" si="16"/>
         <v>28152</v>
       </c>
-      <c r="U24" s="6">
-        <f>SUM(U18:U21)</f>
+      <c r="U25" s="6">
+        <f>SUM(U19:U22)</f>
         <v>27237</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V25" s="6">
         <v>31254</v>
       </c>
-      <c r="W24" s="6">
-        <f t="shared" ref="W24:Z24" si="11">+S24*0.98</f>
+      <c r="W25" s="6">
+        <f t="shared" ref="W25:Z25" si="17">+S25*0.98</f>
         <v>26458.04</v>
       </c>
-      <c r="X24" s="6">
-        <f t="shared" si="11"/>
+      <c r="X25" s="6">
+        <f t="shared" si="17"/>
         <v>27588.959999999999</v>
       </c>
-      <c r="Y24" s="6">
-        <f t="shared" si="11"/>
+      <c r="Y25" s="6">
+        <f t="shared" si="17"/>
         <v>26692.26</v>
       </c>
-      <c r="Z24" s="6">
-        <f t="shared" si="11"/>
+      <c r="Z25" s="6">
+        <f t="shared" si="17"/>
         <v>30628.92</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB25" s="3">
         <v>7872</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC25" s="3">
         <v>12466</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD25" s="3">
         <v>17928</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE25" s="3">
         <v>27638</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF25" s="3">
         <v>40653</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG25" s="3">
         <v>55013</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AH25" s="3">
         <v>69655</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI25" s="3">
         <v>84169</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ25" s="3">
         <v>114934</v>
       </c>
     </row>
-    <row r="25" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+    <row r="26" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
-        <f t="shared" ref="C25:I25" si="12">SUM(C22:C24)</f>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:I26" si="18">SUM(C23:C25)</f>
         <v>11966</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" si="12"/>
+      <c r="D26" s="8">
+        <f t="shared" si="18"/>
         <v>13231</v>
       </c>
-      <c r="E25" s="8">
-        <f t="shared" si="12"/>
+      <c r="E26" s="8">
+        <f t="shared" si="18"/>
         <v>13727</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="12"/>
+      <c r="F26" s="8">
+        <f t="shared" si="18"/>
         <v>16914</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25" si="13">SUM(G22:G24)</f>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26" si="19">SUM(G23:G25)</f>
         <v>15077</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="12"/>
+      <c r="H26" s="8">
+        <f t="shared" si="18"/>
         <v>16886</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="12"/>
+      <c r="I26" s="8">
+        <f t="shared" si="18"/>
         <v>17652</v>
       </c>
-      <c r="J25" s="8">
-        <f>SUM(J22:J24)</f>
+      <c r="J26" s="8">
+        <f>SUM(J23:J25)</f>
         <v>21082</v>
       </c>
-      <c r="K25" s="8">
-        <f>SUM(K22:K24)</f>
+      <c r="K26" s="8">
+        <f>SUM(K23:K25)</f>
         <v>17737</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L26" s="8">
         <v>18687</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M26" s="8">
         <v>21470</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N26" s="8">
         <v>28072</v>
       </c>
-      <c r="O25" s="8">
-        <f>SUM(O22:O24)</f>
+      <c r="O26" s="8">
+        <f>SUM(O23:O25)</f>
         <v>26171</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P26" s="8">
         <v>29077</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q26" s="8">
         <v>29010</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R26" s="8">
         <v>33671</v>
       </c>
-      <c r="S25" s="8">
-        <f>SUM(S22:S24)</f>
+      <c r="S26" s="8">
+        <f>SUM(S23:S25)</f>
         <v>27908</v>
       </c>
-      <c r="T25" s="8">
-        <f>SUM(T22:T24)</f>
+      <c r="T26" s="8">
+        <f>SUM(T23:T25)</f>
         <v>28822</v>
       </c>
-      <c r="U25" s="8">
-        <f>SUM(U22:U24)</f>
+      <c r="U26" s="8">
+        <f>SUM(U23:U25)</f>
         <v>27714</v>
       </c>
-      <c r="V25" s="8">
+      <c r="V26" s="8">
         <v>32165</v>
       </c>
-      <c r="W25" s="8">
-        <f>SUM(W22:W24)</f>
+      <c r="W26" s="8">
+        <f>SUM(W23:W25)</f>
         <v>26458.04</v>
       </c>
-      <c r="X25" s="8">
-        <f t="shared" ref="X25:Z25" si="14">SUM(X22:X24)</f>
+      <c r="X26" s="8">
+        <f t="shared" ref="X26:Z26" si="20">SUM(X23:X25)</f>
         <v>27588.959999999999</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="14"/>
+      <c r="Y26" s="8">
+        <f t="shared" si="20"/>
         <v>26692.26</v>
       </c>
-      <c r="Z25" s="8">
-        <f t="shared" si="14"/>
+      <c r="Z26" s="8">
+        <f t="shared" si="20"/>
         <v>30628.92</v>
       </c>
-      <c r="AB25" s="7">
-        <f t="shared" ref="AB25:AG25" si="15">SUM(AB22:AB24)</f>
+      <c r="AB26" s="7">
+        <f t="shared" ref="AB26:AG26" si="21">SUM(AB23:AB25)</f>
         <v>7872</v>
       </c>
-      <c r="AC25" s="7">
-        <f t="shared" si="15"/>
+      <c r="AC26" s="7">
+        <f t="shared" si="21"/>
         <v>12466</v>
       </c>
-      <c r="AD25" s="7">
-        <f t="shared" si="15"/>
+      <c r="AD26" s="7">
+        <f t="shared" si="21"/>
         <v>17928</v>
       </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="15"/>
+      <c r="AE26" s="7">
+        <f t="shared" si="21"/>
         <v>27638</v>
       </c>
-      <c r="AF25" s="7">
-        <f t="shared" si="15"/>
+      <c r="AF26" s="7">
+        <f t="shared" si="21"/>
         <v>40653</v>
       </c>
-      <c r="AG25" s="7">
-        <f t="shared" si="15"/>
+      <c r="AG26" s="7">
+        <f t="shared" si="21"/>
         <v>55838</v>
       </c>
-      <c r="AH25" s="7">
-        <f>SUM(AH22:AH24)</f>
+      <c r="AH26" s="7">
+        <f>SUM(AH23:AH25)</f>
         <v>70697</v>
       </c>
-      <c r="AI25" s="7">
-        <f t="shared" ref="AI25:AJ25" si="16">SUM(AI22:AI24)</f>
+      <c r="AI26" s="7">
+        <f t="shared" ref="AI26:AJ26" si="22">SUM(AI23:AI25)</f>
         <v>85965</v>
       </c>
-      <c r="AJ25" s="7">
-        <f t="shared" si="16"/>
+      <c r="AJ26" s="7">
+        <f t="shared" si="22"/>
         <v>117929</v>
       </c>
-      <c r="AK25" s="7">
-        <f>SUM(S25:V25)</f>
+      <c r="AK26" s="7">
+        <f>SUM(S26:V26)</f>
         <v>116609</v>
       </c>
-      <c r="AL25" s="7">
-        <f>+AK25*0.95</f>
+      <c r="AL26" s="7">
+        <f>+AK26*0.95</f>
         <v>110778.54999999999</v>
       </c>
-      <c r="AM25" s="7">
-        <f>+AL25*0.95</f>
+      <c r="AM26" s="7">
+        <f>+AL26*0.95</f>
         <v>105239.62249999998</v>
       </c>
-      <c r="AN25" s="7">
-        <f>+AM25*1.1</f>
+      <c r="AN26" s="7">
+        <f>+AM26*1.1</f>
         <v>115763.58474999999</v>
       </c>
-      <c r="AO25" s="7">
-        <f>+AN25*1.05</f>
+      <c r="AO26" s="7">
+        <f>+AN26*1.05</f>
         <v>121551.7639875</v>
       </c>
-      <c r="AP25" s="7">
-        <f t="shared" ref="AP25:AS25" si="17">+AO25*1.03</f>
+      <c r="AP26" s="7">
+        <f t="shared" ref="AP26:AS26" si="23">+AO26*1.03</f>
         <v>125198.316907125</v>
       </c>
-      <c r="AQ25" s="7">
-        <f t="shared" si="17"/>
+      <c r="AQ26" s="7">
+        <f t="shared" si="23"/>
         <v>128954.26641433875</v>
       </c>
-      <c r="AR25" s="7">
-        <f t="shared" si="17"/>
+      <c r="AR26" s="7">
+        <f t="shared" si="23"/>
         <v>132822.89440676893</v>
       </c>
-      <c r="AS25" s="7">
-        <f t="shared" si="17"/>
+      <c r="AS26" s="7">
+        <f t="shared" si="23"/>
         <v>136807.58123897199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1927</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2214</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2418</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2796</v>
-      </c>
-      <c r="G26" s="6">
-        <v>2816</v>
-      </c>
-      <c r="H26" s="6">
-        <v>3307</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3155</v>
-      </c>
-      <c r="J26" s="6">
-        <v>3492</v>
-      </c>
-      <c r="K26" s="6">
-        <v>3459</v>
-      </c>
-      <c r="L26" s="6">
-        <v>3829</v>
-      </c>
-      <c r="M26" s="6">
-        <v>4194</v>
-      </c>
-      <c r="N26" s="6">
-        <v>5210</v>
-      </c>
-      <c r="O26" s="6">
-        <v>5131</v>
-      </c>
-      <c r="P26" s="6">
-        <v>5399</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>5771</v>
-      </c>
-      <c r="R26" s="6">
-        <v>6348</v>
-      </c>
-      <c r="S26" s="6">
-        <v>6005</v>
-      </c>
-      <c r="T26" s="6">
-        <v>5192</v>
-      </c>
-      <c r="U26" s="6">
-        <v>5716</v>
-      </c>
-      <c r="V26" s="6">
-        <v>8336</v>
-      </c>
-      <c r="W26" s="6">
-        <f>+W25-W27</f>
-        <v>5556.1883999999991</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" ref="X26:Z26" si="18">+X25-X27</f>
-        <v>5793.6815999999999</v>
-      </c>
-      <c r="Y26" s="6">
-        <f t="shared" si="18"/>
-        <v>5605.3745999999992</v>
-      </c>
-      <c r="Z26" s="6">
-        <f t="shared" si="18"/>
-        <v>6432.0731999999989</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>9355</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>12770</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>16692</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>22649</v>
-      </c>
-      <c r="AK26" s="3">
-        <f>+AK25-AK27</f>
-        <v>22155.709999999992</v>
-      </c>
-      <c r="AL26" s="3">
-        <f t="shared" ref="AL26:AS26" si="19">+AL25-AL27</f>
-        <v>21047.924499999994</v>
-      </c>
-      <c r="AM26" s="3">
-        <f t="shared" si="19"/>
-        <v>19995.52827499999</v>
-      </c>
-      <c r="AN26" s="3">
-        <f t="shared" si="19"/>
-        <v>21995.081102499986</v>
-      </c>
-      <c r="AO26" s="3">
-        <f t="shared" si="19"/>
-        <v>23094.835157624999</v>
-      </c>
-      <c r="AP26" s="3">
-        <f t="shared" si="19"/>
-        <v>23787.680212353749</v>
-      </c>
-      <c r="AQ26" s="3">
-        <f t="shared" si="19"/>
-        <v>24501.310618724354</v>
-      </c>
-      <c r="AR26" s="3">
-        <f t="shared" si="19"/>
-        <v>25236.349937286082</v>
-      </c>
-      <c r="AS26" s="3">
-        <f t="shared" si="19"/>
-        <v>25993.440435404671</v>
       </c>
     </row>
     <row r="27" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:D27" si="20">+C25-C26</f>
-        <v>10039</v>
+        <v>1927</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="20"/>
-        <v>11017</v>
+        <v>2214</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" ref="E27:G27" si="21">+E25-E26</f>
-        <v>11309</v>
+        <v>2418</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="21"/>
-        <v>14118</v>
+        <v>2796</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="21"/>
-        <v>12261</v>
+        <v>2816</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27" si="22">+H25-H26</f>
-        <v>13579</v>
+        <v>3307</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:J27" si="23">+I25-I26</f>
-        <v>14497</v>
+        <v>3155</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="23"/>
-        <v>17590</v>
+        <v>3492</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ref="K27:N27" si="24">+K25-K26</f>
-        <v>14278</v>
+        <v>3459</v>
       </c>
       <c r="L27" s="6">
+        <v>3829</v>
+      </c>
+      <c r="M27" s="6">
+        <v>4194</v>
+      </c>
+      <c r="N27" s="6">
+        <v>5210</v>
+      </c>
+      <c r="O27" s="6">
+        <v>5131</v>
+      </c>
+      <c r="P27" s="6">
+        <v>5399</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>5771</v>
+      </c>
+      <c r="R27" s="6">
+        <v>6348</v>
+      </c>
+      <c r="S27" s="6">
+        <v>6005</v>
+      </c>
+      <c r="T27" s="6">
+        <v>5192</v>
+      </c>
+      <c r="U27" s="6">
+        <v>5716</v>
+      </c>
+      <c r="V27" s="6">
+        <v>8336</v>
+      </c>
+      <c r="W27" s="6">
+        <f>+W26-W28</f>
+        <v>5556.1883999999991</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" ref="X27:Z27" si="24">+X26-X28</f>
+        <v>5793.6815999999999</v>
+      </c>
+      <c r="Y27" s="6">
         <f t="shared" si="24"/>
-        <v>14858</v>
-      </c>
-      <c r="M27" s="6">
+        <v>5605.3745999999992</v>
+      </c>
+      <c r="Z27" s="6">
         <f t="shared" si="24"/>
-        <v>17276</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="24"/>
-        <v>22862</v>
-      </c>
-      <c r="O27" s="6">
-        <f>+O25-O26</f>
-        <v>21040</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" ref="P27:R27" si="25">+P25-P26</f>
-        <v>23678</v>
-      </c>
-      <c r="Q27" s="6">
+        <v>6432.0731999999989</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>9355</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>12770</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>16692</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>22649</v>
+      </c>
+      <c r="AK27" s="3">
+        <f>+AK26-AK28</f>
+        <v>22155.709999999992</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" ref="AL27:AS27" si="25">+AL26-AL28</f>
+        <v>21047.924499999994</v>
+      </c>
+      <c r="AM27" s="3">
         <f t="shared" si="25"/>
-        <v>23239</v>
-      </c>
-      <c r="R27" s="6">
+        <v>19995.52827499999</v>
+      </c>
+      <c r="AN27" s="3">
         <f t="shared" si="25"/>
-        <v>27323</v>
-      </c>
-      <c r="S27" s="6">
-        <f>+S25-S26</f>
-        <v>21903</v>
-      </c>
-      <c r="T27" s="6">
-        <f>+T25-T26</f>
-        <v>23630</v>
-      </c>
-      <c r="U27" s="6">
-        <f>+U25-U26</f>
-        <v>21998</v>
-      </c>
-      <c r="V27" s="6">
-        <f>+V25-V26</f>
-        <v>23829</v>
-      </c>
-      <c r="W27" s="6">
-        <f>+W25*0.79</f>
-        <v>20901.851600000002</v>
-      </c>
-      <c r="X27" s="6">
-        <f t="shared" ref="X27:Z27" si="26">+X25*0.79</f>
-        <v>21795.278399999999</v>
-      </c>
-      <c r="Y27" s="6">
-        <f t="shared" si="26"/>
-        <v>21086.885399999999</v>
-      </c>
-      <c r="Z27" s="6">
-        <f t="shared" si="26"/>
-        <v>24196.846799999999</v>
-      </c>
-      <c r="AG27" s="3">
-        <f>+AG25-AG26</f>
-        <v>46483</v>
-      </c>
-      <c r="AH27" s="3">
-        <f>+AH25-AH26</f>
-        <v>57927</v>
-      </c>
-      <c r="AI27" s="3">
-        <f>+AI25-AI26</f>
-        <v>69273</v>
-      </c>
-      <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="27">+AJ25-AJ26</f>
-        <v>95280</v>
-      </c>
-      <c r="AK27" s="3">
-        <f>+AK25*0.81</f>
-        <v>94453.290000000008</v>
-      </c>
-      <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AS27" si="28">+AL25*0.81</f>
-        <v>89730.625499999995</v>
-      </c>
-      <c r="AM27" s="3">
-        <f t="shared" si="28"/>
-        <v>85244.094224999993</v>
-      </c>
-      <c r="AN27" s="3">
-        <f t="shared" si="28"/>
-        <v>93768.503647500009</v>
+        <v>21995.081102499986</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" si="28"/>
-        <v>98456.928829875003</v>
+        <f t="shared" si="25"/>
+        <v>23094.835157624999</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" si="28"/>
-        <v>101410.63669477125</v>
+        <f t="shared" si="25"/>
+        <v>23787.680212353749</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="28"/>
-        <v>104452.9557956144</v>
+        <f t="shared" si="25"/>
+        <v>24501.310618724354</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="28"/>
-        <v>107586.54446948285</v>
+        <f t="shared" si="25"/>
+        <v>25236.349937286082</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="28"/>
-        <v>110814.14080356732</v>
+        <f t="shared" si="25"/>
+        <v>25993.440435404671</v>
       </c>
     </row>
     <row r="28" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6">
-        <v>2238</v>
+        <f t="shared" ref="C28:D28" si="26">+C26-C27</f>
+        <v>10039</v>
       </c>
       <c r="D28" s="6">
-        <v>2523</v>
+        <f t="shared" si="26"/>
+        <v>11017</v>
       </c>
       <c r="E28" s="6">
-        <v>2657</v>
+        <f t="shared" ref="E28:G28" si="27">+E26-E27</f>
+        <v>11309</v>
       </c>
       <c r="F28" s="6">
-        <v>2855</v>
+        <f t="shared" si="27"/>
+        <v>14118</v>
       </c>
       <c r="G28" s="6">
-        <v>2860</v>
+        <f t="shared" si="27"/>
+        <v>12261</v>
       </c>
       <c r="H28" s="6">
-        <v>3315</v>
+        <f t="shared" ref="H28" si="28">+H26-H27</f>
+        <v>13579</v>
       </c>
       <c r="I28" s="6">
-        <v>3548</v>
+        <f t="shared" ref="I28:J28" si="29">+I26-I27</f>
+        <v>14497</v>
       </c>
       <c r="J28" s="6">
-        <v>3877</v>
+        <f t="shared" si="29"/>
+        <v>17590</v>
       </c>
       <c r="K28" s="6">
-        <v>4015</v>
+        <f t="shared" ref="K28:N28" si="30">+K26-K27</f>
+        <v>14278</v>
       </c>
       <c r="L28" s="6">
-        <v>4462</v>
+        <f t="shared" si="30"/>
+        <v>14858</v>
       </c>
       <c r="M28" s="6">
-        <v>4763</v>
+        <f t="shared" si="30"/>
+        <v>17276</v>
       </c>
       <c r="N28" s="6">
-        <v>5208</v>
+        <f t="shared" si="30"/>
+        <v>22862</v>
       </c>
       <c r="O28" s="6">
-        <v>5197</v>
+        <f>+O26-O27</f>
+        <v>21040</v>
       </c>
       <c r="P28" s="6">
-        <v>6096</v>
+        <f t="shared" ref="P28:R28" si="31">+P26-P27</f>
+        <v>23678</v>
       </c>
       <c r="Q28" s="6">
-        <v>6316</v>
+        <f t="shared" si="31"/>
+        <v>23239</v>
       </c>
       <c r="R28" s="6">
-        <v>7046</v>
+        <f t="shared" si="31"/>
+        <v>27323</v>
       </c>
       <c r="S28" s="6">
-        <v>7707</v>
+        <f>+S26-S27</f>
+        <v>21903</v>
       </c>
       <c r="T28" s="6">
-        <v>8690</v>
+        <f>+T26-T27</f>
+        <v>23630</v>
       </c>
       <c r="U28" s="6">
-        <v>9170</v>
+        <f>+U26-U27</f>
+        <v>21998</v>
       </c>
       <c r="V28" s="6">
-        <v>9771</v>
+        <f>+V26-V27</f>
+        <v>23829</v>
       </c>
       <c r="W28" s="6">
-        <f>+S28*0.9</f>
-        <v>6936.3</v>
+        <f>+W26*0.79</f>
+        <v>20901.851600000002</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" ref="X28:X30" si="29">+T28*0.9</f>
-        <v>7821</v>
+        <f t="shared" ref="X28:Z28" si="32">+X26*0.79</f>
+        <v>21795.278399999999</v>
       </c>
       <c r="Y28" s="6">
-        <f t="shared" ref="Y28:Y30" si="30">+U28*0.9</f>
-        <v>8253</v>
+        <f t="shared" si="32"/>
+        <v>21086.885399999999</v>
       </c>
       <c r="Z28" s="6">
-        <f t="shared" ref="Z28:Z30" si="31">+V28*0.9</f>
-        <v>8793.9</v>
+        <f t="shared" si="32"/>
+        <v>24196.846799999999</v>
       </c>
       <c r="AG28" s="3">
-        <v>10273</v>
+        <f>+AG26-AG27</f>
+        <v>46483</v>
       </c>
       <c r="AH28" s="3">
-        <v>13600</v>
+        <f>+AH26-AH27</f>
+        <v>57927</v>
       </c>
       <c r="AI28" s="3">
-        <v>18447</v>
+        <f>+AI26-AI27</f>
+        <v>69273</v>
       </c>
       <c r="AJ28" s="3">
-        <v>24655</v>
+        <f t="shared" ref="AJ28" si="33">+AJ26-AJ27</f>
+        <v>95280</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" ref="AK28:AP28" si="32">+AJ28*0.9</f>
-        <v>22189.5</v>
+        <f>+AK26*0.81</f>
+        <v>94453.290000000008</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="32"/>
-        <v>19970.55</v>
+        <f t="shared" ref="AL28:AS28" si="34">+AL26*0.81</f>
+        <v>89730.625499999995</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" si="32"/>
-        <v>17973.494999999999</v>
+        <f t="shared" si="34"/>
+        <v>85244.094224999993</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="32"/>
-        <v>16176.145499999999</v>
+        <f t="shared" si="34"/>
+        <v>93768.503647500009</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="32"/>
-        <v>14558.530949999998</v>
+        <f t="shared" si="34"/>
+        <v>98456.928829875003</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" si="32"/>
-        <v>13102.677854999998</v>
+        <f t="shared" si="34"/>
+        <v>101410.63669477125</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AQ28:AS28" si="33">+AP28*0.9</f>
-        <v>11792.410069499998</v>
+        <f t="shared" si="34"/>
+        <v>104452.9557956144</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="33"/>
-        <v>10613.169062549998</v>
+        <f t="shared" si="34"/>
+        <v>107586.54446948285</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="33"/>
-        <v>9551.8521562949991</v>
+        <f t="shared" si="34"/>
+        <v>110814.14080356732</v>
       </c>
     </row>
     <row r="29" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="6">
-        <v>1595</v>
+        <v>2238</v>
       </c>
       <c r="D29" s="6">
-        <v>1855</v>
+        <v>2523</v>
       </c>
       <c r="E29" s="6">
-        <v>1928</v>
+        <v>2657</v>
       </c>
       <c r="F29" s="6">
-        <v>2467</v>
+        <v>2855</v>
       </c>
       <c r="G29" s="6">
-        <v>2020</v>
+        <v>2860</v>
       </c>
       <c r="H29" s="6">
-        <v>2414</v>
+        <v>3315</v>
       </c>
       <c r="I29" s="6">
-        <v>2416</v>
+        <v>3548</v>
       </c>
       <c r="J29" s="6">
-        <v>3026</v>
+        <v>3877</v>
       </c>
       <c r="K29" s="6">
-        <v>2787</v>
+        <v>4015</v>
       </c>
       <c r="L29" s="6">
-        <v>2840</v>
+        <v>4462</v>
       </c>
       <c r="M29" s="6">
-        <v>2683</v>
+        <v>4763</v>
       </c>
       <c r="N29" s="6">
-        <v>3280</v>
+        <v>5208</v>
       </c>
       <c r="O29" s="6">
-        <v>2843</v>
+        <v>5197</v>
       </c>
       <c r="P29" s="6">
-        <v>3259</v>
+        <v>6096</v>
       </c>
       <c r="Q29" s="6">
-        <v>3554</v>
+        <v>6316</v>
       </c>
       <c r="R29" s="6">
-        <v>4387</v>
+        <v>7046</v>
       </c>
       <c r="S29" s="6">
-        <v>3312</v>
+        <v>7707</v>
       </c>
       <c r="T29" s="6">
-        <v>3595</v>
+        <v>8690</v>
       </c>
       <c r="U29" s="6">
-        <v>3780</v>
+        <v>9170</v>
       </c>
       <c r="V29" s="6">
-        <v>4574</v>
+        <v>9771</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" ref="W29:W30" si="34">+S29*0.9</f>
-        <v>2980.8</v>
+        <f>+S29*0.9</f>
+        <v>6936.3</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" si="29"/>
-        <v>3235.5</v>
+        <f t="shared" ref="X29:X31" si="35">+T29*0.9</f>
+        <v>7821</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" si="30"/>
-        <v>3402</v>
+        <f t="shared" ref="Y29:Y31" si="36">+U29*0.9</f>
+        <v>8253</v>
       </c>
       <c r="Z29" s="6">
-        <f t="shared" si="31"/>
-        <v>4116.6000000000004</v>
+        <f t="shared" ref="Z29:Z31" si="37">+V29*0.9</f>
+        <v>8793.9</v>
       </c>
       <c r="AG29" s="3">
-        <v>7846</v>
+        <v>10273</v>
       </c>
       <c r="AH29" s="3">
-        <v>9876</v>
+        <v>13600</v>
       </c>
       <c r="AI29" s="3">
-        <v>11591</v>
+        <v>18447</v>
       </c>
       <c r="AJ29" s="3">
-        <v>14043</v>
+        <v>24655</v>
       </c>
       <c r="AK29" s="3">
-        <f>+AJ29</f>
-        <v>14043</v>
+        <f t="shared" ref="AK29:AP29" si="38">+AJ29*0.9</f>
+        <v>22189.5</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" ref="AL29:AS29" si="35">+AK29</f>
-        <v>14043</v>
+        <f t="shared" si="38"/>
+        <v>19970.55</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" si="38"/>
+        <v>17973.494999999999</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" si="38"/>
+        <v>16176.145499999999</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" si="38"/>
+        <v>14558.530949999998</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" si="38"/>
+        <v>13102.677854999998</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" ref="AQ29:AS29" si="39">+AP29*0.9</f>
+        <v>11792.410069499998</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" si="39"/>
+        <v>10613.169062549998</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="35"/>
-        <v>14043</v>
+        <f t="shared" si="39"/>
+        <v>9551.8521562949991</v>
       </c>
     </row>
     <row r="30" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1595</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1855</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1928</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2467</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2414</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2416</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3026</v>
+      </c>
+      <c r="K30" s="6">
+        <v>2787</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2840</v>
+      </c>
+      <c r="M30" s="6">
+        <v>2683</v>
+      </c>
+      <c r="N30" s="6">
+        <v>3280</v>
+      </c>
+      <c r="O30" s="6">
+        <v>2843</v>
+      </c>
+      <c r="P30" s="6">
+        <v>3259</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>3554</v>
+      </c>
+      <c r="R30" s="6">
+        <v>4387</v>
+      </c>
+      <c r="S30" s="6">
+        <v>3312</v>
+      </c>
+      <c r="T30" s="6">
+        <v>3595</v>
+      </c>
+      <c r="U30" s="6">
+        <v>3780</v>
+      </c>
+      <c r="V30" s="6">
+        <v>4574</v>
+      </c>
+      <c r="W30" s="6">
+        <f t="shared" ref="W30:W31" si="40">+S30*0.9</f>
+        <v>2980.8</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" si="35"/>
+        <v>3235.5</v>
+      </c>
+      <c r="Y30" s="6">
+        <f t="shared" si="36"/>
+        <v>3402</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="37"/>
+        <v>4116.6000000000004</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>7846</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>9876</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>11591</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>14043</v>
+      </c>
+      <c r="AK30" s="3">
+        <f>+AJ30</f>
+        <v>14043</v>
+      </c>
+      <c r="AL30" s="3">
+        <f t="shared" ref="AL30:AS30" si="41">+AK30</f>
+        <v>14043</v>
+      </c>
+      <c r="AM30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+      <c r="AN30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+      <c r="AO30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+      <c r="AP30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+      <c r="AQ30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+      <c r="AR30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+      <c r="AS30" s="3">
+        <f t="shared" si="41"/>
+        <v>14043</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="6">
         <v>757</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>776</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>943</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>976</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <f>4064-3000</f>
         <v>1064</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="6">
         <f>3224-2000</f>
         <v>1224</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="6">
         <v>1348</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J31" s="6">
         <v>1829</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K31" s="6">
         <v>1583</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L31" s="6">
         <v>1593</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M31" s="6">
         <v>1790</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N31" s="6">
         <v>1599</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O31" s="6">
         <v>1622</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P31" s="6">
         <v>1956</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q31" s="6">
         <v>2946</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R31" s="6">
         <v>3305</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S31" s="6">
         <v>2360</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T31" s="6">
         <v>2987</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U31" s="6">
         <v>3384</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V31" s="6">
         <v>3085</v>
       </c>
-      <c r="W30" s="6">
-        <f t="shared" si="34"/>
+      <c r="W31" s="6">
+        <f t="shared" si="40"/>
         <v>2124</v>
       </c>
-      <c r="X30" s="6">
-        <f t="shared" si="29"/>
+      <c r="X31" s="6">
+        <f t="shared" si="35"/>
         <v>2688.3</v>
       </c>
-      <c r="Y30" s="6">
-        <f t="shared" si="30"/>
+      <c r="Y31" s="6">
+        <f t="shared" si="36"/>
         <v>3045.6</v>
       </c>
-      <c r="Z30" s="6">
-        <f t="shared" si="31"/>
+      <c r="Z31" s="6">
+        <f t="shared" si="37"/>
         <v>2776.5</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AG31" s="3">
         <v>3451</v>
       </c>
-      <c r="AH30" s="3">
+      <c r="AH31" s="3">
         <f>10465-5000</f>
         <v>5465</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AI31" s="3">
         <v>6564</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AJ31" s="3">
         <v>9829</v>
       </c>
-      <c r="AK30" s="3">
-        <f t="shared" ref="AK30:AS30" si="36">+AJ30</f>
+      <c r="AK31" s="3">
+        <f t="shared" ref="AK31:AS31" si="42">+AJ31</f>
         <v>9829</v>
       </c>
-      <c r="AL30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AL31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AM30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AM31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AN30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AN31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AO30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AO31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AP30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AP31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AQ30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AQ31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AR30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AR31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
       </c>
-      <c r="AS30" s="3">
-        <f t="shared" si="36"/>
+      <c r="AS31" s="3">
+        <f t="shared" si="42"/>
         <v>9829</v>
-      </c>
-    </row>
-    <row r="31" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6">
-        <f t="shared" ref="C31:D31" si="37">+C30+C29+C28</f>
-        <v>4590</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="37"/>
-        <v>5154</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" ref="E31:G31" si="38">+E30+E29+E28</f>
-        <v>5528</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="38"/>
-        <v>6298</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="38"/>
-        <v>5944</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="39">+H30+H29+H28</f>
-        <v>6953</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" si="39"/>
-        <v>7312</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" ref="J31:K31" si="40">+J30+J29+J28</f>
-        <v>8732</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="40"/>
-        <v>8385</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" ref="L31" si="41">+L30+L29+L28</f>
-        <v>8895</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" ref="M31" si="42">+M30+M29+M28</f>
-        <v>9236</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" ref="N31" si="43">+N30+N29+N28</f>
-        <v>10087</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" ref="O31:R31" si="44">+O30+O29+O28</f>
-        <v>9662</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="44"/>
-        <v>11311</v>
-      </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="44"/>
-        <v>12816</v>
-      </c>
-      <c r="R31" s="6">
-        <f t="shared" si="44"/>
-        <v>14738</v>
-      </c>
-      <c r="S31" s="6">
-        <f>+S30+S29+S28</f>
-        <v>13379</v>
-      </c>
-      <c r="T31" s="6">
-        <f t="shared" ref="T31:V31" si="45">+T30+T29+T28</f>
-        <v>15272</v>
-      </c>
-      <c r="U31" s="6">
-        <f t="shared" si="45"/>
-        <v>16334</v>
-      </c>
-      <c r="V31" s="6">
-        <f t="shared" si="45"/>
-        <v>17430</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" ref="W31:Z31" si="46">+W30+W29+W28</f>
-        <v>12041.1</v>
-      </c>
-      <c r="X31" s="6">
-        <f t="shared" si="46"/>
-        <v>13744.8</v>
-      </c>
-      <c r="Y31" s="6">
-        <f t="shared" si="46"/>
-        <v>14700.6</v>
-      </c>
-      <c r="Z31" s="6">
-        <f t="shared" si="46"/>
-        <v>15687</v>
-      </c>
-      <c r="AG31" s="3">
-        <f>SUM(AG28:AG30)</f>
-        <v>21570</v>
-      </c>
-      <c r="AH31" s="3">
-        <f>SUM(AH28:AH30)</f>
-        <v>28941</v>
-      </c>
-      <c r="AI31" s="3">
-        <f>SUM(AI28:AI30)</f>
-        <v>36602</v>
-      </c>
-      <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="47">SUM(AJ28:AJ30)</f>
-        <v>48527</v>
-      </c>
-      <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="48">SUM(AK28:AK30)</f>
-        <v>46061.5</v>
-      </c>
-      <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="49">SUM(AL28:AL30)</f>
-        <v>43842.55</v>
-      </c>
-      <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="50">SUM(AM28:AM30)</f>
-        <v>41845.494999999995</v>
-      </c>
-      <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="51">SUM(AN28:AN30)</f>
-        <v>40048.145499999999</v>
-      </c>
-      <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="52">SUM(AO28:AO30)</f>
-        <v>38430.53095</v>
-      </c>
-      <c r="AP31" s="3">
-        <f t="shared" ref="AP31" si="53">SUM(AP28:AP30)</f>
-        <v>36974.677855000002</v>
-      </c>
-      <c r="AQ31" s="3">
-        <f t="shared" ref="AQ31" si="54">SUM(AQ28:AQ30)</f>
-        <v>35664.410069499994</v>
-      </c>
-      <c r="AR31" s="3">
-        <f t="shared" ref="AR31" si="55">SUM(AR28:AR30)</f>
-        <v>34485.169062549998</v>
-      </c>
-      <c r="AS31" s="3">
-        <f t="shared" ref="AS31" si="56">SUM(AS28:AS30)</f>
-        <v>33423.852156294997</v>
       </c>
     </row>
     <row r="32" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="57">+C27-C31</f>
-        <v>5449</v>
+        <f t="shared" ref="C32:D32" si="43">+C31+C30+C29</f>
+        <v>4590</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="57"/>
-        <v>5863</v>
+        <f t="shared" si="43"/>
+        <v>5154</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:G32" si="58">+E27-E31</f>
-        <v>5781</v>
+        <f t="shared" ref="E32:G32" si="44">+E31+E30+E29</f>
+        <v>5528</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="58"/>
-        <v>7820</v>
+        <f t="shared" si="44"/>
+        <v>6298</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="58"/>
-        <v>6317</v>
+        <f t="shared" si="44"/>
+        <v>5944</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:I32" si="59">+H27-H31</f>
-        <v>6626</v>
+        <f t="shared" ref="H32:I32" si="45">+H31+H30+H29</f>
+        <v>6953</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="59"/>
-        <v>7185</v>
+        <f t="shared" si="45"/>
+        <v>7312</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:K32" si="60">+J27-J31</f>
-        <v>8858</v>
+        <f t="shared" ref="J32:K32" si="46">+J31+J30+J29</f>
+        <v>8732</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="60"/>
-        <v>5893</v>
+        <f t="shared" si="46"/>
+        <v>8385</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ref="L32" si="61">+L27-L31</f>
-        <v>5963</v>
+        <f t="shared" ref="L32" si="47">+L31+L30+L29</f>
+        <v>8895</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32" si="62">+M27-M31</f>
-        <v>8040</v>
+        <f t="shared" ref="M32" si="48">+M31+M30+M29</f>
+        <v>9236</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="63">+N27-N31</f>
-        <v>12775</v>
+        <f t="shared" ref="N32" si="49">+N31+N30+N29</f>
+        <v>10087</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32:R32" si="64">+O27-O31</f>
-        <v>11378</v>
+        <f t="shared" ref="O32:R32" si="50">+O31+O30+O29</f>
+        <v>9662</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="64"/>
-        <v>12367</v>
+        <f t="shared" si="50"/>
+        <v>11311</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="64"/>
-        <v>10423</v>
+        <f t="shared" si="50"/>
+        <v>12816</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="64"/>
-        <v>12585</v>
+        <f t="shared" si="50"/>
+        <v>14738</v>
       </c>
       <c r="S32" s="6">
-        <f>+S27-S31</f>
-        <v>8524</v>
+        <f>+S31+S30+S29</f>
+        <v>13379</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ref="T32:V32" si="65">+T27-T31</f>
-        <v>8358</v>
+        <f t="shared" ref="T32:V32" si="51">+T31+T30+T29</f>
+        <v>15272</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="65"/>
-        <v>5664</v>
+        <f t="shared" si="51"/>
+        <v>16334</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="65"/>
-        <v>6399</v>
+        <f t="shared" si="51"/>
+        <v>17430</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" ref="W32:Z32" si="66">+W27-W31</f>
-        <v>8860.7516000000014</v>
+        <f t="shared" ref="W32:Z32" si="52">+W31+W30+W29</f>
+        <v>12041.1</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="66"/>
-        <v>8050.4784</v>
+        <f t="shared" si="52"/>
+        <v>13744.8</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="66"/>
-        <v>6386.2853999999988</v>
+        <f t="shared" si="52"/>
+        <v>14700.6</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="66"/>
-        <v>8509.8467999999993</v>
+        <f t="shared" si="52"/>
+        <v>15687</v>
       </c>
       <c r="AG32" s="3">
-        <f>AG27-AG31</f>
-        <v>24913</v>
+        <f>SUM(AG29:AG31)</f>
+        <v>21570</v>
       </c>
       <c r="AH32" s="3">
-        <f>AH27-AH31</f>
-        <v>28986</v>
+        <f>SUM(AH29:AH31)</f>
+        <v>28941</v>
       </c>
       <c r="AI32" s="3">
-        <f>AI27-AI31</f>
-        <v>32671</v>
+        <f>SUM(AI29:AI31)</f>
+        <v>36602</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="67">AJ27-AJ31</f>
-        <v>46753</v>
+        <f t="shared" ref="AJ32" si="53">SUM(AJ29:AJ31)</f>
+        <v>48527</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="68">AK27-AK31</f>
-        <v>48391.790000000008</v>
+        <f t="shared" ref="AK32" si="54">SUM(AK29:AK31)</f>
+        <v>46061.5</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="69">AL27-AL31</f>
-        <v>45888.075499999992</v>
+        <f t="shared" ref="AL32" si="55">SUM(AL29:AL31)</f>
+        <v>43842.55</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="70">AM27-AM31</f>
-        <v>43398.599224999998</v>
+        <f t="shared" ref="AM32" si="56">SUM(AM29:AM31)</f>
+        <v>41845.494999999995</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="71">AN27-AN31</f>
-        <v>53720.35814750001</v>
+        <f t="shared" ref="AN32" si="57">SUM(AN29:AN31)</f>
+        <v>40048.145499999999</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="72">AO27-AO31</f>
-        <v>60026.397879875003</v>
+        <f t="shared" ref="AO32" si="58">SUM(AO29:AO31)</f>
+        <v>38430.53095</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="73">AP27-AP31</f>
-        <v>64435.95883977125</v>
+        <f t="shared" ref="AP32" si="59">SUM(AP29:AP31)</f>
+        <v>36974.677855000002</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="74">AQ27-AQ31</f>
-        <v>68788.545726114404</v>
+        <f t="shared" ref="AQ32" si="60">SUM(AQ29:AQ31)</f>
+        <v>35664.410069499994</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="75">AR27-AR31</f>
-        <v>73101.375406932842</v>
+        <f t="shared" ref="AR32" si="61">SUM(AR29:AR31)</f>
+        <v>34485.169062549998</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" ref="AS32" si="76">AS27-AS31</f>
-        <v>77390.288647272333</v>
+        <f t="shared" ref="AS32" si="62">SUM(AS29:AS31)</f>
+        <v>33423.852156294997</v>
       </c>
     </row>
     <row r="33" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6">
-        <v>161</v>
+        <f t="shared" ref="C33:D33" si="63">+C28-C32</f>
+        <v>5449</v>
       </c>
       <c r="D33" s="6">
-        <v>5</v>
+        <f t="shared" si="63"/>
+        <v>5863</v>
       </c>
       <c r="E33" s="6">
-        <v>131</v>
+        <f t="shared" ref="E33:G33" si="64">+E28-E32</f>
+        <v>5781</v>
       </c>
       <c r="F33" s="6">
-        <v>151</v>
+        <f t="shared" si="64"/>
+        <v>7820</v>
       </c>
       <c r="G33" s="6">
-        <v>206</v>
+        <f t="shared" si="64"/>
+        <v>6317</v>
       </c>
       <c r="H33" s="6">
-        <v>206</v>
+        <f t="shared" ref="H33:I33" si="65">+H28-H32</f>
+        <v>6626</v>
       </c>
       <c r="I33" s="6">
-        <v>144</v>
+        <f t="shared" si="65"/>
+        <v>7185</v>
       </c>
       <c r="J33" s="6">
-        <v>311</v>
+        <f t="shared" ref="J33:K33" si="66">+J28-J32</f>
+        <v>8858</v>
       </c>
       <c r="K33" s="6">
-        <v>-32</v>
+        <f t="shared" si="66"/>
+        <v>5893</v>
       </c>
       <c r="L33" s="6">
-        <v>168</v>
+        <f t="shared" ref="L33" si="67">+L28-L32</f>
+        <v>5963</v>
       </c>
       <c r="M33" s="6">
-        <v>93</v>
+        <f t="shared" ref="M33" si="68">+M28-M32</f>
+        <v>8040</v>
       </c>
       <c r="N33" s="6">
-        <v>280</v>
+        <f t="shared" ref="N33" si="69">+N28-N32</f>
+        <v>12775</v>
       </c>
       <c r="O33" s="6">
-        <v>125</v>
+        <f t="shared" ref="O33:R33" si="70">+O28-O32</f>
+        <v>11378</v>
       </c>
       <c r="P33" s="6">
-        <v>146</v>
+        <f t="shared" si="70"/>
+        <v>12367</v>
       </c>
       <c r="Q33" s="6">
-        <v>142</v>
+        <f t="shared" si="70"/>
+        <v>10423</v>
       </c>
       <c r="R33" s="6">
-        <v>117</v>
+        <f t="shared" si="70"/>
+        <v>12585</v>
       </c>
       <c r="S33" s="6">
-        <v>384</v>
+        <f>+S28-S32</f>
+        <v>8524</v>
       </c>
       <c r="T33" s="6">
-        <v>-172</v>
+        <f t="shared" ref="T33:V33" si="71">+T28-T32</f>
+        <v>8358</v>
       </c>
       <c r="U33" s="6">
-        <v>-88</v>
+        <f t="shared" si="71"/>
+        <v>5664</v>
       </c>
       <c r="V33" s="6">
-        <v>-250</v>
+        <f t="shared" si="71"/>
+        <v>6399</v>
       </c>
       <c r="W33" s="6">
-        <f>+V33</f>
-        <v>-250</v>
+        <f t="shared" ref="W33:Z33" si="72">+W28-W32</f>
+        <v>8860.7516000000014</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" ref="X33:Z33" si="77">+W33</f>
-        <v>-250</v>
+        <f t="shared" si="72"/>
+        <v>8050.4784</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="77"/>
-        <v>-250</v>
+        <f t="shared" si="72"/>
+        <v>6386.2853999999988</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="77"/>
-        <v>-250</v>
+        <f t="shared" si="72"/>
+        <v>8509.8467999999993</v>
       </c>
       <c r="AG33" s="3">
-        <v>448</v>
+        <f>AG28-AG32</f>
+        <v>24913</v>
       </c>
       <c r="AH33" s="3">
-        <v>826</v>
+        <f>AH28-AH32</f>
+        <v>28986</v>
       </c>
       <c r="AI33" s="3">
-        <v>509</v>
+        <f>AI28-AI32</f>
+        <v>32671</v>
       </c>
       <c r="AJ33" s="3">
-        <v>531</v>
+        <f t="shared" ref="AJ33" si="73">AJ28-AJ32</f>
+        <v>46753</v>
+      </c>
+      <c r="AK33" s="3">
+        <f t="shared" ref="AK33" si="74">AK28-AK32</f>
+        <v>48391.790000000008</v>
       </c>
       <c r="AL33" s="3">
-        <f t="shared" ref="AL33:AS33" si="78">+AK52*$AX$51</f>
-        <v>1059.1200000000001</v>
+        <f t="shared" ref="AL33" si="75">AL28-AL32</f>
+        <v>45888.075499999992</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" si="78"/>
-        <v>1829.0540062</v>
+        <f t="shared" ref="AM33" si="76">AM28-AM32</f>
+        <v>43398.599224999998</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="78"/>
-        <v>2570.7875191916801</v>
+        <f t="shared" ref="AN33" si="77">AN28-AN32</f>
+        <v>53720.35814750001</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="78"/>
-        <v>3493.962308125424</v>
+        <f t="shared" ref="AO33" si="78">AO28-AO32</f>
+        <v>60026.397879875003</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" si="78"/>
-        <v>4535.6962152086307</v>
+        <f t="shared" ref="AP33" si="79">AP28-AP32</f>
+        <v>64435.95883977125</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="78"/>
-        <v>5666.8313581103021</v>
+        <f t="shared" ref="AQ33" si="80">AQ28-AQ32</f>
+        <v>68788.545726114404</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" si="78"/>
-        <v>6887.8995422915868</v>
+        <f t="shared" ref="AR33" si="81">AR28-AR32</f>
+        <v>73101.375406932842</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" si="78"/>
-        <v>8199.7236514588676</v>
+        <f t="shared" ref="AS33" si="82">AS28-AS32</f>
+        <v>77390.288647272333</v>
       </c>
     </row>
     <row r="34" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="79">+C32+C33</f>
-        <v>5610</v>
+        <v>161</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="79"/>
-        <v>5868</v>
+        <v>5</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:G34" si="80">+E32+E33</f>
-        <v>5912</v>
+        <v>131</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="80"/>
-        <v>7971</v>
+        <v>151</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="80"/>
-        <v>6523</v>
+        <v>206</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34" si="81">+H32+H33</f>
-        <v>6832</v>
+        <v>206</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="82">+I32+I33</f>
-        <v>7329</v>
+        <v>144</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="82"/>
-        <v>9169</v>
+        <v>311</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34:R34" si="83">+K32+K33</f>
-        <v>5861</v>
+        <v>-32</v>
       </c>
       <c r="L34" s="6">
+        <v>168</v>
+      </c>
+      <c r="M34" s="6">
+        <v>93</v>
+      </c>
+      <c r="N34" s="6">
+        <v>280</v>
+      </c>
+      <c r="O34" s="6">
+        <v>125</v>
+      </c>
+      <c r="P34" s="6">
+        <v>146</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>142</v>
+      </c>
+      <c r="R34" s="6">
+        <v>117</v>
+      </c>
+      <c r="S34" s="6">
+        <v>384</v>
+      </c>
+      <c r="T34" s="6">
+        <v>-172</v>
+      </c>
+      <c r="U34" s="6">
+        <v>-88</v>
+      </c>
+      <c r="V34" s="6">
+        <v>-250</v>
+      </c>
+      <c r="W34" s="6">
+        <f>+V34</f>
+        <v>-250</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" ref="X34:Z34" si="83">+W34</f>
+        <v>-250</v>
+      </c>
+      <c r="Y34" s="6">
         <f t="shared" si="83"/>
-        <v>6131</v>
-      </c>
-      <c r="M34" s="6">
+        <v>-250</v>
+      </c>
+      <c r="Z34" s="6">
         <f t="shared" si="83"/>
-        <v>8133</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="83"/>
-        <v>13055</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" si="83"/>
-        <v>11503</v>
-      </c>
-      <c r="P34" s="6">
-        <f t="shared" si="83"/>
-        <v>12513</v>
-      </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="83"/>
-        <v>10565</v>
-      </c>
-      <c r="R34" s="6">
-        <f t="shared" si="83"/>
-        <v>12702</v>
-      </c>
-      <c r="S34" s="6">
-        <f>+S32+S33</f>
-        <v>8908</v>
-      </c>
-      <c r="T34" s="6">
-        <f t="shared" ref="T34:Z34" si="84">+T32+T33</f>
-        <v>8186</v>
-      </c>
-      <c r="U34" s="6">
+        <v>-250</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>448</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>826</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>509</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>531</v>
+      </c>
+      <c r="AL34" s="3">
+        <f t="shared" ref="AL34:AS34" si="84">+AK53*$AX$52</f>
+        <v>1059.1200000000001</v>
+      </c>
+      <c r="AM34" s="3">
         <f t="shared" si="84"/>
-        <v>5576</v>
-      </c>
-      <c r="V34" s="6">
+        <v>1829.0540062</v>
+      </c>
+      <c r="AN34" s="3">
         <f t="shared" si="84"/>
-        <v>6149</v>
-      </c>
-      <c r="W34" s="6">
+        <v>2570.7875191916801</v>
+      </c>
+      <c r="AO34" s="3">
         <f t="shared" si="84"/>
-        <v>8610.7516000000014</v>
-      </c>
-      <c r="X34" s="6">
+        <v>3493.962308125424</v>
+      </c>
+      <c r="AP34" s="3">
         <f t="shared" si="84"/>
-        <v>7800.4784</v>
-      </c>
-      <c r="Y34" s="6">
+        <v>4535.6962152086307</v>
+      </c>
+      <c r="AQ34" s="3">
         <f t="shared" si="84"/>
-        <v>6136.2853999999988</v>
-      </c>
-      <c r="Z34" s="6">
+        <v>5666.8313581103021</v>
+      </c>
+      <c r="AR34" s="3">
         <f t="shared" si="84"/>
-        <v>8259.8467999999993</v>
-      </c>
-      <c r="AG34" s="3">
-        <f>+AG32+AG33</f>
-        <v>25361</v>
-      </c>
-      <c r="AH34" s="3">
-        <f>+AH32+AH33</f>
-        <v>29812</v>
-      </c>
-      <c r="AI34" s="3">
-        <f>+AI32+AI33</f>
-        <v>33180</v>
-      </c>
-      <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="85">+AJ32+AJ33</f>
-        <v>47284</v>
-      </c>
-      <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="86">+AK32+AK33</f>
-        <v>48391.790000000008</v>
-      </c>
-      <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="87">+AL32+AL33</f>
-        <v>46947.195499999994</v>
-      </c>
-      <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="88">+AM32+AM33</f>
-        <v>45227.653231199998</v>
-      </c>
-      <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="89">+AN32+AN33</f>
-        <v>56291.145666691693</v>
-      </c>
-      <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="90">+AO32+AO33</f>
-        <v>63520.360188000428</v>
-      </c>
-      <c r="AP34" s="3">
-        <f t="shared" ref="AP34" si="91">+AP32+AP33</f>
-        <v>68971.655054979885</v>
-      </c>
-      <c r="AQ34" s="3">
-        <f t="shared" ref="AQ34" si="92">+AQ32+AQ33</f>
-        <v>74455.377084224703</v>
-      </c>
-      <c r="AR34" s="3">
-        <f t="shared" ref="AR34" si="93">+AR32+AR33</f>
-        <v>79989.274949224433</v>
+        <v>6887.8995422915868</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" ref="AS34" si="94">+AS32+AS33</f>
-        <v>85590.012298731206</v>
+        <f t="shared" si="84"/>
+        <v>8199.7236514588676</v>
       </c>
     </row>
     <row r="35" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:D35" si="85">+C33+C34</f>
+        <v>5610</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="85"/>
+        <v>5868</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" ref="E35:G35" si="86">+E33+E34</f>
+        <v>5912</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="86"/>
+        <v>7971</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="86"/>
+        <v>6523</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" ref="H35" si="87">+H33+H34</f>
+        <v>6832</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" ref="I35:J35" si="88">+I33+I34</f>
+        <v>7329</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="88"/>
+        <v>9169</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" ref="K35:R35" si="89">+K33+K34</f>
+        <v>5861</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="89"/>
+        <v>6131</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="89"/>
+        <v>8133</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="89"/>
+        <v>13055</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="89"/>
+        <v>11503</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="89"/>
+        <v>12513</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="89"/>
+        <v>10565</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="89"/>
+        <v>12702</v>
+      </c>
+      <c r="S35" s="6">
+        <f>+S33+S34</f>
+        <v>8908</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" ref="T35:Z35" si="90">+T33+T34</f>
+        <v>8186</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="90"/>
+        <v>5576</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" si="90"/>
+        <v>6149</v>
+      </c>
+      <c r="W35" s="6">
+        <f t="shared" si="90"/>
+        <v>8610.7516000000014</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="90"/>
+        <v>7800.4784</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="90"/>
+        <v>6136.2853999999988</v>
+      </c>
+      <c r="Z35" s="6">
+        <f t="shared" si="90"/>
+        <v>8259.8467999999993</v>
+      </c>
+      <c r="AG35" s="3">
+        <f>+AG33+AG34</f>
+        <v>25361</v>
+      </c>
+      <c r="AH35" s="3">
+        <f>+AH33+AH34</f>
+        <v>29812</v>
+      </c>
+      <c r="AI35" s="3">
+        <f>+AI33+AI34</f>
+        <v>33180</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f t="shared" ref="AJ35" si="91">+AJ33+AJ34</f>
+        <v>47284</v>
+      </c>
+      <c r="AK35" s="3">
+        <f t="shared" ref="AK35" si="92">+AK33+AK34</f>
+        <v>48391.790000000008</v>
+      </c>
+      <c r="AL35" s="3">
+        <f t="shared" ref="AL35" si="93">+AL33+AL34</f>
+        <v>46947.195499999994</v>
+      </c>
+      <c r="AM35" s="3">
+        <f t="shared" ref="AM35" si="94">+AM33+AM34</f>
+        <v>45227.653231199998</v>
+      </c>
+      <c r="AN35" s="3">
+        <f t="shared" ref="AN35" si="95">+AN33+AN34</f>
+        <v>56291.145666691693</v>
+      </c>
+      <c r="AO35" s="3">
+        <f t="shared" ref="AO35" si="96">+AO33+AO34</f>
+        <v>63520.360188000428</v>
+      </c>
+      <c r="AP35" s="3">
+        <f t="shared" ref="AP35" si="97">+AP33+AP34</f>
+        <v>68971.655054979885</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f t="shared" ref="AQ35" si="98">+AQ33+AQ34</f>
+        <v>74455.377084224703</v>
+      </c>
+      <c r="AR35" s="3">
+        <f t="shared" ref="AR35" si="99">+AR33+AR34</f>
+        <v>79989.274949224433</v>
+      </c>
+      <c r="AS35" s="3">
+        <f t="shared" ref="AS35" si="100">+AS33+AS34</f>
+        <v>85590.012298731206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C36" s="6">
         <f>622+1</f>
         <v>623</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>762</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>775</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>1089</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>2216</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <v>2216</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>1238</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="6">
         <v>1820</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <v>959</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L36" s="6">
         <v>953</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M36" s="6">
         <v>287</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N36" s="6">
         <v>1836</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O36" s="6">
         <v>2006</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P36" s="6">
         <v>2119</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q36" s="6">
         <v>1371</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R36" s="6">
         <v>2417</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S36" s="6">
         <v>1443</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T36" s="6">
         <v>1499</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U36" s="6">
         <v>1181</v>
       </c>
-      <c r="V35" s="6">
+      <c r="V36" s="6">
         <v>1497</v>
       </c>
-      <c r="W35" s="6">
-        <f t="shared" ref="V35:Z35" si="95">+W34*0.19</f>
+      <c r="W36" s="6">
+        <f t="shared" ref="W36:Z36" si="101">+W35*0.19</f>
         <v>1636.0428040000004</v>
       </c>
-      <c r="X35" s="6">
-        <f t="shared" si="95"/>
+      <c r="X36" s="6">
+        <f t="shared" si="101"/>
         <v>1482.0908959999999</v>
       </c>
-      <c r="Y35" s="6">
-        <f t="shared" si="95"/>
+      <c r="Y36" s="6">
+        <f t="shared" si="101"/>
         <v>1165.8942259999999</v>
       </c>
-      <c r="Z35" s="6">
-        <f t="shared" si="95"/>
+      <c r="Z36" s="6">
+        <f t="shared" si="101"/>
         <v>1569.3708919999999</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AG36" s="3">
         <f>3249+1</f>
         <v>3250</v>
       </c>
-      <c r="AH35" s="3">
+      <c r="AH36" s="3">
         <v>6327</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AI36" s="3">
         <v>4034</v>
       </c>
-      <c r="AJ35" s="3">
+      <c r="AJ36" s="3">
         <v>7914</v>
       </c>
-      <c r="AK35" s="3">
-        <f>+AK34*0.18</f>
+      <c r="AK36" s="3">
+        <f>+AK35*0.18</f>
         <v>8710.5222000000012</v>
       </c>
-      <c r="AL35" s="3">
-        <f t="shared" ref="AL35:AS35" si="96">+AL34*0.18</f>
+      <c r="AL36" s="3">
+        <f t="shared" ref="AL36:AS36" si="102">+AL35*0.18</f>
         <v>8450.4951899999978</v>
       </c>
-      <c r="AM35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AM36" s="3">
+        <f t="shared" si="102"/>
         <v>8140.977581615999</v>
       </c>
-      <c r="AN35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AN36" s="3">
+        <f t="shared" si="102"/>
         <v>10132.406220004505</v>
       </c>
-      <c r="AO35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AO36" s="3">
+        <f t="shared" si="102"/>
         <v>11433.664833840077</v>
       </c>
-      <c r="AP35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AP36" s="3">
+        <f t="shared" si="102"/>
         <v>12414.897909896379</v>
       </c>
-      <c r="AQ35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AQ36" s="3">
+        <f t="shared" si="102"/>
         <v>13401.967875160446</v>
       </c>
-      <c r="AR35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AR36" s="3">
+        <f t="shared" si="102"/>
         <v>14398.069490860398</v>
       </c>
-      <c r="AS35" s="3">
-        <f t="shared" si="96"/>
+      <c r="AS36" s="3">
+        <f t="shared" si="102"/>
         <v>15406.202213771616</v>
       </c>
     </row>
-    <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="97">+C34-C35</f>
+      <c r="C37" s="6">
+        <f t="shared" ref="C37:D37" si="103">+C35-C36</f>
         <v>4987</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="97"/>
+      <c r="D37" s="6">
+        <f t="shared" si="103"/>
         <v>5106</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" ref="E36:G36" si="98">+E34-E35</f>
+      <c r="E37" s="6">
+        <f t="shared" ref="E37:G37" si="104">+E35-E36</f>
         <v>5137</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="98"/>
+      <c r="F37" s="6">
+        <f t="shared" si="104"/>
         <v>6882</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="98"/>
+      <c r="G37" s="6">
+        <f t="shared" si="104"/>
         <v>4307</v>
       </c>
-      <c r="H36" s="6">
-        <f t="shared" ref="H36" si="99">+H34-H35</f>
+      <c r="H37" s="6">
+        <f t="shared" ref="H37" si="105">+H35-H36</f>
         <v>4616</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" ref="I36:J36" si="100">+I34-I35</f>
+      <c r="I37" s="6">
+        <f t="shared" ref="I37:J37" si="106">+I35-I36</f>
         <v>6091</v>
       </c>
-      <c r="J36" s="6">
-        <f t="shared" si="100"/>
+      <c r="J37" s="6">
+        <f t="shared" si="106"/>
         <v>7349</v>
       </c>
-      <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="101">+K34-K35</f>
+      <c r="K37" s="6">
+        <f t="shared" ref="K37:L37" si="107">+K35-K36</f>
         <v>4902</v>
       </c>
-      <c r="L36" s="6">
-        <f t="shared" si="101"/>
+      <c r="L37" s="6">
+        <f t="shared" si="107"/>
         <v>5178</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" ref="M36:R36" si="102">+M34-M35</f>
+      <c r="M37" s="6">
+        <f t="shared" ref="M37:R37" si="108">+M35-M36</f>
         <v>7846</v>
       </c>
-      <c r="N36" s="6">
-        <f t="shared" si="102"/>
+      <c r="N37" s="6">
+        <f t="shared" si="108"/>
         <v>11219</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" si="102"/>
+      <c r="O37" s="6">
+        <f t="shared" si="108"/>
         <v>9497</v>
       </c>
-      <c r="P36" s="6">
-        <f t="shared" si="102"/>
+      <c r="P37" s="6">
+        <f t="shared" si="108"/>
         <v>10394</v>
       </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="102"/>
+      <c r="Q37" s="6">
+        <f t="shared" si="108"/>
         <v>9194</v>
       </c>
-      <c r="R36" s="6">
-        <f t="shared" si="102"/>
+      <c r="R37" s="6">
+        <f t="shared" si="108"/>
         <v>10285</v>
       </c>
-      <c r="S36" s="6">
-        <f>+S34-S35</f>
+      <c r="S37" s="6">
+        <f>+S35-S36</f>
         <v>7465</v>
       </c>
-      <c r="T36" s="6">
-        <f t="shared" ref="T36:V36" si="103">+T34-T35</f>
+      <c r="T37" s="6">
+        <f t="shared" ref="T37:V37" si="109">+T35-T36</f>
         <v>6687</v>
       </c>
-      <c r="U36" s="6">
-        <f t="shared" si="103"/>
+      <c r="U37" s="6">
+        <f t="shared" si="109"/>
         <v>4395</v>
       </c>
-      <c r="V36" s="6">
-        <f t="shared" si="103"/>
+      <c r="V37" s="6">
+        <f t="shared" si="109"/>
         <v>4652</v>
       </c>
-      <c r="W36" s="6">
-        <f t="shared" ref="W36:Z36" si="104">+W34-W35</f>
+      <c r="W37" s="6">
+        <f t="shared" ref="W37:Z37" si="110">+W35-W36</f>
         <v>6974.7087960000008</v>
       </c>
-      <c r="X36" s="6">
-        <f t="shared" si="104"/>
+      <c r="X37" s="6">
+        <f t="shared" si="110"/>
         <v>6318.3875040000003</v>
       </c>
-      <c r="Y36" s="6">
-        <f t="shared" si="104"/>
+      <c r="Y37" s="6">
+        <f t="shared" si="110"/>
         <v>4970.3911739999985</v>
       </c>
-      <c r="Z36" s="6">
-        <f t="shared" si="104"/>
+      <c r="Z37" s="6">
+        <f t="shared" si="110"/>
         <v>6690.4759079999994</v>
       </c>
-      <c r="AG36" s="3">
-        <f>+AG34-AG35</f>
+      <c r="AG37" s="3">
+        <f>+AG35-AG36</f>
         <v>22111</v>
       </c>
-      <c r="AH36" s="3">
-        <f>+AH34-AH35</f>
+      <c r="AH37" s="3">
+        <f>+AH35-AH36</f>
         <v>23485</v>
       </c>
-      <c r="AI36" s="3">
-        <f>+AI34-AI35</f>
+      <c r="AI37" s="3">
+        <f>+AI35-AI36</f>
         <v>29146</v>
       </c>
-      <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="105">+AJ34-AJ35</f>
+      <c r="AJ37" s="3">
+        <f t="shared" ref="AJ37" si="111">+AJ35-AJ36</f>
         <v>39370</v>
       </c>
-      <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="106">+AK34-AK35</f>
+      <c r="AK37" s="3">
+        <f t="shared" ref="AK37" si="112">+AK35-AK36</f>
         <v>39681.267800000009</v>
       </c>
-      <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="107">+AL34-AL35</f>
+      <c r="AL37" s="3">
+        <f t="shared" ref="AL37" si="113">+AL35-AL36</f>
         <v>38496.70031</v>
       </c>
-      <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="108">+AM34-AM35</f>
+      <c r="AM37" s="3">
+        <f t="shared" ref="AM37" si="114">+AM35-AM36</f>
         <v>37086.675649584002</v>
       </c>
-      <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="109">+AN34-AN35</f>
+      <c r="AN37" s="3">
+        <f t="shared" ref="AN37" si="115">+AN35-AN36</f>
         <v>46158.739446687192</v>
       </c>
-      <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="110">+AO34-AO35</f>
+      <c r="AO37" s="3">
+        <f t="shared" ref="AO37" si="116">+AO35-AO36</f>
         <v>52086.695354160351</v>
       </c>
-      <c r="AP36" s="3">
-        <f t="shared" ref="AP36" si="111">+AP34-AP35</f>
+      <c r="AP37" s="3">
+        <f t="shared" ref="AP37" si="117">+AP35-AP36</f>
         <v>56556.757145083509</v>
       </c>
-      <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36" si="112">+AQ34-AQ35</f>
+      <c r="AQ37" s="3">
+        <f t="shared" ref="AQ37" si="118">+AQ35-AQ36</f>
         <v>61053.409209064259</v>
       </c>
-      <c r="AR36" s="3">
-        <f t="shared" ref="AR36" si="113">+AR34-AR35</f>
+      <c r="AR37" s="3">
+        <f t="shared" ref="AR37" si="119">+AR35-AR36</f>
         <v>65591.205458364042</v>
       </c>
-      <c r="AS36" s="3">
-        <f t="shared" ref="AS36" si="114">+AS34-AS35</f>
+      <c r="AS37" s="3">
+        <f t="shared" ref="AS37" si="120">+AS35-AS36</f>
         <v>70183.810084959594</v>
       </c>
-      <c r="AT36" s="3">
-        <f t="shared" ref="AT36:BY36" si="115">+AS36*(1+$AX$50)</f>
+      <c r="AT37" s="3">
+        <f t="shared" ref="AT37:BY37" si="121">+AS37*(1+$AX$51)</f>
         <v>66674.619580711616</v>
       </c>
-      <c r="AU36" s="3">
-        <f t="shared" si="115"/>
+      <c r="AU37" s="3">
+        <f t="shared" si="121"/>
         <v>63340.88860167603</v>
       </c>
-      <c r="AV36" s="3">
-        <f t="shared" si="115"/>
+      <c r="AV37" s="3">
+        <f t="shared" si="121"/>
         <v>60173.844171592224</v>
       </c>
-      <c r="AW36" s="3">
-        <f t="shared" si="115"/>
+      <c r="AW37" s="3">
+        <f t="shared" si="121"/>
         <v>57165.151963012613</v>
       </c>
-      <c r="AX36" s="3">
-        <f t="shared" si="115"/>
+      <c r="AX37" s="3">
+        <f t="shared" si="121"/>
         <v>54306.894364861982</v>
       </c>
-      <c r="AY36" s="3">
-        <f t="shared" si="115"/>
+      <c r="AY37" s="3">
+        <f t="shared" si="121"/>
         <v>51591.549646618878</v>
       </c>
-      <c r="AZ36" s="3">
-        <f t="shared" si="115"/>
+      <c r="AZ37" s="3">
+        <f t="shared" si="121"/>
         <v>49011.97216428793</v>
       </c>
-      <c r="BA36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BA37" s="3">
+        <f t="shared" si="121"/>
         <v>46561.373556073529</v>
       </c>
-      <c r="BB36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BB37" s="3">
+        <f t="shared" si="121"/>
         <v>44233.304878269853</v>
       </c>
-      <c r="BC36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BC37" s="3">
+        <f t="shared" si="121"/>
         <v>42021.639634356361</v>
       </c>
-      <c r="BD36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BD37" s="3">
+        <f t="shared" si="121"/>
         <v>39920.557652638541</v>
       </c>
-      <c r="BE36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BE37" s="3">
+        <f t="shared" si="121"/>
         <v>37924.529770006615</v>
       </c>
-      <c r="BF36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BF37" s="3">
+        <f t="shared" si="121"/>
         <v>36028.303281506283</v>
       </c>
-      <c r="BG36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BG37" s="3">
+        <f t="shared" si="121"/>
         <v>34226.888117430964</v>
       </c>
-      <c r="BH36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BH37" s="3">
+        <f t="shared" si="121"/>
         <v>32515.543711559414</v>
       </c>
-      <c r="BI36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BI37" s="3">
+        <f t="shared" si="121"/>
         <v>30889.766525981442</v>
       </c>
-      <c r="BJ36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BJ37" s="3">
+        <f t="shared" si="121"/>
         <v>29345.278199682369</v>
       </c>
-      <c r="BK36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BK37" s="3">
+        <f t="shared" si="121"/>
         <v>27878.014289698251</v>
       </c>
-      <c r="BL36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BL37" s="3">
+        <f t="shared" si="121"/>
         <v>26484.113575213338</v>
       </c>
-      <c r="BM36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BM37" s="3">
+        <f t="shared" si="121"/>
         <v>25159.907896452671</v>
       </c>
-      <c r="BN36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BN37" s="3">
+        <f t="shared" si="121"/>
         <v>23901.912501630035</v>
       </c>
-      <c r="BO36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BO37" s="3">
+        <f t="shared" si="121"/>
         <v>22706.816876548532</v>
       </c>
-      <c r="BP36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BP37" s="3">
+        <f t="shared" si="121"/>
         <v>21571.476032721104</v>
       </c>
-      <c r="BQ36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BQ37" s="3">
+        <f t="shared" si="121"/>
         <v>20492.902231085049</v>
       </c>
-      <c r="BR36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BR37" s="3">
+        <f t="shared" si="121"/>
         <v>19468.257119530794</v>
       </c>
-      <c r="BS36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BS37" s="3">
+        <f t="shared" si="121"/>
         <v>18494.844263554252</v>
       </c>
-      <c r="BT36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BT37" s="3">
+        <f t="shared" si="121"/>
         <v>17570.102050376539</v>
       </c>
-      <c r="BU36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BU37" s="3">
+        <f t="shared" si="121"/>
         <v>16691.59694785771</v>
       </c>
-      <c r="BV36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BV37" s="3">
+        <f t="shared" si="121"/>
         <v>15857.017100464824</v>
       </c>
-      <c r="BW36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BW37" s="3">
+        <f t="shared" si="121"/>
         <v>15064.166245441582</v>
       </c>
-      <c r="BX36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BX37" s="3">
+        <f t="shared" si="121"/>
         <v>14310.957933169502</v>
       </c>
-      <c r="BY36" s="3">
-        <f t="shared" si="115"/>
+      <c r="BY37" s="3">
+        <f t="shared" si="121"/>
         <v>13595.410036511026</v>
       </c>
-      <c r="BZ36" s="3">
-        <f t="shared" ref="BZ36:CW36" si="116">+BY36*(1+$AX$50)</f>
+      <c r="BZ37" s="3">
+        <f t="shared" ref="BZ37:CW37" si="122">+BY37*(1+$AX$51)</f>
         <v>12915.639534685475</v>
       </c>
-      <c r="CA36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CA37" s="3">
+        <f t="shared" si="122"/>
         <v>12269.857557951202</v>
       </c>
-      <c r="CB36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CB37" s="3">
+        <f t="shared" si="122"/>
         <v>11656.364680053641</v>
       </c>
-      <c r="CC36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CC37" s="3">
+        <f t="shared" si="122"/>
         <v>11073.546446050957</v>
       </c>
-      <c r="CD36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CD37" s="3">
+        <f t="shared" si="122"/>
         <v>10519.869123748409</v>
       </c>
-      <c r="CE36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CE37" s="3">
+        <f t="shared" si="122"/>
         <v>9993.8756675609875</v>
       </c>
-      <c r="CF36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CF37" s="3">
+        <f t="shared" si="122"/>
         <v>9494.1818841829372</v>
       </c>
-      <c r="CG36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CG37" s="3">
+        <f t="shared" si="122"/>
         <v>9019.47278997379</v>
       </c>
-      <c r="CH36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CH37" s="3">
+        <f t="shared" si="122"/>
         <v>8568.4991504750997</v>
       </c>
-      <c r="CI36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CI37" s="3">
+        <f t="shared" si="122"/>
         <v>8140.0741929513442</v>
       </c>
-      <c r="CJ36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CJ37" s="3">
+        <f t="shared" si="122"/>
         <v>7733.0704833037771</v>
       </c>
-      <c r="CK36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CK37" s="3">
+        <f t="shared" si="122"/>
         <v>7346.416959138588</v>
       </c>
-      <c r="CL36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CL37" s="3">
+        <f t="shared" si="122"/>
         <v>6979.0961111816587</v>
       </c>
-      <c r="CM36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CM37" s="3">
+        <f t="shared" si="122"/>
         <v>6630.1413056225756</v>
       </c>
-      <c r="CN36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CN37" s="3">
+        <f t="shared" si="122"/>
         <v>6298.6342403414465</v>
       </c>
-      <c r="CO36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CO37" s="3">
+        <f t="shared" si="122"/>
         <v>5983.7025283243738</v>
       </c>
-      <c r="CP36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CP37" s="3">
+        <f t="shared" si="122"/>
         <v>5684.5174019081551</v>
       </c>
-      <c r="CQ36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CQ37" s="3">
+        <f t="shared" si="122"/>
         <v>5400.2915318127471</v>
       </c>
-      <c r="CR36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CR37" s="3">
+        <f t="shared" si="122"/>
         <v>5130.2769552221098</v>
       </c>
-      <c r="CS36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CS37" s="3">
+        <f t="shared" si="122"/>
         <v>4873.7631074610044</v>
       </c>
-      <c r="CT36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CT37" s="3">
+        <f t="shared" si="122"/>
         <v>4630.0749520879544</v>
       </c>
-      <c r="CU36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CU37" s="3">
+        <f t="shared" si="122"/>
         <v>4398.5712044835564</v>
       </c>
-      <c r="CV36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CV37" s="3">
+        <f t="shared" si="122"/>
         <v>4178.6426442593784</v>
       </c>
-      <c r="CW36" s="3">
-        <f t="shared" si="116"/>
+      <c r="CW37" s="3">
+        <f t="shared" si="122"/>
         <v>3969.7105120464093</v>
       </c>
     </row>
-    <row r="37" spans="2:101" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:101" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="9">
-        <f t="shared" ref="C37:D37" si="117">+C36/C38</f>
+      <c r="C38" s="9">
+        <f t="shared" ref="C38:D38" si="123">+C37/C39</f>
         <v>1.6933786078098472</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" si="117"/>
+      <c r="D38" s="9">
+        <f t="shared" si="123"/>
         <v>1.7426621160409557</v>
       </c>
-      <c r="E37" s="9">
-        <f t="shared" ref="E37:G37" si="118">+E36/E38</f>
+      <c r="E38" s="9">
+        <f t="shared" ref="E38:G38" si="124">+E37/E39</f>
         <v>1.7634740817027119</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="118"/>
+      <c r="F38" s="9">
+        <f t="shared" si="124"/>
         <v>2.3846153846153846</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="118"/>
+      <c r="G38" s="9">
+        <f t="shared" si="124"/>
         <v>1.4980869565217392</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" ref="H37" si="119">+H36/H38</f>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38" si="125">+H37/H39</f>
         <v>1.6055652173913044</v>
       </c>
-      <c r="I37" s="9">
-        <f t="shared" ref="I37:J37" si="120">+I36/I38</f>
+      <c r="I38" s="9">
+        <f t="shared" ref="I38:J38" si="126">+I37/I39</f>
         <v>2.1193458594293668</v>
       </c>
-      <c r="J37" s="9">
-        <f t="shared" si="120"/>
+      <c r="J38" s="9">
+        <f t="shared" si="126"/>
         <v>2.559735283873215</v>
       </c>
-      <c r="K37" s="9">
-        <f t="shared" ref="K37:L37" si="121">+K36/K38</f>
+      <c r="K38" s="9">
+        <f t="shared" ref="K38:L38" si="127">+K37/K39</f>
         <v>1.7092050209205021</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="121"/>
+      <c r="L38" s="9">
+        <f t="shared" si="127"/>
         <v>1.7985411601250434</v>
       </c>
-      <c r="M37" s="9">
-        <f t="shared" ref="M37:R37" si="122">+M36/M38</f>
+      <c r="M38" s="9">
+        <f t="shared" ref="M38:R38" si="128">+M37/M39</f>
         <v>2.7139398132134209</v>
       </c>
-      <c r="N37" s="9">
-        <f t="shared" si="122"/>
+      <c r="N38" s="9">
+        <f t="shared" si="128"/>
         <v>3.882006920415225</v>
       </c>
-      <c r="O37" s="9">
-        <f t="shared" si="122"/>
+      <c r="O38" s="9">
+        <f t="shared" si="128"/>
         <v>3.2952810548230396</v>
       </c>
-      <c r="P37" s="9">
-        <f t="shared" si="122"/>
+      <c r="P38" s="9">
+        <f t="shared" si="128"/>
         <v>3.6127911018421965</v>
       </c>
-      <c r="Q37" s="9">
-        <f t="shared" si="122"/>
+      <c r="Q38" s="9">
+        <f t="shared" si="128"/>
         <v>3.2158097236796084</v>
       </c>
-      <c r="R37" s="9">
-        <f t="shared" si="122"/>
+      <c r="R38" s="9">
+        <f t="shared" si="128"/>
         <v>3.6745266166488033</v>
       </c>
-      <c r="S37" s="9">
-        <f>+S36/S38</f>
+      <c r="S38" s="9">
+        <f>+S37/S39</f>
         <v>2.7224653537563821</v>
       </c>
-      <c r="T37" s="9">
-        <f t="shared" ref="T37:V37" si="123">+T36/T38</f>
+      <c r="T38" s="9">
+        <f t="shared" ref="T38:V38" si="129">+T37/T39</f>
         <v>2.4647991153704387</v>
       </c>
-      <c r="U37" s="9">
-        <f t="shared" si="123"/>
+      <c r="U38" s="9">
+        <f t="shared" si="129"/>
         <v>1.6356531447711202</v>
       </c>
-      <c r="V37" s="9">
-        <f t="shared" si="123"/>
+      <c r="V38" s="9">
+        <f t="shared" si="129"/>
         <v>1.7621212121212122</v>
       </c>
-      <c r="W37" s="9">
-        <f t="shared" ref="W37:Z37" si="124">+W36/W38</f>
+      <c r="W38" s="9">
+        <f t="shared" ref="W38:Z38" si="130">+W37/W39</f>
         <v>2.6419351500000001</v>
       </c>
-      <c r="X37" s="9">
-        <f t="shared" si="124"/>
+      <c r="X38" s="9">
+        <f t="shared" si="130"/>
         <v>2.3933286000000003</v>
       </c>
-      <c r="Y37" s="9">
-        <f t="shared" si="124"/>
+      <c r="Y38" s="9">
+        <f t="shared" si="130"/>
         <v>1.8827239295454539</v>
       </c>
-      <c r="Z37" s="9">
-        <f t="shared" si="124"/>
+      <c r="Z38" s="9">
+        <f t="shared" si="130"/>
         <v>2.5342711772727271</v>
       </c>
-      <c r="AG37" s="17">
-        <f>+AG36/AG38</f>
+      <c r="AG38" s="17">
+        <f>+AG37/AG39</f>
         <v>7.5696679219445393</v>
       </c>
-      <c r="AH37" s="17">
-        <f>+AH36/AH38</f>
+      <c r="AH38" s="17">
+        <f>+AH37/AH39</f>
         <v>8.1658553546592483</v>
       </c>
-      <c r="AI37" s="17">
-        <f>+AI36/AI38</f>
+      <c r="AI38" s="17">
+        <f>+AI37/AI39</f>
         <v>10.092105263157896</v>
       </c>
-      <c r="AJ37" s="17">
-        <f t="shared" ref="AJ37" si="125">+AJ36/AJ38</f>
+      <c r="AJ38" s="17">
+        <f t="shared" ref="AJ38" si="131">+AJ37/AJ39</f>
         <v>13.770549143057012</v>
       </c>
-      <c r="AK37" s="17">
-        <f t="shared" ref="AK37" si="126">+AK36/AK38</f>
+      <c r="AK38" s="17">
+        <f t="shared" ref="AK38" si="132">+AK37/AK39</f>
         <v>14.721301354108704</v>
       </c>
-      <c r="AL37" s="17">
-        <f t="shared" ref="AL37" si="127">+AL36/AL38</f>
+      <c r="AL38" s="17">
+        <f t="shared" ref="AL38" si="133">+AL37/AL39</f>
         <v>14.281840218883325</v>
       </c>
-      <c r="AM37" s="17">
-        <f t="shared" ref="AM37" si="128">+AM36/AM38</f>
+      <c r="AM38" s="17">
+        <f t="shared" ref="AM38" si="134">+AM37/AM39</f>
         <v>13.758737024516417</v>
       </c>
-      <c r="AN37" s="17">
-        <f t="shared" ref="AN37" si="129">+AN36/AN38</f>
+      <c r="AN38" s="17">
+        <f t="shared" ref="AN38" si="135">+AN37/AN39</f>
         <v>17.124370041434684</v>
       </c>
-      <c r="AO37" s="17">
-        <f t="shared" ref="AO37" si="130">+AO36/AO38</f>
+      <c r="AO38" s="17">
+        <f t="shared" ref="AO38" si="136">+AO37/AO39</f>
         <v>19.323574607367966</v>
       </c>
-      <c r="AP37" s="17">
-        <f t="shared" ref="AP37" si="131">+AP36/AP38</f>
+      <c r="AP38" s="17">
+        <f t="shared" ref="AP38" si="137">+AP37/AP39</f>
         <v>20.981916952358937</v>
       </c>
-      <c r="AQ37" s="17">
-        <f t="shared" ref="AQ37" si="132">+AQ36/AQ38</f>
+      <c r="AQ38" s="17">
+        <f t="shared" ref="AQ38" si="138">+AQ37/AQ39</f>
         <v>22.650123987781214</v>
       </c>
-      <c r="AR37" s="17">
-        <f t="shared" ref="AR37" si="133">+AR36/AR38</f>
+      <c r="AR38" s="17">
+        <f t="shared" ref="AR38" si="139">+AR37/AR39</f>
         <v>24.333595050404021</v>
       </c>
-      <c r="AS37" s="17">
-        <f t="shared" ref="AS37" si="134">+AS36/AS38</f>
+      <c r="AS38" s="17">
+        <f t="shared" ref="AS38" si="140">+AS37/AS39</f>
         <v>26.037399400838282</v>
       </c>
     </row>
-    <row r="38" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C39" s="6">
         <v>2945</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>2930</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>2913</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>2886</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>2875</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <v>2875</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="6">
         <v>2874</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J39" s="6">
         <v>2871</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <v>2868</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L39" s="6">
         <v>2879</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M39" s="6">
         <v>2891</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <v>2890</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O39" s="6">
         <v>2882</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P39" s="6">
         <v>2877</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q39" s="6">
         <v>2859</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R39" s="6">
         <v>2799</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S39" s="6">
         <v>2742</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T39" s="6">
         <v>2713</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U39" s="6">
         <v>2687</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V39" s="6">
         <v>2640</v>
       </c>
-      <c r="W38" s="6">
-        <f>+V38</f>
+      <c r="W39" s="6">
+        <f>+V39</f>
         <v>2640</v>
       </c>
-      <c r="X38" s="6">
-        <f t="shared" ref="X38:Z38" si="135">+W38</f>
+      <c r="X39" s="6">
+        <f t="shared" ref="X39:Z39" si="141">+W39</f>
         <v>2640</v>
       </c>
-      <c r="Y38" s="6">
-        <f t="shared" si="135"/>
+      <c r="Y39" s="6">
+        <f t="shared" si="141"/>
         <v>2640</v>
       </c>
-      <c r="Z38" s="6">
-        <f t="shared" si="135"/>
+      <c r="Z39" s="6">
+        <f t="shared" si="141"/>
         <v>2640</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AF39" s="3">
         <f>2395.921635+509.079123</f>
         <v>2905.0007580000001</v>
       </c>
-      <c r="AG38" s="3">
+      <c r="AG39" s="3">
         <v>2921</v>
       </c>
-      <c r="AH38" s="3">
+      <c r="AH39" s="3">
         <v>2876</v>
       </c>
-      <c r="AI38" s="3">
+      <c r="AI39" s="3">
         <v>2888</v>
       </c>
-      <c r="AJ38" s="3">
+      <c r="AJ39" s="3">
         <v>2859</v>
       </c>
-      <c r="AK38" s="3">
-        <f>AVERAGE(S38:V38)</f>
+      <c r="AK39" s="3">
+        <f>AVERAGE(S39:V39)</f>
         <v>2695.5</v>
       </c>
-      <c r="AL38" s="3">
-        <f t="shared" ref="AL38:AS38" si="136">+AK38</f>
+      <c r="AL39" s="3">
+        <f t="shared" ref="AL39:AS39" si="142">+AK39</f>
         <v>2695.5</v>
       </c>
-      <c r="AM38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AM39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
-      <c r="AN38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AN39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
-      <c r="AO38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AO39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
-      <c r="AP38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AP39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
-      <c r="AQ38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AQ39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
-      <c r="AR38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AR39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
-      <c r="AS38" s="3">
-        <f t="shared" si="136"/>
+      <c r="AS39" s="3">
+        <f t="shared" si="142"/>
         <v>2695.5</v>
       </c>
     </row>
-    <row r="39" spans="2:101" x14ac:dyDescent="0.2">
-      <c r="S39" s="6"/>
-    </row>
-    <row r="40" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <f t="shared" ref="G40:K40" si="137">+G25/C25-1</f>
-        <v>0.25998662878154777</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="137"/>
-        <v>0.2762451817700855</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="137"/>
-        <v>0.2859328331026445</v>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" si="137"/>
-        <v>0.2464230814709707</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="137"/>
-        <v>0.17642767128739134</v>
-      </c>
-      <c r="L40" s="11">
-        <f>+L25/H25-1</f>
-        <v>0.10665640175293145</v>
-      </c>
-      <c r="M40" s="11">
-        <f>+M25/I25-1</f>
-        <v>0.21629277135735325</v>
-      </c>
-      <c r="N40" s="11">
-        <f>+N25/J25-1</f>
-        <v>0.33156247035385644</v>
-      </c>
-      <c r="O40" s="11">
-        <f>+O25/K25-1</f>
-        <v>0.47550318543158365</v>
-      </c>
-      <c r="P40" s="11">
-        <f>+P25/L25-1</f>
-        <v>0.5560014983678494</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" ref="Q40:R40" si="138">+Q25/M25-1</f>
-        <v>0.35118770377270603</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" si="138"/>
-        <v>0.19945141065830718</v>
-      </c>
-      <c r="S40" s="11">
-        <f>+S25/O25-1</f>
-        <v>6.6371174200450911E-2</v>
-      </c>
-      <c r="T40" s="11">
-        <f>+T25/P25-1</f>
-        <v>-8.7698180692643568E-3</v>
-      </c>
-      <c r="U40" s="11">
-        <f>+U25/Q25-1</f>
-        <v>-4.4674250258531556E-2</v>
-      </c>
-      <c r="V40" s="11">
-        <f t="shared" ref="V40" si="139">+V25/R25-1</f>
-        <v>-4.4726916337501144E-2</v>
-      </c>
-      <c r="W40" s="11">
-        <f>+W25/S25-1</f>
-        <v>-5.1954994983517189E-2</v>
-      </c>
-      <c r="X40" s="11">
-        <f t="shared" ref="X40" si="140">+X25/T25-1</f>
-        <v>-4.2781208798834292E-2</v>
-      </c>
-      <c r="Y40" s="11">
-        <f t="shared" ref="Y40" si="141">+Y25/U25-1</f>
-        <v>-3.6867287291621587E-2</v>
-      </c>
-      <c r="Z40" s="11">
-        <f t="shared" ref="Z40" si="142">+Z25/V25-1</f>
-        <v>-4.7756256800870589E-2</v>
-      </c>
-      <c r="AC40" s="18">
-        <f t="shared" ref="AC40:AG40" si="143">+AC25/AB25-1</f>
-        <v>0.58358739837398366</v>
-      </c>
-      <c r="AD40" s="18">
-        <f t="shared" si="143"/>
-        <v>0.43815177282207607</v>
-      </c>
-      <c r="AE40" s="18">
-        <f t="shared" si="143"/>
-        <v>0.54161088799643009</v>
-      </c>
-      <c r="AF40" s="18">
-        <f t="shared" si="143"/>
-        <v>0.47090961719371882</v>
-      </c>
-      <c r="AG40" s="18">
-        <f t="shared" si="143"/>
-        <v>0.37352716896661997</v>
-      </c>
-      <c r="AH40" s="18">
-        <f>+AH25/AG25-1</f>
-        <v>0.26610910132884413</v>
-      </c>
-      <c r="AI40" s="18">
-        <f>+AI25/AH25-1</f>
-        <v>0.21596390228722573</v>
-      </c>
-      <c r="AJ40" s="18">
-        <f>+AJ25/AI25-1</f>
-        <v>0.37182574303495608</v>
-      </c>
-      <c r="AK40" s="18">
-        <f>+AK25/AJ25-1</f>
-        <v>-1.1193175554782941E-2</v>
-      </c>
-      <c r="AL40" s="18">
-        <f t="shared" ref="AL40:AS40" si="144">+AL25/AK25-1</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="AM40" s="18">
-        <f t="shared" si="144"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="AN40" s="18">
-        <f t="shared" si="144"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AO40" s="18">
-        <f t="shared" si="144"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AP40" s="18">
-        <f t="shared" si="144"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AQ40" s="18">
-        <f t="shared" si="144"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AR40" s="18">
-        <f t="shared" si="144"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AS40" s="18">
-        <f t="shared" si="144"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
+    <row r="40" spans="2:101" x14ac:dyDescent="0.2">
+      <c r="S40" s="6"/>
     </row>
     <row r="41" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
+      <c r="G41" s="11">
+        <f t="shared" ref="G41:K41" si="143">+G26/C26-1</f>
+        <v>0.25998662878154777</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="143"/>
+        <v>0.2762451817700855</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="143"/>
+        <v>0.2859328331026445</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="143"/>
+        <v>0.2464230814709707</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="143"/>
+        <v>0.17642767128739134</v>
+      </c>
+      <c r="L41" s="11">
+        <f>+L26/H26-1</f>
+        <v>0.10665640175293145</v>
+      </c>
+      <c r="M41" s="11">
+        <f>+M26/I26-1</f>
+        <v>0.21629277135735325</v>
+      </c>
+      <c r="N41" s="11">
+        <f>+N26/J26-1</f>
+        <v>0.33156247035385644</v>
+      </c>
       <c r="O41" s="11">
-        <f>+O21/K21-1</f>
+        <f>+O26/K26-1</f>
+        <v>0.47550318543158365</v>
+      </c>
+      <c r="P41" s="11">
+        <f>+P26/L26-1</f>
+        <v>0.5560014983678494</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" ref="Q41:R41" si="144">+Q26/M26-1</f>
+        <v>0.35118770377270603</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="144"/>
+        <v>0.19945141065830718</v>
+      </c>
+      <c r="S41" s="11">
+        <f>+S26/O26-1</f>
+        <v>6.6371174200450911E-2</v>
+      </c>
+      <c r="T41" s="11">
+        <f>+T26/P26-1</f>
+        <v>-8.7698180692643568E-3</v>
+      </c>
+      <c r="U41" s="11">
+        <f>+U26/Q26-1</f>
+        <v>-4.4674250258531556E-2</v>
+      </c>
+      <c r="V41" s="11">
+        <f t="shared" ref="V41" si="145">+V26/R26-1</f>
+        <v>-4.4726916337501144E-2</v>
+      </c>
+      <c r="W41" s="11">
+        <f>+W26/S26-1</f>
+        <v>-5.1954994983517189E-2</v>
+      </c>
+      <c r="X41" s="11">
+        <f t="shared" ref="X41" si="146">+X26/T26-1</f>
+        <v>-4.2781208798834292E-2</v>
+      </c>
+      <c r="Y41" s="11">
+        <f t="shared" ref="Y41" si="147">+Y26/U26-1</f>
+        <v>-3.6867287291621587E-2</v>
+      </c>
+      <c r="Z41" s="11">
+        <f t="shared" ref="Z41" si="148">+Z26/V26-1</f>
+        <v>-4.7756256800870589E-2</v>
+      </c>
+      <c r="AC41" s="18">
+        <f t="shared" ref="AC41:AG41" si="149">+AC26/AB26-1</f>
+        <v>0.58358739837398366</v>
+      </c>
+      <c r="AD41" s="18">
+        <f t="shared" si="149"/>
+        <v>0.43815177282207607</v>
+      </c>
+      <c r="AE41" s="18">
+        <f t="shared" si="149"/>
+        <v>0.54161088799643009</v>
+      </c>
+      <c r="AF41" s="18">
+        <f t="shared" si="149"/>
+        <v>0.47090961719371882</v>
+      </c>
+      <c r="AG41" s="18">
+        <f t="shared" si="149"/>
+        <v>0.37352716896661997</v>
+      </c>
+      <c r="AH41" s="18">
+        <f>+AH26/AG26-1</f>
+        <v>0.26610910132884413</v>
+      </c>
+      <c r="AI41" s="18">
+        <f>+AI26/AH26-1</f>
+        <v>0.21596390228722573</v>
+      </c>
+      <c r="AJ41" s="18">
+        <f>+AJ26/AI26-1</f>
+        <v>0.37182574303495608</v>
+      </c>
+      <c r="AK41" s="18">
+        <f>+AK26/AJ26-1</f>
+        <v>-1.1193175554782941E-2</v>
+      </c>
+      <c r="AL41" s="18">
+        <f t="shared" ref="AL41:AS41" si="150">+AL26/AK26-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="AM41" s="18">
+        <f t="shared" si="150"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="AN41" s="18">
+        <f t="shared" si="150"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AO41" s="18">
+        <f t="shared" si="150"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AP41" s="18">
+        <f t="shared" si="150"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AQ41" s="18">
+        <f t="shared" si="150"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AR41" s="18">
+        <f t="shared" si="150"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AS41" s="18">
+        <f t="shared" si="150"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="11">
+        <f>+O22/K22-1</f>
         <v>0.41985917173887088</v>
       </c>
-      <c r="P41" s="11">
-        <f t="shared" ref="P41:R41" si="145">+P21/L21-1</f>
+      <c r="P42" s="11">
+        <f t="shared" ref="P42:R42" si="151">+P22/L22-1</f>
         <v>0.47543879015343848</v>
       </c>
-      <c r="Q41" s="11">
-        <f t="shared" si="145"/>
+      <c r="Q42" s="11">
+        <f t="shared" si="151"/>
         <v>0.31097316780136164</v>
       </c>
-      <c r="R41" s="11">
-        <f t="shared" si="145"/>
+      <c r="R42" s="11">
+        <f t="shared" si="151"/>
         <v>0.14539923954372624</v>
       </c>
-      <c r="S41" s="11">
-        <f>+S21/O21-1</f>
+      <c r="S42" s="11">
+        <f>+S22/O22-1</f>
         <v>1.0674960073968176E-2</v>
       </c>
-      <c r="T41" s="11">
-        <f>+T21/P21-1</f>
+      <c r="T42" s="11">
+        <f>+T22/P22-1</f>
         <v>-4.3244052072422545E-2</v>
       </c>
-      <c r="U41" s="11">
-        <f t="shared" ref="U41" si="146">+U21/Q21-1</f>
+      <c r="U42" s="11">
+        <f t="shared" ref="U42" si="152">+U22/Q22-1</f>
         <v>-2.5049641056972605E-2</v>
       </c>
-      <c r="V41" s="11"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-    </row>
-    <row r="42" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="T42" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="U42" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="V42" s="10"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
     </row>
     <row r="43" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -5352,24 +5390,22 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="10">
-        <v>-0.08</v>
+        <v>0.15</v>
       </c>
       <c r="T43" s="10">
-        <v>-0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="U43" s="10">
-        <v>-0.18</v>
-      </c>
-      <c r="V43" s="10">
-        <v>-0.22</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="V43" s="10"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
     </row>
     <row r="44" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -5383,49 +5419,29 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10">
-        <f t="shared" ref="R44" si="147">+R23/N23-1</f>
-        <v>0.22315202231520215</v>
-      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
       <c r="S44" s="10">
-        <f>+S23/O23-1</f>
-        <v>0.30149812734082393</v>
+        <v>-0.08</v>
       </c>
       <c r="T44" s="10">
-        <f>+T23/P23-1</f>
-        <v>0.4819672131147541</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="U44" s="10">
-        <f>+U23/Q23-1</f>
-        <v>-0.489247311827957</v>
+        <v>-0.18</v>
       </c>
       <c r="V44" s="10">
-        <f>+V23/R23-1</f>
-        <v>-0.17103762827822122</v>
-      </c>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AI44" s="19">
-        <f t="shared" ref="AI44" si="148">AI23/AH23-1</f>
-        <v>1.2734530938123751</v>
-      </c>
-      <c r="AJ44" s="19">
-        <f>AJ23/AI23-1</f>
-        <v>0.99648814749780512</v>
-      </c>
-      <c r="AK44" s="19">
-        <f>AK23/AJ23-1</f>
-        <v>-1</v>
-      </c>
+        <v>-0.22</v>
+      </c>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
     </row>
     <row r="45" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -5439,50 +5455,50 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="10">
-        <f t="shared" ref="Q45:T45" si="149">+Q31/M31-1</f>
-        <v>0.38761368557817244</v>
-      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
       <c r="R45" s="10">
-        <f t="shared" si="149"/>
-        <v>0.46108852979081982</v>
+        <f t="shared" ref="R45" si="153">+R24/N24-1</f>
+        <v>0.22315202231520215</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="149"/>
-        <v>0.38470296004967919</v>
+        <f>+S24/O24-1</f>
+        <v>0.30149812734082393</v>
       </c>
       <c r="T45" s="10">
-        <f t="shared" si="149"/>
-        <v>0.35019008045265676</v>
+        <f>+T24/P24-1</f>
+        <v>0.4819672131147541</v>
       </c>
       <c r="U45" s="10">
-        <f>+U31/Q31-1</f>
-        <v>0.27450062421972543</v>
+        <f>+U24/Q24-1</f>
+        <v>-0.489247311827957</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" ref="V45:Z45" si="150">+V31/R31-1</f>
-        <v>0.18265707694395439</v>
-      </c>
-      <c r="W45" s="10">
-        <f t="shared" si="150"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="X45" s="10">
-        <f t="shared" si="150"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="Y45" s="10">
-        <f t="shared" si="150"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="Z45" s="10">
-        <f t="shared" si="150"/>
-        <v>-9.9999999999999978E-2</v>
+        <f>+V24/R24-1</f>
+        <v>-0.17103762827822122</v>
+      </c>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AI45" s="19">
+        <f t="shared" ref="AI45" si="154">AI24/AH24-1</f>
+        <v>1.2734530938123751</v>
+      </c>
+      <c r="AJ45" s="19">
+        <f>AJ24/AI24-1</f>
+        <v>0.99648814749780512</v>
+      </c>
+      <c r="AK45" s="19">
+        <f>AK24/AJ24-1</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -5497,667 +5513,608 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
+      <c r="Q46" s="10">
+        <f t="shared" ref="Q46:T46" si="155">+Q32/M32-1</f>
+        <v>0.38761368557817244</v>
+      </c>
+      <c r="R46" s="10">
+        <f t="shared" si="155"/>
+        <v>0.46108852979081982</v>
+      </c>
+      <c r="S46" s="10">
+        <f t="shared" si="155"/>
+        <v>0.38470296004967919</v>
+      </c>
+      <c r="T46" s="10">
+        <f t="shared" si="155"/>
+        <v>0.35019008045265676</v>
+      </c>
+      <c r="U46" s="10">
+        <f>+U32/Q32-1</f>
+        <v>0.27450062421972543</v>
+      </c>
+      <c r="V46" s="10">
+        <f t="shared" ref="V46:Z46" si="156">+V32/R32-1</f>
+        <v>0.18265707694395439</v>
+      </c>
+      <c r="W46" s="10">
+        <f t="shared" si="156"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="X46" s="10">
+        <f t="shared" si="156"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="Y46" s="10">
+        <f t="shared" si="156"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="Z46" s="10">
+        <f t="shared" si="156"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
     </row>
     <row r="47" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="10">
-        <f t="shared" ref="C47:Z47" si="151">+C27/C25</f>
-        <v>0.8389603877653351</v>
-      </c>
-      <c r="D47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.83266570931902351</v>
-      </c>
-      <c r="E47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.82385080498288044</v>
-      </c>
-      <c r="F47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.83469315360056762</v>
-      </c>
-      <c r="G47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.81322544272733299</v>
-      </c>
-      <c r="H47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.80415729006277392</v>
-      </c>
-      <c r="I47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.82126671198731027</v>
-      </c>
-      <c r="J47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.83436106631249407</v>
-      </c>
-      <c r="K47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.80498393189378137</v>
-      </c>
-      <c r="L47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.7950981966072671</v>
-      </c>
-      <c r="M47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.80465766185374943</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.81440581362211462</v>
-      </c>
-      <c r="O47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.80394329601467274</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.81432059703545756</v>
-      </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.80106859703550504</v>
-      </c>
-      <c r="R47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.81146981081642955</v>
-      </c>
-      <c r="S47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.78482872294682526</v>
-      </c>
-      <c r="T47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.81985982929706469</v>
-      </c>
-      <c r="U47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.79375045103557773</v>
-      </c>
-      <c r="V47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.74083631276231932</v>
-      </c>
-      <c r="W47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.79</v>
-      </c>
-      <c r="X47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.79</v>
-      </c>
-      <c r="Y47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.79</v>
-      </c>
-      <c r="Z47" s="10">
-        <f t="shared" si="151"/>
-        <v>0.79</v>
-      </c>
-      <c r="AG47" s="19">
-        <f t="shared" ref="AG47:AS47" si="152">+AG27/AG25</f>
-        <v>0.8324617643898421</v>
-      </c>
-      <c r="AH47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81936998741106415</v>
-      </c>
-      <c r="AI47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.80582795323678236</v>
-      </c>
-      <c r="AJ47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.80794376277251567</v>
-      </c>
-      <c r="AK47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AL47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AM47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AN47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81000000000000016</v>
-      </c>
-      <c r="AO47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AP47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AQ47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AR47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
-      <c r="AS47" s="19">
-        <f t="shared" si="152"/>
-        <v>0.81</v>
-      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
     </row>
     <row r="48" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" ref="C48:E48" si="153">+C32/C25</f>
-        <v>0.45537355841551064</v>
+        <f t="shared" ref="C48:Z48" si="157">+C28/C26</f>
+        <v>0.8389603877653351</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" si="153"/>
-        <v>0.44312599198851182</v>
+        <f t="shared" si="157"/>
+        <v>0.83266570931902351</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="153"/>
-        <v>0.42114081736723247</v>
+        <f t="shared" si="157"/>
+        <v>0.82385080498288044</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:I48" si="154">+F32/F25</f>
-        <v>0.46233889085964291</v>
+        <f t="shared" si="157"/>
+        <v>0.83469315360056762</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="154"/>
-        <v>0.41898255621144792</v>
+        <f t="shared" si="157"/>
+        <v>0.81322544272733299</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="154"/>
-        <v>0.39239606774843067</v>
+        <f t="shared" si="157"/>
+        <v>0.80415729006277392</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="154"/>
-        <v>0.40703602991162474</v>
+        <f t="shared" si="157"/>
+        <v>0.82126671198731027</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" ref="J48:L48" si="155">+J32/J25</f>
-        <v>0.42016886443411439</v>
+        <f t="shared" si="157"/>
+        <v>0.83436106631249407</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="155"/>
-        <v>0.33224333314540228</v>
+        <f t="shared" si="157"/>
+        <v>0.80498393189378137</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" si="155"/>
-        <v>0.31909883876491679</v>
+        <f t="shared" si="157"/>
+        <v>0.7950981966072671</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" ref="M48:P48" si="156">+M32/M25</f>
-        <v>0.37447601304145317</v>
+        <f t="shared" si="157"/>
+        <v>0.80465766185374943</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="156"/>
-        <v>0.45507979481333716</v>
+        <f t="shared" si="157"/>
+        <v>0.81440581362211462</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" si="156"/>
-        <v>0.43475602766420846</v>
+        <f t="shared" si="157"/>
+        <v>0.80394329601467274</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="156"/>
-        <v>0.42531898063761736</v>
+        <f t="shared" si="157"/>
+        <v>0.81432059703545756</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" ref="Q48:T48" si="157">+Q32/Q25</f>
-        <v>0.35928990003447087</v>
+        <f t="shared" si="157"/>
+        <v>0.80106859703550504</v>
       </c>
       <c r="R48" s="10">
         <f t="shared" si="157"/>
-        <v>0.37376377297971547</v>
+        <v>0.81146981081642955</v>
       </c>
       <c r="S48" s="10">
         <f t="shared" si="157"/>
-        <v>0.30543213415508097</v>
+        <v>0.78482872294682526</v>
       </c>
       <c r="T48" s="10">
         <f t="shared" si="157"/>
-        <v>0.28998681562695161</v>
+        <v>0.81985982929706469</v>
       </c>
       <c r="U48" s="10">
-        <f>+U32/U25</f>
-        <v>0.20437324096124701</v>
+        <f t="shared" si="157"/>
+        <v>0.79375045103557773</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" ref="V48:Z48" si="158">+V32/V25</f>
-        <v>0.19894295041193844</v>
+        <f t="shared" si="157"/>
+        <v>0.74083631276231932</v>
       </c>
       <c r="W48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.79</v>
+      </c>
+      <c r="X48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.79</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.79</v>
+      </c>
+      <c r="Z48" s="10">
+        <f t="shared" si="157"/>
+        <v>0.79</v>
+      </c>
+      <c r="AG48" s="19">
+        <f t="shared" ref="AG48:AS48" si="158">+AG28/AG26</f>
+        <v>0.8324617643898421</v>
+      </c>
+      <c r="AH48" s="19">
         <f t="shared" si="158"/>
-        <v>0.33489826154923047</v>
-      </c>
-      <c r="X48" s="10">
+        <v>0.81936998741106415</v>
+      </c>
+      <c r="AI48" s="19">
         <f t="shared" si="158"/>
-        <v>0.29180072028811527</v>
-      </c>
-      <c r="Y48" s="10">
+        <v>0.80582795323678236</v>
+      </c>
+      <c r="AJ48" s="19">
         <f t="shared" si="158"/>
-        <v>0.23925607648059771</v>
-      </c>
-      <c r="Z48" s="10">
+        <v>0.80794376277251567</v>
+      </c>
+      <c r="AK48" s="19">
         <f t="shared" si="158"/>
-        <v>0.27783698543729257</v>
-      </c>
-      <c r="AG48" s="10">
-        <f t="shared" ref="AG48:AS48" si="159">+AG32/AG25</f>
-        <v>0.44616569361366809</v>
-      </c>
-      <c r="AH48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.41000325332050863</v>
-      </c>
-      <c r="AI48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.3800500203571221</v>
-      </c>
-      <c r="AJ48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.39645040660058173</v>
-      </c>
-      <c r="AK48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.4149918959943058</v>
-      </c>
-      <c r="AL48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.41423249807837342</v>
-      </c>
-      <c r="AM48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.41237889488818724</v>
-      </c>
-      <c r="AN48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.46405230335181041</v>
-      </c>
-      <c r="AO48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.49383403342503468</v>
-      </c>
-      <c r="AP48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.51467112682969474</v>
-      </c>
-      <c r="AQ48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.53343365550304611</v>
-      </c>
-      <c r="AR48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.55036728218751607</v>
-      </c>
-      <c r="AS48" s="10">
-        <f t="shared" si="159"/>
-        <v>0.56568713478011834</v>
-      </c>
-      <c r="AW48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX48" s="3">
-        <f>NPV(AX49,AL36:CW36)</f>
-        <v>572407.49836020486</v>
+        <v>0.81</v>
+      </c>
+      <c r="AL48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
+      </c>
+      <c r="AM48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
+      </c>
+      <c r="AN48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81000000000000016</v>
+      </c>
+      <c r="AO48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
+      </c>
+      <c r="AP48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
+      </c>
+      <c r="AQ48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
+      </c>
+      <c r="AR48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
+      </c>
+      <c r="AS48" s="19">
+        <f t="shared" si="158"/>
+        <v>0.81</v>
       </c>
     </row>
     <row r="49" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="C49" s="10">
-        <f t="shared" ref="C49:V49" si="160">+C35/C34</f>
-        <v>0.11105169340463458</v>
+        <f t="shared" ref="C49:E49" si="159">+C33/C26</f>
+        <v>0.45537355841551064</v>
       </c>
       <c r="D49" s="10">
-        <f t="shared" si="160"/>
-        <v>0.12985685071574643</v>
+        <f t="shared" si="159"/>
+        <v>0.44312599198851182</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="160"/>
-        <v>0.13108930987821379</v>
+        <f t="shared" si="159"/>
+        <v>0.42114081736723247</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="160"/>
-        <v>0.13662024840045164</v>
+        <f t="shared" ref="F49:I49" si="160">+F33/F26</f>
+        <v>0.46233889085964291</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="160"/>
-        <v>0.33972098727579336</v>
+        <v>0.41898255621144792</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="160"/>
-        <v>0.32435597189695553</v>
+        <v>0.39239606774843067</v>
       </c>
       <c r="I49" s="10">
         <f t="shared" si="160"/>
+        <v>0.40703602991162474</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" ref="J49:L49" si="161">+J33/J26</f>
+        <v>0.42016886443411439</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="161"/>
+        <v>0.33224333314540228</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="161"/>
+        <v>0.31909883876491679</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" ref="M49:P49" si="162">+M33/M26</f>
+        <v>0.37447601304145317</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="162"/>
+        <v>0.45507979481333716</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" si="162"/>
+        <v>0.43475602766420846</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" si="162"/>
+        <v>0.42531898063761736</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" ref="Q49:T49" si="163">+Q33/Q26</f>
+        <v>0.35928990003447087</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" si="163"/>
+        <v>0.37376377297971547</v>
+      </c>
+      <c r="S49" s="10">
+        <f t="shared" si="163"/>
+        <v>0.30543213415508097</v>
+      </c>
+      <c r="T49" s="10">
+        <f t="shared" si="163"/>
+        <v>0.28998681562695161</v>
+      </c>
+      <c r="U49" s="10">
+        <f>+U33/U26</f>
+        <v>0.20437324096124701</v>
+      </c>
+      <c r="V49" s="10">
+        <f t="shared" ref="V49:Z49" si="164">+V33/V26</f>
+        <v>0.19894295041193844</v>
+      </c>
+      <c r="W49" s="10">
+        <f t="shared" si="164"/>
+        <v>0.33489826154923047</v>
+      </c>
+      <c r="X49" s="10">
+        <f t="shared" si="164"/>
+        <v>0.29180072028811527</v>
+      </c>
+      <c r="Y49" s="10">
+        <f t="shared" si="164"/>
+        <v>0.23925607648059771</v>
+      </c>
+      <c r="Z49" s="10">
+        <f t="shared" si="164"/>
+        <v>0.27783698543729257</v>
+      </c>
+      <c r="AG49" s="10">
+        <f t="shared" ref="AG49:AS49" si="165">+AG33/AG26</f>
+        <v>0.44616569361366809</v>
+      </c>
+      <c r="AH49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.41000325332050863</v>
+      </c>
+      <c r="AI49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.3800500203571221</v>
+      </c>
+      <c r="AJ49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.39645040660058173</v>
+      </c>
+      <c r="AK49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.4149918959943058</v>
+      </c>
+      <c r="AL49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.41423249807837342</v>
+      </c>
+      <c r="AM49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.41237889488818724</v>
+      </c>
+      <c r="AN49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.46405230335181041</v>
+      </c>
+      <c r="AO49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.49383403342503468</v>
+      </c>
+      <c r="AP49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.51467112682969474</v>
+      </c>
+      <c r="AQ49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.53343365550304611</v>
+      </c>
+      <c r="AR49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.55036728218751607</v>
+      </c>
+      <c r="AS49" s="10">
+        <f t="shared" si="165"/>
+        <v>0.56568713478011834</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX49" s="3">
+        <f>NPV(AX50,AL37:CW37)</f>
+        <v>572407.49836020486</v>
+      </c>
+    </row>
+    <row r="50" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" ref="C50:V50" si="166">+C36/C35</f>
+        <v>0.11105169340463458</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="166"/>
+        <v>0.12985685071574643</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="166"/>
+        <v>0.13108930987821379</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="166"/>
+        <v>0.13662024840045164</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="166"/>
+        <v>0.33972098727579336</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="166"/>
+        <v>0.32435597189695553</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="166"/>
         <v>0.16891799699822621</v>
       </c>
-      <c r="J49" s="10">
-        <f t="shared" si="160"/>
+      <c r="J50" s="10">
+        <f t="shared" si="166"/>
         <v>0.19849492856363835</v>
       </c>
-      <c r="K49" s="10">
-        <f t="shared" si="160"/>
+      <c r="K50" s="10">
+        <f t="shared" si="166"/>
         <v>0.16362395495649207</v>
       </c>
-      <c r="L49" s="10">
-        <f t="shared" si="160"/>
+      <c r="L50" s="10">
+        <f t="shared" si="166"/>
         <v>0.15543956940140272</v>
       </c>
-      <c r="M49" s="10">
-        <f t="shared" si="160"/>
+      <c r="M50" s="10">
+        <f t="shared" si="166"/>
         <v>3.5288331488995447E-2</v>
       </c>
-      <c r="N49" s="10">
-        <f t="shared" si="160"/>
+      <c r="N50" s="10">
+        <f t="shared" si="166"/>
         <v>0.14063577173496744</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" si="160"/>
+      <c r="O50" s="10">
+        <f t="shared" si="166"/>
         <v>0.17438928975049986</v>
       </c>
-      <c r="P49" s="10">
-        <f t="shared" si="160"/>
+      <c r="P50" s="10">
+        <f t="shared" si="166"/>
         <v>0.16934388236234316</v>
       </c>
-      <c r="Q49" s="10">
-        <f t="shared" si="160"/>
+      <c r="Q50" s="10">
+        <f t="shared" si="166"/>
         <v>0.12976810222432561</v>
       </c>
-      <c r="R49" s="10">
-        <f t="shared" si="160"/>
+      <c r="R50" s="10">
+        <f t="shared" si="166"/>
         <v>0.19028499448905684</v>
       </c>
-      <c r="S49" s="10">
-        <f t="shared" si="160"/>
+      <c r="S50" s="10">
+        <f t="shared" si="166"/>
         <v>0.1619892231701841</v>
       </c>
-      <c r="T49" s="10">
-        <f t="shared" si="160"/>
+      <c r="T50" s="10">
+        <f t="shared" si="166"/>
         <v>0.18311751771316884</v>
       </c>
-      <c r="U49" s="10">
-        <f t="shared" si="160"/>
+      <c r="U50" s="10">
+        <f t="shared" si="166"/>
         <v>0.21180057388809181</v>
       </c>
-      <c r="V49" s="10">
-        <f t="shared" si="160"/>
+      <c r="V50" s="10">
+        <f t="shared" si="166"/>
         <v>0.24345422019840623</v>
       </c>
-      <c r="W49" s="10">
-        <f t="shared" ref="W49:Z49" si="161">+W35/W34</f>
+      <c r="W50" s="10">
+        <f t="shared" ref="W50:Z50" si="167">+W36/W35</f>
         <v>0.19</v>
       </c>
-      <c r="X49" s="10">
-        <f t="shared" si="161"/>
+      <c r="X50" s="10">
+        <f t="shared" si="167"/>
         <v>0.19</v>
       </c>
-      <c r="Y49" s="10">
-        <f t="shared" si="161"/>
+      <c r="Y50" s="10">
+        <f t="shared" si="167"/>
         <v>0.19000000000000003</v>
       </c>
-      <c r="Z49" s="10">
-        <f t="shared" si="161"/>
+      <c r="Z50" s="10">
+        <f t="shared" si="167"/>
         <v>0.19</v>
       </c>
-      <c r="AG49" s="19">
-        <f t="shared" ref="AG49:AS49" si="162">+AG35/AG34</f>
+      <c r="AG50" s="19">
+        <f t="shared" ref="AG50:AS50" si="168">+AG36/AG35</f>
         <v>0.12814952091794488</v>
       </c>
-      <c r="AH49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AH50" s="19">
+        <f t="shared" si="168"/>
         <v>0.21222997450690997</v>
       </c>
-      <c r="AI49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AI50" s="19">
+        <f t="shared" si="168"/>
         <v>0.12157926461723931</v>
       </c>
-      <c r="AJ49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AJ50" s="19">
+        <f t="shared" si="168"/>
         <v>0.16737162676592504</v>
       </c>
-      <c r="AK49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AK50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AL49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AL50" s="19">
+        <f t="shared" si="168"/>
         <v>0.17999999999999997</v>
       </c>
-      <c r="AM49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AM50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AN49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AN50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AO49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AO50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AP49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AP50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AQ49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AQ50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AR49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AR50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AS49" s="19">
-        <f t="shared" si="162"/>
+      <c r="AS50" s="19">
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
-      <c r="AW49" s="3" t="s">
+      <c r="AW50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AX49" s="19">
+      <c r="AX50" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="S50" s="6"/>
-      <c r="AW50" t="s">
+    <row r="51" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="S51" s="6"/>
+      <c r="AW51" t="s">
         <v>114</v>
       </c>
-      <c r="AX50" s="19">
+      <c r="AX51" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>196</v>
       </c>
-      <c r="Q51" s="6">
-        <f t="shared" ref="Q51:S51" si="163">+Q52-Q66</f>
+      <c r="Q52" s="6">
+        <f t="shared" ref="Q52:S52" si="169">+Q53-Q67</f>
         <v>64833</v>
       </c>
-      <c r="R51" s="6">
-        <f t="shared" si="163"/>
+      <c r="R52" s="6">
+        <f t="shared" si="169"/>
         <v>54773</v>
       </c>
-      <c r="S51" s="6">
-        <f t="shared" si="163"/>
+      <c r="S52" s="6">
+        <f t="shared" si="169"/>
         <v>50665</v>
       </c>
-      <c r="T51" s="6">
-        <f t="shared" ref="T51:Z51" si="164">+T52-T66</f>
+      <c r="T52" s="6">
+        <f t="shared" ref="T52:Z52" si="170">+T53-T67</f>
         <v>47025</v>
       </c>
-      <c r="U51" s="6">
-        <f t="shared" si="164"/>
+      <c r="U52" s="6">
+        <f t="shared" si="170"/>
         <v>38382</v>
       </c>
-      <c r="V51" s="6">
-        <f t="shared" si="164"/>
+      <c r="V52" s="6">
+        <f t="shared" si="170"/>
         <v>43034</v>
       </c>
-      <c r="W51" s="6">
-        <f t="shared" si="164"/>
+      <c r="W52" s="6">
+        <f t="shared" si="170"/>
         <v>50008.708795999999</v>
       </c>
-      <c r="X51" s="6">
-        <f t="shared" si="164"/>
+      <c r="X52" s="6">
+        <f t="shared" si="170"/>
         <v>56327.096300000005</v>
       </c>
-      <c r="Y51" s="6">
-        <f t="shared" si="164"/>
+      <c r="Y52" s="6">
+        <f t="shared" si="170"/>
         <v>61297.487474000009</v>
       </c>
-      <c r="Z51" s="6">
-        <f t="shared" si="164"/>
+      <c r="Z52" s="6">
+        <f t="shared" si="170"/>
         <v>67987.963382000002</v>
       </c>
-      <c r="AW51" s="3" t="s">
+      <c r="AW52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AX51" s="19">
+      <c r="AX52" s="19">
         <v>0.02</v>
-      </c>
-    </row>
-    <row r="52" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6">
-        <f>17576+44378+6234</f>
-        <v>68188</v>
-      </c>
-      <c r="O52" s="6">
-        <f>19513+44706+6342</f>
-        <v>70561</v>
-      </c>
-      <c r="P52" s="6">
-        <f>16186+47894+6393</f>
-        <v>70473</v>
-      </c>
-      <c r="Q52" s="6">
-        <f>14496+43579+6758</f>
-        <v>64833</v>
-      </c>
-      <c r="R52" s="6">
-        <f>16601+31397+6775</f>
-        <v>54773</v>
-      </c>
-      <c r="S52" s="6">
-        <f>14886+29004+6775</f>
-        <v>50665</v>
-      </c>
-      <c r="T52" s="6">
-        <f>12681+27808+6536</f>
-        <v>47025</v>
-      </c>
-      <c r="U52" s="6">
-        <f>14308+27468+6528</f>
-        <v>48304</v>
-      </c>
-      <c r="V52" s="6">
-        <f>+U52+V36</f>
-        <v>52956</v>
-      </c>
-      <c r="W52" s="6">
-        <f>+V52+W36</f>
-        <v>59930.708795999999</v>
-      </c>
-      <c r="X52" s="6">
-        <f>+W52+X36</f>
-        <v>66249.096300000005</v>
-      </c>
-      <c r="Y52" s="6">
-        <f>+X52+Y36</f>
-        <v>71219.487474000009</v>
-      </c>
-      <c r="Z52" s="6">
-        <f>+Y52+Z36</f>
-        <v>77909.963382000002</v>
-      </c>
-      <c r="AJ52" s="3">
-        <f>+R52</f>
-        <v>54773</v>
-      </c>
-      <c r="AK52" s="3">
-        <f>+V52</f>
-        <v>52956</v>
-      </c>
-      <c r="AL52" s="3">
-        <f t="shared" ref="AL52:AS52" si="165">+AK52+AL36</f>
-        <v>91452.70031</v>
-      </c>
-      <c r="AM52" s="3">
-        <f t="shared" si="165"/>
-        <v>128539.37595958399</v>
-      </c>
-      <c r="AN52" s="3">
-        <f t="shared" si="165"/>
-        <v>174698.11540627119</v>
-      </c>
-      <c r="AO52" s="3">
-        <f t="shared" si="165"/>
-        <v>226784.81076043154</v>
-      </c>
-      <c r="AP52" s="3">
-        <f t="shared" si="165"/>
-        <v>283341.56790551508</v>
-      </c>
-      <c r="AQ52" s="3">
-        <f t="shared" si="165"/>
-        <v>344394.97711457935</v>
-      </c>
-      <c r="AR52" s="3">
-        <f t="shared" si="165"/>
-        <v>409986.18257294339</v>
-      </c>
-      <c r="AS52" s="3">
-        <f t="shared" si="165"/>
-        <v>480169.992657903</v>
-      </c>
-      <c r="AW52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX52" s="17">
-        <f>AX48/Main!M3</f>
-        <v>215.87667010339968</v>
       </c>
     </row>
     <row r="53" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -6171,44 +6128,108 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6">
-        <v>11335</v>
+        <f>17576+44378+6234</f>
+        <v>68188</v>
       </c>
       <c r="O53" s="6">
-        <v>10276</v>
+        <f>19513+44706+6342</f>
+        <v>70561</v>
       </c>
       <c r="P53" s="6">
-        <v>11698</v>
+        <f>16186+47894+6393</f>
+        <v>70473</v>
       </c>
       <c r="Q53" s="6">
-        <v>12088</v>
+        <f>14496+43579+6758</f>
+        <v>64833</v>
       </c>
       <c r="R53" s="6">
-        <v>14039</v>
+        <f>16601+31397+6775</f>
+        <v>54773</v>
       </c>
       <c r="S53" s="6">
-        <v>11390</v>
+        <f>14886+29004+6775</f>
+        <v>50665</v>
       </c>
       <c r="T53" s="6">
-        <v>11525</v>
+        <f>12681+27808+6536</f>
+        <v>47025</v>
       </c>
       <c r="U53" s="6">
-        <v>11227</v>
-      </c>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
+        <f>14308+27468+6528</f>
+        <v>48304</v>
+      </c>
+      <c r="V53" s="6">
+        <f>+U53+V37</f>
+        <v>52956</v>
+      </c>
+      <c r="W53" s="6">
+        <f>+V53+W37</f>
+        <v>59930.708795999999</v>
+      </c>
+      <c r="X53" s="6">
+        <f>+W53+X37</f>
+        <v>66249.096300000005</v>
+      </c>
+      <c r="Y53" s="6">
+        <f>+X53+Y37</f>
+        <v>71219.487474000009</v>
+      </c>
+      <c r="Z53" s="6">
+        <f>+Y53+Z37</f>
+        <v>77909.963382000002</v>
+      </c>
+      <c r="AJ53" s="3">
+        <f>+R53</f>
+        <v>54773</v>
+      </c>
+      <c r="AK53" s="3">
+        <f>+V53</f>
+        <v>52956</v>
+      </c>
+      <c r="AL53" s="3">
+        <f t="shared" ref="AL53:AS53" si="171">+AK53+AL37</f>
+        <v>91452.70031</v>
+      </c>
+      <c r="AM53" s="3">
+        <f t="shared" si="171"/>
+        <v>128539.37595958399</v>
+      </c>
+      <c r="AN53" s="3">
+        <f t="shared" si="171"/>
+        <v>174698.11540627119</v>
+      </c>
+      <c r="AO53" s="3">
+        <f t="shared" si="171"/>
+        <v>226784.81076043154</v>
+      </c>
+      <c r="AP53" s="3">
+        <f t="shared" si="171"/>
+        <v>283341.56790551508</v>
+      </c>
+      <c r="AQ53" s="3">
+        <f t="shared" si="171"/>
+        <v>344394.97711457935</v>
+      </c>
+      <c r="AR53" s="3">
+        <f t="shared" si="171"/>
+        <v>409986.18257294339</v>
+      </c>
+      <c r="AS53" s="3">
+        <f t="shared" si="171"/>
+        <v>480169.992657903</v>
+      </c>
       <c r="AW53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX53" s="19">
-        <f>AX52/Main!M2-1</f>
-        <v>0.96251518275817882</v>
+        <v>115</v>
+      </c>
+      <c r="AX53" s="17">
+        <f>AX49/Main!M3</f>
+        <v>215.87667010339968</v>
       </c>
     </row>
     <row r="54" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -6222,37 +6243,44 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6">
-        <v>2381</v>
+        <v>11335</v>
       </c>
       <c r="O54" s="6">
-        <v>2827</v>
+        <v>10276</v>
       </c>
       <c r="P54" s="6">
-        <v>4919</v>
+        <v>11698</v>
       </c>
       <c r="Q54" s="6">
-        <v>5258</v>
+        <v>12088</v>
       </c>
       <c r="R54" s="6">
-        <v>4629</v>
+        <v>14039</v>
       </c>
       <c r="S54" s="6">
-        <v>3985</v>
+        <v>11390</v>
       </c>
       <c r="T54" s="6">
-        <v>3973</v>
+        <v>11525</v>
       </c>
       <c r="U54" s="6">
-        <v>5312</v>
+        <v>11227</v>
       </c>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
+      <c r="AW54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX54" s="19">
+        <f>AX53/Main!M2-1</f>
+        <v>0.96251518275817882</v>
+      </c>
     </row>
     <row r="55" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -6266,28 +6294,28 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6">
-        <v>45633</v>
+        <v>2381</v>
       </c>
       <c r="O55" s="6">
-        <v>47720</v>
+        <v>2827</v>
       </c>
       <c r="P55" s="6">
-        <v>50909</v>
+        <v>4919</v>
       </c>
       <c r="Q55" s="6">
-        <v>53726</v>
+        <v>5258</v>
       </c>
       <c r="R55" s="6">
-        <v>57809</v>
+        <v>4629</v>
       </c>
       <c r="S55" s="6">
-        <v>61582</v>
+        <v>3985</v>
       </c>
       <c r="T55" s="6">
-        <v>67588</v>
+        <v>3973</v>
       </c>
       <c r="U55" s="6">
-        <v>73738</v>
+        <v>5312</v>
       </c>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -6296,7 +6324,7 @@
     </row>
     <row r="56" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -6310,28 +6338,28 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6">
-        <v>9348</v>
+        <v>45633</v>
       </c>
       <c r="O56" s="6">
-        <v>10202</v>
+        <v>47720</v>
       </c>
       <c r="P56" s="6">
-        <v>10525</v>
+        <v>50909</v>
       </c>
       <c r="Q56" s="6">
-        <v>11063</v>
+        <v>53726</v>
       </c>
       <c r="R56" s="6">
-        <v>12155</v>
+        <v>57809</v>
       </c>
       <c r="S56" s="6">
-        <v>12241</v>
+        <v>61582</v>
       </c>
       <c r="T56" s="6">
-        <v>14130</v>
+        <v>67588</v>
       </c>
       <c r="U56" s="6">
-        <v>13641</v>
+        <v>73738</v>
       </c>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
@@ -6340,7 +6368,7 @@
     </row>
     <row r="57" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -6354,36 +6382,28 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6">
-        <f>623+19050</f>
-        <v>19673</v>
+        <v>9348</v>
       </c>
       <c r="O57" s="6">
-        <f>505+19056</f>
-        <v>19561</v>
+        <v>10202</v>
       </c>
       <c r="P57" s="6">
-        <f>19219+514</f>
-        <v>19733</v>
+        <v>10525</v>
       </c>
       <c r="Q57" s="6">
-        <f>365+19065</f>
-        <v>19430</v>
+        <v>11063</v>
       </c>
       <c r="R57" s="6">
-        <f>19197+634</f>
-        <v>19831</v>
+        <v>12155</v>
       </c>
       <c r="S57" s="6">
-        <f>910+19923</f>
-        <v>20833</v>
+        <v>12241</v>
       </c>
       <c r="T57" s="6">
-        <f>965+20229</f>
-        <v>21194</v>
+        <v>14130</v>
       </c>
       <c r="U57" s="6">
-        <f>875+20268</f>
-        <v>21143</v>
+        <v>13641</v>
       </c>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
@@ -6392,7 +6412,7 @@
     </row>
     <row r="58" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -6406,28 +6426,36 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6">
-        <v>2758</v>
+        <f>623+19050</f>
+        <v>19673</v>
       </c>
       <c r="O58" s="6">
-        <v>2376</v>
+        <f>505+19056</f>
+        <v>19561</v>
       </c>
       <c r="P58" s="6">
-        <v>2352</v>
+        <f>19219+514</f>
+        <v>19733</v>
       </c>
       <c r="Q58" s="6">
-        <v>3187</v>
+        <f>365+19065</f>
+        <v>19430</v>
       </c>
       <c r="R58" s="6">
-        <v>2751</v>
+        <f>19197+634</f>
+        <v>19831</v>
       </c>
       <c r="S58" s="6">
-        <v>3522</v>
+        <f>910+19923</f>
+        <v>20833</v>
       </c>
       <c r="T58" s="6">
-        <v>4344</v>
+        <f>965+20229</f>
+        <v>21194</v>
       </c>
       <c r="U58" s="6">
-        <v>5529</v>
+        <f>875+20268</f>
+        <v>21143</v>
       </c>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
@@ -6436,7 +6464,7 @@
     </row>
     <row r="59" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -6450,687 +6478,684 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6">
-        <f t="shared" ref="N59:O59" si="166">SUM(N52:N58)</f>
-        <v>159316</v>
+        <v>2758</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" si="166"/>
-        <v>163523</v>
+        <v>2376</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" ref="P59:Q59" si="167">SUM(P52:P58)</f>
-        <v>170609</v>
+        <v>2352</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="167"/>
-        <v>169585</v>
+        <v>3187</v>
       </c>
       <c r="R59" s="6">
-        <f t="shared" ref="R59" si="168">SUM(R52:R58)</f>
-        <v>165987</v>
+        <v>2751</v>
       </c>
       <c r="S59" s="6">
-        <f>SUM(S52:S58)</f>
-        <v>164218</v>
+        <v>3522</v>
       </c>
       <c r="T59" s="6">
-        <f>SUM(T52:T58)</f>
-        <v>169779</v>
+        <v>4344</v>
       </c>
       <c r="U59" s="6">
-        <f>SUM(U52:U58)</f>
-        <v>178894</v>
+        <v>5529</v>
       </c>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
     </row>
-    <row r="60" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="S60" s="6"/>
+    <row r="60" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6">
+        <f t="shared" ref="N60:O60" si="172">SUM(N53:N59)</f>
+        <v>159316</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="172"/>
+        <v>163523</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" ref="P60:Q60" si="173">SUM(P53:P59)</f>
+        <v>170609</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" si="173"/>
+        <v>169585</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" ref="R60" si="174">SUM(R53:R59)</f>
+        <v>165987</v>
+      </c>
+      <c r="S60" s="6">
+        <f>SUM(S53:S59)</f>
+        <v>164218</v>
+      </c>
+      <c r="T60" s="6">
+        <f>SUM(T53:T59)</f>
+        <v>169779</v>
+      </c>
+      <c r="U60" s="6">
+        <f>SUM(U53:U59)</f>
+        <v>178894</v>
+      </c>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
     </row>
     <row r="61" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N61" s="6">
-        <v>1331</v>
-      </c>
-      <c r="O61" s="6">
-        <v>878</v>
-      </c>
-      <c r="P61" s="6">
-        <v>973</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>2195</v>
-      </c>
-      <c r="R61" s="6">
-        <v>4083</v>
-      </c>
-      <c r="S61" s="6">
-        <v>3246</v>
-      </c>
-      <c r="T61" s="6">
-        <v>4008</v>
-      </c>
-      <c r="U61" s="6">
-        <v>3871</v>
-      </c>
+      <c r="S61" s="6"/>
     </row>
     <row r="62" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N62" s="6">
-        <v>1093</v>
+        <v>1331</v>
       </c>
       <c r="O62" s="6">
-        <v>1006</v>
+        <v>878</v>
       </c>
       <c r="P62" s="6">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="Q62" s="6">
-        <v>909</v>
+        <v>2195</v>
       </c>
       <c r="R62" s="6">
-        <v>1052</v>
+        <v>4083</v>
       </c>
       <c r="S62" s="6">
-        <v>935</v>
+        <v>3246</v>
       </c>
       <c r="T62" s="6">
-        <v>982</v>
+        <v>4008</v>
       </c>
       <c r="U62" s="6">
-        <v>975</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="63" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1093</v>
+      </c>
+      <c r="O63" s="6">
+        <v>1006</v>
+      </c>
+      <c r="P63" s="6">
+        <v>949</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>909</v>
+      </c>
+      <c r="R63" s="6">
+        <v>1052</v>
+      </c>
+      <c r="S63" s="6">
+        <v>935</v>
+      </c>
+      <c r="T63" s="6">
+        <v>982</v>
+      </c>
+      <c r="U63" s="6">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="64" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N64" s="6">
         <f>1023+9631</f>
         <v>10654</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O64" s="6">
         <f>1040+10574</f>
         <v>11614</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P64" s="6">
         <f>1051+10956</f>
         <v>12007</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="Q64" s="6">
         <f>1086+11554</f>
         <v>12640</v>
       </c>
-      <c r="R63" s="6">
+      <c r="R64" s="6">
         <f>1127+12746</f>
         <v>13873</v>
       </c>
-      <c r="S63" s="6">
+      <c r="S64" s="6">
         <f>1159+12894</f>
         <v>14053</v>
       </c>
-      <c r="T63" s="6">
+      <c r="T64" s="6">
         <f>1275+14792</f>
         <v>16067</v>
       </c>
-      <c r="U63" s="6">
+      <c r="U64" s="6">
         <f>1291+14687</f>
         <v>15978</v>
       </c>
     </row>
-    <row r="64" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="N64" s="6">
-        <v>11152</v>
-      </c>
-      <c r="O64" s="6">
-        <v>9411</v>
-      </c>
-      <c r="P64" s="6">
-        <v>11510</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>13158</v>
-      </c>
-      <c r="R64" s="6">
-        <v>14312</v>
-      </c>
-      <c r="S64" s="6">
-        <v>15226</v>
-      </c>
-      <c r="T64" s="6">
-        <v>15420</v>
-      </c>
-      <c r="U64" s="6">
-        <v>16036</v>
-      </c>
-    </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N65" s="6">
-        <v>382</v>
+        <v>11152</v>
       </c>
       <c r="O65" s="6">
-        <v>382</v>
+        <v>9411</v>
       </c>
       <c r="P65" s="6">
-        <v>391</v>
+        <v>11510</v>
       </c>
       <c r="Q65" s="6">
-        <v>464</v>
+        <v>13158</v>
       </c>
       <c r="R65" s="6">
-        <v>561</v>
+        <v>14312</v>
       </c>
       <c r="S65" s="6">
-        <v>520</v>
+        <v>15226</v>
       </c>
       <c r="T65" s="6">
-        <v>532</v>
+        <v>15420</v>
       </c>
       <c r="U65" s="6">
-        <v>514</v>
+        <v>16036</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="N66" s="6">
+        <v>382</v>
+      </c>
+      <c r="O66" s="6">
+        <v>382</v>
+      </c>
+      <c r="P66" s="6">
+        <v>391</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>464</v>
+      </c>
+      <c r="R66" s="6">
+        <v>561</v>
+      </c>
+      <c r="S66" s="6">
+        <v>520</v>
+      </c>
+      <c r="T66" s="6">
+        <v>532</v>
+      </c>
       <c r="U66" s="6">
-        <v>9922</v>
-      </c>
-      <c r="V66" s="6">
-        <f>+U66</f>
-        <v>9922</v>
-      </c>
-      <c r="W66" s="6">
-        <f>+V66</f>
-        <v>9922</v>
-      </c>
-      <c r="X66" s="6">
-        <f>+W66</f>
-        <v>9922</v>
-      </c>
-      <c r="Y66" s="6">
-        <f>+X66</f>
-        <v>9922</v>
-      </c>
-      <c r="Z66" s="6">
-        <f>+Y66</f>
-        <v>9922</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="N67" s="6">
-        <v>6414</v>
-      </c>
-      <c r="O67" s="6">
-        <v>6575</v>
-      </c>
-      <c r="P67" s="6">
-        <v>6552</v>
-      </c>
-      <c r="Q67" s="6">
-        <v>6859</v>
-      </c>
-      <c r="R67" s="6">
-        <v>7227</v>
-      </c>
-      <c r="S67" s="6">
-        <v>7010</v>
-      </c>
-      <c r="T67" s="6">
-        <v>7003</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
       <c r="U67" s="6">
-        <v>7504</v>
+        <v>9922</v>
+      </c>
+      <c r="V67" s="6">
+        <f>+U67</f>
+        <v>9922</v>
+      </c>
+      <c r="W67" s="6">
+        <f>+V67</f>
+        <v>9922</v>
+      </c>
+      <c r="X67" s="6">
+        <f>+W67</f>
+        <v>9922</v>
+      </c>
+      <c r="Y67" s="6">
+        <f>+X67</f>
+        <v>9922</v>
+      </c>
+      <c r="Z67" s="6">
+        <f>+Y67</f>
+        <v>9922</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N68" s="6">
-        <v>50018</v>
+        <v>6414</v>
       </c>
       <c r="O68" s="6">
-        <v>51160</v>
+        <v>6575</v>
       </c>
       <c r="P68" s="6">
-        <v>52845</v>
+        <v>6552</v>
       </c>
       <c r="Q68" s="6">
-        <v>54334</v>
+        <v>6859</v>
       </c>
       <c r="R68" s="6">
-        <v>55811</v>
+        <v>7227</v>
       </c>
       <c r="S68" s="6">
-        <v>57512</v>
+        <v>7010</v>
       </c>
       <c r="T68" s="6">
-        <v>59929</v>
+        <v>7003</v>
       </c>
       <c r="U68" s="6">
-        <v>62092</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N69" s="6">
-        <v>927</v>
+        <v>50018</v>
       </c>
       <c r="O69" s="6">
-        <v>154</v>
+        <v>51160</v>
       </c>
       <c r="P69" s="6">
-        <v>285</v>
+        <v>52845</v>
       </c>
       <c r="Q69" s="6">
-        <v>-207</v>
+        <v>54334</v>
       </c>
       <c r="R69" s="6">
-        <v>-693</v>
+        <v>55811</v>
       </c>
       <c r="S69" s="6">
-        <v>-1996</v>
+        <v>57512</v>
       </c>
       <c r="T69" s="6">
-        <v>-3411</v>
+        <v>59929</v>
       </c>
       <c r="U69" s="6">
-        <v>-5054</v>
+        <v>62092</v>
       </c>
     </row>
     <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N70" s="6">
-        <v>77345</v>
+        <v>927</v>
       </c>
       <c r="O70" s="6">
-        <v>82343</v>
+        <v>154</v>
       </c>
       <c r="P70" s="6">
-        <v>85097</v>
+        <v>285</v>
       </c>
       <c r="Q70" s="6">
-        <v>79233</v>
+        <v>-207</v>
       </c>
       <c r="R70" s="6">
-        <v>69761</v>
+        <v>-693</v>
       </c>
       <c r="S70" s="6">
-        <v>67712</v>
+        <v>-1996</v>
       </c>
       <c r="T70" s="6">
-        <v>69249</v>
+        <v>-3411</v>
       </c>
       <c r="U70" s="6">
-        <v>67056</v>
+        <v>-5054</v>
       </c>
     </row>
     <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="N71" s="6">
+        <v>77345</v>
+      </c>
+      <c r="O71" s="6">
+        <v>82343</v>
+      </c>
+      <c r="P71" s="6">
+        <v>85097</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>79233</v>
+      </c>
+      <c r="R71" s="6">
+        <v>69761</v>
+      </c>
+      <c r="S71" s="6">
+        <v>67712</v>
+      </c>
+      <c r="T71" s="6">
+        <v>69249</v>
+      </c>
+      <c r="U71" s="6">
+        <v>67056</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>61</v>
       </c>
-      <c r="N71" s="6">
-        <f t="shared" ref="N71:O71" si="169">SUM(N61:N70)</f>
+      <c r="N72" s="6">
+        <f t="shared" ref="N72:O72" si="175">SUM(N62:N71)</f>
         <v>159316</v>
       </c>
-      <c r="O71" s="6">
-        <f t="shared" si="169"/>
+      <c r="O72" s="6">
+        <f t="shared" si="175"/>
         <v>163523</v>
       </c>
-      <c r="P71" s="6">
-        <f t="shared" ref="P71:Q71" si="170">SUM(P61:P70)</f>
+      <c r="P72" s="6">
+        <f t="shared" ref="P72:Q72" si="176">SUM(P62:P71)</f>
         <v>170609</v>
       </c>
-      <c r="Q71" s="6">
-        <f t="shared" si="170"/>
+      <c r="Q72" s="6">
+        <f t="shared" si="176"/>
         <v>169585</v>
       </c>
-      <c r="R71" s="6">
-        <f t="shared" ref="R71:U71" si="171">SUM(R61:R70)</f>
+      <c r="R72" s="6">
+        <f t="shared" ref="R72:U72" si="177">SUM(R62:R71)</f>
         <v>165987</v>
       </c>
-      <c r="S71" s="6">
-        <f t="shared" si="171"/>
+      <c r="S72" s="6">
+        <f t="shared" si="177"/>
         <v>164218</v>
       </c>
-      <c r="T71" s="6">
-        <f t="shared" si="171"/>
+      <c r="T72" s="6">
+        <f t="shared" si="177"/>
         <v>169779</v>
       </c>
-      <c r="U71" s="6">
-        <f t="shared" si="171"/>
+      <c r="U72" s="6">
+        <f t="shared" si="177"/>
         <v>178894</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="S72" s="6"/>
-    </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>66</v>
-      </c>
-      <c r="O73" s="6">
-        <f t="shared" ref="O73:U73" si="172">O36</f>
-        <v>9497</v>
-      </c>
-      <c r="P73" s="6">
-        <f t="shared" si="172"/>
-        <v>10394</v>
-      </c>
-      <c r="Q73" s="6">
-        <f t="shared" si="172"/>
-        <v>9194</v>
-      </c>
-      <c r="R73" s="6">
-        <f t="shared" si="172"/>
-        <v>10285</v>
-      </c>
-      <c r="S73" s="6">
-        <f t="shared" si="172"/>
-        <v>7465</v>
-      </c>
-      <c r="T73" s="6">
-        <f t="shared" si="172"/>
-        <v>6687</v>
-      </c>
-      <c r="U73" s="6">
-        <f t="shared" si="172"/>
-        <v>4395</v>
-      </c>
+      <c r="S73" s="6"/>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O74" s="6">
+        <f t="shared" ref="O74:U74" si="178">O37</f>
         <v>9497</v>
       </c>
       <c r="P74" s="6">
-        <f>19892-O74</f>
-        <v>10395</v>
+        <f t="shared" si="178"/>
+        <v>10394</v>
       </c>
       <c r="Q74" s="6">
-        <f>29085-P74-O74</f>
-        <v>9193</v>
+        <f t="shared" si="178"/>
+        <v>9194</v>
       </c>
       <c r="R74" s="6">
+        <f t="shared" si="178"/>
         <v>10285</v>
       </c>
       <c r="S74" s="6">
+        <f t="shared" si="178"/>
         <v>7465</v>
       </c>
       <c r="T74" s="6">
+        <f t="shared" si="178"/>
         <v>6687</v>
       </c>
       <c r="U74" s="6">
-        <f>18547-T74-S74</f>
+        <f t="shared" si="178"/>
         <v>4395</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O75" s="6">
-        <v>1972</v>
+        <v>9497</v>
       </c>
       <c r="P75" s="6">
-        <f>3958-O75</f>
-        <v>1986</v>
+        <f>19892-O75</f>
+        <v>10395</v>
       </c>
       <c r="Q75" s="6">
-        <f>5953-P75-O75</f>
-        <v>1995</v>
+        <f>29085-P75-O75</f>
+        <v>9193</v>
       </c>
       <c r="R75" s="6">
-        <v>2014</v>
+        <v>10285</v>
       </c>
       <c r="S75" s="6">
-        <v>2156</v>
+        <v>7465</v>
       </c>
       <c r="T75" s="6">
-        <v>1979</v>
+        <v>6687</v>
       </c>
       <c r="U75" s="6">
-        <f>6310-T75-S75</f>
-        <v>2175</v>
+        <f>18547-T75-S75</f>
+        <v>4395</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O76" s="6">
-        <v>1830</v>
+        <v>1972</v>
       </c>
       <c r="P76" s="6">
-        <f>4379-O76</f>
-        <v>2549</v>
+        <f>3958-O76</f>
+        <v>1986</v>
       </c>
       <c r="Q76" s="6">
-        <f>6757-P76-O76</f>
-        <v>2378</v>
+        <f>5953-P76-O76</f>
+        <v>1995</v>
       </c>
       <c r="R76" s="6">
-        <v>2406</v>
+        <v>2014</v>
       </c>
       <c r="S76" s="6">
-        <v>2498</v>
+        <v>2156</v>
       </c>
       <c r="T76" s="6">
-        <v>3351</v>
+        <v>1979</v>
       </c>
       <c r="U76" s="6">
-        <f>8984-T76-S76</f>
-        <v>3135</v>
+        <f>6310-T76-S76</f>
+        <v>2175</v>
       </c>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O77" s="6">
-        <v>418</v>
+        <v>1830</v>
       </c>
       <c r="P77" s="6">
-        <f>647-O77</f>
-        <v>229</v>
+        <f>4379-O77</f>
+        <v>2549</v>
       </c>
       <c r="Q77" s="6">
-        <f>-139-P77-O77</f>
-        <v>-786</v>
+        <f>6757-P77-O77</f>
+        <v>2378</v>
       </c>
       <c r="R77" s="6">
-        <v>748</v>
+        <v>2406</v>
       </c>
       <c r="S77" s="6">
-        <v>-563</v>
+        <v>2498</v>
       </c>
       <c r="T77" s="6">
-        <v>-453</v>
+        <v>3351</v>
       </c>
       <c r="U77" s="6">
-        <f>-2113-T77-S77</f>
-        <v>-1097</v>
+        <f>8984-T77-S77</f>
+        <v>3135</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="O78" s="6">
-        <v>-66</v>
+        <v>418</v>
       </c>
       <c r="P78" s="6">
-        <f>-88-O78</f>
-        <v>-22</v>
+        <f>647-O78</f>
+        <v>229</v>
       </c>
       <c r="Q78" s="6">
-        <f>-161-P78-O78</f>
-        <v>-73</v>
+        <f>-139-P78-O78</f>
+        <v>-786</v>
       </c>
       <c r="R78" s="6">
-        <v>34</v>
+        <v>748</v>
       </c>
       <c r="S78" s="6">
-        <v>-221</v>
+        <v>-563</v>
       </c>
       <c r="T78" s="6">
-        <v>189</v>
+        <v>-453</v>
       </c>
       <c r="U78" s="6">
-        <f>413-T78-S78+71</f>
-        <v>516</v>
+        <f>-2113-T78-S78</f>
+        <v>-1097</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" s="6">
+        <v>-66</v>
+      </c>
+      <c r="P79" s="6">
+        <f>-88-O79</f>
+        <v>-22</v>
+      </c>
+      <c r="Q79" s="6">
+        <f>-161-P79-O79</f>
+        <v>-73</v>
+      </c>
+      <c r="R79" s="6">
+        <v>34</v>
+      </c>
+      <c r="S79" s="6">
+        <v>-221</v>
+      </c>
+      <c r="T79" s="6">
+        <v>189</v>
+      </c>
+      <c r="U79" s="6">
+        <f>413-T79-S79+71</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>72</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O80" s="6">
         <f>849-461-10-250-72-1681+6+210</f>
         <v>-1409</v>
       </c>
-      <c r="P79" s="6">
-        <f>-517-2313-195-134-133-200+9+184-O79</f>
+      <c r="P80" s="6">
+        <f>-517-2313-195-134-133-200+9+184-O80</f>
         <v>-1890</v>
       </c>
-      <c r="Q79" s="6">
-        <f>-1072-2566-184+560-163+895+87+527-P79-O79</f>
+      <c r="Q80" s="6">
+        <f>-1072-2566-184+560-163+895+87+527-P80-O80</f>
         <v>1383</v>
       </c>
-      <c r="R79" s="6">
+      <c r="R80" s="6">
         <f>-2038+817-165+876+151+2462+100+414</f>
         <v>2617</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S80" s="6">
         <f>2557+573-108-882-105+763-52-5</f>
         <v>2741</v>
       </c>
-      <c r="T79" s="6">
+      <c r="T80" s="6">
         <f>-522-435-25+237+73+1180+24-88</f>
         <v>444</v>
       </c>
-      <c r="U79" s="6">
-        <f>1930-693-160-666-12+2942-35+446-T79-S79</f>
+      <c r="U80" s="6">
+        <f>1930-693-160-666-12+2942-35+446-T80-S80</f>
         <v>567</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>68</v>
       </c>
-      <c r="O80" s="6">
-        <f t="shared" ref="O80:U80" si="173">SUM(O74:O79)</f>
+      <c r="O81" s="6">
+        <f t="shared" ref="O81:U81" si="179">SUM(O75:O80)</f>
         <v>12242</v>
       </c>
-      <c r="P80" s="6">
-        <f t="shared" si="173"/>
+      <c r="P81" s="6">
+        <f t="shared" si="179"/>
         <v>13247</v>
       </c>
-      <c r="Q80" s="6">
-        <f t="shared" si="173"/>
+      <c r="Q81" s="6">
+        <f t="shared" si="179"/>
         <v>14090</v>
       </c>
-      <c r="R80" s="6">
-        <f t="shared" si="173"/>
+      <c r="R81" s="6">
+        <f t="shared" si="179"/>
         <v>18104</v>
       </c>
-      <c r="S80" s="6">
-        <f t="shared" si="173"/>
+      <c r="S81" s="6">
+        <f t="shared" si="179"/>
         <v>14076</v>
       </c>
-      <c r="T80" s="6">
-        <f t="shared" si="173"/>
+      <c r="T81" s="6">
+        <f t="shared" si="179"/>
         <v>12197</v>
       </c>
-      <c r="U80" s="6">
-        <f t="shared" si="173"/>
+      <c r="U81" s="6">
+        <f t="shared" si="179"/>
         <v>9691</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6">
-        <v>-4272</v>
-      </c>
-      <c r="P82" s="6">
-        <f>-8884-O82</f>
-        <v>-4612</v>
-      </c>
-      <c r="Q82" s="6">
-        <f>-13198-P82-O82</f>
-        <v>-4314</v>
-      </c>
-      <c r="R82" s="6">
-        <v>-5370</v>
-      </c>
-      <c r="S82" s="6">
-        <f>-5441+126</f>
-        <v>-5315</v>
-      </c>
-      <c r="T82" s="6">
-        <f>-7572+44</f>
-        <v>-7528</v>
-      </c>
-      <c r="U82" s="6">
-        <f>-22388-T82-S82+190</f>
-        <v>-9355</v>
-      </c>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
     </row>
     <row r="83" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -7145,32 +7170,30 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6">
-        <f>-6231+1650+3981-2</f>
-        <v>-602</v>
+        <v>-4272</v>
       </c>
       <c r="P83" s="6">
-        <f>-16528+6337+6327-O83-62</f>
-        <v>-3324</v>
+        <f>-8884-O83</f>
+        <v>-4612</v>
       </c>
       <c r="Q83" s="6">
-        <f>-24314+15331+9318-46-160-P83-O83</f>
-        <v>4055</v>
+        <f>-13198-P83-O83</f>
+        <v>-4314</v>
       </c>
       <c r="R83" s="6">
-        <f>-6093+16340+1598-2-123</f>
-        <v>11720</v>
+        <v>-5370</v>
       </c>
       <c r="S83" s="6">
-        <f>-4068+5065+402-10</f>
-        <v>1389</v>
+        <f>-5441+126</f>
+        <v>-5315</v>
       </c>
       <c r="T83" s="6">
-        <f>-2220+2648+511-7</f>
-        <v>932</v>
+        <f>-7572+44</f>
+        <v>-7528</v>
       </c>
       <c r="U83" s="6">
-        <f>-8885+9333+1562-T83-S83</f>
-        <v>-311</v>
+        <f>-22388-T83-S83+190</f>
+        <v>-9355</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
@@ -7179,7 +7202,7 @@
     </row>
     <row r="84" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -7194,28 +7217,32 @@
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6">
-        <v>0</v>
+        <f>-6231+1650+3981-2</f>
+        <v>-602</v>
       </c>
       <c r="P84" s="6">
-        <f>-259-O84</f>
-        <v>-259</v>
+        <f>-16528+6337+6327-O84-62</f>
+        <v>-3324</v>
       </c>
       <c r="Q84" s="6">
-        <f>-330-P84-O84</f>
-        <v>-71</v>
+        <f>-24314+15331+9318-46-160-P84-O84</f>
+        <v>4055</v>
       </c>
       <c r="R84" s="6">
-        <v>-521</v>
+        <f>-6093+16340+1598-2-123</f>
+        <v>11720</v>
       </c>
       <c r="S84" s="6">
-        <v>-853</v>
+        <f>-4068+5065+402-10</f>
+        <v>1389</v>
       </c>
       <c r="T84" s="6">
-        <v>-363</v>
+        <f>-2220+2648+511-7</f>
+        <v>932</v>
       </c>
       <c r="U84" s="6">
-        <f>-1250-1-T84-S84</f>
-        <v>-35</v>
+        <f>-8885+9333+1562-T84-S84</f>
+        <v>-311</v>
       </c>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
@@ -7224,7 +7251,7 @@
     </row>
     <row r="85" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -7239,32 +7266,28 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6">
-        <f t="shared" ref="O85:U85" si="174">SUM(O82:O84)</f>
-        <v>-4874</v>
+        <v>0</v>
       </c>
       <c r="P85" s="6">
-        <f t="shared" si="174"/>
-        <v>-8195</v>
+        <f>-259-O85</f>
+        <v>-259</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="174"/>
-        <v>-330</v>
+        <f>-330-P85-O85</f>
+        <v>-71</v>
       </c>
       <c r="R85" s="6">
-        <f t="shared" si="174"/>
-        <v>5829</v>
+        <v>-521</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" si="174"/>
-        <v>-4779</v>
+        <v>-853</v>
       </c>
       <c r="T85" s="6">
-        <f t="shared" si="174"/>
-        <v>-6959</v>
+        <v>-363</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="174"/>
-        <v>-9701</v>
+        <f>-1250-1-T85-S85</f>
+        <v>-35</v>
       </c>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
@@ -7272,6 +7295,9 @@
       <c r="Y85" s="6"/>
     </row>
     <row r="86" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -7284,22 +7310,40 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
+      <c r="O86" s="6">
+        <f t="shared" ref="O86:U86" si="180">SUM(O83:O85)</f>
+        <v>-4874</v>
+      </c>
+      <c r="P86" s="6">
+        <f t="shared" si="180"/>
+        <v>-8195</v>
+      </c>
+      <c r="Q86" s="6">
+        <f t="shared" si="180"/>
+        <v>-330</v>
+      </c>
+      <c r="R86" s="6">
+        <f t="shared" si="180"/>
+        <v>5829</v>
+      </c>
+      <c r="S86" s="6">
+        <f t="shared" si="180"/>
+        <v>-4779</v>
+      </c>
+      <c r="T86" s="6">
+        <f t="shared" si="180"/>
+        <v>-6959</v>
+      </c>
+      <c r="U86" s="6">
+        <f t="shared" si="180"/>
+        <v>-9701</v>
+      </c>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -7312,118 +7356,111 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="6">
-        <v>-1077</v>
-      </c>
-      <c r="P87" s="6">
-        <f>-2432-O87</f>
-        <v>-1355</v>
-      </c>
-      <c r="Q87" s="6">
-        <f>-4007-P87-O87</f>
-        <v>-1575</v>
-      </c>
-      <c r="R87" s="6">
-        <v>-1507</v>
-      </c>
-      <c r="S87" s="6">
-        <v>-925</v>
-      </c>
-      <c r="T87" s="6">
-        <v>-1002</v>
-      </c>
-      <c r="U87" s="6">
-        <f>-2938-T87-S87</f>
-        <v>-1011</v>
-      </c>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="7" t="s">
+    <row r="88" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6">
+        <v>-1077</v>
+      </c>
+      <c r="P88" s="6">
+        <f>-2432-O88</f>
+        <v>-1355</v>
+      </c>
+      <c r="Q88" s="6">
+        <f>-4007-P88-O88</f>
+        <v>-1575</v>
+      </c>
+      <c r="R88" s="6">
+        <v>-1507</v>
+      </c>
+      <c r="S88" s="6">
+        <v>-925</v>
+      </c>
+      <c r="T88" s="6">
+        <v>-1002</v>
+      </c>
+      <c r="U88" s="6">
+        <f>-2938-T88-S88</f>
+        <v>-1011</v>
+      </c>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+    </row>
+    <row r="89" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8">
         <v>-3939</v>
       </c>
-      <c r="P88" s="8">
-        <f>-11018-O88</f>
+      <c r="P89" s="8">
+        <f>-11018-O89</f>
         <v>-7079</v>
       </c>
-      <c r="Q88" s="8">
-        <f>-24476-P88-O88</f>
+      <c r="Q89" s="8">
+        <f>-24476-P89-O89</f>
         <v>-13458</v>
       </c>
-      <c r="R88" s="8">
+      <c r="R89" s="8">
         <v>-20063</v>
       </c>
-      <c r="S88" s="8">
+      <c r="S89" s="8">
         <v>-9506</v>
       </c>
-      <c r="T88" s="8">
+      <c r="T89" s="8">
         <v>-5233</v>
       </c>
-      <c r="U88" s="8">
-        <f>-21093-T88-S88</f>
+      <c r="U89" s="8">
+        <f>-21093-T89-S89</f>
         <v>-6354</v>
       </c>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-    </row>
-    <row r="89" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6">
-        <v>0</v>
-      </c>
-      <c r="T89" s="6">
-        <v>0</v>
-      </c>
-      <c r="U89" s="6">
-        <f>9921-T89-S89</f>
-        <v>9921</v>
-      </c>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
     </row>
     <row r="90" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -7437,32 +7474,19 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6">
-        <f>-151+32-50</f>
-        <v>-169</v>
-      </c>
-      <c r="P90" s="6">
-        <f>-274-O90+3-13</f>
-        <v>-115</v>
-      </c>
-      <c r="Q90" s="6">
-        <f>-505+15-13-P90-O90</f>
-        <v>-219</v>
-      </c>
-      <c r="R90" s="6">
-        <v>-172</v>
-      </c>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
       <c r="S90" s="6">
-        <f>-233+20-16</f>
-        <v>-229</v>
+        <v>0</v>
       </c>
       <c r="T90" s="6">
-        <f>-219-79-30</f>
-        <v>-328</v>
+        <v>0</v>
       </c>
       <c r="U90" s="6">
-        <f>-615-250-101-T90-S90</f>
-        <v>-409</v>
+        <f>9921-T90-S90</f>
+        <v>9921</v>
       </c>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
@@ -7471,7 +7495,7 @@
     </row>
     <row r="91" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -7486,299 +7510,347 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6">
-        <f t="shared" ref="O91:Q91" si="175">SUM(O87:O90)</f>
-        <v>-5185</v>
+        <f>-151+32-50</f>
+        <v>-169</v>
       </c>
       <c r="P91" s="6">
-        <f t="shared" si="175"/>
-        <v>-8549</v>
+        <f>-274-O91+3-13</f>
+        <v>-115</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="175"/>
-        <v>-15252</v>
+        <f>-505+15-13-P91-O91</f>
+        <v>-219</v>
       </c>
       <c r="R91" s="6">
-        <f t="shared" ref="R91" si="176">SUM(R87:R90)</f>
-        <v>-21742</v>
+        <v>-172</v>
       </c>
       <c r="S91" s="6">
-        <f>SUM(S87:S90)</f>
-        <v>-10660</v>
+        <f>-233+20-16</f>
+        <v>-229</v>
       </c>
       <c r="T91" s="6">
-        <f>SUM(T87:T90)</f>
-        <v>-6563</v>
+        <f>-219-79-30</f>
+        <v>-328</v>
       </c>
       <c r="U91" s="6">
-        <f>SUM(U87:U90)</f>
-        <v>2147</v>
+        <f>-615-250-101-T91-S91</f>
+        <v>-409</v>
       </c>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O92" s="1">
-        <v>-246</v>
-      </c>
-      <c r="P92" s="1">
-        <f>-129-O92</f>
-        <v>117</v>
-      </c>
-      <c r="Q92" s="1">
-        <f>-344-P92-O92</f>
-        <v>-215</v>
-      </c>
-      <c r="R92" s="1">
-        <v>-130</v>
+    <row r="92" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6">
+        <f t="shared" ref="O92:Q92" si="181">SUM(O88:O91)</f>
+        <v>-5185</v>
+      </c>
+      <c r="P92" s="6">
+        <f t="shared" si="181"/>
+        <v>-8549</v>
+      </c>
+      <c r="Q92" s="6">
+        <f t="shared" si="181"/>
+        <v>-15252</v>
+      </c>
+      <c r="R92" s="6">
+        <f t="shared" ref="R92" si="182">SUM(R88:R91)</f>
+        <v>-21742</v>
       </c>
       <c r="S92" s="6">
-        <v>-149</v>
-      </c>
-      <c r="T92" s="1">
-        <v>-550</v>
+        <f>SUM(S88:S91)</f>
+        <v>-10660</v>
+      </c>
+      <c r="T92" s="6">
+        <f>SUM(T88:T91)</f>
+        <v>-6563</v>
       </c>
       <c r="U92" s="6">
-        <f>-1063-T92-S92</f>
-        <v>-364</v>
-      </c>
+        <f>SUM(U88:U91)</f>
+        <v>2147</v>
+      </c>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="O93" s="1">
+        <v>-246</v>
+      </c>
+      <c r="P93" s="1">
+        <f>-129-O93</f>
+        <v>117</v>
+      </c>
+      <c r="Q93" s="1">
+        <f>-344-P93-O93</f>
+        <v>-215</v>
+      </c>
+      <c r="R93" s="1">
+        <v>-130</v>
+      </c>
+      <c r="S93" s="6">
+        <v>-149</v>
+      </c>
+      <c r="T93" s="1">
+        <v>-550</v>
+      </c>
+      <c r="U93" s="6">
+        <f>-1063-T93-S93</f>
+        <v>-364</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>81</v>
       </c>
-      <c r="O93" s="6">
-        <f t="shared" ref="O93:U93" si="177">+O92+O91+O85+O80</f>
+      <c r="O94" s="6">
+        <f t="shared" ref="O94:U94" si="183">+O93+O92+O86+O81</f>
         <v>1937</v>
       </c>
-      <c r="P93" s="6">
-        <f t="shared" si="177"/>
+      <c r="P94" s="6">
+        <f t="shared" si="183"/>
         <v>-3380</v>
       </c>
-      <c r="Q93" s="6">
-        <f t="shared" si="177"/>
+      <c r="Q94" s="6">
+        <f t="shared" si="183"/>
         <v>-1707</v>
       </c>
-      <c r="R93" s="6">
-        <f t="shared" si="177"/>
+      <c r="R94" s="6">
+        <f t="shared" si="183"/>
         <v>2061</v>
       </c>
-      <c r="S93" s="6">
-        <f t="shared" si="177"/>
+      <c r="S94" s="6">
+        <f t="shared" si="183"/>
         <v>-1512</v>
       </c>
-      <c r="T93" s="6">
-        <f t="shared" si="177"/>
+      <c r="T94" s="6">
+        <f t="shared" si="183"/>
         <v>-1875</v>
       </c>
-      <c r="U93" s="6">
-        <f t="shared" si="177"/>
+      <c r="U94" s="6">
+        <f t="shared" si="183"/>
         <v>1773</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S94" s="6"/>
-    </row>
-    <row r="95" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S95" s="6"/>
+    </row>
+    <row r="96" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6">
         <v>43030</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J96" s="6">
         <v>44942</v>
       </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6">
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6">
         <v>71970</v>
       </c>
-      <c r="S95" s="6">
+      <c r="S96" s="6">
         <v>77805</v>
       </c>
-      <c r="T95" s="6">
+      <c r="T96" s="6">
         <v>83553</v>
       </c>
-      <c r="U95" s="6">
+      <c r="U96" s="6">
         <v>87314</v>
       </c>
-      <c r="V95" s="6">
+      <c r="V96" s="6">
         <v>86000</v>
       </c>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-    </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>200</v>
       </c>
-      <c r="S96" s="6">
-        <f>+S95-R95</f>
+      <c r="S97" s="6">
+        <f>+S96-R96</f>
         <v>5835</v>
       </c>
-      <c r="T96" s="6">
-        <f>+T95-S95</f>
+      <c r="T97" s="6">
+        <f>+T96-S96</f>
         <v>5748</v>
       </c>
-      <c r="U96" s="6">
-        <f>+U95-T95</f>
+      <c r="U97" s="6">
+        <f>+U96-T96</f>
         <v>3761</v>
       </c>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-    </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>127</v>
-      </c>
-      <c r="O98" s="6">
-        <f>+O80+O82</f>
-        <v>7970</v>
-      </c>
-      <c r="P98" s="6">
-        <f t="shared" ref="P98:S98" si="178">+P80+P82</f>
-        <v>8635</v>
-      </c>
-      <c r="Q98" s="6">
-        <f t="shared" si="178"/>
-        <v>9776</v>
-      </c>
-      <c r="R98" s="6">
-        <f t="shared" si="178"/>
-        <v>12734</v>
-      </c>
-      <c r="S98" s="6">
-        <f t="shared" si="178"/>
-        <v>8761</v>
-      </c>
-      <c r="T98" s="6">
-        <f>+T80+T82</f>
-        <v>4669</v>
-      </c>
-      <c r="U98" s="6">
-        <f>+U80+U82</f>
-        <v>336</v>
-      </c>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="O99" s="6">
+        <f>+O81+O83</f>
+        <v>7970</v>
+      </c>
+      <c r="P99" s="6">
+        <f t="shared" ref="P99:S99" si="184">+P81+P83</f>
+        <v>8635</v>
+      </c>
+      <c r="Q99" s="6">
+        <f t="shared" si="184"/>
+        <v>9776</v>
+      </c>
+      <c r="R99" s="6">
+        <f t="shared" si="184"/>
+        <v>12734</v>
+      </c>
+      <c r="S99" s="6">
+        <f t="shared" si="184"/>
+        <v>8761</v>
+      </c>
+      <c r="T99" s="6">
+        <f>+T81+T83</f>
+        <v>4669</v>
+      </c>
+      <c r="U99" s="6">
+        <f>+U81+U83</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>128</v>
       </c>
-      <c r="R99" s="6">
-        <f t="shared" ref="R99:S99" si="179">SUM(O98:R98)</f>
+      <c r="R100" s="6">
+        <f t="shared" ref="R100:S100" si="185">SUM(O99:R99)</f>
         <v>39115</v>
       </c>
-      <c r="S99" s="6">
-        <f t="shared" si="179"/>
+      <c r="S100" s="6">
+        <f t="shared" si="185"/>
         <v>39906</v>
       </c>
-      <c r="T99" s="6">
-        <f>SUM(Q98:T98)</f>
+      <c r="T100" s="6">
+        <f>SUM(Q99:T99)</f>
         <v>35940</v>
       </c>
-      <c r="U99" s="6">
-        <f>SUM(R98:U98)</f>
+      <c r="U100" s="6">
+        <f>SUM(R99:U99)</f>
         <v>26500</v>
       </c>
     </row>
-    <row r="101" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+    <row r="102" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6">
         <v>-2631</v>
       </c>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6">
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6">
         <v>-3672</v>
       </c>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-    </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>198</v>
       </c>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10">
-        <f>SUM(Q23:R23)/SUM(M23:N23)-1</f>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10">
+        <f>SUM(Q24:R24)/SUM(M24:N24)-1</f>
         <v>1.0013947001394699</v>
       </c>
-      <c r="S102" s="10">
-        <f>SUM(R23:S23)/SUM(N23:O23)-1</f>
+      <c r="S103" s="10">
+        <f>SUM(R24:S24)/SUM(N24:O24)-1</f>
         <v>0.25659472422062346</v>
       </c>
-      <c r="T102" s="10">
-        <f>SUM(S23:T23)/SUM(O23:P23)-1</f>
+      <c r="T103" s="10">
+        <f>SUM(S24:T24)/SUM(O24:P24)-1</f>
         <v>0.36710369487485095</v>
       </c>
-      <c r="U102" s="10">
-        <f>SUM(T23:U23)/SUM(P23:Q23)-1</f>
+      <c r="U103" s="10">
+        <f>SUM(T24:U24)/SUM(P24:Q24)-1</f>
         <v>-0.14600231749710313</v>
-      </c>
-    </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>13054</v>
-      </c>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6">
-        <v>9336</v>
       </c>
     </row>
     <row r="105" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q105" s="6">
+        <v>13054</v>
+      </c>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>203</v>
       </c>
-      <c r="U105" s="10">
-        <f>+U104/U25</f>
+      <c r="U106" s="10">
+        <f>+U105/U26</f>
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>204</v>
       </c>
     </row>
